--- a/log/c660_wt_log.xlsx
+++ b/log/c660_wt_log.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="166">
   <si>
     <t>Benzene Column C660 Operation_Vent Gas Production Rate and Composition_Hydrogen_wt%</t>
   </si>
@@ -509,6 +509,9 @@
   </si>
   <si>
     <t>test001</t>
+  </si>
+  <si>
+    <t>98</t>
   </si>
 </sst>
 </file>
@@ -866,7 +869,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:FI2"/>
+  <dimension ref="A1:FI3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1863,6 +1866,503 @@
         <v>0</v>
       </c>
     </row>
+    <row r="3" spans="1:165">
+      <c r="A3" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0.2829980769162901</v>
+      </c>
+      <c r="D3">
+        <v>17.20865220963444</v>
+      </c>
+      <c r="E3">
+        <v>27.02228877409043</v>
+      </c>
+      <c r="F3">
+        <v>11.67192909667668</v>
+      </c>
+      <c r="G3">
+        <v>7.97209331574002</v>
+      </c>
+      <c r="H3">
+        <v>1.839897680183396</v>
+      </c>
+      <c r="I3">
+        <v>33.90808201927426</v>
+      </c>
+      <c r="J3">
+        <v>0.07018907643379294</v>
+      </c>
+      <c r="K3">
+        <v>0.009663067050383257</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>3.000632467557481e-05</v>
+      </c>
+      <c r="N3">
+        <v>9.395739922953452e-07</v>
+      </c>
+      <c r="O3">
+        <v>7.967626836597032e-09</v>
+      </c>
+      <c r="P3">
+        <v>2.995082100499908e-14</v>
+      </c>
+      <c r="Q3">
+        <v>9.184584142720609e-15</v>
+      </c>
+      <c r="R3">
+        <v>4.908982249777893e-17</v>
+      </c>
+      <c r="S3">
+        <v>2.300898033378401e-18</v>
+      </c>
+      <c r="T3">
+        <v>1.227277174542531e-18</v>
+      </c>
+      <c r="U3">
+        <v>1.76762425231288e-21</v>
+      </c>
+      <c r="V3">
+        <v>2.207457347173029e-19</v>
+      </c>
+      <c r="W3">
+        <v>1.272365601188932e-29</v>
+      </c>
+      <c r="X3">
+        <v>6.963739433709042e-22</v>
+      </c>
+      <c r="Y3">
+        <v>1.266297074519154e-08</v>
+      </c>
+      <c r="Z3">
+        <v>6.677689036580298e-27</v>
+      </c>
+      <c r="AA3">
+        <v>2.87449624434755e-27</v>
+      </c>
+      <c r="AB3">
+        <v>0.001894429751204491</v>
+      </c>
+      <c r="AC3">
+        <v>1.280177065042032e-27</v>
+      </c>
+      <c r="AD3">
+        <v>0.0004108275622597122</v>
+      </c>
+      <c r="AE3">
+        <v>3.581959065413232e-27</v>
+      </c>
+      <c r="AF3">
+        <v>2.058650721443303e-08</v>
+      </c>
+      <c r="AG3">
+        <v>8.713352830705952e-10</v>
+      </c>
+      <c r="AH3">
+        <v>0.009815170434901018</v>
+      </c>
+      <c r="AI3">
+        <v>0.00205526547713837</v>
+      </c>
+      <c r="AJ3">
+        <v>2.753386502349118e-09</v>
+      </c>
+      <c r="AK3">
+        <v>0</v>
+      </c>
+      <c r="AL3">
+        <v>3.279396239187166e-11</v>
+      </c>
+      <c r="AM3">
+        <v>1.473840835602089e-12</v>
+      </c>
+      <c r="AN3">
+        <v>1.840132984287623e-15</v>
+      </c>
+      <c r="AO3">
+        <v>0</v>
+      </c>
+      <c r="AP3">
+        <v>0</v>
+      </c>
+      <c r="AQ3">
+        <v>0</v>
+      </c>
+      <c r="AR3">
+        <v>0.000472971198872803</v>
+      </c>
+      <c r="AS3">
+        <v>0.1779809784411806</v>
+      </c>
+      <c r="AT3">
+        <v>0.9499304314596471</v>
+      </c>
+      <c r="AU3">
+        <v>1.455211660730283</v>
+      </c>
+      <c r="AV3">
+        <v>2.5529200935067</v>
+      </c>
+      <c r="AW3">
+        <v>1.810558326101703</v>
+      </c>
+      <c r="AX3">
+        <v>92.89136200305634</v>
+      </c>
+      <c r="AY3">
+        <v>0.128100789922939</v>
+      </c>
+      <c r="AZ3">
+        <v>0.03169040364843856</v>
+      </c>
+      <c r="BA3">
+        <v>0</v>
+      </c>
+      <c r="BB3">
+        <v>0.0001546627487487045</v>
+      </c>
+      <c r="BC3">
+        <v>8.180124843077375e-06</v>
+      </c>
+      <c r="BD3">
+        <v>6.549138833467437e-08</v>
+      </c>
+      <c r="BE3">
+        <v>3.757749847040179e-13</v>
+      </c>
+      <c r="BF3">
+        <v>1.167996486063166e-13</v>
+      </c>
+      <c r="BG3">
+        <v>1.10350753692007e-15</v>
+      </c>
+      <c r="BH3">
+        <v>5.709606129577307e-17</v>
+      </c>
+      <c r="BI3">
+        <v>3.278573358324985e-17</v>
+      </c>
+      <c r="BJ3">
+        <v>5.746130680552152e-20</v>
+      </c>
+      <c r="BK3">
+        <v>5.907761359791304e-18</v>
+      </c>
+      <c r="BL3">
+        <v>4.78806909359871e-28</v>
+      </c>
+      <c r="BM3">
+        <v>1.962813065601032e-20</v>
+      </c>
+      <c r="BN3">
+        <v>1.71655712321195e-09</v>
+      </c>
+      <c r="BO3">
+        <v>3.033024354476916e-25</v>
+      </c>
+      <c r="BP3">
+        <v>1.486901276397588e-25</v>
+      </c>
+      <c r="BQ3">
+        <v>0.0002585404700937104</v>
+      </c>
+      <c r="BR3">
+        <v>5.754505869406042e-26</v>
+      </c>
+      <c r="BS3">
+        <v>5.935809619209467e-05</v>
+      </c>
+      <c r="BT3">
+        <v>1.5015170109137e-25</v>
+      </c>
+      <c r="BU3">
+        <v>2.506181572090628e-09</v>
+      </c>
+      <c r="BV3">
+        <v>1.080356343265002e-10</v>
+      </c>
+      <c r="BW3">
+        <v>0.0009929543890081596</v>
+      </c>
+      <c r="BX3">
+        <v>0.0002985759599053139</v>
+      </c>
+      <c r="BY3">
+        <v>3.177852267966325e-10</v>
+      </c>
+      <c r="BZ3">
+        <v>0</v>
+      </c>
+      <c r="CA3">
+        <v>4.450671794471033e-12</v>
+      </c>
+      <c r="CB3">
+        <v>2.096164223704123e-13</v>
+      </c>
+      <c r="CC3">
+        <v>2.365606285307186e-16</v>
+      </c>
+      <c r="CD3">
+        <v>0</v>
+      </c>
+      <c r="CE3">
+        <v>0</v>
+      </c>
+      <c r="CF3">
+        <v>0</v>
+      </c>
+      <c r="CG3">
+        <v>2.570125532387385e-07</v>
+      </c>
+      <c r="CH3">
+        <v>6.480669121031994e-05</v>
+      </c>
+      <c r="CI3">
+        <v>0.000324259271246774</v>
+      </c>
+      <c r="CJ3">
+        <v>0.0006325269440936675</v>
+      </c>
+      <c r="CK3">
+        <v>0.002080975561163864</v>
+      </c>
+      <c r="CL3">
+        <v>0.02373863881180429</v>
+      </c>
+      <c r="CM3">
+        <v>99.90400181559876</v>
+      </c>
+      <c r="CN3">
+        <v>0.02429762456904084</v>
+      </c>
+      <c r="CO3">
+        <v>0.04196874873488335</v>
+      </c>
+      <c r="CP3">
+        <v>0</v>
+      </c>
+      <c r="CQ3">
+        <v>0.001896493890038333</v>
+      </c>
+      <c r="CR3">
+        <v>0.0009900824625784601</v>
+      </c>
+      <c r="CS3">
+        <v>3.770105912454835e-06</v>
+      </c>
+      <c r="CT3">
+        <v>2.291665686501041e-10</v>
+      </c>
+      <c r="CU3">
+        <v>8.535607869967726e-11</v>
+      </c>
+      <c r="CV3">
+        <v>5.957013626303139e-12</v>
+      </c>
+      <c r="CW3">
+        <v>4.505136245210457e-13</v>
+      </c>
+      <c r="CX3">
+        <v>3.156173558195632e-13</v>
+      </c>
+      <c r="CY3">
+        <v>1.371132841565176e-15</v>
+      </c>
+      <c r="CZ3">
+        <v>3.596102778303896e-14</v>
+      </c>
+      <c r="DA3">
+        <v>2.905731466006121e-23</v>
+      </c>
+      <c r="DB3">
+        <v>4.035679187988574e-16</v>
+      </c>
+      <c r="DC3">
+        <v>2.587635352046966e-26</v>
+      </c>
+      <c r="DD3">
+        <v>3.141749202265302e-20</v>
+      </c>
+      <c r="DE3">
+        <v>1.644526383384263e-20</v>
+      </c>
+      <c r="DF3">
+        <v>1.722315060566383e-23</v>
+      </c>
+      <c r="DG3">
+        <v>7.252923000689166e-21</v>
+      </c>
+      <c r="DH3">
+        <v>1.737610470955635e-25</v>
+      </c>
+      <c r="DI3">
+        <v>1.838445094406511e-20</v>
+      </c>
+      <c r="DJ3">
+        <v>2.128947865016408e-11</v>
+      </c>
+      <c r="DK3">
+        <v>8.759952693515809e-13</v>
+      </c>
+      <c r="DL3">
+        <v>2.455215083118692e-27</v>
+      </c>
+      <c r="DM3">
+        <v>2.808411393688568e-27</v>
+      </c>
+      <c r="DN3">
+        <v>3.217626936604635e-12</v>
+      </c>
+      <c r="DO3">
+        <v>0</v>
+      </c>
+      <c r="DP3">
+        <v>4.292129160521931e-14</v>
+      </c>
+      <c r="DQ3">
+        <v>1.564693733433486e-15</v>
+      </c>
+      <c r="DR3">
+        <v>1.754139697919924e-18</v>
+      </c>
+      <c r="DS3">
+        <v>0</v>
+      </c>
+      <c r="DT3">
+        <v>0</v>
+      </c>
+      <c r="DU3">
+        <v>0</v>
+      </c>
+      <c r="DV3">
+        <v>4.763791798359572e-08</v>
+      </c>
+      <c r="DW3">
+        <v>3.660529897961663e-06</v>
+      </c>
+      <c r="DX3">
+        <v>6.204459621055411e-06</v>
+      </c>
+      <c r="DY3">
+        <v>2.366951021600325e-27</v>
+      </c>
+      <c r="DZ3">
+        <v>1.105525470701315e-19</v>
+      </c>
+      <c r="EA3">
+        <v>3.313164969260046e-12</v>
+      </c>
+      <c r="EB3">
+        <v>0.005017443302339888</v>
+      </c>
+      <c r="EC3">
+        <v>5.30677525794214e-07</v>
+      </c>
+      <c r="ED3">
+        <v>0.0001322110448239127</v>
+      </c>
+      <c r="EE3">
+        <v>0</v>
+      </c>
+      <c r="EF3">
+        <v>0.01960656680083591</v>
+      </c>
+      <c r="EG3">
+        <v>91.71417492784079</v>
+      </c>
+      <c r="EH3">
+        <v>0.03437653014845979</v>
+      </c>
+      <c r="EI3">
+        <v>0.0281503384460918</v>
+      </c>
+      <c r="EJ3">
+        <v>0.02298213587027522</v>
+      </c>
+      <c r="EK3">
+        <v>3.945945975428224</v>
+      </c>
+      <c r="EL3">
+        <v>1.362500585774727</v>
+      </c>
+      <c r="EM3">
+        <v>2.235561206439574</v>
+      </c>
+      <c r="EN3">
+        <v>0.3927214179943278</v>
+      </c>
+      <c r="EO3">
+        <v>0.05023969084621854</v>
+      </c>
+      <c r="EP3">
+        <v>3.315893539610886e-07</v>
+      </c>
+      <c r="EQ3">
+        <v>0.1113765847168547</v>
+      </c>
+      <c r="ER3">
+        <v>6.239960878212867e-08</v>
+      </c>
+      <c r="ES3">
+        <v>0.004367482545860789</v>
+      </c>
+      <c r="ET3">
+        <v>0.004356958661886095</v>
+      </c>
+      <c r="EU3">
+        <v>0.008703431164657459</v>
+      </c>
+      <c r="EV3">
+        <v>0.002115973801592517</v>
+      </c>
+      <c r="EW3">
+        <v>0.002116045297650768</v>
+      </c>
+      <c r="EX3">
+        <v>0.008825592784068029</v>
+      </c>
+      <c r="EY3">
+        <v>8.719266520967588e-08</v>
+      </c>
+      <c r="EZ3">
+        <v>3.555076425818281e-09</v>
+      </c>
+      <c r="FA3">
+        <v>0.03739922055464327</v>
+      </c>
+      <c r="FB3">
+        <v>0.009318739278235812</v>
+      </c>
+      <c r="FC3">
+        <v>1.303947498733482e-08</v>
+      </c>
+      <c r="FD3">
+        <v>0</v>
+      </c>
+      <c r="FE3">
+        <v>1.657118745675466e-10</v>
+      </c>
+      <c r="FF3">
+        <v>7.679145647580409e-12</v>
+      </c>
+      <c r="FG3">
+        <v>8.375088392826659e-15</v>
+      </c>
+      <c r="FH3">
+        <v>0</v>
+      </c>
+      <c r="FI3">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/log/c660_wt_log.xlsx
+++ b/log/c660_wt_log.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="165">
   <si>
     <t>Benzene Column C660 Operation_Vent Gas Production Rate and Composition_Hydrogen_wt%</t>
   </si>
@@ -508,10 +508,7 @@
     <t>Benzene Column C660 Operation_Bottoms Production Rate and Composition_Oxygen_wt%</t>
   </si>
   <si>
-    <t>test001</t>
-  </si>
-  <si>
-    <t>98</t>
+    <t>20210123</t>
   </si>
 </sst>
 </file>
@@ -869,7 +866,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:FI3"/>
+  <dimension ref="A1:FI2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1377,118 +1374,118 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.3002482657971035</v>
+        <v>0.2238093958309519</v>
       </c>
       <c r="D2">
-        <v>17.94193741606161</v>
+        <v>14.22528435516968</v>
       </c>
       <c r="E2">
-        <v>27.10212802950287</v>
+        <v>26.03165507306592</v>
       </c>
       <c r="F2">
-        <v>10.89351216577974</v>
+        <v>15.3007380385487</v>
       </c>
       <c r="G2">
-        <v>7.304977392431969</v>
+        <v>11.57907092473291</v>
       </c>
       <c r="H2">
-        <v>1.819155843836874</v>
+        <v>1.006421148887458</v>
       </c>
       <c r="I2">
-        <v>34.54163626440807</v>
+        <v>31.56924181756779</v>
       </c>
       <c r="J2">
-        <v>0.07167182724211224</v>
+        <v>0.0504126915125728</v>
       </c>
       <c r="K2">
-        <v>0.009927640339169833</v>
+        <v>0.00962712416156607</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>3.067982705550755e-05</v>
+        <v>3.661077188908109E-05</v>
       </c>
       <c r="N2">
-        <v>9.682684047491264e-07</v>
+        <v>1.108946258760249E-06</v>
       </c>
       <c r="O2">
-        <v>8.275807995511846e-09</v>
+        <v>8.650256211354694E-09</v>
       </c>
       <c r="P2">
-        <v>3.099712947197137e-14</v>
+        <v>3.429267385850474E-14</v>
       </c>
       <c r="Q2">
-        <v>9.51305995627598e-15</v>
+        <v>1.06212062383282E-14</v>
       </c>
       <c r="R2">
-        <v>5.08528503994848e-17</v>
+        <v>5.425713224548352E-17</v>
       </c>
       <c r="S2">
-        <v>2.386249399992289e-18</v>
+        <v>2.430016965012215E-18</v>
       </c>
       <c r="T2">
-        <v>1.273041291718297e-18</v>
+        <v>1.286707526378655E-18</v>
       </c>
       <c r="U2">
-        <v>1.831458016928626e-21</v>
+        <v>1.851600421323386E-21</v>
       </c>
       <c r="V2">
-        <v>2.29799333837499e-19</v>
+        <v>2.348530353606958E-19</v>
       </c>
       <c r="W2">
-        <v>1.333577763955481e-29</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>7.226457243582749e-22</v>
+        <v>7.70205324480189E-22</v>
       </c>
       <c r="Y2">
-        <v>1.45249042020685e-08</v>
+        <v>1.470338572609464E-10</v>
       </c>
       <c r="Z2">
-        <v>6.957479407084901e-27</v>
+        <v>6.760978565212185E-27</v>
       </c>
       <c r="AA2">
-        <v>2.992071522923168e-27</v>
+        <v>2.581652008922364E-27</v>
       </c>
       <c r="AB2">
-        <v>0.002096975346114561</v>
+        <v>0.0004381489789648212</v>
       </c>
       <c r="AC2">
-        <v>1.330432429848501e-27</v>
+        <v>1.258530457638841E-27</v>
       </c>
       <c r="AD2">
-        <v>0.0004784828831195672</v>
+        <v>0.0001000464422219743</v>
       </c>
       <c r="AE2">
-        <v>3.717866242746951e-27</v>
+        <v>3.981436574888938E-27</v>
       </c>
       <c r="AF2">
-        <v>2.176946155475154e-08</v>
+        <v>2.480890176472341E-10</v>
       </c>
       <c r="AG2">
-        <v>9.358200558254854e-10</v>
+        <v>1.203285027336245E-11</v>
       </c>
       <c r="AH2">
-        <v>0.01002855623693562</v>
+        <v>0.002474110082547323</v>
       </c>
       <c r="AI2">
-        <v>0.002169443451433199</v>
+        <v>0.0006893961863716382</v>
       </c>
       <c r="AJ2">
-        <v>3.040809950926144e-09</v>
+        <v>5.622550432812501E-11</v>
       </c>
       <c r="AK2">
         <v>0</v>
       </c>
       <c r="AL2">
-        <v>3.884072366509217e-11</v>
+        <v>4.980909041472473E-13</v>
       </c>
       <c r="AM2">
-        <v>1.747089117056149e-12</v>
+        <v>2.282788931326738E-14</v>
       </c>
       <c r="AN2">
-        <v>1.917693709672836e-15</v>
+        <v>1.686251494073576E-17</v>
       </c>
       <c r="AO2">
         <v>0</v>
@@ -1500,118 +1497,118 @@
         <v>0</v>
       </c>
       <c r="AR2">
-        <v>0.0005310119818187104</v>
+        <v>0.000390984918772288</v>
       </c>
       <c r="AS2">
-        <v>0.1875713245791334</v>
+        <v>0.1677623976439571</v>
       </c>
       <c r="AT2">
-        <v>0.956637111646077</v>
+        <v>0.7950726592398992</v>
       </c>
       <c r="AU2">
-        <v>1.357830604784106</v>
+        <v>1.441583719301387</v>
       </c>
       <c r="AV2">
-        <v>2.327430698324394</v>
+        <v>2.434330010487489</v>
       </c>
       <c r="AW2">
-        <v>1.782427513336776</v>
+        <v>0.8237987922126566</v>
       </c>
       <c r="AX2">
-        <v>93.22594450390201</v>
+        <v>94.19865364638633</v>
       </c>
       <c r="AY2">
-        <v>0.1284220395102089</v>
+        <v>0.09993028112443648</v>
       </c>
       <c r="AZ2">
-        <v>0.03174623417958071</v>
+        <v>0.03620053421078519</v>
       </c>
       <c r="BA2">
         <v>0</v>
       </c>
       <c r="BB2">
-        <v>0.0001532939948454062</v>
+        <v>0.0002349621341704806</v>
       </c>
       <c r="BC2">
-        <v>8.205184090301815e-06</v>
+        <v>1.150762838317013E-05</v>
       </c>
       <c r="BD2">
-        <v>6.637476701237976e-08</v>
+        <v>1.017642724809094E-07</v>
       </c>
       <c r="BE2">
-        <v>3.795307665729498e-13</v>
+        <v>5.351056306360087E-13</v>
       </c>
       <c r="BF2">
-        <v>1.18082333380944e-13</v>
+        <v>1.671422800192575E-13</v>
       </c>
       <c r="BG2">
-        <v>1.114136153184129e-15</v>
+        <v>1.488885916554119E-15</v>
       </c>
       <c r="BH2">
-        <v>5.765733033985512e-17</v>
+        <v>7.247729552778536E-17</v>
       </c>
       <c r="BI2">
-        <v>3.303143007110814e-17</v>
+        <v>4.09282249021126E-17</v>
       </c>
       <c r="BJ2">
-        <v>5.796859771842763e-20</v>
+        <v>7.234098653146126E-20</v>
       </c>
       <c r="BK2">
-        <v>5.958305530620242e-18</v>
+        <v>8.687525050498624E-18</v>
       </c>
       <c r="BL2">
-        <v>4.840529302885549e-28</v>
+        <v>1.770925559364975E-35</v>
       </c>
       <c r="BM2">
-        <v>1.988218892620574e-20</v>
+        <v>2.8812606388374E-20</v>
       </c>
       <c r="BN2">
-        <v>1.4370808783708e-09</v>
+        <v>1.457421230825317E-10</v>
       </c>
       <c r="BO2">
-        <v>3.042974114845201e-25</v>
+        <v>1.995082365083717E-25</v>
       </c>
       <c r="BP2">
-        <v>1.516788843404651e-25</v>
+        <v>8.080916348262243E-26</v>
       </c>
       <c r="BQ2">
-        <v>0.0002113650638902036</v>
+        <v>0.0002565464722289522</v>
       </c>
       <c r="BR2">
-        <v>5.839587194768486e-26</v>
+        <v>5.53780191037831E-26</v>
       </c>
       <c r="BS2">
-        <v>5.152290807544359e-05</v>
+        <v>4.288962670623711E-05</v>
       </c>
       <c r="BT2">
-        <v>1.523004519878898e-25</v>
+        <v>2.229771643397316E-25</v>
       </c>
       <c r="BU2">
-        <v>2.094370435021323e-09</v>
+        <v>1.346188116684815E-10</v>
       </c>
       <c r="BV2">
-        <v>9.751030676946272e-11</v>
+        <v>9.278543421760243E-12</v>
       </c>
       <c r="BW2">
-        <v>0.0007995376612070006</v>
+        <v>0.001326586294505533</v>
       </c>
       <c r="BX2">
-        <v>0.0002349626703567963</v>
+        <v>0.000404380215021782</v>
       </c>
       <c r="BY2">
-        <v>2.651912179864465e-10</v>
+        <v>4.841071205616709E-11</v>
       </c>
       <c r="BZ2">
         <v>0</v>
       </c>
       <c r="CA2">
-        <v>3.821297673722385e-12</v>
+        <v>2.209519479248759E-13</v>
       </c>
       <c r="CB2">
-        <v>1.769508757572822e-13</v>
+        <v>1.422221898029178E-14</v>
       </c>
       <c r="CC2">
-        <v>2.114728049446116e-16</v>
+        <v>1.661427161627461E-17</v>
       </c>
       <c r="CD2">
         <v>0</v>
@@ -1623,118 +1620,118 @@
         <v>0</v>
       </c>
       <c r="CG2">
-        <v>2.578207307166588e-07</v>
+        <v>2.611619165664881E-07</v>
       </c>
       <c r="CH2">
-        <v>6.497432648933954e-05</v>
+        <v>6.548106156022994E-05</v>
       </c>
       <c r="CI2">
-        <v>0.000324654502522554</v>
+        <v>0.0003351467957218122</v>
       </c>
       <c r="CJ2">
-        <v>0.0006307595626369499</v>
+        <v>0.0006322954580317532</v>
       </c>
       <c r="CK2">
-        <v>0.002093921068796237</v>
+        <v>0.001841366494926257</v>
       </c>
       <c r="CL2">
-        <v>0.02358193617217312</v>
+        <v>0.01387572188142496</v>
       </c>
       <c r="CM2">
-        <v>99.90417600066817</v>
+        <v>99.914273029653</v>
       </c>
       <c r="CN2">
-        <v>0.02428788822664751</v>
+        <v>0.01905931783804017</v>
       </c>
       <c r="CO2">
-        <v>0.04194233129766184</v>
+        <v>0.04648673572536436</v>
       </c>
       <c r="CP2">
         <v>0</v>
       </c>
       <c r="CQ2">
-        <v>0.001896962881130267</v>
+        <v>0.002355411691179739</v>
       </c>
       <c r="CR2">
-        <v>0.000996516825489825</v>
+        <v>0.001070790671749802</v>
       </c>
       <c r="CS2">
-        <v>3.796299127434652e-06</v>
+        <v>4.441198563708411E-06</v>
       </c>
       <c r="CT2">
-        <v>2.30846113548464e-10</v>
+        <v>2.643011672174225E-10</v>
       </c>
       <c r="CU2">
-        <v>8.606067892805705e-11</v>
+        <v>9.6649650075585E-11</v>
       </c>
       <c r="CV2">
-        <v>6.001581157517392e-12</v>
+        <v>6.164353812253206E-12</v>
       </c>
       <c r="CW2">
-        <v>4.541920536485588e-13</v>
+        <v>4.579628988461197E-13</v>
       </c>
       <c r="CX2">
-        <v>3.179379943138417e-13</v>
+        <v>3.294044713901118E-13</v>
       </c>
       <c r="CY2">
-        <v>1.380892643573467e-15</v>
+        <v>1.394418393529948E-15</v>
       </c>
       <c r="CZ2">
-        <v>3.623734420872344e-14</v>
+        <v>3.948017189968534E-14</v>
       </c>
       <c r="DA2">
-        <v>2.952145642396832e-23</v>
+        <v>2.944292635086899E-24</v>
       </c>
       <c r="DB2">
-        <v>4.06801344090618e-16</v>
+        <v>4.617410821053812E-16</v>
       </c>
       <c r="DC2">
-        <v>2.631425696560545e-26</v>
+        <v>2.189440928993321E-27</v>
       </c>
       <c r="DD2">
-        <v>3.164201367697827e-20</v>
+        <v>3.241445973734539E-20</v>
       </c>
       <c r="DE2">
-        <v>1.656071519919301e-20</v>
+        <v>1.712010415006461E-20</v>
       </c>
       <c r="DF2">
-        <v>1.728844182745963e-23</v>
+        <v>1.534968482958839E-23</v>
       </c>
       <c r="DG2">
-        <v>7.302213207338963e-21</v>
+        <v>7.584142204133292E-21</v>
       </c>
       <c r="DH2">
-        <v>1.7530089379616e-25</v>
+        <v>7.164444456952883E-26</v>
       </c>
       <c r="DI2">
-        <v>1.853306918888154e-20</v>
+        <v>2.092754728983532E-20</v>
       </c>
       <c r="DJ2">
-        <v>2.050666938408344e-11</v>
+        <v>4.707973525568826E-13</v>
       </c>
       <c r="DK2">
-        <v>9.222266420864456e-13</v>
+        <v>2.061946074032096E-14</v>
       </c>
       <c r="DL2">
-        <v>2.477798260834902e-27</v>
+        <v>2.049621319264724E-27</v>
       </c>
       <c r="DM2">
-        <v>2.82248245886167e-27</v>
+        <v>1.936187294407523E-27</v>
       </c>
       <c r="DN2">
-        <v>3.237829910335312e-12</v>
+        <v>8.376767670923226E-14</v>
       </c>
       <c r="DO2">
         <v>0</v>
       </c>
       <c r="DP2">
-        <v>4.366221881256636e-14</v>
+        <v>5.535319085476164E-16</v>
       </c>
       <c r="DQ2">
-        <v>1.605167745597893e-15</v>
+        <v>2.106983824693157E-17</v>
       </c>
       <c r="DR2">
-        <v>1.766635615980259e-18</v>
+        <v>2.465476997332963E-20</v>
       </c>
       <c r="DS2">
         <v>0</v>
@@ -1746,620 +1743,123 @@
         <v>0</v>
       </c>
       <c r="DV2">
-        <v>4.716851476920585e-08</v>
+        <v>2.648558880287257E-08</v>
       </c>
       <c r="DW2">
-        <v>4.069564374187879e-06</v>
+        <v>1.014546021332099E-06</v>
       </c>
       <c r="DX2">
-        <v>6.628805953993323e-06</v>
+        <v>2.74820707287591E-06</v>
       </c>
       <c r="DY2">
-        <v>2.298633515378445e-27</v>
+        <v>1.446953529456204E-27</v>
       </c>
       <c r="DZ2">
-        <v>1.111514572071268e-19</v>
+        <v>5.084484850576559E-20</v>
       </c>
       <c r="EA2">
-        <v>3.453133133638072e-12</v>
+        <v>9.782625432707712E-13</v>
       </c>
       <c r="EB2">
-        <v>0.005007348527228359</v>
+        <v>0.004601136561614147</v>
       </c>
       <c r="EC2">
-        <v>5.284780077892392e-07</v>
+        <v>3.029885491228741E-07</v>
       </c>
       <c r="ED2">
-        <v>0.0001318464465094496</v>
+        <v>0.0001258943474626578</v>
       </c>
       <c r="EE2">
         <v>0</v>
       </c>
       <c r="EF2">
-        <v>0.01957481072263454</v>
+        <v>0.02416306957261309</v>
       </c>
       <c r="EG2">
-        <v>91.71234213155347</v>
+        <v>92.34628499270227</v>
       </c>
       <c r="EH2">
-        <v>0.03438242580203302</v>
+        <v>0.03111251420204856</v>
       </c>
       <c r="EI2">
-        <v>0.02815650557306326</v>
+        <v>0.02597809048411458</v>
       </c>
       <c r="EJ2">
-        <v>0.0229870084087819</v>
+        <v>0.02123841768457332</v>
       </c>
       <c r="EK2">
-        <v>3.946684009559366</v>
+        <v>3.659439088949522</v>
       </c>
       <c r="EL2">
-        <v>1.362864820182004</v>
+        <v>1.251673127733363</v>
       </c>
       <c r="EM2">
-        <v>2.236177920630169</v>
+        <v>2.051646481610795</v>
       </c>
       <c r="EN2">
-        <v>0.3928152734211199</v>
+        <v>0.3621291270250243</v>
       </c>
       <c r="EO2">
-        <v>0.05024895196617229</v>
+        <v>0.04660764675312114</v>
       </c>
       <c r="EP2">
-        <v>3.345148439050762e-07</v>
+        <v>2.927208375639769E-08</v>
       </c>
       <c r="EQ2">
-        <v>0.1113967654463202</v>
+        <v>0.1033631544710606</v>
       </c>
       <c r="ER2">
-        <v>6.296565781629589e-08</v>
+        <v>4.872780257183818E-09</v>
       </c>
       <c r="ES2">
-        <v>0.004368421430553599</v>
+        <v>0.004039034504984839</v>
       </c>
       <c r="ET2">
-        <v>0.004357803733867627</v>
+        <v>0.004038150106298129</v>
       </c>
       <c r="EU2">
-        <v>0.008705025126081237</v>
+        <v>0.008074608852423646</v>
       </c>
       <c r="EV2">
-        <v>0.002116382123851722</v>
+        <v>0.001961359219113128</v>
       </c>
       <c r="EW2">
-        <v>0.002116409205886816</v>
+        <v>0.001961172504218267</v>
       </c>
       <c r="EX2">
-        <v>0.008827191860172832</v>
+        <v>0.008190606918819085</v>
       </c>
       <c r="EY2">
-        <v>8.802842343128777e-08</v>
+        <v>5.551940143527824E-09</v>
       </c>
       <c r="EZ2">
-        <v>3.588812255647463e-09</v>
+        <v>2.375322226806617E-10</v>
       </c>
       <c r="FA2">
-        <v>0.03740660794860241</v>
+        <v>0.03471781296448802</v>
       </c>
       <c r="FB2">
-        <v>0.009320563876187866</v>
+        <v>0.008650379744813773</v>
       </c>
       <c r="FC2">
-        <v>1.316280961411551e-08</v>
+        <v>9.147075888863199E-10</v>
       </c>
       <c r="FD2">
         <v>0</v>
       </c>
       <c r="FE2">
-        <v>1.673224853115345e-10</v>
+        <v>9.550052935569868E-12</v>
       </c>
       <c r="FF2">
-        <v>7.753408458864244e-12</v>
+        <v>4.598277430879108E-13</v>
       </c>
       <c r="FG2">
-        <v>8.457072838926611e-15</v>
+        <v>4.950323242260726E-16</v>
       </c>
       <c r="FH2">
         <v>0</v>
       </c>
       <c r="FI2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:165">
-      <c r="A3" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0.2829980769162901</v>
-      </c>
-      <c r="D3">
-        <v>17.20865220963444</v>
-      </c>
-      <c r="E3">
-        <v>27.02228877409043</v>
-      </c>
-      <c r="F3">
-        <v>11.67192909667668</v>
-      </c>
-      <c r="G3">
-        <v>7.97209331574002</v>
-      </c>
-      <c r="H3">
-        <v>1.839897680183396</v>
-      </c>
-      <c r="I3">
-        <v>33.90808201927426</v>
-      </c>
-      <c r="J3">
-        <v>0.07018907643379294</v>
-      </c>
-      <c r="K3">
-        <v>0.009663067050383257</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>3.000632467557481e-05</v>
-      </c>
-      <c r="N3">
-        <v>9.395739922953452e-07</v>
-      </c>
-      <c r="O3">
-        <v>7.967626836597032e-09</v>
-      </c>
-      <c r="P3">
-        <v>2.995082100499908e-14</v>
-      </c>
-      <c r="Q3">
-        <v>9.184584142720609e-15</v>
-      </c>
-      <c r="R3">
-        <v>4.908982249777893e-17</v>
-      </c>
-      <c r="S3">
-        <v>2.300898033378401e-18</v>
-      </c>
-      <c r="T3">
-        <v>1.227277174542531e-18</v>
-      </c>
-      <c r="U3">
-        <v>1.76762425231288e-21</v>
-      </c>
-      <c r="V3">
-        <v>2.207457347173029e-19</v>
-      </c>
-      <c r="W3">
-        <v>1.272365601188932e-29</v>
-      </c>
-      <c r="X3">
-        <v>6.963739433709042e-22</v>
-      </c>
-      <c r="Y3">
-        <v>1.266297074519154e-08</v>
-      </c>
-      <c r="Z3">
-        <v>6.677689036580298e-27</v>
-      </c>
-      <c r="AA3">
-        <v>2.87449624434755e-27</v>
-      </c>
-      <c r="AB3">
-        <v>0.001894429751204491</v>
-      </c>
-      <c r="AC3">
-        <v>1.280177065042032e-27</v>
-      </c>
-      <c r="AD3">
-        <v>0.0004108275622597122</v>
-      </c>
-      <c r="AE3">
-        <v>3.581959065413232e-27</v>
-      </c>
-      <c r="AF3">
-        <v>2.058650721443303e-08</v>
-      </c>
-      <c r="AG3">
-        <v>8.713352830705952e-10</v>
-      </c>
-      <c r="AH3">
-        <v>0.009815170434901018</v>
-      </c>
-      <c r="AI3">
-        <v>0.00205526547713837</v>
-      </c>
-      <c r="AJ3">
-        <v>2.753386502349118e-09</v>
-      </c>
-      <c r="AK3">
-        <v>0</v>
-      </c>
-      <c r="AL3">
-        <v>3.279396239187166e-11</v>
-      </c>
-      <c r="AM3">
-        <v>1.473840835602089e-12</v>
-      </c>
-      <c r="AN3">
-        <v>1.840132984287623e-15</v>
-      </c>
-      <c r="AO3">
-        <v>0</v>
-      </c>
-      <c r="AP3">
-        <v>0</v>
-      </c>
-      <c r="AQ3">
-        <v>0</v>
-      </c>
-      <c r="AR3">
-        <v>0.000472971198872803</v>
-      </c>
-      <c r="AS3">
-        <v>0.1779809784411806</v>
-      </c>
-      <c r="AT3">
-        <v>0.9499304314596471</v>
-      </c>
-      <c r="AU3">
-        <v>1.455211660730283</v>
-      </c>
-      <c r="AV3">
-        <v>2.5529200935067</v>
-      </c>
-      <c r="AW3">
-        <v>1.810558326101703</v>
-      </c>
-      <c r="AX3">
-        <v>92.89136200305634</v>
-      </c>
-      <c r="AY3">
-        <v>0.128100789922939</v>
-      </c>
-      <c r="AZ3">
-        <v>0.03169040364843856</v>
-      </c>
-      <c r="BA3">
-        <v>0</v>
-      </c>
-      <c r="BB3">
-        <v>0.0001546627487487045</v>
-      </c>
-      <c r="BC3">
-        <v>8.180124843077375e-06</v>
-      </c>
-      <c r="BD3">
-        <v>6.549138833467437e-08</v>
-      </c>
-      <c r="BE3">
-        <v>3.757749847040179e-13</v>
-      </c>
-      <c r="BF3">
-        <v>1.167996486063166e-13</v>
-      </c>
-      <c r="BG3">
-        <v>1.10350753692007e-15</v>
-      </c>
-      <c r="BH3">
-        <v>5.709606129577307e-17</v>
-      </c>
-      <c r="BI3">
-        <v>3.278573358324985e-17</v>
-      </c>
-      <c r="BJ3">
-        <v>5.746130680552152e-20</v>
-      </c>
-      <c r="BK3">
-        <v>5.907761359791304e-18</v>
-      </c>
-      <c r="BL3">
-        <v>4.78806909359871e-28</v>
-      </c>
-      <c r="BM3">
-        <v>1.962813065601032e-20</v>
-      </c>
-      <c r="BN3">
-        <v>1.71655712321195e-09</v>
-      </c>
-      <c r="BO3">
-        <v>3.033024354476916e-25</v>
-      </c>
-      <c r="BP3">
-        <v>1.486901276397588e-25</v>
-      </c>
-      <c r="BQ3">
-        <v>0.0002585404700937104</v>
-      </c>
-      <c r="BR3">
-        <v>5.754505869406042e-26</v>
-      </c>
-      <c r="BS3">
-        <v>5.935809619209467e-05</v>
-      </c>
-      <c r="BT3">
-        <v>1.5015170109137e-25</v>
-      </c>
-      <c r="BU3">
-        <v>2.506181572090628e-09</v>
-      </c>
-      <c r="BV3">
-        <v>1.080356343265002e-10</v>
-      </c>
-      <c r="BW3">
-        <v>0.0009929543890081596</v>
-      </c>
-      <c r="BX3">
-        <v>0.0002985759599053139</v>
-      </c>
-      <c r="BY3">
-        <v>3.177852267966325e-10</v>
-      </c>
-      <c r="BZ3">
-        <v>0</v>
-      </c>
-      <c r="CA3">
-        <v>4.450671794471033e-12</v>
-      </c>
-      <c r="CB3">
-        <v>2.096164223704123e-13</v>
-      </c>
-      <c r="CC3">
-        <v>2.365606285307186e-16</v>
-      </c>
-      <c r="CD3">
-        <v>0</v>
-      </c>
-      <c r="CE3">
-        <v>0</v>
-      </c>
-      <c r="CF3">
-        <v>0</v>
-      </c>
-      <c r="CG3">
-        <v>2.570125532387385e-07</v>
-      </c>
-      <c r="CH3">
-        <v>6.480669121031994e-05</v>
-      </c>
-      <c r="CI3">
-        <v>0.000324259271246774</v>
-      </c>
-      <c r="CJ3">
-        <v>0.0006325269440936675</v>
-      </c>
-      <c r="CK3">
-        <v>0.002080975561163864</v>
-      </c>
-      <c r="CL3">
-        <v>0.02373863881180429</v>
-      </c>
-      <c r="CM3">
-        <v>99.90400181559876</v>
-      </c>
-      <c r="CN3">
-        <v>0.02429762456904084</v>
-      </c>
-      <c r="CO3">
-        <v>0.04196874873488335</v>
-      </c>
-      <c r="CP3">
-        <v>0</v>
-      </c>
-      <c r="CQ3">
-        <v>0.001896493890038333</v>
-      </c>
-      <c r="CR3">
-        <v>0.0009900824625784601</v>
-      </c>
-      <c r="CS3">
-        <v>3.770105912454835e-06</v>
-      </c>
-      <c r="CT3">
-        <v>2.291665686501041e-10</v>
-      </c>
-      <c r="CU3">
-        <v>8.535607869967726e-11</v>
-      </c>
-      <c r="CV3">
-        <v>5.957013626303139e-12</v>
-      </c>
-      <c r="CW3">
-        <v>4.505136245210457e-13</v>
-      </c>
-      <c r="CX3">
-        <v>3.156173558195632e-13</v>
-      </c>
-      <c r="CY3">
-        <v>1.371132841565176e-15</v>
-      </c>
-      <c r="CZ3">
-        <v>3.596102778303896e-14</v>
-      </c>
-      <c r="DA3">
-        <v>2.905731466006121e-23</v>
-      </c>
-      <c r="DB3">
-        <v>4.035679187988574e-16</v>
-      </c>
-      <c r="DC3">
-        <v>2.587635352046966e-26</v>
-      </c>
-      <c r="DD3">
-        <v>3.141749202265302e-20</v>
-      </c>
-      <c r="DE3">
-        <v>1.644526383384263e-20</v>
-      </c>
-      <c r="DF3">
-        <v>1.722315060566383e-23</v>
-      </c>
-      <c r="DG3">
-        <v>7.252923000689166e-21</v>
-      </c>
-      <c r="DH3">
-        <v>1.737610470955635e-25</v>
-      </c>
-      <c r="DI3">
-        <v>1.838445094406511e-20</v>
-      </c>
-      <c r="DJ3">
-        <v>2.128947865016408e-11</v>
-      </c>
-      <c r="DK3">
-        <v>8.759952693515809e-13</v>
-      </c>
-      <c r="DL3">
-        <v>2.455215083118692e-27</v>
-      </c>
-      <c r="DM3">
-        <v>2.808411393688568e-27</v>
-      </c>
-      <c r="DN3">
-        <v>3.217626936604635e-12</v>
-      </c>
-      <c r="DO3">
-        <v>0</v>
-      </c>
-      <c r="DP3">
-        <v>4.292129160521931e-14</v>
-      </c>
-      <c r="DQ3">
-        <v>1.564693733433486e-15</v>
-      </c>
-      <c r="DR3">
-        <v>1.754139697919924e-18</v>
-      </c>
-      <c r="DS3">
-        <v>0</v>
-      </c>
-      <c r="DT3">
-        <v>0</v>
-      </c>
-      <c r="DU3">
-        <v>0</v>
-      </c>
-      <c r="DV3">
-        <v>4.763791798359572e-08</v>
-      </c>
-      <c r="DW3">
-        <v>3.660529897961663e-06</v>
-      </c>
-      <c r="DX3">
-        <v>6.204459621055411e-06</v>
-      </c>
-      <c r="DY3">
-        <v>2.366951021600325e-27</v>
-      </c>
-      <c r="DZ3">
-        <v>1.105525470701315e-19</v>
-      </c>
-      <c r="EA3">
-        <v>3.313164969260046e-12</v>
-      </c>
-      <c r="EB3">
-        <v>0.005017443302339888</v>
-      </c>
-      <c r="EC3">
-        <v>5.30677525794214e-07</v>
-      </c>
-      <c r="ED3">
-        <v>0.0001322110448239127</v>
-      </c>
-      <c r="EE3">
-        <v>0</v>
-      </c>
-      <c r="EF3">
-        <v>0.01960656680083591</v>
-      </c>
-      <c r="EG3">
-        <v>91.71417492784079</v>
-      </c>
-      <c r="EH3">
-        <v>0.03437653014845979</v>
-      </c>
-      <c r="EI3">
-        <v>0.0281503384460918</v>
-      </c>
-      <c r="EJ3">
-        <v>0.02298213587027522</v>
-      </c>
-      <c r="EK3">
-        <v>3.945945975428224</v>
-      </c>
-      <c r="EL3">
-        <v>1.362500585774727</v>
-      </c>
-      <c r="EM3">
-        <v>2.235561206439574</v>
-      </c>
-      <c r="EN3">
-        <v>0.3927214179943278</v>
-      </c>
-      <c r="EO3">
-        <v>0.05023969084621854</v>
-      </c>
-      <c r="EP3">
-        <v>3.315893539610886e-07</v>
-      </c>
-      <c r="EQ3">
-        <v>0.1113765847168547</v>
-      </c>
-      <c r="ER3">
-        <v>6.239960878212867e-08</v>
-      </c>
-      <c r="ES3">
-        <v>0.004367482545860789</v>
-      </c>
-      <c r="ET3">
-        <v>0.004356958661886095</v>
-      </c>
-      <c r="EU3">
-        <v>0.008703431164657459</v>
-      </c>
-      <c r="EV3">
-        <v>0.002115973801592517</v>
-      </c>
-      <c r="EW3">
-        <v>0.002116045297650768</v>
-      </c>
-      <c r="EX3">
-        <v>0.008825592784068029</v>
-      </c>
-      <c r="EY3">
-        <v>8.719266520967588e-08</v>
-      </c>
-      <c r="EZ3">
-        <v>3.555076425818281e-09</v>
-      </c>
-      <c r="FA3">
-        <v>0.03739922055464327</v>
-      </c>
-      <c r="FB3">
-        <v>0.009318739278235812</v>
-      </c>
-      <c r="FC3">
-        <v>1.303947498733482e-08</v>
-      </c>
-      <c r="FD3">
-        <v>0</v>
-      </c>
-      <c r="FE3">
-        <v>1.657118745675466e-10</v>
-      </c>
-      <c r="FF3">
-        <v>7.679145647580409e-12</v>
-      </c>
-      <c r="FG3">
-        <v>8.375088392826659e-15</v>
-      </c>
-      <c r="FH3">
-        <v>0</v>
-      </c>
-      <c r="FI3">
         <v>0</v>
       </c>
     </row>

--- a/log/c660_wt_log.xlsx
+++ b/log/c660_wt_log.xlsx
@@ -1258,125 +1258,125 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>123456</t>
+          <t>123</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3328827559343698</v>
+        <v>0.718586444520514</v>
       </c>
       <c r="D2" t="n">
-        <v>20.01522380813056</v>
+        <v>29.6746496300906</v>
       </c>
       <c r="E2" t="n">
-        <v>30.91882902897378</v>
+        <v>26.06352488665569</v>
       </c>
       <c r="F2" t="n">
-        <v>11.55732308347242</v>
+        <v>5.619822827046354</v>
       </c>
       <c r="G2" t="n">
-        <v>4.961583170306619</v>
+        <v>1.870709232782207</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6591808921512398</v>
+        <v>0.3266931037974307</v>
       </c>
       <c r="I2" t="n">
-        <v>31.48135263743143</v>
+        <v>35.64843764405722</v>
       </c>
       <c r="J2" t="n">
-        <v>0.06064544931623275</v>
+        <v>0.06136646676648708</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0129188631233917</v>
+        <v>0.01603810455514962</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>2.911169021942528e-05</v>
+        <v>2.89664482583007e-05</v>
       </c>
       <c r="N2" t="n">
-        <v>7.604107669364776e-07</v>
+        <v>9.023684867224475e-07</v>
       </c>
       <c r="O2" t="n">
-        <v>1.926225211499457e-09</v>
+        <v>2.992868385413704e-09</v>
       </c>
       <c r="P2" t="n">
-        <v>6.690091653375617e-15</v>
+        <v>1.107957643139213e-14</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.050188137365149e-15</v>
+        <v>3.456977190091634e-15</v>
       </c>
       <c r="R2" t="n">
-        <v>1.557875161269498e-17</v>
+        <v>2.335856974189808e-17</v>
       </c>
       <c r="S2" t="n">
-        <v>8.70390404898529e-19</v>
+        <v>1.369152556427783e-18</v>
       </c>
       <c r="T2" t="n">
-        <v>4.42753392849804e-19</v>
+        <v>6.962386938276468e-19</v>
       </c>
       <c r="U2" t="n">
-        <v>2.374889243645071e-22</v>
+        <v>3.642610182210246e-22</v>
       </c>
       <c r="V2" t="n">
-        <v>4.364194503715775e-20</v>
+        <v>7.346244449418279e-20</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>1.473703457890472e-22</v>
+        <v>2.411397523120941e-22</v>
       </c>
       <c r="Y2" t="n">
-        <v>8.439310657581897e-12</v>
+        <v>6.576320922633137e-11</v>
       </c>
       <c r="Z2" t="n">
-        <v>6.06373170497749e-32</v>
+        <v>5.680634416134499e-32</v>
       </c>
       <c r="AA2" t="n">
         <v>0</v>
       </c>
       <c r="AB2" t="n">
-        <v>1.336816371113685e-09</v>
+        <v>6.083523919366755e-09</v>
       </c>
       <c r="AC2" t="n">
         <v>0</v>
       </c>
       <c r="AD2" t="n">
-        <v>9.173790686855836e-10</v>
+        <v>3.932354624384566e-09</v>
       </c>
       <c r="AE2" t="n">
-        <v>7.267461945591705e-28</v>
+        <v>1.218613110459088e-27</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.409962707093034e-11</v>
+        <v>1.295874703398041e-10</v>
       </c>
       <c r="AG2" t="n">
-        <v>8.602195862724849e-13</v>
+        <v>3.498663646642182e-12</v>
       </c>
       <c r="AH2" t="n">
-        <v>2.564613111054289e-05</v>
+        <v>0.0001213577154757903</v>
       </c>
       <c r="AI2" t="n">
-        <v>4.788710874260282e-06</v>
+        <v>2.041997214377556e-05</v>
       </c>
       <c r="AJ2" t="n">
-        <v>3.123436385550152e-12</v>
+        <v>1.619609257926115e-11</v>
       </c>
       <c r="AK2" t="n">
         <v>0</v>
       </c>
       <c r="AL2" t="n">
-        <v>3.216594939172467e-14</v>
+        <v>1.756904205402146e-13</v>
       </c>
       <c r="AM2" t="n">
-        <v>1.188986705601952e-15</v>
+        <v>7.64265530312112e-15</v>
       </c>
       <c r="AN2" t="n">
-        <v>1.23008064848922e-18</v>
+        <v>5.18556880748865e-18</v>
       </c>
       <c r="AO2" t="n">
         <v>0</v>
@@ -1388,118 +1388,118 @@
         <v>0</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.0004657644540335399</v>
+        <v>0.001023705649120322</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.2338957237234105</v>
+        <v>0.2960200293145421</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.373425866670227</v>
+        <v>0.9683346880231811</v>
       </c>
       <c r="AU2" t="n">
-        <v>2.023627611983168</v>
+        <v>0.7758658791209584</v>
       </c>
       <c r="AV2" t="n">
-        <v>2.570531007759327</v>
+        <v>0.7493582354081466</v>
       </c>
       <c r="AW2" t="n">
-        <v>1.061433712510021</v>
+        <v>0.4262177474310581</v>
       </c>
       <c r="AX2" t="n">
-        <v>92.55648601519056</v>
+        <v>96.6193798343571</v>
       </c>
       <c r="AY2" t="n">
-        <v>0.1324041073681727</v>
+        <v>0.1159460796151261</v>
       </c>
       <c r="AZ2" t="n">
-        <v>0.04747047703278545</v>
+        <v>0.04768917583221836</v>
       </c>
       <c r="BA2" t="n">
         <v>0</v>
       </c>
       <c r="BB2" t="n">
-        <v>0.0002463031063878385</v>
+        <v>0.0001554526653199358</v>
       </c>
       <c r="BC2" t="n">
-        <v>1.05835714752192e-05</v>
+        <v>8.049493088558378e-06</v>
       </c>
       <c r="BD2" t="n">
-        <v>2.581282716990583e-08</v>
+        <v>2.513934128945842e-08</v>
       </c>
       <c r="BE2" t="n">
-        <v>1.336836407437398e-13</v>
+        <v>1.404703310082596e-13</v>
       </c>
       <c r="BF2" t="n">
-        <v>4.240733212628783e-14</v>
+        <v>4.390376582856352e-14</v>
       </c>
       <c r="BG2" t="n">
-        <v>5.496670046748039e-16</v>
+        <v>5.321237773533739e-16</v>
       </c>
       <c r="BH2" t="n">
-        <v>3.781687015474203e-17</v>
+        <v>3.551311194456836e-17</v>
       </c>
       <c r="BI2" t="n">
-        <v>1.865066986730431e-17</v>
+        <v>1.847624861396295e-17</v>
       </c>
       <c r="BJ2" t="n">
-        <v>1.120583495784022e-20</v>
+        <v>1.09770537916695e-20</v>
       </c>
       <c r="BK2" t="n">
-        <v>1.898618226149925e-18</v>
+        <v>1.947269496883026e-18</v>
       </c>
       <c r="BL2" t="n">
-        <v>1.448754297929714e-36</v>
+        <v>1.982855054020422e-37</v>
       </c>
       <c r="BM2" t="n">
-        <v>6.744237723479687e-21</v>
+        <v>6.912213102611216e-21</v>
       </c>
       <c r="BN2" t="n">
-        <v>2.232731413280118e-12</v>
+        <v>9.234434769563976e-13</v>
       </c>
       <c r="BO2" t="n">
-        <v>1.206941656996877e-30</v>
+        <v>1.111659093927002e-30</v>
       </c>
       <c r="BP2" t="n">
-        <v>2.592835990630347e-34</v>
+        <v>4.390331159880988e-34</v>
       </c>
       <c r="BQ2" t="n">
-        <v>1.821556212830416e-10</v>
+        <v>7.318558684780213e-11</v>
       </c>
       <c r="BR2" t="n">
-        <v>8.275270988075894e-36</v>
+        <v>2.639221716934799e-36</v>
       </c>
       <c r="BS2" t="n">
-        <v>7.557900505909293e-11</v>
+        <v>4.719125456714437e-11</v>
       </c>
       <c r="BT2" t="n">
-        <v>5.126864457092506e-26</v>
+        <v>5.31034555661964e-26</v>
       </c>
       <c r="BU2" t="n">
-        <v>1.966035859986765e-12</v>
+        <v>1.088924208331571e-12</v>
       </c>
       <c r="BV2" t="n">
-        <v>1.03814452850722e-13</v>
+        <v>5.065814715513746e-14</v>
       </c>
       <c r="BW2" t="n">
-        <v>2.160538004867364e-06</v>
+        <v>8.610568324938391e-07</v>
       </c>
       <c r="BX2" t="n">
-        <v>6.400166122467706e-07</v>
+        <v>2.367709752548556e-07</v>
       </c>
       <c r="BY2" t="n">
-        <v>7.951899794606141e-13</v>
+        <v>3.526589804781994e-13</v>
       </c>
       <c r="BZ2" t="n">
         <v>0</v>
       </c>
       <c r="CA2" t="n">
-        <v>2.805480445238717e-15</v>
+        <v>1.78854594291072e-15</v>
       </c>
       <c r="CB2" t="n">
-        <v>2.081634498322156e-16</v>
+        <v>8.908427013128241e-17</v>
       </c>
       <c r="CC2" t="n">
-        <v>2.680425388586342e-19</v>
+        <v>1.140648623239513e-19</v>
       </c>
       <c r="CD2" t="n">
         <v>0</v>
@@ -1511,118 +1511,118 @@
         <v>0</v>
       </c>
       <c r="CG2" t="n">
-        <v>3.067024208678885e-07</v>
+        <v>3.220858304440154e-07</v>
       </c>
       <c r="CH2" t="n">
-        <v>7.695940050621568e-05</v>
+        <v>8.098475669025974e-05</v>
       </c>
       <c r="CI2" t="n">
-        <v>0.0003951747181694258</v>
+        <v>0.0004167856777646631</v>
       </c>
       <c r="CJ2" t="n">
-        <v>0.0007350164745281081</v>
+        <v>0.0007784035518922982</v>
       </c>
       <c r="CK2" t="n">
-        <v>0.001805245508827218</v>
+        <v>0.001671908877086113</v>
       </c>
       <c r="CL2" t="n">
-        <v>0.01154938603346194</v>
+        <v>0.006417731405726039</v>
       </c>
       <c r="CM2" t="n">
-        <v>99.90102764844728</v>
+        <v>99.90825478696034</v>
       </c>
       <c r="CN2" t="n">
-        <v>0.02319573359040163</v>
+        <v>0.02092477296422002</v>
       </c>
       <c r="CO2" t="n">
-        <v>0.05845241173760288</v>
+        <v>0.05877004516592325</v>
       </c>
       <c r="CP2" t="n">
         <v>0</v>
       </c>
       <c r="CQ2" t="n">
-        <v>0.001972432451712175</v>
+        <v>0.001805729417158296</v>
       </c>
       <c r="CR2" t="n">
-        <v>0.0007886689509648596</v>
+        <v>0.0008771664155650092</v>
       </c>
       <c r="CS2" t="n">
-        <v>1.015909536756248e-06</v>
+        <v>1.362612505605066e-06</v>
       </c>
       <c r="CT2" t="n">
-        <v>5.364160542394586e-11</v>
+        <v>7.739728835086348e-11</v>
       </c>
       <c r="CU2" t="n">
-        <v>1.870559790394761e-11</v>
+        <v>2.876045335280506e-11</v>
       </c>
       <c r="CV2" t="n">
-        <v>1.900933482119783e-12</v>
+        <v>2.634737704517469e-12</v>
       </c>
       <c r="CW2" t="n">
-        <v>1.895264308759828e-13</v>
+        <v>2.576365497228361e-13</v>
       </c>
       <c r="CX2" t="n">
-        <v>1.253941531491555e-13</v>
+        <v>1.709191377736486e-13</v>
       </c>
       <c r="CY2" t="n">
-        <v>1.858511012178019e-16</v>
+        <v>2.45932671091603e-16</v>
       </c>
       <c r="CZ2" t="n">
-        <v>7.828070767854912e-15</v>
+        <v>1.123414406512061e-14</v>
       </c>
       <c r="DA2" t="n">
-        <v>1.727300062000376e-24</v>
+        <v>2.145685625786699e-24</v>
       </c>
       <c r="DB2" t="n">
-        <v>8.903717772295209e-17</v>
+        <v>1.320487653497826e-16</v>
       </c>
       <c r="DC2" t="n">
-        <v>1.365875836825056e-27</v>
+        <v>1.739079842841245e-27</v>
       </c>
       <c r="DD2" t="n">
-        <v>6.911938591004613e-24</v>
+        <v>8.69273901999894e-24</v>
       </c>
       <c r="DE2" t="n">
-        <v>1.368692130324396e-24</v>
+        <v>1.745849505308884e-24</v>
       </c>
       <c r="DF2" t="n">
-        <v>4.222641154490236e-28</v>
+        <v>4.803319652637677e-28</v>
       </c>
       <c r="DG2" t="n">
-        <v>5.517826061976408e-25</v>
+        <v>7.287859653135067e-25</v>
       </c>
       <c r="DH2" t="n">
-        <v>3.09049704798782e-35</v>
+        <v>7.794259718458143e-35</v>
       </c>
       <c r="DI2" t="n">
-        <v>4.156347768709746e-21</v>
+        <v>6.000276146216289e-21</v>
       </c>
       <c r="DJ2" t="n">
-        <v>3.016945435664481e-14</v>
+        <v>6.5806848350016e-14</v>
       </c>
       <c r="DK2" t="n">
-        <v>1.432714867047205e-15</v>
+        <v>2.647201952027319e-15</v>
       </c>
       <c r="DL2" t="n">
         <v>0</v>
       </c>
       <c r="DM2" t="n">
-        <v>1.630166451253413e-31</v>
+        <v>2.476483352287032e-31</v>
       </c>
       <c r="DN2" t="n">
-        <v>5.165560650024009e-15</v>
+        <v>1.008004658302709e-14</v>
       </c>
       <c r="DO2" t="n">
         <v>0</v>
       </c>
       <c r="DP2" t="n">
-        <v>3.050815550414375e-17</v>
+        <v>6.810955114454833e-17</v>
       </c>
       <c r="DQ2" t="n">
-        <v>1.333871577675543e-18</v>
+        <v>4.062887552250365e-18</v>
       </c>
       <c r="DR2" t="n">
-        <v>9.947668742789042e-22</v>
+        <v>2.863751518705569e-21</v>
       </c>
       <c r="DS2" t="n">
         <v>0</v>
@@ -1634,118 +1634,118 @@
         <v>0</v>
       </c>
       <c r="DV2" t="n">
-        <v>1.186666048881901e-09</v>
+        <v>3.199884010562363e-09</v>
       </c>
       <c r="DW2" t="n">
-        <v>4.62938332216615e-08</v>
+        <v>1.722526977400943e-07</v>
       </c>
       <c r="DX2" t="n">
-        <v>1.048198512879139e-07</v>
+        <v>2.771758454310595e-07</v>
       </c>
       <c r="DY2" t="n">
-        <v>1.135043011649237e-27</v>
+        <v>8.045635810766119e-28</v>
       </c>
       <c r="DZ2" t="n">
-        <v>5.351962917462232e-20</v>
+        <v>3.947241710938177e-20</v>
       </c>
       <c r="EA2" t="n">
-        <v>1.169761251615299e-12</v>
+        <v>9.721426793360974e-13</v>
       </c>
       <c r="EB2" t="n">
-        <v>0.004345863661581868</v>
+        <v>0.004616282061322658</v>
       </c>
       <c r="EC2" t="n">
-        <v>4.074707041853692e-07</v>
+        <v>3.668595426600691e-07</v>
       </c>
       <c r="ED2" t="n">
-        <v>0.0001596689396591136</v>
+        <v>0.0001644347700471588</v>
       </c>
       <c r="EE2" t="n">
         <v>0</v>
       </c>
       <c r="EF2" t="n">
-        <v>0.02108412777474232</v>
+        <v>0.01908600744327159</v>
       </c>
       <c r="EG2" t="n">
-        <v>95.8221355116937</v>
+        <v>94.92159406102468</v>
       </c>
       <c r="EH2" t="n">
-        <v>0.01204699682462079</v>
+        <v>0.01342455317862403</v>
       </c>
       <c r="EI2" t="n">
-        <v>0.00896216712913663</v>
+        <v>0.01090964834527415</v>
       </c>
       <c r="EJ2" t="n">
-        <v>0.00736891534572756</v>
+        <v>0.008971747251799927</v>
       </c>
       <c r="EK2" t="n">
-        <v>1.840462469410152</v>
+        <v>2.241065384435269</v>
       </c>
       <c r="EL2" t="n">
-        <v>0.8447594954219049</v>
+        <v>1.028518184711413</v>
       </c>
       <c r="EM2" t="n">
-        <v>1.300135600230087</v>
+        <v>1.582972917361153</v>
       </c>
       <c r="EN2" t="n">
-        <v>0.07744717087905746</v>
+        <v>0.09428678177240127</v>
       </c>
       <c r="EO2" t="n">
-        <v>0.01611170903932391</v>
+        <v>0.01961865402754561</v>
       </c>
       <c r="EP2" t="n">
-        <v>3.026213264581119e-08</v>
+        <v>3.360348124239175e-08</v>
       </c>
       <c r="EQ2" t="n">
-        <v>0.03566483892246282</v>
+        <v>0.04342824824604311</v>
       </c>
       <c r="ER2" t="n">
-        <v>5.039202085177388e-09</v>
+        <v>5.831121389380853e-09</v>
       </c>
       <c r="ES2" t="n">
-        <v>1.459708150344372e-06</v>
+        <v>1.662556139066817e-06</v>
       </c>
       <c r="ET2" t="n">
-        <v>5.452363776590734e-07</v>
+        <v>6.219346331940888e-07</v>
       </c>
       <c r="EU2" t="n">
-        <v>4.380567541982756e-07</v>
+        <v>4.96628978544766e-07</v>
       </c>
       <c r="EV2" t="n">
-        <v>2.357141042327063e-07</v>
+        <v>2.741328608699776e-07</v>
       </c>
       <c r="EW2" t="n">
-        <v>2.606149408499134e-07</v>
+        <v>3.043608611026193e-07</v>
       </c>
       <c r="EX2" t="n">
-        <v>0.002886709776667067</v>
+        <v>0.003515079658799791</v>
       </c>
       <c r="EY2" t="n">
-        <v>5.742382712863897e-09</v>
+        <v>6.637058635474689e-09</v>
       </c>
       <c r="EZ2" t="n">
-        <v>2.456907391527705e-10</v>
+        <v>2.865680674594442e-10</v>
       </c>
       <c r="FA2" t="n">
-        <v>0.005121546485028523</v>
+        <v>0.006236350659633702</v>
       </c>
       <c r="FB2" t="n">
-        <v>0.001303667118002533</v>
+        <v>0.001587438543529343</v>
       </c>
       <c r="FC2" t="n">
-        <v>9.458307669794523e-10</v>
+        <v>1.036959966395266e-09</v>
       </c>
       <c r="FD2" t="n">
         <v>0</v>
       </c>
       <c r="FE2" t="n">
-        <v>9.875649829100411e-12</v>
+        <v>1.106631399766121e-11</v>
       </c>
       <c r="FF2" t="n">
-        <v>4.754985854769901e-13</v>
+        <v>5.325176650829385e-13</v>
       </c>
       <c r="FG2" t="n">
-        <v>5.117546822730294e-16</v>
+        <v>5.19857828500024e-16</v>
       </c>
       <c r="FH2" t="n">
         <v>0</v>

--- a/log/c660_wt_log.xlsx
+++ b/log/c660_wt_log.xlsx
@@ -1258,125 +1258,125 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>test</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.718586444520514</v>
+        <v>0.3514970892147371</v>
       </c>
       <c r="D2" t="n">
-        <v>29.6746496300906</v>
+        <v>20.78828542189635</v>
       </c>
       <c r="E2" t="n">
-        <v>26.06352488665569</v>
+        <v>30.87602603714937</v>
       </c>
       <c r="F2" t="n">
-        <v>5.619822827046354</v>
+        <v>10.79598591506581</v>
       </c>
       <c r="G2" t="n">
-        <v>1.870709232782207</v>
+        <v>4.451076184841955</v>
       </c>
       <c r="H2" t="n">
-        <v>0.3266931037974307</v>
+        <v>0.627849872862693</v>
       </c>
       <c r="I2" t="n">
-        <v>35.64843764405722</v>
+        <v>32.03452314979756</v>
       </c>
       <c r="J2" t="n">
-        <v>0.06136646676648708</v>
+        <v>0.06143202706538113</v>
       </c>
       <c r="K2" t="n">
-        <v>0.01603810455514962</v>
+        <v>0.01325335131680187</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>2.89664482583007e-05</v>
+        <v>2.952091034383236e-05</v>
       </c>
       <c r="N2" t="n">
-        <v>9.023684867224475e-07</v>
+        <v>7.703922829993426e-07</v>
       </c>
       <c r="O2" t="n">
-        <v>2.992868385413704e-09</v>
+        <v>1.985961376398509e-09</v>
       </c>
       <c r="P2" t="n">
-        <v>1.107957643139213e-14</v>
+        <v>6.888519895734363e-15</v>
       </c>
       <c r="Q2" t="n">
-        <v>3.456977190091634e-15</v>
+        <v>2.108854848703124e-15</v>
       </c>
       <c r="R2" t="n">
-        <v>2.335856974189808e-17</v>
+        <v>1.589305646544744e-17</v>
       </c>
       <c r="S2" t="n">
-        <v>1.369152556427783e-18</v>
+        <v>8.903787417131954e-19</v>
       </c>
       <c r="T2" t="n">
-        <v>6.962386938276468e-19</v>
+        <v>4.527155162802647e-19</v>
       </c>
       <c r="U2" t="n">
-        <v>3.642610182210246e-22</v>
+        <v>2.425948187943382e-22</v>
       </c>
       <c r="V2" t="n">
-        <v>7.346244449418279e-20</v>
+        <v>4.502947776946262e-20</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>2.411397523120941e-22</v>
+        <v>1.51513121912426e-22</v>
       </c>
       <c r="Y2" t="n">
-        <v>6.576320922633137e-11</v>
+        <v>1.182070249297177e-11</v>
       </c>
       <c r="Z2" t="n">
-        <v>5.680634416134499e-32</v>
+        <v>6.100914311238397e-32</v>
       </c>
       <c r="AA2" t="n">
         <v>0</v>
       </c>
       <c r="AB2" t="n">
-        <v>6.083523919366755e-09</v>
+        <v>1.793662049747534e-09</v>
       </c>
       <c r="AC2" t="n">
         <v>0</v>
       </c>
       <c r="AD2" t="n">
-        <v>3.932354624384566e-09</v>
+        <v>1.238707869787348e-09</v>
       </c>
       <c r="AE2" t="n">
-        <v>1.218613110459088e-27</v>
+        <v>7.493738925596594e-28</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.295874703398041e-10</v>
+        <v>3.247262401926823e-11</v>
       </c>
       <c r="AG2" t="n">
-        <v>3.498663646642182e-12</v>
+        <v>1.136394757033844e-12</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.0001213577154757903</v>
+        <v>3.423032517393449e-05</v>
       </c>
       <c r="AI2" t="n">
-        <v>2.041997214377556e-05</v>
+        <v>6.424093505802726e-06</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1.619609257926115e-11</v>
+        <v>4.223548609119147e-12</v>
       </c>
       <c r="AK2" t="n">
         <v>0</v>
       </c>
       <c r="AL2" t="n">
-        <v>1.756904205402146e-13</v>
+        <v>4.402624789659949e-14</v>
       </c>
       <c r="AM2" t="n">
-        <v>7.64265530312112e-15</v>
+        <v>1.625692340411667e-15</v>
       </c>
       <c r="AN2" t="n">
-        <v>5.18556880748865e-18</v>
+        <v>1.658415652298465e-18</v>
       </c>
       <c r="AO2" t="n">
         <v>0</v>
@@ -1388,118 +1388,118 @@
         <v>0</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.001023705649120322</v>
+        <v>0.0004986683431200219</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.2960200293145421</v>
+        <v>0.2396853194917016</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.9683346880231811</v>
+        <v>1.350941178606322</v>
       </c>
       <c r="AU2" t="n">
-        <v>0.7758658791209584</v>
+        <v>1.849507820813773</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.7493582354081466</v>
+        <v>2.242118071798063</v>
       </c>
       <c r="AW2" t="n">
-        <v>0.4262177474310581</v>
+        <v>0.9755572931588912</v>
       </c>
       <c r="AX2" t="n">
-        <v>96.6193798343571</v>
+        <v>93.1619981305147</v>
       </c>
       <c r="AY2" t="n">
-        <v>0.1159460796151261</v>
+        <v>0.1315526878297018</v>
       </c>
       <c r="AZ2" t="n">
-        <v>0.04768917583221836</v>
+        <v>0.04788721394350171</v>
       </c>
       <c r="BA2" t="n">
         <v>0</v>
       </c>
       <c r="BB2" t="n">
-        <v>0.0001554526653199358</v>
+        <v>0.0002403072808293013</v>
       </c>
       <c r="BC2" t="n">
-        <v>8.049493088558378e-06</v>
+        <v>1.037861407585402e-05</v>
       </c>
       <c r="BD2" t="n">
-        <v>2.513934128945842e-08</v>
+        <v>2.557471497725458e-08</v>
       </c>
       <c r="BE2" t="n">
-        <v>1.404703310082596e-13</v>
+        <v>1.318618384030238e-13</v>
       </c>
       <c r="BF2" t="n">
-        <v>4.390376582856352e-14</v>
+        <v>4.170766350116881e-14</v>
       </c>
       <c r="BG2" t="n">
-        <v>5.321237773533739e-16</v>
+        <v>5.396620021262361e-16</v>
       </c>
       <c r="BH2" t="n">
-        <v>3.551311194456836e-17</v>
+        <v>3.703919845779697e-17</v>
       </c>
       <c r="BI2" t="n">
-        <v>1.847624861396295e-17</v>
+        <v>1.835911599244912e-17</v>
       </c>
       <c r="BJ2" t="n">
-        <v>1.09770537916695e-20</v>
+        <v>1.10605388416395e-20</v>
       </c>
       <c r="BK2" t="n">
-        <v>1.947269496883026e-18</v>
+        <v>1.868722920433879e-18</v>
       </c>
       <c r="BL2" t="n">
-        <v>1.982855054020422e-37</v>
+        <v>1.372513943895427e-36</v>
       </c>
       <c r="BM2" t="n">
-        <v>6.912213102611216e-21</v>
+        <v>6.66979854539755e-21</v>
       </c>
       <c r="BN2" t="n">
-        <v>9.234434769563976e-13</v>
+        <v>2.352174912078328e-12</v>
       </c>
       <c r="BO2" t="n">
-        <v>1.111659093927002e-30</v>
+        <v>1.226959087825827e-30</v>
       </c>
       <c r="BP2" t="n">
-        <v>4.390331159880988e-34</v>
+        <v>2.525098215537728e-34</v>
       </c>
       <c r="BQ2" t="n">
-        <v>7.318558684780213e-11</v>
+        <v>1.906161870997596e-10</v>
       </c>
       <c r="BR2" t="n">
-        <v>2.639221716934799e-36</v>
+        <v>7.237344690264337e-36</v>
       </c>
       <c r="BS2" t="n">
-        <v>4.719125456714437e-11</v>
+        <v>8.267894570785628e-11</v>
       </c>
       <c r="BT2" t="n">
-        <v>5.31034555661964e-26</v>
+        <v>5.050392837545223e-26</v>
       </c>
       <c r="BU2" t="n">
-        <v>1.088924208331571e-12</v>
+        <v>2.099413986548547e-12</v>
       </c>
       <c r="BV2" t="n">
-        <v>5.065814715513746e-14</v>
+        <v>1.105959375060462e-13</v>
       </c>
       <c r="BW2" t="n">
-        <v>8.610568324938391e-07</v>
+        <v>2.245291874126622e-06</v>
       </c>
       <c r="BX2" t="n">
-        <v>2.367709752548556e-07</v>
+        <v>6.584598654044067e-07</v>
       </c>
       <c r="BY2" t="n">
-        <v>3.526589804781994e-13</v>
+        <v>8.412388872631388e-13</v>
       </c>
       <c r="BZ2" t="n">
         <v>0</v>
       </c>
       <c r="CA2" t="n">
-        <v>1.78854594291072e-15</v>
+        <v>3.019798959613349e-15</v>
       </c>
       <c r="CB2" t="n">
-        <v>8.908427013128241e-17</v>
+        <v>2.195392778918456e-16</v>
       </c>
       <c r="CC2" t="n">
-        <v>1.140648623239513e-19</v>
+        <v>2.798791000157198e-19</v>
       </c>
       <c r="CD2" t="n">
         <v>0</v>
@@ -1511,118 +1511,118 @@
         <v>0</v>
       </c>
       <c r="CG2" t="n">
-        <v>3.220858304440154e-07</v>
+        <v>3.067418861684802e-07</v>
       </c>
       <c r="CH2" t="n">
-        <v>8.098475669025974e-05</v>
+        <v>7.697561138950245e-05</v>
       </c>
       <c r="CI2" t="n">
-        <v>0.0004167856777646631</v>
+        <v>0.0003951969342515768</v>
       </c>
       <c r="CJ2" t="n">
-        <v>0.0007784035518922982</v>
+        <v>0.0007353375359049172</v>
       </c>
       <c r="CK2" t="n">
-        <v>0.001671908877086113</v>
+        <v>0.001769693984767946</v>
       </c>
       <c r="CL2" t="n">
-        <v>0.006417731405726039</v>
+        <v>0.01080905770883727</v>
       </c>
       <c r="CM2" t="n">
-        <v>99.90825478696034</v>
+        <v>99.90194156733509</v>
       </c>
       <c r="CN2" t="n">
-        <v>0.02092477296422002</v>
+        <v>0.02303541164484406</v>
       </c>
       <c r="CO2" t="n">
-        <v>0.05877004516592325</v>
+        <v>0.05846258036168871</v>
       </c>
       <c r="CP2" t="n">
         <v>0</v>
       </c>
       <c r="CQ2" t="n">
-        <v>0.001805729417158296</v>
+        <v>0.001974843321152549</v>
       </c>
       <c r="CR2" t="n">
-        <v>0.0008771664155650092</v>
+        <v>0.0007979963431563413</v>
       </c>
       <c r="CS2" t="n">
-        <v>1.362612505605066e-06</v>
+        <v>1.032401008978719e-06</v>
       </c>
       <c r="CT2" t="n">
-        <v>7.739728835086348e-11</v>
+        <v>5.460766637238191e-11</v>
       </c>
       <c r="CU2" t="n">
-        <v>2.876045335280506e-11</v>
+        <v>1.912915197662088e-11</v>
       </c>
       <c r="CV2" t="n">
-        <v>2.634737704517469e-12</v>
+        <v>1.92853928101543e-12</v>
       </c>
       <c r="CW2" t="n">
-        <v>2.576365497228361e-13</v>
+        <v>1.918191780804434e-13</v>
       </c>
       <c r="CX2" t="n">
-        <v>1.709191377736486e-13</v>
+        <v>1.26890951443159e-13</v>
       </c>
       <c r="CY2" t="n">
-        <v>2.45932671091603e-16</v>
+        <v>1.875318740125801e-16</v>
       </c>
       <c r="CZ2" t="n">
-        <v>1.123414406512061e-14</v>
+        <v>7.960450102945499e-15</v>
       </c>
       <c r="DA2" t="n">
-        <v>2.145685625786699e-24</v>
+        <v>1.75134270280955e-24</v>
       </c>
       <c r="DB2" t="n">
-        <v>1.320487653497826e-16</v>
+        <v>9.096858182708633e-17</v>
       </c>
       <c r="DC2" t="n">
-        <v>1.739079842841245e-27</v>
+        <v>1.382801702074209e-27</v>
       </c>
       <c r="DD2" t="n">
-        <v>8.69273901999894e-24</v>
+        <v>7.009272411816171e-24</v>
       </c>
       <c r="DE2" t="n">
-        <v>1.745849505308884e-24</v>
+        <v>1.387040749577175e-24</v>
       </c>
       <c r="DF2" t="n">
-        <v>4.803319652637677e-28</v>
+        <v>4.256969890419802e-28</v>
       </c>
       <c r="DG2" t="n">
-        <v>7.287859653135067e-25</v>
+        <v>5.582326328030815e-25</v>
       </c>
       <c r="DH2" t="n">
-        <v>7.794259718458143e-35</v>
+        <v>3.014638930135636e-35</v>
       </c>
       <c r="DI2" t="n">
-        <v>6.000276146216289e-21</v>
+        <v>4.227184969208193e-21</v>
       </c>
       <c r="DJ2" t="n">
-        <v>6.5806848350016e-14</v>
+        <v>3.820873131077883e-14</v>
       </c>
       <c r="DK2" t="n">
-        <v>2.647201952027319e-15</v>
+        <v>1.804401134676397e-15</v>
       </c>
       <c r="DL2" t="n">
         <v>0</v>
       </c>
       <c r="DM2" t="n">
-        <v>2.476483352287032e-31</v>
+        <v>1.724735700785842e-31</v>
       </c>
       <c r="DN2" t="n">
-        <v>1.008004658302709e-14</v>
+        <v>6.558189004058982e-15</v>
       </c>
       <c r="DO2" t="n">
         <v>0</v>
       </c>
       <c r="DP2" t="n">
-        <v>6.810955114454833e-17</v>
+        <v>3.917137643429477e-17</v>
       </c>
       <c r="DQ2" t="n">
-        <v>4.062887552250365e-18</v>
+        <v>1.73714162077538e-18</v>
       </c>
       <c r="DR2" t="n">
-        <v>2.863751518705569e-21</v>
+        <v>1.295356152450408e-21</v>
       </c>
       <c r="DS2" t="n">
         <v>0</v>
@@ -1634,118 +1634,118 @@
         <v>0</v>
       </c>
       <c r="DV2" t="n">
-        <v>3.199884010562363e-09</v>
+        <v>1.528277188631658e-09</v>
       </c>
       <c r="DW2" t="n">
-        <v>1.722526977400943e-07</v>
+        <v>6.100385015861622e-08</v>
       </c>
       <c r="DX2" t="n">
-        <v>2.771758454310595e-07</v>
+        <v>1.335318905772428e-07</v>
       </c>
       <c r="DY2" t="n">
-        <v>8.045635810766119e-28</v>
+        <v>1.149051751719298e-27</v>
       </c>
       <c r="DZ2" t="n">
-        <v>3.947241710938177e-20</v>
+        <v>5.390242555161386e-20</v>
       </c>
       <c r="EA2" t="n">
-        <v>9.721426793360974e-13</v>
+        <v>1.173198293448328e-12</v>
       </c>
       <c r="EB2" t="n">
-        <v>0.004616282061322658</v>
+        <v>0.004361323251807471</v>
       </c>
       <c r="EC2" t="n">
-        <v>3.668595426600691e-07</v>
+        <v>4.091998100005618e-07</v>
       </c>
       <c r="ED2" t="n">
-        <v>0.0001644347700471588</v>
+        <v>0.0001601297257438549</v>
       </c>
       <c r="EE2" t="n">
         <v>0</v>
       </c>
       <c r="EF2" t="n">
-        <v>0.01908600744327159</v>
+        <v>0.02107939209528966</v>
       </c>
       <c r="EG2" t="n">
-        <v>94.92159406102468</v>
+        <v>95.81310444741889</v>
       </c>
       <c r="EH2" t="n">
-        <v>0.01342455317862403</v>
+        <v>0.01205497480889129</v>
       </c>
       <c r="EI2" t="n">
-        <v>0.01090964834527415</v>
+        <v>0.008981639649232617</v>
       </c>
       <c r="EJ2" t="n">
-        <v>0.008971747251799927</v>
+        <v>0.007384948091595608</v>
       </c>
       <c r="EK2" t="n">
-        <v>2.241065384435269</v>
+        <v>1.844469687512324</v>
       </c>
       <c r="EL2" t="n">
-        <v>1.028518184711413</v>
+        <v>0.8465975968281253</v>
       </c>
       <c r="EM2" t="n">
-        <v>1.582972917361153</v>
+        <v>1.302965180821242</v>
       </c>
       <c r="EN2" t="n">
-        <v>0.09428678177240127</v>
+        <v>0.07761561717450505</v>
       </c>
       <c r="EO2" t="n">
-        <v>0.01961865402754561</v>
+        <v>0.01614678819581189</v>
       </c>
       <c r="EP2" t="n">
-        <v>3.360348124239175e-08</v>
+        <v>3.029070563584932e-08</v>
       </c>
       <c r="EQ2" t="n">
-        <v>0.04342824824604311</v>
+        <v>0.03574249546428865</v>
       </c>
       <c r="ER2" t="n">
-        <v>5.831121389380853e-09</v>
+        <v>5.047492972074742e-09</v>
       </c>
       <c r="ES2" t="n">
-        <v>1.662556139066817e-06</v>
+        <v>1.461867202229782e-06</v>
       </c>
       <c r="ET2" t="n">
-        <v>6.219346331940888e-07</v>
+        <v>5.460348203451919e-07</v>
       </c>
       <c r="EU2" t="n">
-        <v>4.96628978544766e-07</v>
+        <v>4.386567911546125e-07</v>
       </c>
       <c r="EV2" t="n">
-        <v>2.741328608699776e-07</v>
+        <v>2.361146573277556e-07</v>
       </c>
       <c r="EW2" t="n">
-        <v>3.043608611026193e-07</v>
+        <v>2.610963785359511e-07</v>
       </c>
       <c r="EX2" t="n">
-        <v>0.003515079658799791</v>
+        <v>0.002892995292462147</v>
       </c>
       <c r="EY2" t="n">
-        <v>6.637058635474689e-09</v>
+        <v>5.752873497525722e-09</v>
       </c>
       <c r="EZ2" t="n">
-        <v>2.865680674594442e-10</v>
+        <v>2.461432399691903e-10</v>
       </c>
       <c r="FA2" t="n">
-        <v>0.006236350659633702</v>
+        <v>0.005132688645593005</v>
       </c>
       <c r="FB2" t="n">
-        <v>0.001587438543529343</v>
+        <v>0.00130650369525937</v>
       </c>
       <c r="FC2" t="n">
-        <v>1.036959966395266e-09</v>
+        <v>9.465313736330314e-10</v>
       </c>
       <c r="FD2" t="n">
         <v>0</v>
       </c>
       <c r="FE2" t="n">
-        <v>1.106631399766121e-11</v>
+        <v>9.888029907146588e-12</v>
       </c>
       <c r="FF2" t="n">
-        <v>5.325176650829385e-13</v>
+        <v>4.760742266249713e-13</v>
       </c>
       <c r="FG2" t="n">
-        <v>5.19857828500024e-16</v>
+        <v>5.119282742198963e-16</v>
       </c>
       <c r="FH2" t="n">
         <v>0</v>

--- a/log/c660_wt_log.xlsx
+++ b/log/c660_wt_log.xlsx
@@ -1258,125 +1258,125 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>8888</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3514970892147371</v>
+        <v>0.1928776119665326</v>
       </c>
       <c r="D2" t="n">
-        <v>20.78828542189635</v>
+        <v>12.43999324330859</v>
       </c>
       <c r="E2" t="n">
-        <v>30.87602603714937</v>
+        <v>23.50075167156194</v>
       </c>
       <c r="F2" t="n">
-        <v>10.79598591506581</v>
+        <v>15.37351252066274</v>
       </c>
       <c r="G2" t="n">
-        <v>4.451076184841955</v>
+        <v>13.99474142436969</v>
       </c>
       <c r="H2" t="n">
-        <v>0.627849872862693</v>
+        <v>1.184873318967155</v>
       </c>
       <c r="I2" t="n">
-        <v>32.03452314979756</v>
+        <v>33.2529261080554</v>
       </c>
       <c r="J2" t="n">
-        <v>0.06143202706538113</v>
+        <v>0.05147999684046365</v>
       </c>
       <c r="K2" t="n">
-        <v>0.01325335131680187</v>
+        <v>0.008756237745100169</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>2.952091034383236e-05</v>
+        <v>4.82397125765057e-05</v>
       </c>
       <c r="N2" t="n">
-        <v>7.703922829993426e-07</v>
+        <v>1.120573280857707e-06</v>
       </c>
       <c r="O2" t="n">
-        <v>1.985961376398509e-09</v>
+        <v>2.278290141264702e-08</v>
       </c>
       <c r="P2" t="n">
-        <v>6.888519895734363e-15</v>
+        <v>9.250193509448429e-14</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.108854848703124e-15</v>
+        <v>2.913577595551789e-14</v>
       </c>
       <c r="R2" t="n">
-        <v>1.589305646544744e-17</v>
+        <v>1.323370585753708e-16</v>
       </c>
       <c r="S2" t="n">
-        <v>8.903787417131954e-19</v>
+        <v>3.446689632397622e-18</v>
       </c>
       <c r="T2" t="n">
-        <v>4.527155162802647e-19</v>
+        <v>2.333352292513976e-18</v>
       </c>
       <c r="U2" t="n">
-        <v>2.425948187943382e-22</v>
+        <v>5.467633080310347e-21</v>
       </c>
       <c r="V2" t="n">
-        <v>4.502947776946262e-20</v>
+        <v>6.366965415064283e-19</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>4.281724254106976e-36</v>
       </c>
       <c r="X2" t="n">
-        <v>1.51513121912426e-22</v>
+        <v>2.174552548690805e-21</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.182070249297177e-11</v>
+        <v>4.852317156087881e-12</v>
       </c>
       <c r="Z2" t="n">
-        <v>6.100914311238397e-32</v>
+        <v>4.967480240870646e-27</v>
       </c>
       <c r="AA2" t="n">
-        <v>0</v>
+        <v>2.412934717602652e-27</v>
       </c>
       <c r="AB2" t="n">
-        <v>1.793662049747534e-09</v>
+        <v>1.438207756250584e-05</v>
       </c>
       <c r="AC2" t="n">
-        <v>0</v>
+        <v>1.142827251473757e-27</v>
       </c>
       <c r="AD2" t="n">
-        <v>1.238707869787348e-09</v>
+        <v>4.276369317416091e-06</v>
       </c>
       <c r="AE2" t="n">
-        <v>7.493738925596594e-28</v>
+        <v>1.080840222288888e-26</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.247262401926823e-11</v>
+        <v>1.731076638431165e-11</v>
       </c>
       <c r="AG2" t="n">
-        <v>1.136394757033844e-12</v>
+        <v>9.799406787901153e-13</v>
       </c>
       <c r="AH2" t="n">
-        <v>3.423032517393449e-05</v>
+        <v>1.495511500143038e-05</v>
       </c>
       <c r="AI2" t="n">
-        <v>6.424093505802726e-06</v>
+        <v>4.869864887774898e-06</v>
       </c>
       <c r="AJ2" t="n">
-        <v>4.223548609119147e-12</v>
+        <v>3.565140367166433e-12</v>
       </c>
       <c r="AK2" t="n">
         <v>0</v>
       </c>
       <c r="AL2" t="n">
-        <v>4.402624789659949e-14</v>
+        <v>1.790931519741305e-14</v>
       </c>
       <c r="AM2" t="n">
-        <v>1.625692340411667e-15</v>
+        <v>9.518503093434195e-16</v>
       </c>
       <c r="AN2" t="n">
-        <v>1.658415652298465e-18</v>
+        <v>9.35947632938119e-19</v>
       </c>
       <c r="AO2" t="n">
         <v>0</v>
@@ -1388,118 +1388,118 @@
         <v>0</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.0004986683431200219</v>
+        <v>0.0004017632268809834</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.2396853194917016</v>
+        <v>0.1525912197972463</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.350941178606322</v>
+        <v>0.7232104983128499</v>
       </c>
       <c r="AU2" t="n">
-        <v>1.849507820813773</v>
+        <v>1.454984422042396</v>
       </c>
       <c r="AV2" t="n">
-        <v>2.242118071798063</v>
+        <v>3.172195558518868</v>
       </c>
       <c r="AW2" t="n">
-        <v>0.9755572931588912</v>
+        <v>0.8168452376104144</v>
       </c>
       <c r="AX2" t="n">
-        <v>93.1619981305147</v>
+        <v>93.54645882976203</v>
       </c>
       <c r="AY2" t="n">
-        <v>0.1315526878297018</v>
+        <v>0.09927191338325428</v>
       </c>
       <c r="AZ2" t="n">
-        <v>0.04788721394350171</v>
+        <v>0.03345586120904844</v>
       </c>
       <c r="BA2" t="n">
         <v>0</v>
       </c>
       <c r="BB2" t="n">
-        <v>0.0002403072808293013</v>
+        <v>0.0002330662886971851</v>
       </c>
       <c r="BC2" t="n">
-        <v>1.037861407585402e-05</v>
+        <v>8.018516575842684e-06</v>
       </c>
       <c r="BD2" t="n">
-        <v>2.557471497725458e-08</v>
+        <v>1.573238805296212e-07</v>
       </c>
       <c r="BE2" t="n">
-        <v>1.318618384030238e-13</v>
+        <v>9.383292405326399e-13</v>
       </c>
       <c r="BF2" t="n">
-        <v>4.170766350116881e-14</v>
+        <v>3.016229946204186e-13</v>
       </c>
       <c r="BG2" t="n">
-        <v>5.396620021262361e-16</v>
+        <v>2.496990266354542e-15</v>
       </c>
       <c r="BH2" t="n">
-        <v>3.703919845779697e-17</v>
+        <v>7.546710710923669e-17</v>
       </c>
       <c r="BI2" t="n">
-        <v>1.835911599244912e-17</v>
+        <v>4.909562913604741e-17</v>
       </c>
       <c r="BJ2" t="n">
-        <v>1.10605388416395e-20</v>
+        <v>1.409261861921173e-19</v>
       </c>
       <c r="BK2" t="n">
-        <v>1.868722920433879e-18</v>
+        <v>1.526337214749025e-17</v>
       </c>
       <c r="BL2" t="n">
-        <v>1.372513943895427e-36</v>
+        <v>2.445117039099699e-34</v>
       </c>
       <c r="BM2" t="n">
-        <v>6.66979854539755e-21</v>
+        <v>4.917145419533413e-20</v>
       </c>
       <c r="BN2" t="n">
-        <v>2.352174912078328e-12</v>
+        <v>1.190932760726642e-10</v>
       </c>
       <c r="BO2" t="n">
-        <v>1.226959087825827e-30</v>
+        <v>4.514598829620827e-26</v>
       </c>
       <c r="BP2" t="n">
-        <v>2.525098215537728e-34</v>
+        <v>2.930658901470815e-26</v>
       </c>
       <c r="BQ2" t="n">
-        <v>1.906161870997596e-10</v>
+        <v>0.0001494337987684276</v>
       </c>
       <c r="BR2" t="n">
-        <v>7.237344690264337e-36</v>
+        <v>1.60321663299492e-26</v>
       </c>
       <c r="BS2" t="n">
-        <v>8.267894570785628e-11</v>
+        <v>1.307531831012751e-05</v>
       </c>
       <c r="BT2" t="n">
-        <v>5.050392837545223e-26</v>
+        <v>3.857013207865675e-25</v>
       </c>
       <c r="BU2" t="n">
-        <v>2.099413986548547e-12</v>
+        <v>9.272899897467288e-11</v>
       </c>
       <c r="BV2" t="n">
-        <v>1.105959375060462e-13</v>
+        <v>7.060294060007087e-12</v>
       </c>
       <c r="BW2" t="n">
-        <v>2.245291874126622e-06</v>
+        <v>0.0001301969701851178</v>
       </c>
       <c r="BX2" t="n">
-        <v>6.584598654044067e-07</v>
+        <v>5.074765719185652e-05</v>
       </c>
       <c r="BY2" t="n">
-        <v>8.412388872631388e-13</v>
+        <v>4.304299968804226e-11</v>
       </c>
       <c r="BZ2" t="n">
         <v>0</v>
       </c>
       <c r="CA2" t="n">
-        <v>3.019798959613349e-15</v>
+        <v>1.868970115165808e-13</v>
       </c>
       <c r="CB2" t="n">
-        <v>2.195392778918456e-16</v>
+        <v>1.263775812730548e-14</v>
       </c>
       <c r="CC2" t="n">
-        <v>2.798791000157198e-19</v>
+        <v>1.655074432822295e-17</v>
       </c>
       <c r="CD2" t="n">
         <v>0</v>
@@ -1511,118 +1511,118 @@
         <v>0</v>
       </c>
       <c r="CG2" t="n">
-        <v>3.067418861684802e-07</v>
+        <v>2.323098348620454e-07</v>
       </c>
       <c r="CH2" t="n">
-        <v>7.697561138950245e-05</v>
+        <v>5.836499204262659e-05</v>
       </c>
       <c r="CI2" t="n">
-        <v>0.0003951969342515768</v>
+        <v>0.0002990856816248325</v>
       </c>
       <c r="CJ2" t="n">
-        <v>0.0007353375359049172</v>
+        <v>0.0005801319782025823</v>
       </c>
       <c r="CK2" t="n">
-        <v>0.001769693984767946</v>
+        <v>0.002182198152919918</v>
       </c>
       <c r="CL2" t="n">
-        <v>0.01080905770883727</v>
+        <v>0.01517565872040662</v>
       </c>
       <c r="CM2" t="n">
-        <v>99.90194156733509</v>
+        <v>99.91281973416547</v>
       </c>
       <c r="CN2" t="n">
-        <v>0.02303541164484406</v>
+        <v>0.01923223555825232</v>
       </c>
       <c r="CO2" t="n">
-        <v>0.05846258036168871</v>
+        <v>0.04504509415250044</v>
       </c>
       <c r="CP2" t="n">
         <v>0</v>
       </c>
       <c r="CQ2" t="n">
-        <v>0.001974843321152549</v>
+        <v>0.003435751252585715</v>
       </c>
       <c r="CR2" t="n">
-        <v>0.0007979963431563413</v>
+        <v>0.001158665550196013</v>
       </c>
       <c r="CS2" t="n">
-        <v>1.032401008978719e-06</v>
+        <v>1.284642266313932e-05</v>
       </c>
       <c r="CT2" t="n">
-        <v>5.460766637238191e-11</v>
+        <v>7.666206453994388e-10</v>
       </c>
       <c r="CU2" t="n">
-        <v>1.912915197662088e-11</v>
+        <v>2.788579032482515e-10</v>
       </c>
       <c r="CV2" t="n">
-        <v>1.92853928101543e-12</v>
+        <v>1.630325551688123e-11</v>
       </c>
       <c r="CW2" t="n">
-        <v>1.918191780804434e-13</v>
+        <v>7.343894977171782e-13</v>
       </c>
       <c r="CX2" t="n">
-        <v>1.26890951443159e-13</v>
+        <v>6.498156325510332e-13</v>
       </c>
       <c r="CY2" t="n">
-        <v>1.875318740125801e-16</v>
+        <v>4.582188686360141e-15</v>
       </c>
       <c r="CZ2" t="n">
-        <v>7.960450102945499e-15</v>
+        <v>1.249052537847433e-13</v>
       </c>
       <c r="DA2" t="n">
-        <v>1.75134270280955e-24</v>
+        <v>3.807450243146688e-24</v>
       </c>
       <c r="DB2" t="n">
-        <v>9.096858182708633e-17</v>
+        <v>1.386241835503559e-15</v>
       </c>
       <c r="DC2" t="n">
-        <v>1.382801702074209e-27</v>
+        <v>2.925160114085208e-27</v>
       </c>
       <c r="DD2" t="n">
-        <v>7.009272411816171e-24</v>
+        <v>2.878715092039522e-20</v>
       </c>
       <c r="DE2" t="n">
-        <v>1.387040749577175e-24</v>
+        <v>1.534624879484814e-20</v>
       </c>
       <c r="DF2" t="n">
-        <v>4.256969890419802e-28</v>
+        <v>1.286959189548042e-23</v>
       </c>
       <c r="DG2" t="n">
-        <v>5.582326328030815e-25</v>
+        <v>7.221181425492822e-21</v>
       </c>
       <c r="DH2" t="n">
-        <v>3.014638930135636e-35</v>
+        <v>1.723271076262677e-25</v>
       </c>
       <c r="DI2" t="n">
-        <v>4.227184969208193e-21</v>
+        <v>6.522816635845221e-20</v>
       </c>
       <c r="DJ2" t="n">
-        <v>3.820873131077883e-14</v>
+        <v>2.780819125070813e-14</v>
       </c>
       <c r="DK2" t="n">
-        <v>1.804401134676397e-15</v>
+        <v>1.26101880549165e-15</v>
       </c>
       <c r="DL2" t="n">
         <v>0</v>
       </c>
       <c r="DM2" t="n">
-        <v>1.724735700785842e-31</v>
+        <v>6.927726357318771e-31</v>
       </c>
       <c r="DN2" t="n">
-        <v>6.558189004058982e-15</v>
+        <v>4.474961332827476e-15</v>
       </c>
       <c r="DO2" t="n">
         <v>0</v>
       </c>
       <c r="DP2" t="n">
-        <v>3.917137643429477e-17</v>
+        <v>2.512899489162268e-17</v>
       </c>
       <c r="DQ2" t="n">
-        <v>1.73714162077538e-18</v>
+        <v>1.090840577061882e-18</v>
       </c>
       <c r="DR2" t="n">
-        <v>1.295356152450408e-21</v>
+        <v>8.337419066987926e-22</v>
       </c>
       <c r="DS2" t="n">
         <v>0</v>
@@ -1634,118 +1634,118 @@
         <v>0</v>
       </c>
       <c r="DV2" t="n">
-        <v>1.528277188631658e-09</v>
+        <v>1.35961623684918e-09</v>
       </c>
       <c r="DW2" t="n">
-        <v>6.100385015861622e-08</v>
+        <v>3.989146389239249e-08</v>
       </c>
       <c r="DX2" t="n">
-        <v>1.335318905772428e-07</v>
+        <v>1.57155900025811e-07</v>
       </c>
       <c r="DY2" t="n">
-        <v>1.149051751719298e-27</v>
+        <v>7.086487209344591e-28</v>
       </c>
       <c r="DZ2" t="n">
-        <v>5.390242555161386e-20</v>
+        <v>2.949745215598728e-20</v>
       </c>
       <c r="EA2" t="n">
-        <v>1.173198293448328e-12</v>
+        <v>6.978595614205946e-13</v>
       </c>
       <c r="EB2" t="n">
-        <v>0.004361323251807471</v>
+        <v>0.004366053964029099</v>
       </c>
       <c r="EC2" t="n">
-        <v>4.091998100005618e-07</v>
+        <v>2.18512531100407e-07</v>
       </c>
       <c r="ED2" t="n">
-        <v>0.0001601297257438549</v>
+        <v>0.0001063746431887429</v>
       </c>
       <c r="EE2" t="n">
         <v>0</v>
       </c>
       <c r="EF2" t="n">
-        <v>0.02107939209528966</v>
+        <v>0.03476218641819271</v>
       </c>
       <c r="EG2" t="n">
-        <v>95.81310444741889</v>
+        <v>85.97396949368557</v>
       </c>
       <c r="EH2" t="n">
-        <v>0.01205497480889129</v>
+        <v>0.0713507491201236</v>
       </c>
       <c r="EI2" t="n">
-        <v>0.008981639649232617</v>
+        <v>0.06105497492454263</v>
       </c>
       <c r="EJ2" t="n">
-        <v>0.007384948091595608</v>
+        <v>0.04993488158401484</v>
       </c>
       <c r="EK2" t="n">
-        <v>1.844469687512324</v>
+        <v>7.713166174799547</v>
       </c>
       <c r="EL2" t="n">
-        <v>0.8465975968281253</v>
+        <v>1.556230444835868</v>
       </c>
       <c r="EM2" t="n">
-        <v>1.302965180821242</v>
+        <v>3.244013529989352</v>
       </c>
       <c r="EN2" t="n">
-        <v>0.07761561717450505</v>
+        <v>0.9000986682747211</v>
       </c>
       <c r="EO2" t="n">
-        <v>0.01614678819581189</v>
+        <v>0.1095474413030005</v>
       </c>
       <c r="EP2" t="n">
-        <v>3.029070563584932e-08</v>
+        <v>2.990625162595884e-08</v>
       </c>
       <c r="EQ2" t="n">
-        <v>0.03574249546428865</v>
+        <v>0.2432209844230772</v>
       </c>
       <c r="ER2" t="n">
-        <v>5.047492972074742e-09</v>
+        <v>4.884977920698157e-09</v>
       </c>
       <c r="ES2" t="n">
-        <v>1.461867202229782e-06</v>
+        <v>0.002810280342991076</v>
       </c>
       <c r="ET2" t="n">
-        <v>5.460348203451919e-07</v>
+        <v>0.002809376907740957</v>
       </c>
       <c r="EU2" t="n">
-        <v>4.386567911546125e-07</v>
+        <v>0.005490406249415735</v>
       </c>
       <c r="EV2" t="n">
-        <v>2.361146573277556e-07</v>
+        <v>0.001404653297038482</v>
       </c>
       <c r="EW2" t="n">
-        <v>2.610963785359511e-07</v>
+        <v>0.001404667460339427</v>
       </c>
       <c r="EX2" t="n">
-        <v>0.002892995292462147</v>
+        <v>0.01940660684783469</v>
       </c>
       <c r="EY2" t="n">
-        <v>5.752873497525722e-09</v>
+        <v>5.530628674547732e-09</v>
       </c>
       <c r="EZ2" t="n">
-        <v>2.461432399691903e-10</v>
+        <v>2.357280224867792e-10</v>
       </c>
       <c r="FA2" t="n">
-        <v>0.005132688645593005</v>
+        <v>0.003830207872575589</v>
       </c>
       <c r="FB2" t="n">
-        <v>0.00130650369525937</v>
+        <v>0.00102138463213042</v>
       </c>
       <c r="FC2" t="n">
-        <v>9.465313736330314e-10</v>
+        <v>9.368093775302969e-10</v>
       </c>
       <c r="FD2" t="n">
         <v>0</v>
       </c>
       <c r="FE2" t="n">
-        <v>9.888029907146588e-12</v>
+        <v>9.662719907641609e-12</v>
       </c>
       <c r="FF2" t="n">
-        <v>4.760742266249713e-13</v>
+        <v>4.664201737322191e-13</v>
       </c>
       <c r="FG2" t="n">
-        <v>5.119282742198963e-16</v>
+        <v>5.216459149096644e-16</v>
       </c>
       <c r="FH2" t="n">
         <v>0</v>

--- a/log/c660_wt_log.xlsx
+++ b/log/c660_wt_log.xlsx
@@ -1258,125 +1258,125 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>8888</t>
+          <t>12345</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1928776119665326</v>
+        <v>1.300778286682808</v>
       </c>
       <c r="D2" t="n">
-        <v>12.43999324330859</v>
+        <v>45.3598719468184</v>
       </c>
       <c r="E2" t="n">
-        <v>23.50075167156194</v>
+        <v>19.67025931620365</v>
       </c>
       <c r="F2" t="n">
-        <v>15.37351252066274</v>
+        <v>2.368164048953708</v>
       </c>
       <c r="G2" t="n">
-        <v>13.99474142436969</v>
+        <v>0.5464694633731439</v>
       </c>
       <c r="H2" t="n">
-        <v>1.184873318967155</v>
+        <v>0.2426460450483535</v>
       </c>
       <c r="I2" t="n">
-        <v>33.2529261080554</v>
+        <v>30.46675805909428</v>
       </c>
       <c r="J2" t="n">
-        <v>0.05147999684046365</v>
+        <v>0.03533307281953858</v>
       </c>
       <c r="K2" t="n">
-        <v>0.008756237745100169</v>
+        <v>0.009683236158709073</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>4.82397125765057e-05</v>
+        <v>2.275603631603052e-05</v>
       </c>
       <c r="N2" t="n">
-        <v>1.120573280857707e-06</v>
+        <v>1.048735232142365e-06</v>
       </c>
       <c r="O2" t="n">
-        <v>2.278290141264702e-08</v>
+        <v>2.246103845998525e-09</v>
       </c>
       <c r="P2" t="n">
-        <v>9.250193509448429e-14</v>
+        <v>7.90335789633363e-15</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.913577595551789e-14</v>
+        <v>2.567675363087548e-15</v>
       </c>
       <c r="R2" t="n">
-        <v>1.323370585753708e-16</v>
+        <v>2.902107559707894e-17</v>
       </c>
       <c r="S2" t="n">
-        <v>3.446689632397622e-18</v>
+        <v>1.83468833662198e-18</v>
       </c>
       <c r="T2" t="n">
-        <v>2.333352292513976e-18</v>
+        <v>1.02246419955469e-18</v>
       </c>
       <c r="U2" t="n">
-        <v>5.467633080310347e-21</v>
+        <v>4.810204055295343e-22</v>
       </c>
       <c r="V2" t="n">
-        <v>6.366965415064283e-19</v>
+        <v>8.456779491083776e-20</v>
       </c>
       <c r="W2" t="n">
-        <v>4.281724254106976e-36</v>
+        <v>3.157797785067248e-34</v>
       </c>
       <c r="X2" t="n">
-        <v>2.174552548690805e-21</v>
+        <v>2.257785225894351e-22</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.852317156087881e-12</v>
+        <v>1.548429335018624e-11</v>
       </c>
       <c r="Z2" t="n">
-        <v>4.967480240870646e-27</v>
+        <v>1.326625904226776e-31</v>
       </c>
       <c r="AA2" t="n">
-        <v>2.412934717602652e-27</v>
+        <v>0</v>
       </c>
       <c r="AB2" t="n">
-        <v>1.438207756250584e-05</v>
+        <v>6.738865238097387e-10</v>
       </c>
       <c r="AC2" t="n">
-        <v>1.142827251473757e-27</v>
+        <v>0</v>
       </c>
       <c r="AD2" t="n">
-        <v>4.276369317416091e-06</v>
+        <v>2.067639194122198e-10</v>
       </c>
       <c r="AE2" t="n">
-        <v>1.080840222288888e-26</v>
+        <v>1.144140179926227e-27</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.731076638431165e-11</v>
+        <v>1.45818864225992e-11</v>
       </c>
       <c r="AG2" t="n">
-        <v>9.799406787901153e-13</v>
+        <v>2.551813732729413e-13</v>
       </c>
       <c r="AH2" t="n">
-        <v>1.495511500143038e-05</v>
+        <v>6.850693090186781e-06</v>
       </c>
       <c r="AI2" t="n">
-        <v>4.869864887774898e-06</v>
+        <v>5.866224767891855e-06</v>
       </c>
       <c r="AJ2" t="n">
-        <v>3.565140367166433e-12</v>
+        <v>8.990714186643479e-13</v>
       </c>
       <c r="AK2" t="n">
         <v>0</v>
       </c>
       <c r="AL2" t="n">
-        <v>1.790931519741305e-14</v>
+        <v>1.993794702226832e-14</v>
       </c>
       <c r="AM2" t="n">
-        <v>9.518503093434195e-16</v>
+        <v>1.054651456700571e-15</v>
       </c>
       <c r="AN2" t="n">
-        <v>9.35947632938119e-19</v>
+        <v>2.858690715821015e-19</v>
       </c>
       <c r="AO2" t="n">
         <v>0</v>
@@ -1388,118 +1388,118 @@
         <v>0</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.0004017632268809834</v>
+        <v>0.0004239857807067559</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.1525912197972463</v>
+        <v>0.2470363463502058</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.7232104983128499</v>
+        <v>0.8451241758966217</v>
       </c>
       <c r="AU2" t="n">
-        <v>1.454984422042396</v>
+        <v>0.6242498216930996</v>
       </c>
       <c r="AV2" t="n">
-        <v>3.172195558518868</v>
+        <v>0.6504600487215508</v>
       </c>
       <c r="AW2" t="n">
-        <v>0.8168452376104144</v>
+        <v>0.3993246753076495</v>
       </c>
       <c r="AX2" t="n">
-        <v>93.54645882976203</v>
+        <v>97.10980502300004</v>
       </c>
       <c r="AY2" t="n">
-        <v>0.09927191338325428</v>
+        <v>0.09306829687074347</v>
       </c>
       <c r="AZ2" t="n">
-        <v>0.03345586120904844</v>
+        <v>0.03039805189864746</v>
       </c>
       <c r="BA2" t="n">
         <v>0</v>
       </c>
       <c r="BB2" t="n">
-        <v>0.0002330662886971851</v>
+        <v>0.0001028748585929072</v>
       </c>
       <c r="BC2" t="n">
-        <v>8.018516575842684e-06</v>
+        <v>6.60641519344839e-06</v>
       </c>
       <c r="BD2" t="n">
-        <v>1.573238805296212e-07</v>
+        <v>1.058587405984551e-08</v>
       </c>
       <c r="BE2" t="n">
-        <v>9.383292405326399e-13</v>
+        <v>7.70549586540187e-14</v>
       </c>
       <c r="BF2" t="n">
-        <v>3.016229946204186e-13</v>
+        <v>2.210895777294602e-14</v>
       </c>
       <c r="BG2" t="n">
-        <v>2.496990266354542e-15</v>
+        <v>4.853268118415434e-16</v>
       </c>
       <c r="BH2" t="n">
-        <v>7.546710710923669e-17</v>
+        <v>3.537301797191645e-17</v>
       </c>
       <c r="BI2" t="n">
-        <v>4.909562913604741e-17</v>
+        <v>1.657921822603471e-17</v>
       </c>
       <c r="BJ2" t="n">
-        <v>1.409261861921173e-19</v>
+        <v>1.211665666715709e-20</v>
       </c>
       <c r="BK2" t="n">
-        <v>1.526337214749025e-17</v>
+        <v>1.354566998667167e-18</v>
       </c>
       <c r="BL2" t="n">
-        <v>2.445117039099699e-34</v>
+        <v>1.732717106775633e-32</v>
       </c>
       <c r="BM2" t="n">
-        <v>4.917145419533413e-20</v>
+        <v>3.678648652471997e-21</v>
       </c>
       <c r="BN2" t="n">
-        <v>1.190932760726642e-10</v>
+        <v>6.954473587095637e-14</v>
       </c>
       <c r="BO2" t="n">
-        <v>4.514598829620827e-26</v>
+        <v>5.826423771655988e-30</v>
       </c>
       <c r="BP2" t="n">
-        <v>2.930658901470815e-26</v>
+        <v>3.19211648733128e-33</v>
       </c>
       <c r="BQ2" t="n">
-        <v>0.0001494337987684276</v>
+        <v>2.220160922812378e-12</v>
       </c>
       <c r="BR2" t="n">
-        <v>1.60321663299492e-26</v>
+        <v>2.530761486419587e-35</v>
       </c>
       <c r="BS2" t="n">
-        <v>1.307531831012751e-05</v>
+        <v>2.18923304004217e-12</v>
       </c>
       <c r="BT2" t="n">
-        <v>3.857013207865675e-25</v>
+        <v>3.198961734572131e-26</v>
       </c>
       <c r="BU2" t="n">
-        <v>9.272899897467288e-11</v>
+        <v>5.145626866047262e-14</v>
       </c>
       <c r="BV2" t="n">
-        <v>7.060294060007087e-12</v>
+        <v>2.246496981172257e-15</v>
       </c>
       <c r="BW2" t="n">
-        <v>0.0001301969701851178</v>
+        <v>7.159142218081187e-08</v>
       </c>
       <c r="BX2" t="n">
-        <v>5.074765719185652e-05</v>
+        <v>1.102501905754562e-08</v>
       </c>
       <c r="BY2" t="n">
-        <v>4.304299968804226e-11</v>
+        <v>1.931958209963424e-14</v>
       </c>
       <c r="BZ2" t="n">
         <v>0</v>
       </c>
       <c r="CA2" t="n">
-        <v>1.868970115165808e-13</v>
+        <v>7.54951016049231e-17</v>
       </c>
       <c r="CB2" t="n">
-        <v>1.263775812730548e-14</v>
+        <v>4.6699990092233e-18</v>
       </c>
       <c r="CC2" t="n">
-        <v>1.655074432822295e-17</v>
+        <v>4.180054411553439e-21</v>
       </c>
       <c r="CD2" t="n">
         <v>0</v>
@@ -1511,118 +1511,118 @@
         <v>0</v>
       </c>
       <c r="CG2" t="n">
-        <v>2.323098348620454e-07</v>
+        <v>1.369466190152899e-07</v>
       </c>
       <c r="CH2" t="n">
-        <v>5.836499204262659e-05</v>
+        <v>3.528630407376185e-05</v>
       </c>
       <c r="CI2" t="n">
-        <v>0.0002990856816248325</v>
+        <v>0.0001795601482243748</v>
       </c>
       <c r="CJ2" t="n">
-        <v>0.0005801319782025823</v>
+        <v>0.0003436094117188333</v>
       </c>
       <c r="CK2" t="n">
-        <v>0.002182198152919918</v>
+        <v>0.00083404022812636</v>
       </c>
       <c r="CL2" t="n">
-        <v>0.01517565872040662</v>
+        <v>0.003604815916631239</v>
       </c>
       <c r="CM2" t="n">
-        <v>99.91281973416547</v>
+        <v>99.93867024337625</v>
       </c>
       <c r="CN2" t="n">
-        <v>0.01923223555825232</v>
+        <v>0.01459721989817371</v>
       </c>
       <c r="CO2" t="n">
-        <v>0.04504509415250044</v>
+        <v>0.03991172358663198</v>
       </c>
       <c r="CP2" t="n">
         <v>0</v>
       </c>
       <c r="CQ2" t="n">
-        <v>0.003435751252585715</v>
+        <v>0.001090778141566707</v>
       </c>
       <c r="CR2" t="n">
-        <v>0.001158665550196013</v>
+        <v>0.0007318339227713926</v>
       </c>
       <c r="CS2" t="n">
-        <v>1.284642266313932e-05</v>
+        <v>7.520500404649657e-07</v>
       </c>
       <c r="CT2" t="n">
-        <v>7.666206453994388e-10</v>
+        <v>4.955645347973043e-11</v>
       </c>
       <c r="CU2" t="n">
-        <v>2.788579032482515e-10</v>
+        <v>1.681584734996085e-11</v>
       </c>
       <c r="CV2" t="n">
-        <v>1.630325551688123e-11</v>
+        <v>2.37609996138221e-12</v>
       </c>
       <c r="CW2" t="n">
-        <v>7.343894977171782e-13</v>
+        <v>2.467070664189299e-13</v>
       </c>
       <c r="CX2" t="n">
-        <v>6.498156325510332e-13</v>
+        <v>1.655664364457823e-13</v>
       </c>
       <c r="CY2" t="n">
-        <v>4.582188686360141e-15</v>
+        <v>2.667271349815331e-16</v>
       </c>
       <c r="CZ2" t="n">
-        <v>1.249052537847433e-13</v>
+        <v>8.33904213316978e-15</v>
       </c>
       <c r="DA2" t="n">
-        <v>3.807450243146688e-24</v>
+        <v>1.55008503011722e-24</v>
       </c>
       <c r="DB2" t="n">
-        <v>1.386241835503559e-15</v>
+        <v>8.042613203451968e-17</v>
       </c>
       <c r="DC2" t="n">
-        <v>2.925160114085208e-27</v>
+        <v>1.442064535843736e-27</v>
       </c>
       <c r="DD2" t="n">
-        <v>2.878715092039522e-20</v>
+        <v>3.205843758387875e-24</v>
       </c>
       <c r="DE2" t="n">
-        <v>1.534624879484814e-20</v>
+        <v>6.366669749909915e-25</v>
       </c>
       <c r="DF2" t="n">
-        <v>1.286959189548042e-23</v>
+        <v>3.353171421691115e-28</v>
       </c>
       <c r="DG2" t="n">
-        <v>7.221181425492822e-21</v>
+        <v>2.522805560781773e-25</v>
       </c>
       <c r="DH2" t="n">
-        <v>1.723271076262677e-25</v>
+        <v>2.480869684641671e-32</v>
       </c>
       <c r="DI2" t="n">
-        <v>6.522816635845221e-20</v>
+        <v>4.062858766584028e-21</v>
       </c>
       <c r="DJ2" t="n">
-        <v>2.780819125070813e-14</v>
+        <v>8.204270379516071e-16</v>
       </c>
       <c r="DK2" t="n">
-        <v>1.26101880549165e-15</v>
+        <v>3.774903108470907e-17</v>
       </c>
       <c r="DL2" t="n">
-        <v>0</v>
+        <v>3.784309417379376e-28</v>
       </c>
       <c r="DM2" t="n">
-        <v>6.927726357318771e-31</v>
+        <v>1.538550813644185e-28</v>
       </c>
       <c r="DN2" t="n">
-        <v>4.474961332827476e-15</v>
+        <v>7.980350804519587e-17</v>
       </c>
       <c r="DO2" t="n">
         <v>0</v>
       </c>
       <c r="DP2" t="n">
-        <v>2.512899489162268e-17</v>
+        <v>1.640591016375777e-18</v>
       </c>
       <c r="DQ2" t="n">
-        <v>1.090840577061882e-18</v>
+        <v>1.277032197741864e-19</v>
       </c>
       <c r="DR2" t="n">
-        <v>8.337419066987926e-22</v>
+        <v>1.512045720340679e-22</v>
       </c>
       <c r="DS2" t="n">
         <v>0</v>
@@ -1634,118 +1634,118 @@
         <v>0</v>
       </c>
       <c r="DV2" t="n">
-        <v>1.35961623684918e-09</v>
+        <v>1.981289701886799e-11</v>
       </c>
       <c r="DW2" t="n">
-        <v>3.989146389239249e-08</v>
+        <v>2.169401117250351e-09</v>
       </c>
       <c r="DX2" t="n">
-        <v>1.57155900025811e-07</v>
+        <v>1.965978622334773e-09</v>
       </c>
       <c r="DY2" t="n">
-        <v>7.086487209344591e-28</v>
+        <v>3.647833026499296e-27</v>
       </c>
       <c r="DZ2" t="n">
-        <v>2.949745215598728e-20</v>
+        <v>1.173765865291331e-19</v>
       </c>
       <c r="EA2" t="n">
-        <v>6.978595614205946e-13</v>
+        <v>1.677287367070355e-12</v>
       </c>
       <c r="EB2" t="n">
-        <v>0.004366053964029099</v>
+        <v>0.004298609917787415</v>
       </c>
       <c r="EC2" t="n">
-        <v>2.18512531100407e-07</v>
+        <v>4.37995515771131e-07</v>
       </c>
       <c r="ED2" t="n">
-        <v>0.0001063746431887429</v>
+        <v>0.0001147643552576311</v>
       </c>
       <c r="EE2" t="n">
         <v>0</v>
       </c>
       <c r="EF2" t="n">
-        <v>0.03476218641819271</v>
+        <v>0.01069957512654854</v>
       </c>
       <c r="EG2" t="n">
-        <v>85.97396949368557</v>
+        <v>94.87699815064168</v>
       </c>
       <c r="EH2" t="n">
-        <v>0.0713507491201236</v>
+        <v>0.01298371424433137</v>
       </c>
       <c r="EI2" t="n">
-        <v>0.06105497492454263</v>
+        <v>0.01101967262719545</v>
       </c>
       <c r="EJ2" t="n">
-        <v>0.04993488158401484</v>
+        <v>0.009065991597406809</v>
       </c>
       <c r="EK2" t="n">
-        <v>7.713166174799547</v>
+        <v>2.266607769834402</v>
       </c>
       <c r="EL2" t="n">
-        <v>1.556230444835868</v>
+        <v>1.03900983672772</v>
       </c>
       <c r="EM2" t="n">
-        <v>3.244013529989352</v>
+        <v>1.598801406366499</v>
       </c>
       <c r="EN2" t="n">
-        <v>0.9000986682747211</v>
+        <v>0.09515742205042096</v>
       </c>
       <c r="EO2" t="n">
-        <v>0.1095474413030005</v>
+        <v>0.01984318486708495</v>
       </c>
       <c r="EP2" t="n">
-        <v>2.990625162595884e-08</v>
+        <v>2.633611716118119e-08</v>
       </c>
       <c r="EQ2" t="n">
-        <v>0.2432209844230772</v>
+        <v>0.04392849946134049</v>
       </c>
       <c r="ER2" t="n">
-        <v>4.884977920698157e-09</v>
+        <v>4.757646174726932e-09</v>
       </c>
       <c r="ES2" t="n">
-        <v>0.002810280342991076</v>
+        <v>6.566681192370355e-07</v>
       </c>
       <c r="ET2" t="n">
-        <v>0.002809376907740957</v>
+        <v>2.459115696386325e-07</v>
       </c>
       <c r="EU2" t="n">
-        <v>0.005490406249415735</v>
+        <v>2.088259053290691e-07</v>
       </c>
       <c r="EV2" t="n">
-        <v>0.001404653297038482</v>
+        <v>1.075609006847143e-07</v>
       </c>
       <c r="EW2" t="n">
-        <v>0.001404667460339427</v>
+        <v>1.269035588645503e-07</v>
       </c>
       <c r="EX2" t="n">
-        <v>0.01940660684783469</v>
+        <v>0.003555570440392395</v>
       </c>
       <c r="EY2" t="n">
-        <v>5.530628674547732e-09</v>
+        <v>2.771501148684293e-09</v>
       </c>
       <c r="EZ2" t="n">
-        <v>2.357280224867792e-10</v>
+        <v>1.634146084040362e-10</v>
       </c>
       <c r="FA2" t="n">
-        <v>0.003830207872575589</v>
+        <v>0.006308268673639802</v>
       </c>
       <c r="FB2" t="n">
-        <v>0.00102138463213042</v>
+        <v>0.00160574066361484</v>
       </c>
       <c r="FC2" t="n">
-        <v>9.368093775302969e-10</v>
+        <v>3.49601970631546e-10</v>
       </c>
       <c r="FD2" t="n">
         <v>0</v>
       </c>
       <c r="FE2" t="n">
-        <v>9.662719907641609e-12</v>
+        <v>3.711378518035308e-12</v>
       </c>
       <c r="FF2" t="n">
-        <v>4.664201737322191e-13</v>
+        <v>2.552764266791381e-13</v>
       </c>
       <c r="FG2" t="n">
-        <v>5.216459149096644e-16</v>
+        <v>2.55934016890914e-16</v>
       </c>
       <c r="FH2" t="n">
         <v>0</v>

--- a/log/c660_wt_log.xlsx
+++ b/log/c660_wt_log.xlsx
@@ -1258,125 +1258,125 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>12345</t>
+          <t>4321</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>1.300778286682808</v>
+        <v>0.1723536754579642</v>
       </c>
       <c r="D2" t="n">
-        <v>45.3598719468184</v>
+        <v>11.16560673952573</v>
       </c>
       <c r="E2" t="n">
-        <v>19.67025931620365</v>
+        <v>21.2413456009288</v>
       </c>
       <c r="F2" t="n">
-        <v>2.368164048953708</v>
+        <v>14.19123305931872</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5464694633731439</v>
+        <v>13.79984429112124</v>
       </c>
       <c r="H2" t="n">
-        <v>0.2426460450483535</v>
+        <v>1.035019840171578</v>
       </c>
       <c r="I2" t="n">
-        <v>30.46675805909428</v>
+        <v>38.33249150327631</v>
       </c>
       <c r="J2" t="n">
-        <v>0.03533307281953858</v>
+        <v>0.05266247094253304</v>
       </c>
       <c r="K2" t="n">
-        <v>0.009683236158709073</v>
+        <v>0.009418184771220599</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>2.275603631603052e-05</v>
+        <v>1.915861920145388e-05</v>
       </c>
       <c r="N2" t="n">
-        <v>1.048735232142365e-06</v>
+        <v>1.245807372594003e-06</v>
       </c>
       <c r="O2" t="n">
-        <v>2.246103845998525e-09</v>
+        <v>1.724142384641729e-09</v>
       </c>
       <c r="P2" t="n">
-        <v>7.90335789633363e-15</v>
+        <v>9.600470551129914e-15</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.567675363087548e-15</v>
+        <v>2.785560658950251e-15</v>
       </c>
       <c r="R2" t="n">
-        <v>2.902107559707894e-17</v>
+        <v>3.230767214312557e-17</v>
       </c>
       <c r="S2" t="n">
-        <v>1.83468833662198e-18</v>
+        <v>2.007308867173999e-18</v>
       </c>
       <c r="T2" t="n">
-        <v>1.02246419955469e-18</v>
+        <v>1.031228390190098e-18</v>
       </c>
       <c r="U2" t="n">
-        <v>4.810204055295343e-22</v>
+        <v>5.473581821584384e-22</v>
       </c>
       <c r="V2" t="n">
-        <v>8.456779491083776e-20</v>
+        <v>6.408973334030364e-20</v>
       </c>
       <c r="W2" t="n">
-        <v>3.157797785067248e-34</v>
+        <v>1.441715861580557e-34</v>
       </c>
       <c r="X2" t="n">
-        <v>2.257785225894351e-22</v>
+        <v>2.088118129376608e-22</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.548429335018624e-11</v>
+        <v>1.399040162611059e-12</v>
       </c>
       <c r="Z2" t="n">
-        <v>1.326625904226776e-31</v>
+        <v>8.679795782856252e-32</v>
       </c>
       <c r="AA2" t="n">
-        <v>0</v>
+        <v>8.569506462044619e-35</v>
       </c>
       <c r="AB2" t="n">
-        <v>6.738865238097387e-10</v>
+        <v>1.413568036587519e-10</v>
       </c>
       <c r="AC2" t="n">
-        <v>0</v>
+        <v>3.751963714166011e-36</v>
       </c>
       <c r="AD2" t="n">
-        <v>2.067639194122198e-10</v>
+        <v>5.619268669592193e-11</v>
       </c>
       <c r="AE2" t="n">
-        <v>1.144140179926227e-27</v>
+        <v>1.120430188551064e-27</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.45818864225992e-11</v>
+        <v>3.571530512968619e-12</v>
       </c>
       <c r="AG2" t="n">
-        <v>2.551813732729413e-13</v>
+        <v>9.943806290165491e-14</v>
       </c>
       <c r="AH2" t="n">
-        <v>6.850693090186781e-06</v>
+        <v>2.817261449466893e-06</v>
       </c>
       <c r="AI2" t="n">
-        <v>5.866224767891855e-06</v>
+        <v>1.410870715169828e-06</v>
       </c>
       <c r="AJ2" t="n">
-        <v>8.990714186643479e-13</v>
+        <v>3.630069966375354e-13</v>
       </c>
       <c r="AK2" t="n">
         <v>0</v>
       </c>
       <c r="AL2" t="n">
-        <v>1.993794702226832e-14</v>
+        <v>1.942420759729417e-15</v>
       </c>
       <c r="AM2" t="n">
-        <v>1.054651456700571e-15</v>
+        <v>1.204297946031501e-16</v>
       </c>
       <c r="AN2" t="n">
-        <v>2.858690715821015e-19</v>
+        <v>1.149438517387512e-19</v>
       </c>
       <c r="AO2" t="n">
         <v>0</v>
@@ -1388,118 +1388,118 @@
         <v>0</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.0004239857807067559</v>
+        <v>0.0003140787177819695</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.2470363463502058</v>
+        <v>0.1308877122757794</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.8451241758966217</v>
+        <v>0.7137823866975006</v>
       </c>
       <c r="AU2" t="n">
-        <v>0.6242498216930996</v>
+        <v>1.402995462496726</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.6504600487215508</v>
+        <v>3.293467578261548</v>
       </c>
       <c r="AW2" t="n">
-        <v>0.3993246753076495</v>
+        <v>0.7578462647671792</v>
       </c>
       <c r="AX2" t="n">
-        <v>97.10980502300004</v>
+        <v>93.5786443795897</v>
       </c>
       <c r="AY2" t="n">
-        <v>0.09306829687074347</v>
+        <v>0.09112943204081432</v>
       </c>
       <c r="AZ2" t="n">
-        <v>0.03039805189864746</v>
+        <v>0.03076715523533841</v>
       </c>
       <c r="BA2" t="n">
         <v>0</v>
       </c>
       <c r="BB2" t="n">
-        <v>0.0001028748585929072</v>
+        <v>0.0001141109244653482</v>
       </c>
       <c r="BC2" t="n">
-        <v>6.60641519344839e-06</v>
+        <v>1.267871946174528e-05</v>
       </c>
       <c r="BD2" t="n">
-        <v>1.058587405984551e-08</v>
+        <v>2.70305352417674e-08</v>
       </c>
       <c r="BE2" t="n">
-        <v>7.70549586540187e-14</v>
+        <v>1.703633613036688e-13</v>
       </c>
       <c r="BF2" t="n">
-        <v>2.210895777294602e-14</v>
+        <v>5.270098996943236e-14</v>
       </c>
       <c r="BG2" t="n">
-        <v>4.853268118415434e-16</v>
+        <v>8.816530613337876e-16</v>
       </c>
       <c r="BH2" t="n">
-        <v>3.537301797191645e-17</v>
+        <v>6.339056249334799e-17</v>
       </c>
       <c r="BI2" t="n">
-        <v>1.657921822603471e-17</v>
+        <v>3.05233468992042e-17</v>
       </c>
       <c r="BJ2" t="n">
-        <v>1.211665666715709e-20</v>
+        <v>2.103410121156982e-20</v>
       </c>
       <c r="BK2" t="n">
-        <v>1.354566998667167e-18</v>
+        <v>2.996100365713975e-18</v>
       </c>
       <c r="BL2" t="n">
-        <v>1.732717106775633e-32</v>
+        <v>7.108926002034298e-33</v>
       </c>
       <c r="BM2" t="n">
-        <v>3.678648652471997e-21</v>
+        <v>9.259123517331972e-21</v>
       </c>
       <c r="BN2" t="n">
-        <v>6.954473587095637e-14</v>
+        <v>1.636691623714086e-11</v>
       </c>
       <c r="BO2" t="n">
-        <v>5.826423771655988e-30</v>
+        <v>7.562568753047839e-31</v>
       </c>
       <c r="BP2" t="n">
-        <v>3.19211648733128e-33</v>
+        <v>4.557315064275548e-33</v>
       </c>
       <c r="BQ2" t="n">
-        <v>2.220160922812378e-12</v>
+        <v>8.612754848170275e-10</v>
       </c>
       <c r="BR2" t="n">
-        <v>2.530761486419587e-35</v>
+        <v>4.293719748468873e-34</v>
       </c>
       <c r="BS2" t="n">
-        <v>2.18923304004217e-12</v>
+        <v>1.343949513902271e-10</v>
       </c>
       <c r="BT2" t="n">
-        <v>3.198961734572131e-26</v>
+        <v>7.160743864011315e-26</v>
       </c>
       <c r="BU2" t="n">
-        <v>5.145626866047262e-14</v>
+        <v>7.0007952693063e-12</v>
       </c>
       <c r="BV2" t="n">
-        <v>2.246496981172257e-15</v>
+        <v>5.906596746537663e-13</v>
       </c>
       <c r="BW2" t="n">
-        <v>7.159142218081187e-08</v>
+        <v>2.395508364400211e-05</v>
       </c>
       <c r="BX2" t="n">
-        <v>1.102501905754562e-08</v>
+        <v>1.477713603142483e-05</v>
       </c>
       <c r="BY2" t="n">
-        <v>1.931958209963424e-14</v>
+        <v>3.646607866203549e-12</v>
       </c>
       <c r="BZ2" t="n">
         <v>0</v>
       </c>
       <c r="CA2" t="n">
-        <v>7.54951016049231e-17</v>
+        <v>1.49437993723921e-14</v>
       </c>
       <c r="CB2" t="n">
-        <v>4.6699990092233e-18</v>
+        <v>1.465510272325747e-15</v>
       </c>
       <c r="CC2" t="n">
-        <v>4.180054411553439e-21</v>
+        <v>1.192439396578861e-18</v>
       </c>
       <c r="CD2" t="n">
         <v>0</v>
@@ -1511,118 +1511,118 @@
         <v>0</v>
       </c>
       <c r="CG2" t="n">
-        <v>1.369466190152899e-07</v>
+        <v>1.279698406561164e-07</v>
       </c>
       <c r="CH2" t="n">
-        <v>3.528630407376185e-05</v>
+        <v>3.212601261092901e-05</v>
       </c>
       <c r="CI2" t="n">
-        <v>0.0001795601482243748</v>
+        <v>0.0001665223718574656</v>
       </c>
       <c r="CJ2" t="n">
-        <v>0.0003436094117188333</v>
+        <v>0.0003340102610769479</v>
       </c>
       <c r="CK2" t="n">
-        <v>0.00083404022812636</v>
+        <v>0.001828451602566957</v>
       </c>
       <c r="CL2" t="n">
-        <v>0.003604815916631239</v>
+        <v>0.01238988882541881</v>
       </c>
       <c r="CM2" t="n">
-        <v>99.93867024337625</v>
+        <v>99.9262040012282</v>
       </c>
       <c r="CN2" t="n">
-        <v>0.01459721989817371</v>
+        <v>0.01687637107372491</v>
       </c>
       <c r="CO2" t="n">
-        <v>0.03991172358663198</v>
+        <v>0.04021319060913105</v>
       </c>
       <c r="CP2" t="n">
         <v>0</v>
       </c>
       <c r="CQ2" t="n">
-        <v>0.001090778141566707</v>
+        <v>0.001000363485651146</v>
       </c>
       <c r="CR2" t="n">
-        <v>0.0007318339227713926</v>
+        <v>0.0009540326557579484</v>
       </c>
       <c r="CS2" t="n">
-        <v>7.520500404649657e-07</v>
+        <v>9.138102570690722e-07</v>
       </c>
       <c r="CT2" t="n">
-        <v>4.955645347973043e-11</v>
+        <v>6.614113134399434e-11</v>
       </c>
       <c r="CU2" t="n">
-        <v>1.681584734996085e-11</v>
+        <v>2.413301505438844e-11</v>
       </c>
       <c r="CV2" t="n">
-        <v>2.37609996138221e-12</v>
+        <v>3.076537057839605e-12</v>
       </c>
       <c r="CW2" t="n">
-        <v>2.467070664189299e-13</v>
+        <v>3.164866989708583e-13</v>
       </c>
       <c r="CX2" t="n">
-        <v>1.655664364457823e-13</v>
+        <v>2.08789017092696e-13</v>
       </c>
       <c r="CY2" t="n">
-        <v>2.667271349815331e-16</v>
+        <v>3.125423090805036e-16</v>
       </c>
       <c r="CZ2" t="n">
-        <v>8.33904213316978e-15</v>
+        <v>1.11807013939575e-14</v>
       </c>
       <c r="DA2" t="n">
-        <v>1.55008503011722e-24</v>
+        <v>2.04096370297042e-24</v>
       </c>
       <c r="DB2" t="n">
-        <v>8.042613203451968e-17</v>
+        <v>1.180183934756338e-16</v>
       </c>
       <c r="DC2" t="n">
-        <v>1.442064535843736e-27</v>
+        <v>1.927728902391055e-27</v>
       </c>
       <c r="DD2" t="n">
-        <v>3.205843758387875e-24</v>
+        <v>4.078387760888399e-24</v>
       </c>
       <c r="DE2" t="n">
-        <v>6.366669749909915e-25</v>
+        <v>8.381495751534507e-25</v>
       </c>
       <c r="DF2" t="n">
-        <v>3.353171421691115e-28</v>
+        <v>2.85529366600059e-28</v>
       </c>
       <c r="DG2" t="n">
-        <v>2.522805560781773e-25</v>
+        <v>3.141168980997869e-25</v>
       </c>
       <c r="DH2" t="n">
-        <v>2.480869684641671e-32</v>
+        <v>4.326202344608968e-32</v>
       </c>
       <c r="DI2" t="n">
-        <v>4.062858766584028e-21</v>
+        <v>5.554209827656221e-21</v>
       </c>
       <c r="DJ2" t="n">
-        <v>8.204270379516071e-16</v>
+        <v>2.097936565718997e-15</v>
       </c>
       <c r="DK2" t="n">
-        <v>3.774903108470907e-17</v>
+        <v>8.810660367521703e-17</v>
       </c>
       <c r="DL2" t="n">
-        <v>3.784309417379376e-28</v>
+        <v>3.67302074604272e-28</v>
       </c>
       <c r="DM2" t="n">
-        <v>1.538550813644185e-28</v>
+        <v>3.0478559475287e-28</v>
       </c>
       <c r="DN2" t="n">
-        <v>7.980350804519587e-17</v>
+        <v>3.048015681381521e-16</v>
       </c>
       <c r="DO2" t="n">
         <v>0</v>
       </c>
       <c r="DP2" t="n">
-        <v>1.640591016375777e-18</v>
+        <v>1.639015273891344e-18</v>
       </c>
       <c r="DQ2" t="n">
-        <v>1.277032197741864e-19</v>
+        <v>9.038198364984959e-20</v>
       </c>
       <c r="DR2" t="n">
-        <v>1.512045720340679e-22</v>
+        <v>1.318177729376171e-22</v>
       </c>
       <c r="DS2" t="n">
         <v>0</v>
@@ -1634,118 +1634,118 @@
         <v>0</v>
       </c>
       <c r="DV2" t="n">
-        <v>1.981289701886799e-11</v>
+        <v>3.69793093157819e-11</v>
       </c>
       <c r="DW2" t="n">
-        <v>2.169401117250351e-09</v>
+        <v>1.654219944852483e-09</v>
       </c>
       <c r="DX2" t="n">
-        <v>1.965978622334773e-09</v>
+        <v>5.437202662396604e-09</v>
       </c>
       <c r="DY2" t="n">
-        <v>3.647833026499296e-27</v>
+        <v>4.318380231593372e-27</v>
       </c>
       <c r="DZ2" t="n">
-        <v>1.173765865291331e-19</v>
+        <v>1.517883522556275e-19</v>
       </c>
       <c r="EA2" t="n">
-        <v>1.677287367070355e-12</v>
+        <v>1.944221456767341e-12</v>
       </c>
       <c r="EB2" t="n">
-        <v>0.004298609917787415</v>
+        <v>0.00445173191014713</v>
       </c>
       <c r="EC2" t="n">
-        <v>4.37995515771131e-07</v>
+        <v>5.249388180930569e-07</v>
       </c>
       <c r="ED2" t="n">
-        <v>0.0001147643552576311</v>
+        <v>0.0001187179930578711</v>
       </c>
       <c r="EE2" t="n">
         <v>0</v>
       </c>
       <c r="EF2" t="n">
-        <v>0.01069957512654854</v>
+        <v>0.0107150392531844</v>
       </c>
       <c r="EG2" t="n">
-        <v>94.87699815064168</v>
+        <v>94.83891297066822</v>
       </c>
       <c r="EH2" t="n">
-        <v>0.01298371424433137</v>
+        <v>0.01307183003007578</v>
       </c>
       <c r="EI2" t="n">
-        <v>0.01101967262719545</v>
+        <v>0.0111016396580338</v>
       </c>
       <c r="EJ2" t="n">
-        <v>0.009065991597406809</v>
+        <v>0.009133436979898343</v>
       </c>
       <c r="EK2" t="n">
-        <v>2.266607769834402</v>
+        <v>2.283465496492613</v>
       </c>
       <c r="EL2" t="n">
-        <v>1.03900983672772</v>
+        <v>1.04671358676381</v>
       </c>
       <c r="EM2" t="n">
-        <v>1.598801406366499</v>
+        <v>1.610651794203993</v>
       </c>
       <c r="EN2" t="n">
-        <v>0.09515742205042096</v>
+        <v>0.09586085577809822</v>
       </c>
       <c r="EO2" t="n">
-        <v>0.01984318486708495</v>
+        <v>0.0199908193303374</v>
       </c>
       <c r="EP2" t="n">
-        <v>2.633611716118119e-08</v>
+        <v>2.4893961506161e-08</v>
       </c>
       <c r="EQ2" t="n">
-        <v>0.04392849946134049</v>
+        <v>0.04425533287638608</v>
       </c>
       <c r="ER2" t="n">
-        <v>4.757646174726932e-09</v>
+        <v>4.499223393403914e-09</v>
       </c>
       <c r="ES2" t="n">
-        <v>6.566681192370355e-07</v>
+        <v>6.213383747577449e-07</v>
       </c>
       <c r="ET2" t="n">
-        <v>2.459115696386325e-07</v>
+        <v>2.323110098366323e-07</v>
       </c>
       <c r="EU2" t="n">
-        <v>2.088259053290691e-07</v>
+        <v>1.972635035660136e-07</v>
       </c>
       <c r="EV2" t="n">
-        <v>1.075609006847143e-07</v>
+        <v>1.017121007824095e-07</v>
       </c>
       <c r="EW2" t="n">
-        <v>1.269035588645503e-07</v>
+        <v>1.201076357058496e-07</v>
       </c>
       <c r="EX2" t="n">
-        <v>0.003555570440392395</v>
+        <v>0.003582024319972499</v>
       </c>
       <c r="EY2" t="n">
-        <v>2.771501148684293e-09</v>
+        <v>2.621549975275754e-09</v>
       </c>
       <c r="EZ2" t="n">
-        <v>1.634146084040362e-10</v>
+        <v>1.545929433713899e-10</v>
       </c>
       <c r="FA2" t="n">
-        <v>0.006308268673639802</v>
+        <v>0.006355200313608859</v>
       </c>
       <c r="FB2" t="n">
-        <v>0.00160574066361484</v>
+        <v>0.00161768612380534</v>
       </c>
       <c r="FC2" t="n">
-        <v>3.49601970631546e-10</v>
+        <v>3.298737139325945e-10</v>
       </c>
       <c r="FD2" t="n">
         <v>0</v>
       </c>
       <c r="FE2" t="n">
-        <v>3.711378518035308e-12</v>
+        <v>3.502675958307398e-12</v>
       </c>
       <c r="FF2" t="n">
-        <v>2.552764266791381e-13</v>
+        <v>2.410865627936686e-13</v>
       </c>
       <c r="FG2" t="n">
-        <v>2.55934016890914e-16</v>
+        <v>2.404915837663816e-16</v>
       </c>
       <c r="FH2" t="n">
         <v>0</v>

--- a/log/c660_wt_log.xlsx
+++ b/log/c660_wt_log.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:FI2"/>
+  <dimension ref="A1:FI4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1256,127 +1256,125 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>4321</t>
-        </is>
+      <c r="A2" s="1" t="n">
+        <v>123</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1723536754579642</v>
+        <v>0.4010588751874282</v>
       </c>
       <c r="D2" t="n">
-        <v>11.16560673952573</v>
+        <v>23.1812811169759</v>
       </c>
       <c r="E2" t="n">
-        <v>21.2413456009288</v>
+        <v>29.82877731366635</v>
       </c>
       <c r="F2" t="n">
-        <v>14.19123305931872</v>
+        <v>9.252745745539045</v>
       </c>
       <c r="G2" t="n">
-        <v>13.79984429112124</v>
+        <v>3.949518381277128</v>
       </c>
       <c r="H2" t="n">
-        <v>1.035019840171578</v>
+        <v>0.497924250252699</v>
       </c>
       <c r="I2" t="n">
-        <v>38.33249150327631</v>
+        <v>32.83668943785798</v>
       </c>
       <c r="J2" t="n">
-        <v>0.05266247094253304</v>
+        <v>0.04255042403831318</v>
       </c>
       <c r="K2" t="n">
-        <v>0.009418184771220599</v>
+        <v>0.009396939040895801</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.915861920145388e-05</v>
+        <v>2.024386167724091e-05</v>
       </c>
       <c r="N2" t="n">
-        <v>1.245807372594003e-06</v>
+        <v>1.04867322812737e-06</v>
       </c>
       <c r="O2" t="n">
-        <v>1.724142384641729e-09</v>
+        <v>2.057891723852413e-09</v>
       </c>
       <c r="P2" t="n">
-        <v>9.600470551129914e-15</v>
+        <v>8.457996848451438e-15</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.785560658950251e-15</v>
+        <v>2.640519627731276e-15</v>
       </c>
       <c r="R2" t="n">
-        <v>3.230767214312557e-17</v>
+        <v>2.926877515036629e-17</v>
       </c>
       <c r="S2" t="n">
-        <v>2.007308867173999e-18</v>
+        <v>1.801144946496262e-18</v>
       </c>
       <c r="T2" t="n">
-        <v>1.031228390190098e-18</v>
+        <v>9.68531206434979e-19</v>
       </c>
       <c r="U2" t="n">
-        <v>5.473581821584384e-22</v>
+        <v>4.661384405472918e-22</v>
       </c>
       <c r="V2" t="n">
-        <v>6.408973334030364e-20</v>
+        <v>7.917044256488359e-20</v>
       </c>
       <c r="W2" t="n">
-        <v>1.441715861580557e-34</v>
+        <v>3.349680346704679e-34</v>
       </c>
       <c r="X2" t="n">
-        <v>2.088118129376608e-22</v>
+        <v>2.217271829117225e-22</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.399040162611059e-12</v>
+        <v>3.448191266564487e-11</v>
       </c>
       <c r="Z2" t="n">
-        <v>8.679795782856252e-32</v>
+        <v>1.145044773197308e-31</v>
       </c>
       <c r="AA2" t="n">
-        <v>8.569506462044619e-35</v>
+        <v>1.011614098365044e-35</v>
       </c>
       <c r="AB2" t="n">
-        <v>1.413568036587519e-10</v>
+        <v>1.596735913911471e-09</v>
       </c>
       <c r="AC2" t="n">
-        <v>3.751963714166011e-36</v>
+        <v>0</v>
       </c>
       <c r="AD2" t="n">
-        <v>5.619268669592193e-11</v>
+        <v>5.268469507806548e-10</v>
       </c>
       <c r="AE2" t="n">
-        <v>1.120430188551064e-27</v>
+        <v>1.174284980209943e-27</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.571530512968619e-12</v>
+        <v>3.618389007612274e-11</v>
       </c>
       <c r="AG2" t="n">
-        <v>9.943806290165491e-14</v>
+        <v>7.712488328518436e-13</v>
       </c>
       <c r="AH2" t="n">
-        <v>2.817261449466893e-06</v>
+        <v>2.153367346118972e-05</v>
       </c>
       <c r="AI2" t="n">
-        <v>1.410870715169828e-06</v>
+        <v>1.468570044249388e-05</v>
       </c>
       <c r="AJ2" t="n">
-        <v>3.630069966375354e-13</v>
+        <v>2.499933739299346e-12</v>
       </c>
       <c r="AK2" t="n">
         <v>0</v>
       </c>
       <c r="AL2" t="n">
-        <v>1.942420759729417e-15</v>
+        <v>3.891200743882776e-14</v>
       </c>
       <c r="AM2" t="n">
-        <v>1.204297946031501e-16</v>
+        <v>2.000444558935231e-15</v>
       </c>
       <c r="AN2" t="n">
-        <v>1.149438517387512e-19</v>
+        <v>9.005379701078111e-19</v>
       </c>
       <c r="AO2" t="n">
         <v>0</v>
@@ -1388,118 +1386,118 @@
         <v>0</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.0003140787177819695</v>
+        <v>0.0003729488473845227</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.1308877122757794</v>
+        <v>0.2025427538487099</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.7137823866975006</v>
+        <v>1.292290350653565</v>
       </c>
       <c r="AU2" t="n">
-        <v>1.402995462496726</v>
+        <v>1.55594056551132</v>
       </c>
       <c r="AV2" t="n">
-        <v>3.293467578261548</v>
+        <v>1.991766529202069</v>
       </c>
       <c r="AW2" t="n">
-        <v>0.7578462647671792</v>
+        <v>0.8278110554317751</v>
       </c>
       <c r="AX2" t="n">
-        <v>93.5786443795897</v>
+        <v>94.0042835029265</v>
       </c>
       <c r="AY2" t="n">
-        <v>0.09112943204081432</v>
+        <v>0.09583585259439668</v>
       </c>
       <c r="AZ2" t="n">
-        <v>0.03076715523533841</v>
+        <v>0.02904439736660911</v>
       </c>
       <c r="BA2" t="n">
         <v>0</v>
       </c>
       <c r="BB2" t="n">
-        <v>0.0001141109244653482</v>
+        <v>0.0001011170380801215</v>
       </c>
       <c r="BC2" t="n">
-        <v>1.267871946174528e-05</v>
+        <v>8.527944749405081e-06</v>
       </c>
       <c r="BD2" t="n">
-        <v>2.70305352417674e-08</v>
+        <v>1.405126029838496e-08</v>
       </c>
       <c r="BE2" t="n">
-        <v>1.703633613036688e-13</v>
+        <v>1.035563757190043e-13</v>
       </c>
       <c r="BF2" t="n">
-        <v>5.270098996943236e-14</v>
+        <v>3.133675695305632e-14</v>
       </c>
       <c r="BG2" t="n">
-        <v>8.816530613337876e-16</v>
+        <v>6.617551760010726e-16</v>
       </c>
       <c r="BH2" t="n">
-        <v>6.339056249334799e-17</v>
+        <v>4.730971291898149e-17</v>
       </c>
       <c r="BI2" t="n">
-        <v>3.05233468992042e-17</v>
+        <v>2.122508806795535e-17</v>
       </c>
       <c r="BJ2" t="n">
-        <v>2.103410121156982e-20</v>
+        <v>1.619145262454649e-20</v>
       </c>
       <c r="BK2" t="n">
-        <v>2.996100365713975e-18</v>
+        <v>1.815290008368351e-18</v>
       </c>
       <c r="BL2" t="n">
-        <v>7.108926002034298e-33</v>
+        <v>2.264084500307561e-32</v>
       </c>
       <c r="BM2" t="n">
-        <v>9.259123517331972e-21</v>
+        <v>5.18434197864161e-21</v>
       </c>
       <c r="BN2" t="n">
-        <v>1.636691623714086e-11</v>
+        <v>1.951512747886754e-12</v>
       </c>
       <c r="BO2" t="n">
-        <v>7.562568753047839e-31</v>
+        <v>5.079891710038408e-30</v>
       </c>
       <c r="BP2" t="n">
-        <v>4.557315064275548e-33</v>
+        <v>3.598508935732545e-33</v>
       </c>
       <c r="BQ2" t="n">
-        <v>8.612754848170275e-10</v>
+        <v>6.659735038456117e-11</v>
       </c>
       <c r="BR2" t="n">
-        <v>4.293719748468873e-34</v>
+        <v>5.622770728798966e-35</v>
       </c>
       <c r="BS2" t="n">
-        <v>1.343949513902271e-10</v>
+        <v>4.525935551652035e-11</v>
       </c>
       <c r="BT2" t="n">
-        <v>7.160743864011315e-26</v>
+        <v>4.31580226508172e-26</v>
       </c>
       <c r="BU2" t="n">
-        <v>7.0007952693063e-12</v>
+        <v>1.049409270402465e-12</v>
       </c>
       <c r="BV2" t="n">
-        <v>5.906596746537663e-13</v>
+        <v>6.137045005199091e-14</v>
       </c>
       <c r="BW2" t="n">
-        <v>2.395508364400211e-05</v>
+        <v>1.929066062749186e-06</v>
       </c>
       <c r="BX2" t="n">
-        <v>1.477713603142483e-05</v>
+        <v>4.554019859603366e-07</v>
       </c>
       <c r="BY2" t="n">
-        <v>3.646607866203549e-12</v>
+        <v>4.693269550772875e-13</v>
       </c>
       <c r="BZ2" t="n">
         <v>0</v>
       </c>
       <c r="CA2" t="n">
-        <v>1.49437993723921e-14</v>
+        <v>1.788615069918088e-15</v>
       </c>
       <c r="CB2" t="n">
-        <v>1.465510272325747e-15</v>
+        <v>1.333063973712854e-16</v>
       </c>
       <c r="CC2" t="n">
-        <v>1.192439396578861e-18</v>
+        <v>1.139664491034865e-19</v>
       </c>
       <c r="CD2" t="n">
         <v>0</v>
@@ -1511,118 +1509,118 @@
         <v>0</v>
       </c>
       <c r="CG2" t="n">
-        <v>1.279698406561164e-07</v>
+        <v>1.297389607144152e-07</v>
       </c>
       <c r="CH2" t="n">
-        <v>3.212601261092901e-05</v>
+        <v>3.285672903510642e-05</v>
       </c>
       <c r="CI2" t="n">
-        <v>0.0001665223718574656</v>
+        <v>0.0001699232450029635</v>
       </c>
       <c r="CJ2" t="n">
-        <v>0.0003340102610769479</v>
+        <v>0.0003288911424608764</v>
       </c>
       <c r="CK2" t="n">
-        <v>0.001828451602566957</v>
+        <v>0.0009617392614554863</v>
       </c>
       <c r="CL2" t="n">
-        <v>0.01238988882541881</v>
+        <v>0.007424090161068072</v>
       </c>
       <c r="CM2" t="n">
-        <v>99.9262040012282</v>
+        <v>99.93250340517947</v>
       </c>
       <c r="CN2" t="n">
-        <v>0.01687637107372491</v>
+        <v>0.01633691046953291</v>
       </c>
       <c r="CO2" t="n">
-        <v>0.04021319060913105</v>
+        <v>0.04027665387567515</v>
       </c>
       <c r="CP2" t="n">
         <v>0</v>
       </c>
       <c r="CQ2" t="n">
-        <v>0.001000363485651146</v>
+        <v>0.001076957393370105</v>
       </c>
       <c r="CR2" t="n">
-        <v>0.0009540326557579484</v>
+        <v>0.0008875259067523787</v>
       </c>
       <c r="CS2" t="n">
-        <v>9.138102570690722e-07</v>
+        <v>9.168096010101493e-07</v>
       </c>
       <c r="CT2" t="n">
-        <v>6.614113134399434e-11</v>
+        <v>6.298061613716214e-11</v>
       </c>
       <c r="CU2" t="n">
-        <v>2.413301505438844e-11</v>
+        <v>2.112979568149762e-11</v>
       </c>
       <c r="CV2" t="n">
-        <v>3.076537057839605e-12</v>
+        <v>2.953890216317609e-12</v>
       </c>
       <c r="CW2" t="n">
-        <v>3.164866989708583e-13</v>
+        <v>3.041131069147759e-13</v>
       </c>
       <c r="CX2" t="n">
-        <v>2.08789017092696e-13</v>
+        <v>2.078970353236229e-13</v>
       </c>
       <c r="CY2" t="n">
-        <v>3.125423090805036e-16</v>
+        <v>3.265753466758294e-16</v>
       </c>
       <c r="CZ2" t="n">
-        <v>1.11807013939575e-14</v>
+        <v>1.04156768960028e-14</v>
       </c>
       <c r="DA2" t="n">
-        <v>2.04096370297042e-24</v>
+        <v>1.889478786439471e-24</v>
       </c>
       <c r="DB2" t="n">
-        <v>1.180183934756338e-16</v>
+        <v>1.047217004901058e-16</v>
       </c>
       <c r="DC2" t="n">
-        <v>1.927728902391055e-27</v>
+        <v>1.718293439704668e-27</v>
       </c>
       <c r="DD2" t="n">
-        <v>4.078387760888399e-24</v>
+        <v>3.956018050267346e-24</v>
       </c>
       <c r="DE2" t="n">
-        <v>8.381495751534507e-25</v>
+        <v>7.692511345353402e-25</v>
       </c>
       <c r="DF2" t="n">
-        <v>2.85529366600059e-28</v>
+        <v>3.841508835429166e-28</v>
       </c>
       <c r="DG2" t="n">
-        <v>3.141168980997869e-25</v>
+        <v>2.973631464138345e-25</v>
       </c>
       <c r="DH2" t="n">
-        <v>4.326202344608968e-32</v>
+        <v>3.101577789515085e-32</v>
       </c>
       <c r="DI2" t="n">
-        <v>5.554209827656221e-21</v>
+        <v>5.293708111219829e-21</v>
       </c>
       <c r="DJ2" t="n">
-        <v>2.097936565718997e-15</v>
+        <v>7.564598302364022e-15</v>
       </c>
       <c r="DK2" t="n">
-        <v>8.810660367521703e-17</v>
+        <v>3.319987733950876e-16</v>
       </c>
       <c r="DL2" t="n">
-        <v>3.67302074604272e-28</v>
+        <v>4.437160273622345e-28</v>
       </c>
       <c r="DM2" t="n">
-        <v>3.0478559475287e-28</v>
+        <v>2.884687894122735e-28</v>
       </c>
       <c r="DN2" t="n">
-        <v>3.048015681381521e-16</v>
+        <v>8.081208819037523e-16</v>
       </c>
       <c r="DO2" t="n">
         <v>0</v>
       </c>
       <c r="DP2" t="n">
-        <v>1.639015273891344e-18</v>
+        <v>1.364705554820206e-17</v>
       </c>
       <c r="DQ2" t="n">
-        <v>9.038198364984959e-20</v>
+        <v>7.293344483185917e-19</v>
       </c>
       <c r="DR2" t="n">
-        <v>1.318177729376171e-22</v>
+        <v>1.050755161275214e-21</v>
       </c>
       <c r="DS2" t="n">
         <v>0</v>
@@ -1634,123 +1632,1119 @@
         <v>0</v>
       </c>
       <c r="DV2" t="n">
-        <v>3.69793093157819e-11</v>
+        <v>1.640580005936654e-10</v>
       </c>
       <c r="DW2" t="n">
-        <v>1.654219944852483e-09</v>
+        <v>1.428699069368788e-08</v>
       </c>
       <c r="DX2" t="n">
-        <v>5.437202662396604e-09</v>
+        <v>1.738812442983072e-08</v>
       </c>
       <c r="DY2" t="n">
-        <v>4.318380231593372e-27</v>
+        <v>4.09575519226601e-27</v>
       </c>
       <c r="DZ2" t="n">
-        <v>1.517883522556275e-19</v>
+        <v>1.462897618698095e-19</v>
       </c>
       <c r="EA2" t="n">
-        <v>1.944221456767341e-12</v>
+        <v>1.970902504232458e-12</v>
       </c>
       <c r="EB2" t="n">
-        <v>0.00445173191014713</v>
+        <v>0.004372783013086667</v>
       </c>
       <c r="EC2" t="n">
-        <v>5.249388180930569e-07</v>
+        <v>5.023168823268417e-07</v>
       </c>
       <c r="ED2" t="n">
-        <v>0.0001187179930578711</v>
+        <v>0.000117467291411031</v>
       </c>
       <c r="EE2" t="n">
         <v>0</v>
       </c>
       <c r="EF2" t="n">
-        <v>0.0107150392531844</v>
+        <v>0.0106782141865884</v>
       </c>
       <c r="EG2" t="n">
-        <v>94.83891297066822</v>
+        <v>94.83895208016862</v>
       </c>
       <c r="EH2" t="n">
-        <v>0.01307183003007578</v>
+        <v>0.01307201176658026</v>
       </c>
       <c r="EI2" t="n">
-        <v>0.0111016396580338</v>
+        <v>0.01110180853740382</v>
       </c>
       <c r="EJ2" t="n">
-        <v>0.009133436979898343</v>
+        <v>0.009133575609907917</v>
       </c>
       <c r="EK2" t="n">
-        <v>2.283465496492613</v>
+        <v>2.283500046924039</v>
       </c>
       <c r="EL2" t="n">
-        <v>1.04671358676381</v>
+        <v>1.046729455592285</v>
       </c>
       <c r="EM2" t="n">
-        <v>1.610651794203993</v>
+        <v>1.610676207630754</v>
       </c>
       <c r="EN2" t="n">
-        <v>0.09586085577809822</v>
+        <v>0.09586231155603635</v>
       </c>
       <c r="EO2" t="n">
-        <v>0.0199908193303374</v>
+        <v>0.01999112181215094</v>
       </c>
       <c r="EP2" t="n">
-        <v>2.4893961506161e-08</v>
+        <v>2.489681571722664e-08</v>
       </c>
       <c r="EQ2" t="n">
-        <v>0.04425533287638608</v>
+        <v>0.04425600234711812</v>
       </c>
       <c r="ER2" t="n">
-        <v>4.499223393403914e-09</v>
+        <v>4.499597009957573e-09</v>
       </c>
       <c r="ES2" t="n">
-        <v>6.213383747577449e-07</v>
+        <v>6.21406379476425e-07</v>
       </c>
       <c r="ET2" t="n">
-        <v>2.323110098366323e-07</v>
+        <v>2.323345441296923e-07</v>
       </c>
       <c r="EU2" t="n">
-        <v>1.972635035660136e-07</v>
+        <v>1.972836110630648e-07</v>
       </c>
       <c r="EV2" t="n">
-        <v>1.017121007824095e-07</v>
+        <v>1.017200683578056e-07</v>
       </c>
       <c r="EW2" t="n">
-        <v>1.201076357058496e-07</v>
+        <v>1.201168230465466e-07</v>
       </c>
       <c r="EX2" t="n">
-        <v>0.003582024319972499</v>
+        <v>0.003582078506886385</v>
       </c>
       <c r="EY2" t="n">
-        <v>2.621549975275754e-09</v>
+        <v>2.621777140613947e-09</v>
       </c>
       <c r="EZ2" t="n">
-        <v>1.545929433713899e-10</v>
+        <v>1.546060045731471e-10</v>
       </c>
       <c r="FA2" t="n">
-        <v>0.006355200313608859</v>
+        <v>0.006355288117900428</v>
       </c>
       <c r="FB2" t="n">
-        <v>0.00161768612380534</v>
+        <v>0.001617707413316667</v>
       </c>
       <c r="FC2" t="n">
-        <v>3.298737139325945e-10</v>
+        <v>3.299182364702665e-10</v>
       </c>
       <c r="FD2" t="n">
         <v>0</v>
       </c>
       <c r="FE2" t="n">
-        <v>3.502675958307398e-12</v>
+        <v>3.503100652808696e-12</v>
       </c>
       <c r="FF2" t="n">
-        <v>2.410865627936686e-13</v>
+        <v>2.411140569747907e-13</v>
       </c>
       <c r="FG2" t="n">
-        <v>2.404915837663816e-16</v>
+        <v>2.405668273328867e-16</v>
       </c>
       <c r="FH2" t="n">
         <v>0</v>
       </c>
       <c r="FI2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.4010588751874282</v>
+      </c>
+      <c r="D3" t="n">
+        <v>23.1812811169759</v>
+      </c>
+      <c r="E3" t="n">
+        <v>29.82877731366635</v>
+      </c>
+      <c r="F3" t="n">
+        <v>9.252745745539045</v>
+      </c>
+      <c r="G3" t="n">
+        <v>3.949518381277128</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.497924250252699</v>
+      </c>
+      <c r="I3" t="n">
+        <v>32.83668943785798</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.04255042403831318</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.009396939040895801</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2.024386167724091e-05</v>
+      </c>
+      <c r="N3" t="n">
+        <v>1.04867322812737e-06</v>
+      </c>
+      <c r="O3" t="n">
+        <v>2.057891723852413e-09</v>
+      </c>
+      <c r="P3" t="n">
+        <v>8.457996848451438e-15</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>2.640519627731276e-15</v>
+      </c>
+      <c r="R3" t="n">
+        <v>2.926877515036629e-17</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.801144946496262e-18</v>
+      </c>
+      <c r="T3" t="n">
+        <v>9.68531206434979e-19</v>
+      </c>
+      <c r="U3" t="n">
+        <v>4.661384405472918e-22</v>
+      </c>
+      <c r="V3" t="n">
+        <v>7.917044256488359e-20</v>
+      </c>
+      <c r="W3" t="n">
+        <v>3.349680346704679e-34</v>
+      </c>
+      <c r="X3" t="n">
+        <v>2.217271829117225e-22</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>3.448191266564487e-11</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>1.145044773197308e-31</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>1.011614098365044e-35</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>1.596735913911471e-09</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>5.268469507806548e-10</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>1.174284980209943e-27</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>3.618389007612274e-11</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>7.712488328518436e-13</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>2.153367346118972e-05</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>1.468570044249388e-05</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>2.499933739299346e-12</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>3.891200743882776e-14</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>2.000444558935231e-15</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>9.005379701078111e-19</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>0.0003729488473845227</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>0.2025427538487099</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>1.292290350653565</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>1.55594056551132</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>1.991766529202069</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>0.8278110554317751</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>94.0042835029265</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>0.09583585259439668</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>0.02904439736660911</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>0.0001011170380801215</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>8.527944749405081e-06</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>1.405126029838496e-08</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>1.035563757190043e-13</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>3.133675695305632e-14</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>6.617551760010726e-16</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>4.730971291898149e-17</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>2.122508806795535e-17</v>
+      </c>
+      <c r="BJ3" t="n">
+        <v>1.619145262454649e-20</v>
+      </c>
+      <c r="BK3" t="n">
+        <v>1.815290008368351e-18</v>
+      </c>
+      <c r="BL3" t="n">
+        <v>2.264084500307561e-32</v>
+      </c>
+      <c r="BM3" t="n">
+        <v>5.18434197864161e-21</v>
+      </c>
+      <c r="BN3" t="n">
+        <v>1.951512747886754e-12</v>
+      </c>
+      <c r="BO3" t="n">
+        <v>5.079891710038408e-30</v>
+      </c>
+      <c r="BP3" t="n">
+        <v>3.598508935732545e-33</v>
+      </c>
+      <c r="BQ3" t="n">
+        <v>6.659735038456117e-11</v>
+      </c>
+      <c r="BR3" t="n">
+        <v>5.622770728798966e-35</v>
+      </c>
+      <c r="BS3" t="n">
+        <v>4.525935551652035e-11</v>
+      </c>
+      <c r="BT3" t="n">
+        <v>4.31580226508172e-26</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>1.049409270402465e-12</v>
+      </c>
+      <c r="BV3" t="n">
+        <v>6.137045005199091e-14</v>
+      </c>
+      <c r="BW3" t="n">
+        <v>1.929066062749186e-06</v>
+      </c>
+      <c r="BX3" t="n">
+        <v>4.554019859603366e-07</v>
+      </c>
+      <c r="BY3" t="n">
+        <v>4.693269550772875e-13</v>
+      </c>
+      <c r="BZ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA3" t="n">
+        <v>1.788615069918088e-15</v>
+      </c>
+      <c r="CB3" t="n">
+        <v>1.333063973712854e-16</v>
+      </c>
+      <c r="CC3" t="n">
+        <v>1.139664491034865e-19</v>
+      </c>
+      <c r="CD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG3" t="n">
+        <v>1.297389607144152e-07</v>
+      </c>
+      <c r="CH3" t="n">
+        <v>3.285672903510642e-05</v>
+      </c>
+      <c r="CI3" t="n">
+        <v>0.0001699232450029635</v>
+      </c>
+      <c r="CJ3" t="n">
+        <v>0.0003288911424608764</v>
+      </c>
+      <c r="CK3" t="n">
+        <v>0.0009617392614554863</v>
+      </c>
+      <c r="CL3" t="n">
+        <v>0.007424090161068072</v>
+      </c>
+      <c r="CM3" t="n">
+        <v>99.93250340517947</v>
+      </c>
+      <c r="CN3" t="n">
+        <v>0.01633691046953291</v>
+      </c>
+      <c r="CO3" t="n">
+        <v>0.04027665387567515</v>
+      </c>
+      <c r="CP3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ3" t="n">
+        <v>0.001076957393370105</v>
+      </c>
+      <c r="CR3" t="n">
+        <v>0.0008875259067523787</v>
+      </c>
+      <c r="CS3" t="n">
+        <v>9.168096010101493e-07</v>
+      </c>
+      <c r="CT3" t="n">
+        <v>6.298061613716214e-11</v>
+      </c>
+      <c r="CU3" t="n">
+        <v>2.112979568149762e-11</v>
+      </c>
+      <c r="CV3" t="n">
+        <v>2.953890216317609e-12</v>
+      </c>
+      <c r="CW3" t="n">
+        <v>3.041131069147759e-13</v>
+      </c>
+      <c r="CX3" t="n">
+        <v>2.078970353236229e-13</v>
+      </c>
+      <c r="CY3" t="n">
+        <v>3.265753466758294e-16</v>
+      </c>
+      <c r="CZ3" t="n">
+        <v>1.04156768960028e-14</v>
+      </c>
+      <c r="DA3" t="n">
+        <v>1.889478786439471e-24</v>
+      </c>
+      <c r="DB3" t="n">
+        <v>1.047217004901058e-16</v>
+      </c>
+      <c r="DC3" t="n">
+        <v>1.718293439704668e-27</v>
+      </c>
+      <c r="DD3" t="n">
+        <v>3.956018050267346e-24</v>
+      </c>
+      <c r="DE3" t="n">
+        <v>7.692511345353402e-25</v>
+      </c>
+      <c r="DF3" t="n">
+        <v>3.841508835429166e-28</v>
+      </c>
+      <c r="DG3" t="n">
+        <v>2.973631464138345e-25</v>
+      </c>
+      <c r="DH3" t="n">
+        <v>3.101577789515085e-32</v>
+      </c>
+      <c r="DI3" t="n">
+        <v>5.293708111219829e-21</v>
+      </c>
+      <c r="DJ3" t="n">
+        <v>7.564598302364022e-15</v>
+      </c>
+      <c r="DK3" t="n">
+        <v>3.319987733950876e-16</v>
+      </c>
+      <c r="DL3" t="n">
+        <v>4.437160273622345e-28</v>
+      </c>
+      <c r="DM3" t="n">
+        <v>2.884687894122735e-28</v>
+      </c>
+      <c r="DN3" t="n">
+        <v>8.081208819037523e-16</v>
+      </c>
+      <c r="DO3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP3" t="n">
+        <v>1.364705554820206e-17</v>
+      </c>
+      <c r="DQ3" t="n">
+        <v>7.293344483185917e-19</v>
+      </c>
+      <c r="DR3" t="n">
+        <v>1.050755161275214e-21</v>
+      </c>
+      <c r="DS3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DT3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DU3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV3" t="n">
+        <v>1.640580005936654e-10</v>
+      </c>
+      <c r="DW3" t="n">
+        <v>1.428699069368788e-08</v>
+      </c>
+      <c r="DX3" t="n">
+        <v>1.738812442983072e-08</v>
+      </c>
+      <c r="DY3" t="n">
+        <v>4.09575519226601e-27</v>
+      </c>
+      <c r="DZ3" t="n">
+        <v>1.462897618698095e-19</v>
+      </c>
+      <c r="EA3" t="n">
+        <v>1.970902504232458e-12</v>
+      </c>
+      <c r="EB3" t="n">
+        <v>0.004372783013086667</v>
+      </c>
+      <c r="EC3" t="n">
+        <v>5.023168823268417e-07</v>
+      </c>
+      <c r="ED3" t="n">
+        <v>0.000117467291411031</v>
+      </c>
+      <c r="EE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF3" t="n">
+        <v>0.0106782141865884</v>
+      </c>
+      <c r="EG3" t="n">
+        <v>94.83895208016862</v>
+      </c>
+      <c r="EH3" t="n">
+        <v>0.01307201176658026</v>
+      </c>
+      <c r="EI3" t="n">
+        <v>0.01110180853740382</v>
+      </c>
+      <c r="EJ3" t="n">
+        <v>0.009133575609907917</v>
+      </c>
+      <c r="EK3" t="n">
+        <v>2.283500046924039</v>
+      </c>
+      <c r="EL3" t="n">
+        <v>1.046729455592285</v>
+      </c>
+      <c r="EM3" t="n">
+        <v>1.610676207630754</v>
+      </c>
+      <c r="EN3" t="n">
+        <v>0.09586231155603635</v>
+      </c>
+      <c r="EO3" t="n">
+        <v>0.01999112181215094</v>
+      </c>
+      <c r="EP3" t="n">
+        <v>2.489681571722664e-08</v>
+      </c>
+      <c r="EQ3" t="n">
+        <v>0.04425600234711812</v>
+      </c>
+      <c r="ER3" t="n">
+        <v>4.499597009957573e-09</v>
+      </c>
+      <c r="ES3" t="n">
+        <v>6.21406379476425e-07</v>
+      </c>
+      <c r="ET3" t="n">
+        <v>2.323345441296923e-07</v>
+      </c>
+      <c r="EU3" t="n">
+        <v>1.972836110630648e-07</v>
+      </c>
+      <c r="EV3" t="n">
+        <v>1.017200683578056e-07</v>
+      </c>
+      <c r="EW3" t="n">
+        <v>1.201168230465466e-07</v>
+      </c>
+      <c r="EX3" t="n">
+        <v>0.003582078506886385</v>
+      </c>
+      <c r="EY3" t="n">
+        <v>2.621777140613947e-09</v>
+      </c>
+      <c r="EZ3" t="n">
+        <v>1.546060045731471e-10</v>
+      </c>
+      <c r="FA3" t="n">
+        <v>0.006355288117900428</v>
+      </c>
+      <c r="FB3" t="n">
+        <v>0.001617707413316667</v>
+      </c>
+      <c r="FC3" t="n">
+        <v>3.299182364702665e-10</v>
+      </c>
+      <c r="FD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE3" t="n">
+        <v>3.503100652808696e-12</v>
+      </c>
+      <c r="FF3" t="n">
+        <v>2.411140569747907e-13</v>
+      </c>
+      <c r="FG3" t="n">
+        <v>2.405668273328867e-16</v>
+      </c>
+      <c r="FH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>456</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.4010588751874282</v>
+      </c>
+      <c r="D4" t="n">
+        <v>23.1812811169759</v>
+      </c>
+      <c r="E4" t="n">
+        <v>29.82877731366635</v>
+      </c>
+      <c r="F4" t="n">
+        <v>9.252745745539045</v>
+      </c>
+      <c r="G4" t="n">
+        <v>3.949518381277128</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.497924250252699</v>
+      </c>
+      <c r="I4" t="n">
+        <v>32.83668943785798</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.04255042403831318</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.009396939040895801</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2.024386167724091e-05</v>
+      </c>
+      <c r="N4" t="n">
+        <v>1.04867322812737e-06</v>
+      </c>
+      <c r="O4" t="n">
+        <v>2.057891723852413e-09</v>
+      </c>
+      <c r="P4" t="n">
+        <v>8.457996848451438e-15</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2.640519627731276e-15</v>
+      </c>
+      <c r="R4" t="n">
+        <v>2.926877515036629e-17</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.801144946496262e-18</v>
+      </c>
+      <c r="T4" t="n">
+        <v>9.68531206434979e-19</v>
+      </c>
+      <c r="U4" t="n">
+        <v>4.661384405472918e-22</v>
+      </c>
+      <c r="V4" t="n">
+        <v>7.917044256488359e-20</v>
+      </c>
+      <c r="W4" t="n">
+        <v>3.349680346704679e-34</v>
+      </c>
+      <c r="X4" t="n">
+        <v>2.217271829117225e-22</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>3.448191266564487e-11</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>1.145044773197308e-31</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>1.011614098365044e-35</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>1.596735913911471e-09</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>5.268469507806548e-10</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>1.174284980209943e-27</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>3.618389007612274e-11</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>7.712488328518436e-13</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>2.153367346118972e-05</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>1.468570044249388e-05</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>2.499933739299346e-12</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>3.891200743882776e-14</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>2.000444558935231e-15</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>9.005379701078111e-19</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>0.0003729488473845227</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>0.2025427538487099</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>1.292290350653565</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>1.55594056551132</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>1.991766529202069</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>0.8278110554317751</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>94.0042835029265</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>0.09583585259439668</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>0.02904439736660911</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>0.0001011170380801215</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>8.527944749405081e-06</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>1.405126029838496e-08</v>
+      </c>
+      <c r="BE4" t="n">
+        <v>1.035563757190043e-13</v>
+      </c>
+      <c r="BF4" t="n">
+        <v>3.133675695305632e-14</v>
+      </c>
+      <c r="BG4" t="n">
+        <v>6.617551760010726e-16</v>
+      </c>
+      <c r="BH4" t="n">
+        <v>4.730971291898149e-17</v>
+      </c>
+      <c r="BI4" t="n">
+        <v>2.122508806795535e-17</v>
+      </c>
+      <c r="BJ4" t="n">
+        <v>1.619145262454649e-20</v>
+      </c>
+      <c r="BK4" t="n">
+        <v>1.815290008368351e-18</v>
+      </c>
+      <c r="BL4" t="n">
+        <v>2.264084500307561e-32</v>
+      </c>
+      <c r="BM4" t="n">
+        <v>5.18434197864161e-21</v>
+      </c>
+      <c r="BN4" t="n">
+        <v>1.951512747886754e-12</v>
+      </c>
+      <c r="BO4" t="n">
+        <v>5.079891710038408e-30</v>
+      </c>
+      <c r="BP4" t="n">
+        <v>3.598508935732545e-33</v>
+      </c>
+      <c r="BQ4" t="n">
+        <v>6.659735038456117e-11</v>
+      </c>
+      <c r="BR4" t="n">
+        <v>5.622770728798966e-35</v>
+      </c>
+      <c r="BS4" t="n">
+        <v>4.525935551652035e-11</v>
+      </c>
+      <c r="BT4" t="n">
+        <v>4.31580226508172e-26</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>1.049409270402465e-12</v>
+      </c>
+      <c r="BV4" t="n">
+        <v>6.137045005199091e-14</v>
+      </c>
+      <c r="BW4" t="n">
+        <v>1.929066062749186e-06</v>
+      </c>
+      <c r="BX4" t="n">
+        <v>4.554019859603366e-07</v>
+      </c>
+      <c r="BY4" t="n">
+        <v>4.693269550772875e-13</v>
+      </c>
+      <c r="BZ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA4" t="n">
+        <v>1.788615069918088e-15</v>
+      </c>
+      <c r="CB4" t="n">
+        <v>1.333063973712854e-16</v>
+      </c>
+      <c r="CC4" t="n">
+        <v>1.139664491034865e-19</v>
+      </c>
+      <c r="CD4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG4" t="n">
+        <v>1.297389607144152e-07</v>
+      </c>
+      <c r="CH4" t="n">
+        <v>3.285672903510642e-05</v>
+      </c>
+      <c r="CI4" t="n">
+        <v>0.0001699232450029635</v>
+      </c>
+      <c r="CJ4" t="n">
+        <v>0.0003288911424608764</v>
+      </c>
+      <c r="CK4" t="n">
+        <v>0.0009617392614554863</v>
+      </c>
+      <c r="CL4" t="n">
+        <v>0.007424090161068072</v>
+      </c>
+      <c r="CM4" t="n">
+        <v>99.93250340517947</v>
+      </c>
+      <c r="CN4" t="n">
+        <v>0.01633691046953291</v>
+      </c>
+      <c r="CO4" t="n">
+        <v>0.04027665387567515</v>
+      </c>
+      <c r="CP4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ4" t="n">
+        <v>0.001076957393370105</v>
+      </c>
+      <c r="CR4" t="n">
+        <v>0.0008875259067523787</v>
+      </c>
+      <c r="CS4" t="n">
+        <v>9.168096010101493e-07</v>
+      </c>
+      <c r="CT4" t="n">
+        <v>6.298061613716214e-11</v>
+      </c>
+      <c r="CU4" t="n">
+        <v>2.112979568149762e-11</v>
+      </c>
+      <c r="CV4" t="n">
+        <v>2.953890216317609e-12</v>
+      </c>
+      <c r="CW4" t="n">
+        <v>3.041131069147759e-13</v>
+      </c>
+      <c r="CX4" t="n">
+        <v>2.078970353236229e-13</v>
+      </c>
+      <c r="CY4" t="n">
+        <v>3.265753466758294e-16</v>
+      </c>
+      <c r="CZ4" t="n">
+        <v>1.04156768960028e-14</v>
+      </c>
+      <c r="DA4" t="n">
+        <v>1.889478786439471e-24</v>
+      </c>
+      <c r="DB4" t="n">
+        <v>1.047217004901058e-16</v>
+      </c>
+      <c r="DC4" t="n">
+        <v>1.718293439704668e-27</v>
+      </c>
+      <c r="DD4" t="n">
+        <v>3.956018050267346e-24</v>
+      </c>
+      <c r="DE4" t="n">
+        <v>7.692511345353402e-25</v>
+      </c>
+      <c r="DF4" t="n">
+        <v>3.841508835429166e-28</v>
+      </c>
+      <c r="DG4" t="n">
+        <v>2.973631464138345e-25</v>
+      </c>
+      <c r="DH4" t="n">
+        <v>3.101577789515085e-32</v>
+      </c>
+      <c r="DI4" t="n">
+        <v>5.293708111219829e-21</v>
+      </c>
+      <c r="DJ4" t="n">
+        <v>7.564598302364022e-15</v>
+      </c>
+      <c r="DK4" t="n">
+        <v>3.319987733950876e-16</v>
+      </c>
+      <c r="DL4" t="n">
+        <v>4.437160273622345e-28</v>
+      </c>
+      <c r="DM4" t="n">
+        <v>2.884687894122735e-28</v>
+      </c>
+      <c r="DN4" t="n">
+        <v>8.081208819037523e-16</v>
+      </c>
+      <c r="DO4" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP4" t="n">
+        <v>1.364705554820206e-17</v>
+      </c>
+      <c r="DQ4" t="n">
+        <v>7.293344483185917e-19</v>
+      </c>
+      <c r="DR4" t="n">
+        <v>1.050755161275214e-21</v>
+      </c>
+      <c r="DS4" t="n">
+        <v>0</v>
+      </c>
+      <c r="DT4" t="n">
+        <v>0</v>
+      </c>
+      <c r="DU4" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV4" t="n">
+        <v>1.640580005936654e-10</v>
+      </c>
+      <c r="DW4" t="n">
+        <v>1.428699069368788e-08</v>
+      </c>
+      <c r="DX4" t="n">
+        <v>1.738812442983072e-08</v>
+      </c>
+      <c r="DY4" t="n">
+        <v>4.09575519226601e-27</v>
+      </c>
+      <c r="DZ4" t="n">
+        <v>1.462897618698095e-19</v>
+      </c>
+      <c r="EA4" t="n">
+        <v>1.970902504232458e-12</v>
+      </c>
+      <c r="EB4" t="n">
+        <v>0.004372783013086667</v>
+      </c>
+      <c r="EC4" t="n">
+        <v>5.023168823268417e-07</v>
+      </c>
+      <c r="ED4" t="n">
+        <v>0.000117467291411031</v>
+      </c>
+      <c r="EE4" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF4" t="n">
+        <v>0.0106782141865884</v>
+      </c>
+      <c r="EG4" t="n">
+        <v>94.83895208016862</v>
+      </c>
+      <c r="EH4" t="n">
+        <v>0.01307201176658026</v>
+      </c>
+      <c r="EI4" t="n">
+        <v>0.01110180853740382</v>
+      </c>
+      <c r="EJ4" t="n">
+        <v>0.009133575609907917</v>
+      </c>
+      <c r="EK4" t="n">
+        <v>2.283500046924039</v>
+      </c>
+      <c r="EL4" t="n">
+        <v>1.046729455592285</v>
+      </c>
+      <c r="EM4" t="n">
+        <v>1.610676207630754</v>
+      </c>
+      <c r="EN4" t="n">
+        <v>0.09586231155603635</v>
+      </c>
+      <c r="EO4" t="n">
+        <v>0.01999112181215094</v>
+      </c>
+      <c r="EP4" t="n">
+        <v>2.489681571722664e-08</v>
+      </c>
+      <c r="EQ4" t="n">
+        <v>0.04425600234711812</v>
+      </c>
+      <c r="ER4" t="n">
+        <v>4.499597009957573e-09</v>
+      </c>
+      <c r="ES4" t="n">
+        <v>6.21406379476425e-07</v>
+      </c>
+      <c r="ET4" t="n">
+        <v>2.323345441296923e-07</v>
+      </c>
+      <c r="EU4" t="n">
+        <v>1.972836110630648e-07</v>
+      </c>
+      <c r="EV4" t="n">
+        <v>1.017200683578056e-07</v>
+      </c>
+      <c r="EW4" t="n">
+        <v>1.201168230465466e-07</v>
+      </c>
+      <c r="EX4" t="n">
+        <v>0.003582078506886385</v>
+      </c>
+      <c r="EY4" t="n">
+        <v>2.621777140613947e-09</v>
+      </c>
+      <c r="EZ4" t="n">
+        <v>1.546060045731471e-10</v>
+      </c>
+      <c r="FA4" t="n">
+        <v>0.006355288117900428</v>
+      </c>
+      <c r="FB4" t="n">
+        <v>0.001617707413316667</v>
+      </c>
+      <c r="FC4" t="n">
+        <v>3.299182364702665e-10</v>
+      </c>
+      <c r="FD4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE4" t="n">
+        <v>3.503100652808696e-12</v>
+      </c>
+      <c r="FF4" t="n">
+        <v>2.411140569747907e-13</v>
+      </c>
+      <c r="FG4" t="n">
+        <v>2.405668273328867e-16</v>
+      </c>
+      <c r="FH4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI4" t="n">
         <v>0</v>
       </c>
     </row>

--- a/log/c660_wt_log.xlsx
+++ b/log/c660_wt_log.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:FI4"/>
+  <dimension ref="A1:FI6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2250,10 +2250,8 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>456</t>
-        </is>
+      <c r="A4" s="1" t="n">
+        <v>456</v>
       </c>
       <c r="B4" t="n">
         <v>0</v>
@@ -2745,6 +2743,1004 @@
         <v>0</v>
       </c>
       <c r="FI4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.4010588751874282</v>
+      </c>
+      <c r="D5" t="n">
+        <v>23.1812811169759</v>
+      </c>
+      <c r="E5" t="n">
+        <v>29.82877731366635</v>
+      </c>
+      <c r="F5" t="n">
+        <v>9.252745745539045</v>
+      </c>
+      <c r="G5" t="n">
+        <v>3.949518381277128</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.497924250252699</v>
+      </c>
+      <c r="I5" t="n">
+        <v>32.83668943785798</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.04255042403831318</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.009396939040895801</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2.024386167724091e-05</v>
+      </c>
+      <c r="N5" t="n">
+        <v>1.04867322812737e-06</v>
+      </c>
+      <c r="O5" t="n">
+        <v>2.057891723852413e-09</v>
+      </c>
+      <c r="P5" t="n">
+        <v>8.457996848451438e-15</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2.640519627731276e-15</v>
+      </c>
+      <c r="R5" t="n">
+        <v>2.926877515036629e-17</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.801144946496262e-18</v>
+      </c>
+      <c r="T5" t="n">
+        <v>9.68531206434979e-19</v>
+      </c>
+      <c r="U5" t="n">
+        <v>4.661384405472918e-22</v>
+      </c>
+      <c r="V5" t="n">
+        <v>7.917044256488359e-20</v>
+      </c>
+      <c r="W5" t="n">
+        <v>3.349680346704679e-34</v>
+      </c>
+      <c r="X5" t="n">
+        <v>2.217271829117225e-22</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>3.448191266564487e-11</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>1.145044773197308e-31</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>1.011614098365044e-35</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>1.596735913911471e-09</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>5.268469507806548e-10</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>1.174284980209943e-27</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>3.618389007612274e-11</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>7.712488328518436e-13</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>2.153367346118972e-05</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>1.468570044249388e-05</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>2.499933739299346e-12</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>3.891200743882776e-14</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>2.000444558935231e-15</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>9.005379701078111e-19</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>0.0003729488473845227</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>0.2025427538487099</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>1.292290350653565</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>1.55594056551132</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>1.991766529202069</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>0.8278110554317751</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>94.0042835029265</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>0.09583585259439668</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>0.02904439736660911</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>0.0001011170380801215</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>8.527944749405081e-06</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>1.405126029838496e-08</v>
+      </c>
+      <c r="BE5" t="n">
+        <v>1.035563757190043e-13</v>
+      </c>
+      <c r="BF5" t="n">
+        <v>3.133675695305632e-14</v>
+      </c>
+      <c r="BG5" t="n">
+        <v>6.617551760010726e-16</v>
+      </c>
+      <c r="BH5" t="n">
+        <v>4.730971291898149e-17</v>
+      </c>
+      <c r="BI5" t="n">
+        <v>2.122508806795535e-17</v>
+      </c>
+      <c r="BJ5" t="n">
+        <v>1.619145262454649e-20</v>
+      </c>
+      <c r="BK5" t="n">
+        <v>1.815290008368351e-18</v>
+      </c>
+      <c r="BL5" t="n">
+        <v>2.264084500307561e-32</v>
+      </c>
+      <c r="BM5" t="n">
+        <v>5.18434197864161e-21</v>
+      </c>
+      <c r="BN5" t="n">
+        <v>1.951512747886754e-12</v>
+      </c>
+      <c r="BO5" t="n">
+        <v>5.079891710038408e-30</v>
+      </c>
+      <c r="BP5" t="n">
+        <v>3.598508935732545e-33</v>
+      </c>
+      <c r="BQ5" t="n">
+        <v>6.659735038456117e-11</v>
+      </c>
+      <c r="BR5" t="n">
+        <v>5.622770728798966e-35</v>
+      </c>
+      <c r="BS5" t="n">
+        <v>4.525935551652035e-11</v>
+      </c>
+      <c r="BT5" t="n">
+        <v>4.31580226508172e-26</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>1.049409270402465e-12</v>
+      </c>
+      <c r="BV5" t="n">
+        <v>6.137045005199091e-14</v>
+      </c>
+      <c r="BW5" t="n">
+        <v>1.929066062749186e-06</v>
+      </c>
+      <c r="BX5" t="n">
+        <v>4.554019859603366e-07</v>
+      </c>
+      <c r="BY5" t="n">
+        <v>4.693269550772875e-13</v>
+      </c>
+      <c r="BZ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA5" t="n">
+        <v>1.788615069918088e-15</v>
+      </c>
+      <c r="CB5" t="n">
+        <v>1.333063973712854e-16</v>
+      </c>
+      <c r="CC5" t="n">
+        <v>1.139664491034865e-19</v>
+      </c>
+      <c r="CD5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG5" t="n">
+        <v>1.297389607144152e-07</v>
+      </c>
+      <c r="CH5" t="n">
+        <v>3.285672903510642e-05</v>
+      </c>
+      <c r="CI5" t="n">
+        <v>0.0001699232450029635</v>
+      </c>
+      <c r="CJ5" t="n">
+        <v>0.0003288911424608764</v>
+      </c>
+      <c r="CK5" t="n">
+        <v>0.0009617392614554863</v>
+      </c>
+      <c r="CL5" t="n">
+        <v>0.007424090161068072</v>
+      </c>
+      <c r="CM5" t="n">
+        <v>99.93250340517947</v>
+      </c>
+      <c r="CN5" t="n">
+        <v>0.01633691046953291</v>
+      </c>
+      <c r="CO5" t="n">
+        <v>0.04027665387567515</v>
+      </c>
+      <c r="CP5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ5" t="n">
+        <v>0.001076957393370105</v>
+      </c>
+      <c r="CR5" t="n">
+        <v>0.0008875259067523787</v>
+      </c>
+      <c r="CS5" t="n">
+        <v>9.168096010101493e-07</v>
+      </c>
+      <c r="CT5" t="n">
+        <v>6.298061613716214e-11</v>
+      </c>
+      <c r="CU5" t="n">
+        <v>2.112979568149762e-11</v>
+      </c>
+      <c r="CV5" t="n">
+        <v>2.953890216317609e-12</v>
+      </c>
+      <c r="CW5" t="n">
+        <v>3.041131069147759e-13</v>
+      </c>
+      <c r="CX5" t="n">
+        <v>2.078970353236229e-13</v>
+      </c>
+      <c r="CY5" t="n">
+        <v>3.265753466758294e-16</v>
+      </c>
+      <c r="CZ5" t="n">
+        <v>1.04156768960028e-14</v>
+      </c>
+      <c r="DA5" t="n">
+        <v>1.889478786439471e-24</v>
+      </c>
+      <c r="DB5" t="n">
+        <v>1.047217004901058e-16</v>
+      </c>
+      <c r="DC5" t="n">
+        <v>1.718293439704668e-27</v>
+      </c>
+      <c r="DD5" t="n">
+        <v>3.956018050267346e-24</v>
+      </c>
+      <c r="DE5" t="n">
+        <v>7.692511345353402e-25</v>
+      </c>
+      <c r="DF5" t="n">
+        <v>3.841508835429166e-28</v>
+      </c>
+      <c r="DG5" t="n">
+        <v>2.973631464138345e-25</v>
+      </c>
+      <c r="DH5" t="n">
+        <v>3.101577789515085e-32</v>
+      </c>
+      <c r="DI5" t="n">
+        <v>5.293708111219829e-21</v>
+      </c>
+      <c r="DJ5" t="n">
+        <v>7.564598302364022e-15</v>
+      </c>
+      <c r="DK5" t="n">
+        <v>3.319987733950876e-16</v>
+      </c>
+      <c r="DL5" t="n">
+        <v>4.437160273622345e-28</v>
+      </c>
+      <c r="DM5" t="n">
+        <v>2.884687894122735e-28</v>
+      </c>
+      <c r="DN5" t="n">
+        <v>8.081208819037523e-16</v>
+      </c>
+      <c r="DO5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP5" t="n">
+        <v>1.364705554820206e-17</v>
+      </c>
+      <c r="DQ5" t="n">
+        <v>7.293344483185917e-19</v>
+      </c>
+      <c r="DR5" t="n">
+        <v>1.050755161275214e-21</v>
+      </c>
+      <c r="DS5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DT5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DU5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV5" t="n">
+        <v>1.640580005936654e-10</v>
+      </c>
+      <c r="DW5" t="n">
+        <v>1.428699069368788e-08</v>
+      </c>
+      <c r="DX5" t="n">
+        <v>1.738812442983072e-08</v>
+      </c>
+      <c r="DY5" t="n">
+        <v>4.09575519226601e-27</v>
+      </c>
+      <c r="DZ5" t="n">
+        <v>1.462897618698095e-19</v>
+      </c>
+      <c r="EA5" t="n">
+        <v>1.970902504232458e-12</v>
+      </c>
+      <c r="EB5" t="n">
+        <v>0.004372783013086667</v>
+      </c>
+      <c r="EC5" t="n">
+        <v>5.023168823268417e-07</v>
+      </c>
+      <c r="ED5" t="n">
+        <v>0.000117467291411031</v>
+      </c>
+      <c r="EE5" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF5" t="n">
+        <v>0.0106782141865884</v>
+      </c>
+      <c r="EG5" t="n">
+        <v>94.83895208016862</v>
+      </c>
+      <c r="EH5" t="n">
+        <v>0.01307201176658026</v>
+      </c>
+      <c r="EI5" t="n">
+        <v>0.01110180853740382</v>
+      </c>
+      <c r="EJ5" t="n">
+        <v>0.009133575609907917</v>
+      </c>
+      <c r="EK5" t="n">
+        <v>2.283500046924039</v>
+      </c>
+      <c r="EL5" t="n">
+        <v>1.046729455592285</v>
+      </c>
+      <c r="EM5" t="n">
+        <v>1.610676207630754</v>
+      </c>
+      <c r="EN5" t="n">
+        <v>0.09586231155603635</v>
+      </c>
+      <c r="EO5" t="n">
+        <v>0.01999112181215094</v>
+      </c>
+      <c r="EP5" t="n">
+        <v>2.489681571722664e-08</v>
+      </c>
+      <c r="EQ5" t="n">
+        <v>0.04425600234711812</v>
+      </c>
+      <c r="ER5" t="n">
+        <v>4.499597009957573e-09</v>
+      </c>
+      <c r="ES5" t="n">
+        <v>6.21406379476425e-07</v>
+      </c>
+      <c r="ET5" t="n">
+        <v>2.323345441296923e-07</v>
+      </c>
+      <c r="EU5" t="n">
+        <v>1.972836110630648e-07</v>
+      </c>
+      <c r="EV5" t="n">
+        <v>1.017200683578056e-07</v>
+      </c>
+      <c r="EW5" t="n">
+        <v>1.201168230465466e-07</v>
+      </c>
+      <c r="EX5" t="n">
+        <v>0.003582078506886385</v>
+      </c>
+      <c r="EY5" t="n">
+        <v>2.621777140613947e-09</v>
+      </c>
+      <c r="EZ5" t="n">
+        <v>1.546060045731471e-10</v>
+      </c>
+      <c r="FA5" t="n">
+        <v>0.006355288117900428</v>
+      </c>
+      <c r="FB5" t="n">
+        <v>0.001617707413316667</v>
+      </c>
+      <c r="FC5" t="n">
+        <v>3.299182364702665e-10</v>
+      </c>
+      <c r="FD5" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE5" t="n">
+        <v>3.503100652808696e-12</v>
+      </c>
+      <c r="FF5" t="n">
+        <v>2.411140569747907e-13</v>
+      </c>
+      <c r="FG5" t="n">
+        <v>2.405668273328867e-16</v>
+      </c>
+      <c r="FH5" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.1723536754579642</v>
+      </c>
+      <c r="D6" t="n">
+        <v>11.16560673952573</v>
+      </c>
+      <c r="E6" t="n">
+        <v>21.2413456009288</v>
+      </c>
+      <c r="F6" t="n">
+        <v>14.19123305931872</v>
+      </c>
+      <c r="G6" t="n">
+        <v>13.79984429112124</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1.035019840171578</v>
+      </c>
+      <c r="I6" t="n">
+        <v>38.33249150327631</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.05266247094253304</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.009418184771220599</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.915861920145388e-05</v>
+      </c>
+      <c r="N6" t="n">
+        <v>1.245807372594003e-06</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.724142384641729e-09</v>
+      </c>
+      <c r="P6" t="n">
+        <v>9.600470551129914e-15</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.785560658950251e-15</v>
+      </c>
+      <c r="R6" t="n">
+        <v>3.230767214312557e-17</v>
+      </c>
+      <c r="S6" t="n">
+        <v>2.007308867173999e-18</v>
+      </c>
+      <c r="T6" t="n">
+        <v>1.031228390190098e-18</v>
+      </c>
+      <c r="U6" t="n">
+        <v>5.473581821584384e-22</v>
+      </c>
+      <c r="V6" t="n">
+        <v>6.408973334030364e-20</v>
+      </c>
+      <c r="W6" t="n">
+        <v>1.441715861580557e-34</v>
+      </c>
+      <c r="X6" t="n">
+        <v>2.088118129376608e-22</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>1.399040162611059e-12</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>8.679795782856252e-32</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>8.569506462044619e-35</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>1.413568036587519e-10</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>3.751963714166011e-36</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>5.619268669592193e-11</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>1.120430188551064e-27</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>3.571530512968619e-12</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>9.943806290165491e-14</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>2.817261449466893e-06</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>1.410870715169828e-06</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>3.630069966375354e-13</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>1.942420759729417e-15</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>1.204297946031501e-16</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>1.149438517387512e-19</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>0.0003140787177819695</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>0.1308877122757794</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>0.7137823866975006</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>1.402995462496726</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>3.293467578261548</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>0.7578462647671792</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>93.5786443795897</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>0.09112943204081432</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>0.03076715523533841</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>0.0001141109244653482</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>1.267871946174528e-05</v>
+      </c>
+      <c r="BD6" t="n">
+        <v>2.70305352417674e-08</v>
+      </c>
+      <c r="BE6" t="n">
+        <v>1.703633613036688e-13</v>
+      </c>
+      <c r="BF6" t="n">
+        <v>5.270098996943236e-14</v>
+      </c>
+      <c r="BG6" t="n">
+        <v>8.816530613337876e-16</v>
+      </c>
+      <c r="BH6" t="n">
+        <v>6.339056249334799e-17</v>
+      </c>
+      <c r="BI6" t="n">
+        <v>3.05233468992042e-17</v>
+      </c>
+      <c r="BJ6" t="n">
+        <v>2.103410121156982e-20</v>
+      </c>
+      <c r="BK6" t="n">
+        <v>2.996100365713975e-18</v>
+      </c>
+      <c r="BL6" t="n">
+        <v>7.108926002034298e-33</v>
+      </c>
+      <c r="BM6" t="n">
+        <v>9.259123517331972e-21</v>
+      </c>
+      <c r="BN6" t="n">
+        <v>1.636691623714086e-11</v>
+      </c>
+      <c r="BO6" t="n">
+        <v>7.562568753047839e-31</v>
+      </c>
+      <c r="BP6" t="n">
+        <v>4.557315064275548e-33</v>
+      </c>
+      <c r="BQ6" t="n">
+        <v>8.612754848170275e-10</v>
+      </c>
+      <c r="BR6" t="n">
+        <v>4.293719748468873e-34</v>
+      </c>
+      <c r="BS6" t="n">
+        <v>1.343949513902271e-10</v>
+      </c>
+      <c r="BT6" t="n">
+        <v>7.160743864011315e-26</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>7.0007952693063e-12</v>
+      </c>
+      <c r="BV6" t="n">
+        <v>5.906596746537663e-13</v>
+      </c>
+      <c r="BW6" t="n">
+        <v>2.395508364400211e-05</v>
+      </c>
+      <c r="BX6" t="n">
+        <v>1.477713603142483e-05</v>
+      </c>
+      <c r="BY6" t="n">
+        <v>3.646607866203549e-12</v>
+      </c>
+      <c r="BZ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA6" t="n">
+        <v>1.49437993723921e-14</v>
+      </c>
+      <c r="CB6" t="n">
+        <v>1.465510272325747e-15</v>
+      </c>
+      <c r="CC6" t="n">
+        <v>1.192439396578861e-18</v>
+      </c>
+      <c r="CD6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG6" t="n">
+        <v>1.279698406561164e-07</v>
+      </c>
+      <c r="CH6" t="n">
+        <v>3.212601261092901e-05</v>
+      </c>
+      <c r="CI6" t="n">
+        <v>0.0001665223718574656</v>
+      </c>
+      <c r="CJ6" t="n">
+        <v>0.0003340102610769479</v>
+      </c>
+      <c r="CK6" t="n">
+        <v>0.001828451602566957</v>
+      </c>
+      <c r="CL6" t="n">
+        <v>0.01238988882541881</v>
+      </c>
+      <c r="CM6" t="n">
+        <v>99.9262040012282</v>
+      </c>
+      <c r="CN6" t="n">
+        <v>0.01687637107372491</v>
+      </c>
+      <c r="CO6" t="n">
+        <v>0.04021319060913105</v>
+      </c>
+      <c r="CP6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ6" t="n">
+        <v>0.001000363485651146</v>
+      </c>
+      <c r="CR6" t="n">
+        <v>0.0009540326557579484</v>
+      </c>
+      <c r="CS6" t="n">
+        <v>9.138102570690722e-07</v>
+      </c>
+      <c r="CT6" t="n">
+        <v>6.614113134399434e-11</v>
+      </c>
+      <c r="CU6" t="n">
+        <v>2.413301505438844e-11</v>
+      </c>
+      <c r="CV6" t="n">
+        <v>3.076537057839605e-12</v>
+      </c>
+      <c r="CW6" t="n">
+        <v>3.164866989708583e-13</v>
+      </c>
+      <c r="CX6" t="n">
+        <v>2.08789017092696e-13</v>
+      </c>
+      <c r="CY6" t="n">
+        <v>3.125423090805036e-16</v>
+      </c>
+      <c r="CZ6" t="n">
+        <v>1.11807013939575e-14</v>
+      </c>
+      <c r="DA6" t="n">
+        <v>2.04096370297042e-24</v>
+      </c>
+      <c r="DB6" t="n">
+        <v>1.180183934756338e-16</v>
+      </c>
+      <c r="DC6" t="n">
+        <v>1.927728902391055e-27</v>
+      </c>
+      <c r="DD6" t="n">
+        <v>4.078387760888399e-24</v>
+      </c>
+      <c r="DE6" t="n">
+        <v>8.381495751534507e-25</v>
+      </c>
+      <c r="DF6" t="n">
+        <v>2.85529366600059e-28</v>
+      </c>
+      <c r="DG6" t="n">
+        <v>3.141168980997869e-25</v>
+      </c>
+      <c r="DH6" t="n">
+        <v>4.326202344608968e-32</v>
+      </c>
+      <c r="DI6" t="n">
+        <v>5.554209827656221e-21</v>
+      </c>
+      <c r="DJ6" t="n">
+        <v>2.097936565718997e-15</v>
+      </c>
+      <c r="DK6" t="n">
+        <v>8.810660367521703e-17</v>
+      </c>
+      <c r="DL6" t="n">
+        <v>3.67302074604272e-28</v>
+      </c>
+      <c r="DM6" t="n">
+        <v>3.0478559475287e-28</v>
+      </c>
+      <c r="DN6" t="n">
+        <v>3.048015681381521e-16</v>
+      </c>
+      <c r="DO6" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP6" t="n">
+        <v>1.639015273891344e-18</v>
+      </c>
+      <c r="DQ6" t="n">
+        <v>9.038198364984959e-20</v>
+      </c>
+      <c r="DR6" t="n">
+        <v>1.318177729376171e-22</v>
+      </c>
+      <c r="DS6" t="n">
+        <v>0</v>
+      </c>
+      <c r="DT6" t="n">
+        <v>0</v>
+      </c>
+      <c r="DU6" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV6" t="n">
+        <v>3.69793093157819e-11</v>
+      </c>
+      <c r="DW6" t="n">
+        <v>1.654219944852483e-09</v>
+      </c>
+      <c r="DX6" t="n">
+        <v>5.437202662396604e-09</v>
+      </c>
+      <c r="DY6" t="n">
+        <v>4.318380231593372e-27</v>
+      </c>
+      <c r="DZ6" t="n">
+        <v>1.517883522556275e-19</v>
+      </c>
+      <c r="EA6" t="n">
+        <v>1.944221456767341e-12</v>
+      </c>
+      <c r="EB6" t="n">
+        <v>0.00445173191014713</v>
+      </c>
+      <c r="EC6" t="n">
+        <v>5.249388180930569e-07</v>
+      </c>
+      <c r="ED6" t="n">
+        <v>0.0001187179930578711</v>
+      </c>
+      <c r="EE6" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF6" t="n">
+        <v>0.0107150392531844</v>
+      </c>
+      <c r="EG6" t="n">
+        <v>94.83891297066822</v>
+      </c>
+      <c r="EH6" t="n">
+        <v>0.01307183003007578</v>
+      </c>
+      <c r="EI6" t="n">
+        <v>0.0111016396580338</v>
+      </c>
+      <c r="EJ6" t="n">
+        <v>0.009133436979898343</v>
+      </c>
+      <c r="EK6" t="n">
+        <v>2.283465496492613</v>
+      </c>
+      <c r="EL6" t="n">
+        <v>1.04671358676381</v>
+      </c>
+      <c r="EM6" t="n">
+        <v>1.610651794203993</v>
+      </c>
+      <c r="EN6" t="n">
+        <v>0.09586085577809822</v>
+      </c>
+      <c r="EO6" t="n">
+        <v>0.0199908193303374</v>
+      </c>
+      <c r="EP6" t="n">
+        <v>2.4893961506161e-08</v>
+      </c>
+      <c r="EQ6" t="n">
+        <v>0.04425533287638608</v>
+      </c>
+      <c r="ER6" t="n">
+        <v>4.499223393403914e-09</v>
+      </c>
+      <c r="ES6" t="n">
+        <v>6.213383747577449e-07</v>
+      </c>
+      <c r="ET6" t="n">
+        <v>2.323110098366323e-07</v>
+      </c>
+      <c r="EU6" t="n">
+        <v>1.972635035660136e-07</v>
+      </c>
+      <c r="EV6" t="n">
+        <v>1.017121007824095e-07</v>
+      </c>
+      <c r="EW6" t="n">
+        <v>1.201076357058496e-07</v>
+      </c>
+      <c r="EX6" t="n">
+        <v>0.003582024319972499</v>
+      </c>
+      <c r="EY6" t="n">
+        <v>2.621549975275754e-09</v>
+      </c>
+      <c r="EZ6" t="n">
+        <v>1.545929433713899e-10</v>
+      </c>
+      <c r="FA6" t="n">
+        <v>0.006355200313608859</v>
+      </c>
+      <c r="FB6" t="n">
+        <v>0.00161768612380534</v>
+      </c>
+      <c r="FC6" t="n">
+        <v>3.298737139325945e-10</v>
+      </c>
+      <c r="FD6" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE6" t="n">
+        <v>3.502675958307398e-12</v>
+      </c>
+      <c r="FF6" t="n">
+        <v>2.410865627936686e-13</v>
+      </c>
+      <c r="FG6" t="n">
+        <v>2.404915837663816e-16</v>
+      </c>
+      <c r="FH6" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI6" t="n">
         <v>0</v>
       </c>
     </row>

--- a/log/c660_wt_log.xlsx
+++ b/log/c660_wt_log.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:FI6"/>
+  <dimension ref="A1:FI8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3744,6 +3744,1004 @@
         <v>0</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>a1</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.1777111134880425</v>
+      </c>
+      <c r="D7" t="n">
+        <v>11.48760016186961</v>
+      </c>
+      <c r="E7" t="n">
+        <v>21.9307360896316</v>
+      </c>
+      <c r="F7" t="n">
+        <v>14.93593020200784</v>
+      </c>
+      <c r="G7" t="n">
+        <v>15.38416822324578</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1.061269866106982</v>
+      </c>
+      <c r="I7" t="n">
+        <v>34.95694954363999</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.05573916454090103</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.009849304206473728</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.899029989640977e-05</v>
+      </c>
+      <c r="N7" t="n">
+        <v>1.091718408562078e-06</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.801831473116669e-09</v>
+      </c>
+      <c r="P7" t="n">
+        <v>9.444529836483061e-15</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2.77281392709501e-15</v>
+      </c>
+      <c r="R7" t="n">
+        <v>2.83235049226907e-17</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.754762363228676e-18</v>
+      </c>
+      <c r="T7" t="n">
+        <v>8.911887477111833e-19</v>
+      </c>
+      <c r="U7" t="n">
+        <v>4.58672093908158e-22</v>
+      </c>
+      <c r="V7" t="n">
+        <v>6.109640544949654e-20</v>
+      </c>
+      <c r="W7" t="n">
+        <v>5.590642726103323e-35</v>
+      </c>
+      <c r="X7" t="n">
+        <v>2.03522404727945e-22</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>7.697633459060879e-12</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>5.332008738360454e-32</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>1.756369956804511e-35</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>8.199768336057133e-10</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>4.391754106592498e-10</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>1.082505281506059e-27</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>1.632656868566204e-11</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>6.098588748925914e-13</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>1.87050626250231e-05</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>7.541094327229084e-06</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>1.85462599449264e-12</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>1.121938550287161e-14</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>6.187067989783687e-16</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>6.048974346833257e-19</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>0.0004004358735331036</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>0.1461237947179045</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>0.7107868741520554</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>1.325639045890336</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>3.028839548874425</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>0.7136079534610805</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>93.93601783077642</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>0.1026049637691531</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>0.0357316000546213</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>0.0001379311509387722</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>1.409710448199717e-05</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>2.816653288824494e-08</v>
+      </c>
+      <c r="BE7" t="n">
+        <v>1.923080964826021e-13</v>
+      </c>
+      <c r="BF7" t="n">
+        <v>5.845141598008095e-14</v>
+      </c>
+      <c r="BG7" t="n">
+        <v>9.727888470743817e-16</v>
+      </c>
+      <c r="BH7" t="n">
+        <v>6.782624933746287e-17</v>
+      </c>
+      <c r="BI7" t="n">
+        <v>3.375607136486949e-17</v>
+      </c>
+      <c r="BJ7" t="n">
+        <v>2.366284270772045e-20</v>
+      </c>
+      <c r="BK7" t="n">
+        <v>3.194847474648148e-18</v>
+      </c>
+      <c r="BL7" t="n">
+        <v>5.004001341463816e-33</v>
+      </c>
+      <c r="BM7" t="n">
+        <v>9.983527535475029e-21</v>
+      </c>
+      <c r="BN7" t="n">
+        <v>4.106948938238706e-11</v>
+      </c>
+      <c r="BO7" t="n">
+        <v>9.072840987727206e-31</v>
+      </c>
+      <c r="BP7" t="n">
+        <v>1.294512260020593e-33</v>
+      </c>
+      <c r="BQ7" t="n">
+        <v>2.641532855840986e-09</v>
+      </c>
+      <c r="BR7" t="n">
+        <v>1.688819698998617e-34</v>
+      </c>
+      <c r="BS7" t="n">
+        <v>3.900773428518689e-10</v>
+      </c>
+      <c r="BT7" t="n">
+        <v>7.72143718507519e-26</v>
+      </c>
+      <c r="BU7" t="n">
+        <v>2.048642294488102e-11</v>
+      </c>
+      <c r="BV7" t="n">
+        <v>1.393803736517609e-12</v>
+      </c>
+      <c r="BW7" t="n">
+        <v>6.252090440861975e-05</v>
+      </c>
+      <c r="BX7" t="n">
+        <v>3.337200078873685e-05</v>
+      </c>
+      <c r="BY7" t="n">
+        <v>8.450435185903895e-12</v>
+      </c>
+      <c r="BZ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA7" t="n">
+        <v>3.468617817573517e-14</v>
+      </c>
+      <c r="CB7" t="n">
+        <v>3.523537585076893e-15</v>
+      </c>
+      <c r="CC7" t="n">
+        <v>3.285437996252342e-18</v>
+      </c>
+      <c r="CD7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG7" t="n">
+        <v>1.349129472782425e-07</v>
+      </c>
+      <c r="CH7" t="n">
+        <v>3.393515664660708e-05</v>
+      </c>
+      <c r="CI7" t="n">
+        <v>0.0001770907265838275</v>
+      </c>
+      <c r="CJ7" t="n">
+        <v>0.0003651882341929542</v>
+      </c>
+      <c r="CK7" t="n">
+        <v>0.001991682722635607</v>
+      </c>
+      <c r="CL7" t="n">
+        <v>0.01380241839673461</v>
+      </c>
+      <c r="CM7" t="n">
+        <v>99.91563199754771</v>
+      </c>
+      <c r="CN7" t="n">
+        <v>0.0196520847249126</v>
+      </c>
+      <c r="CO7" t="n">
+        <v>0.04609349092167735</v>
+      </c>
+      <c r="CP7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ7" t="n">
+        <v>0.001186107800365999</v>
+      </c>
+      <c r="CR7" t="n">
+        <v>0.001064758816064875</v>
+      </c>
+      <c r="CS7" t="n">
+        <v>1.109929724160228e-06</v>
+      </c>
+      <c r="CT7" t="n">
+        <v>7.773899147586279e-11</v>
+      </c>
+      <c r="CU7" t="n">
+        <v>2.819811480322898e-11</v>
+      </c>
+      <c r="CV7" t="n">
+        <v>3.311455340869854e-12</v>
+      </c>
+      <c r="CW7" t="n">
+        <v>3.344621332939921e-13</v>
+      </c>
+      <c r="CX7" t="n">
+        <v>2.210677089745808e-13</v>
+      </c>
+      <c r="CY7" t="n">
+        <v>3.319041238037791e-16</v>
+      </c>
+      <c r="CZ7" t="n">
+        <v>1.252042638694171e-14</v>
+      </c>
+      <c r="DA7" t="n">
+        <v>2.321536490148479e-24</v>
+      </c>
+      <c r="DB7" t="n">
+        <v>1.357373823897102e-16</v>
+      </c>
+      <c r="DC7" t="n">
+        <v>2.121145550949315e-27</v>
+      </c>
+      <c r="DD7" t="n">
+        <v>4.771536198332376e-24</v>
+      </c>
+      <c r="DE7" t="n">
+        <v>9.609806272473323e-25</v>
+      </c>
+      <c r="DF7" t="n">
+        <v>2.920034048323175e-28</v>
+      </c>
+      <c r="DG7" t="n">
+        <v>3.763827459983333e-25</v>
+      </c>
+      <c r="DH7" t="n">
+        <v>1.136082604560355e-33</v>
+      </c>
+      <c r="DI7" t="n">
+        <v>6.419143216165825e-21</v>
+      </c>
+      <c r="DJ7" t="n">
+        <v>1.159667875580017e-14</v>
+      </c>
+      <c r="DK7" t="n">
+        <v>6.362070922984508e-16</v>
+      </c>
+      <c r="DL7" t="n">
+        <v>2.697507342878574e-28</v>
+      </c>
+      <c r="DM7" t="n">
+        <v>4.447290847643338e-28</v>
+      </c>
+      <c r="DN7" t="n">
+        <v>2.1103712016158e-15</v>
+      </c>
+      <c r="DO7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP7" t="n">
+        <v>9.854447777561916e-18</v>
+      </c>
+      <c r="DQ7" t="n">
+        <v>6.414756307769566e-19</v>
+      </c>
+      <c r="DR7" t="n">
+        <v>6.322118581650009e-22</v>
+      </c>
+      <c r="DS7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DT7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DU7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV7" t="n">
+        <v>2.312970935849128e-10</v>
+      </c>
+      <c r="DW7" t="n">
+        <v>1.397760684206232e-08</v>
+      </c>
+      <c r="DX7" t="n">
+        <v>3.601762753504974e-08</v>
+      </c>
+      <c r="DY7" t="n">
+        <v>4.122779256701957e-27</v>
+      </c>
+      <c r="DZ7" t="n">
+        <v>1.606418342046371e-19</v>
+      </c>
+      <c r="EA7" t="n">
+        <v>2.144440654546462e-12</v>
+      </c>
+      <c r="EB7" t="n">
+        <v>0.004717505962711335</v>
+      </c>
+      <c r="EC7" t="n">
+        <v>6.212491880027871e-07</v>
+      </c>
+      <c r="ED7" t="n">
+        <v>0.0001445214588776984</v>
+      </c>
+      <c r="EE7" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF7" t="n">
+        <v>0.01208685800985953</v>
+      </c>
+      <c r="EG7" t="n">
+        <v>94.79104669315728</v>
+      </c>
+      <c r="EH7" t="n">
+        <v>0.01327951317626226</v>
+      </c>
+      <c r="EI7" t="n">
+        <v>0.01120318715154396</v>
+      </c>
+      <c r="EJ7" t="n">
+        <v>0.009216398825507625</v>
+      </c>
+      <c r="EK7" t="n">
+        <v>2.303875389944794</v>
+      </c>
+      <c r="EL7" t="n">
+        <v>1.056108709514717</v>
+      </c>
+      <c r="EM7" t="n">
+        <v>1.625116108506117</v>
+      </c>
+      <c r="EN7" t="n">
+        <v>0.09672458639544869</v>
+      </c>
+      <c r="EO7" t="n">
+        <v>0.02016962252428043</v>
+      </c>
+      <c r="EP7" t="n">
+        <v>2.759876602030989e-08</v>
+      </c>
+      <c r="EQ7" t="n">
+        <v>0.04465067781575134</v>
+      </c>
+      <c r="ER7" t="n">
+        <v>5.009473588159614e-09</v>
+      </c>
+      <c r="ES7" t="n">
+        <v>6.913081273855949e-07</v>
+      </c>
+      <c r="ET7" t="n">
+        <v>2.579472480595032e-07</v>
+      </c>
+      <c r="EU7" t="n">
+        <v>2.189796896624471e-07</v>
+      </c>
+      <c r="EV7" t="n">
+        <v>1.132943243320096e-07</v>
+      </c>
+      <c r="EW7" t="n">
+        <v>1.338106772421228e-07</v>
+      </c>
+      <c r="EX7" t="n">
+        <v>0.003614023446332803</v>
+      </c>
+      <c r="EY7" t="n">
+        <v>2.918151146036188e-09</v>
+      </c>
+      <c r="EZ7" t="n">
+        <v>1.721572715939265e-10</v>
+      </c>
+      <c r="FA7" t="n">
+        <v>0.006411953046805428</v>
+      </c>
+      <c r="FB7" t="n">
+        <v>0.001632128178195646</v>
+      </c>
+      <c r="FC7" t="n">
+        <v>3.649273194546234e-10</v>
+      </c>
+      <c r="FD7" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE7" t="n">
+        <v>3.883839317906849e-12</v>
+      </c>
+      <c r="FF7" t="n">
+        <v>2.671952643580955e-13</v>
+      </c>
+      <c r="FG7" t="n">
+        <v>2.635712709825498e-16</v>
+      </c>
+      <c r="FH7" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>b2</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.1777137668108373</v>
+      </c>
+      <c r="D8" t="n">
+        <v>11.48775716530647</v>
+      </c>
+      <c r="E8" t="n">
+        <v>21.93101807305863</v>
+      </c>
+      <c r="F8" t="n">
+        <v>14.93608719296298</v>
+      </c>
+      <c r="G8" t="n">
+        <v>15.38435511989394</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1.061294706664068</v>
+      </c>
+      <c r="I8" t="n">
+        <v>34.95614080003494</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.05573779274889248</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.00984901193810489</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.898617074919539e-05</v>
+      </c>
+      <c r="N8" t="n">
+        <v>1.091696917662313e-06</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.802624009389222e-09</v>
+      </c>
+      <c r="P8" t="n">
+        <v>9.448691440794087e-15</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2.774116832709997e-15</v>
+      </c>
+      <c r="R8" t="n">
+        <v>2.833351473880494e-17</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.755373460252352e-18</v>
+      </c>
+      <c r="T8" t="n">
+        <v>8.914876941114068e-19</v>
+      </c>
+      <c r="U8" t="n">
+        <v>4.588241698678974e-22</v>
+      </c>
+      <c r="V8" t="n">
+        <v>6.112245259024381e-20</v>
+      </c>
+      <c r="W8" t="n">
+        <v>5.587930103113365e-35</v>
+      </c>
+      <c r="X8" t="n">
+        <v>2.036140113282953e-22</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>7.7094156317721e-12</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>5.328501128342067e-32</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>1.755815327665941e-35</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>8.208790279234165e-10</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>4.398483367124794e-10</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>1.082952653724485e-27</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>1.634554776093537e-11</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>6.107326608376492e-13</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>1.873450558940313e-05</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>7.555117984748992e-06</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>1.856476872871014e-12</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>1.123192020679536e-14</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>6.193079989903404e-16</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>6.052095598413135e-19</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>0.0004005163697291283</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>0.1461204517980234</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>0.7106670556005033</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>1.325309133388004</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>3.02788466623044</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>0.7134511659706533</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>93.93758996637906</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>0.1025986885508421</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>0.03573037068423748</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>0.0001378390499630711</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>1.409162074651334e-05</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>2.816659991452854e-08</v>
+      </c>
+      <c r="BE8" t="n">
+        <v>1.923175957250876e-13</v>
+      </c>
+      <c r="BF8" t="n">
+        <v>5.845888967367822e-14</v>
+      </c>
+      <c r="BG8" t="n">
+        <v>9.727394910509877e-16</v>
+      </c>
+      <c r="BH8" t="n">
+        <v>6.782542341547924e-17</v>
+      </c>
+      <c r="BI8" t="n">
+        <v>3.375577062744559e-17</v>
+      </c>
+      <c r="BJ8" t="n">
+        <v>2.366095927906661e-20</v>
+      </c>
+      <c r="BK8" t="n">
+        <v>3.194836339100556e-18</v>
+      </c>
+      <c r="BL8" t="n">
+        <v>4.979223089559195e-33</v>
+      </c>
+      <c r="BM8" t="n">
+        <v>9.983734302670209e-21</v>
+      </c>
+      <c r="BN8" t="n">
+        <v>4.110945593282527e-11</v>
+      </c>
+      <c r="BO8" t="n">
+        <v>9.061152558495575e-31</v>
+      </c>
+      <c r="BP8" t="n">
+        <v>1.293638357611616e-33</v>
+      </c>
+      <c r="BQ8" t="n">
+        <v>2.644048736577163e-09</v>
+      </c>
+      <c r="BR8" t="n">
+        <v>1.687811453079516e-34</v>
+      </c>
+      <c r="BS8" t="n">
+        <v>3.905212015745283e-10</v>
+      </c>
+      <c r="BT8" t="n">
+        <v>7.722066037288865e-26</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>2.050802909106022e-11</v>
+      </c>
+      <c r="BV8" t="n">
+        <v>1.395322995015806e-12</v>
+      </c>
+      <c r="BW8" t="n">
+        <v>6.26048057092253e-05</v>
+      </c>
+      <c r="BX8" t="n">
+        <v>3.341827916940924e-05</v>
+      </c>
+      <c r="BY8" t="n">
+        <v>8.455240210421312e-12</v>
+      </c>
+      <c r="BZ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA8" t="n">
+        <v>3.472095850945477e-14</v>
+      </c>
+      <c r="CB8" t="n">
+        <v>3.525969217868057e-15</v>
+      </c>
+      <c r="CC8" t="n">
+        <v>3.286983517536641e-18</v>
+      </c>
+      <c r="CD8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG8" t="n">
+        <v>1.349239989249512e-07</v>
+      </c>
+      <c r="CH8" t="n">
+        <v>3.393800728076814e-05</v>
+      </c>
+      <c r="CI8" t="n">
+        <v>0.0001771057124425422</v>
+      </c>
+      <c r="CJ8" t="n">
+        <v>0.0003652205265354862</v>
+      </c>
+      <c r="CK8" t="n">
+        <v>0.001991699571000888</v>
+      </c>
+      <c r="CL8" t="n">
+        <v>0.01380237671484023</v>
+      </c>
+      <c r="CM8" t="n">
+        <v>99.91563246277923</v>
+      </c>
+      <c r="CN8" t="n">
+        <v>0.01965208831656726</v>
+      </c>
+      <c r="CO8" t="n">
+        <v>0.04609351600139634</v>
+      </c>
+      <c r="CP8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ8" t="n">
+        <v>0.001185703285552279</v>
+      </c>
+      <c r="CR8" t="n">
+        <v>0.001064643787400637</v>
+      </c>
+      <c r="CS8" t="n">
+        <v>1.110263860712835e-06</v>
+      </c>
+      <c r="CT8" t="n">
+        <v>7.776808026695186e-11</v>
+      </c>
+      <c r="CU8" t="n">
+        <v>2.820849390757783e-11</v>
+      </c>
+      <c r="CV8" t="n">
+        <v>3.312355431898541e-12</v>
+      </c>
+      <c r="CW8" t="n">
+        <v>3.345486721096017e-13</v>
+      </c>
+      <c r="CX8" t="n">
+        <v>2.211251985040121e-13</v>
+      </c>
+      <c r="CY8" t="n">
+        <v>3.319849977235498e-16</v>
+      </c>
+      <c r="CZ8" t="n">
+        <v>1.252464719247464e-14</v>
+      </c>
+      <c r="DA8" t="n">
+        <v>2.320964479291265e-24</v>
+      </c>
+      <c r="DB8" t="n">
+        <v>1.357853498456423e-16</v>
+      </c>
+      <c r="DC8" t="n">
+        <v>2.121034234056981e-27</v>
+      </c>
+      <c r="DD8" t="n">
+        <v>4.770541575299105e-24</v>
+      </c>
+      <c r="DE8" t="n">
+        <v>9.608783226480859e-25</v>
+      </c>
+      <c r="DF8" t="n">
+        <v>2.919062003473134e-28</v>
+      </c>
+      <c r="DG8" t="n">
+        <v>3.763940016548926e-25</v>
+      </c>
+      <c r="DH8" t="n">
+        <v>1.130920095345712e-33</v>
+      </c>
+      <c r="DI8" t="n">
+        <v>6.421566074364222e-21</v>
+      </c>
+      <c r="DJ8" t="n">
+        <v>1.161155474807687e-14</v>
+      </c>
+      <c r="DK8" t="n">
+        <v>6.371829920328948e-16</v>
+      </c>
+      <c r="DL8" t="n">
+        <v>2.69742945828522e-28</v>
+      </c>
+      <c r="DM8" t="n">
+        <v>4.449891776910562e-28</v>
+      </c>
+      <c r="DN8" t="n">
+        <v>2.112759416474628e-15</v>
+      </c>
+      <c r="DO8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP8" t="n">
+        <v>9.864938795407747e-18</v>
+      </c>
+      <c r="DQ8" t="n">
+        <v>6.422923759386954e-19</v>
+      </c>
+      <c r="DR8" t="n">
+        <v>6.326032822280702e-22</v>
+      </c>
+      <c r="DS8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DT8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DU8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV8" t="n">
+        <v>2.317156888839611e-10</v>
+      </c>
+      <c r="DW8" t="n">
+        <v>1.400759849667456e-08</v>
+      </c>
+      <c r="DX8" t="n">
+        <v>3.609360537182115e-08</v>
+      </c>
+      <c r="DY8" t="n">
+        <v>4.122401796750682e-27</v>
+      </c>
+      <c r="DZ8" t="n">
+        <v>1.606392848243687e-19</v>
+      </c>
+      <c r="EA8" t="n">
+        <v>2.144621626918828e-12</v>
+      </c>
+      <c r="EB8" t="n">
+        <v>0.004718713057963154</v>
+      </c>
+      <c r="EC8" t="n">
+        <v>6.213394848796526e-07</v>
+      </c>
+      <c r="ED8" t="n">
+        <v>0.0001445578636462119</v>
+      </c>
+      <c r="EE8" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF8" t="n">
+        <v>0.01208459526624575</v>
+      </c>
+      <c r="EG8" t="n">
+        <v>94.78927176192556</v>
+      </c>
+      <c r="EH8" t="n">
+        <v>0.01328216569071166</v>
+      </c>
+      <c r="EI8" t="n">
+        <v>0.01120701702391937</v>
+      </c>
+      <c r="EJ8" t="n">
+        <v>0.009219552823044404</v>
+      </c>
+      <c r="EK8" t="n">
+        <v>2.304664461664362</v>
+      </c>
+      <c r="EL8" t="n">
+        <v>1.056470266127663</v>
+      </c>
+      <c r="EM8" t="n">
+        <v>1.62567250018647</v>
+      </c>
+      <c r="EN8" t="n">
+        <v>0.09675768600676452</v>
+      </c>
+      <c r="EO8" t="n">
+        <v>0.02017653039355025</v>
+      </c>
+      <c r="EP8" t="n">
+        <v>2.759439804571768e-08</v>
+      </c>
+      <c r="EQ8" t="n">
+        <v>0.04466597123161932</v>
+      </c>
+      <c r="ER8" t="n">
+        <v>5.009754507339577e-09</v>
+      </c>
+      <c r="ES8" t="n">
+        <v>6.912318877191395e-07</v>
+      </c>
+      <c r="ET8" t="n">
+        <v>2.579501408375656e-07</v>
+      </c>
+      <c r="EU8" t="n">
+        <v>2.18978234267151e-07</v>
+      </c>
+      <c r="EV8" t="n">
+        <v>1.13304445868688e-07</v>
+      </c>
+      <c r="EW8" t="n">
+        <v>1.338173713141619e-07</v>
+      </c>
+      <c r="EX8" t="n">
+        <v>0.003615261294664294</v>
+      </c>
+      <c r="EY8" t="n">
+        <v>2.918199161907355e-09</v>
+      </c>
+      <c r="EZ8" t="n">
+        <v>1.72168958018732e-10</v>
+      </c>
+      <c r="FA8" t="n">
+        <v>0.006414149221096406</v>
+      </c>
+      <c r="FB8" t="n">
+        <v>0.001632687202547547</v>
+      </c>
+      <c r="FC8" t="n">
+        <v>3.648594467708288e-10</v>
+      </c>
+      <c r="FD8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE8" t="n">
+        <v>3.883508587408862e-12</v>
+      </c>
+      <c r="FF8" t="n">
+        <v>2.671747077503484e-13</v>
+      </c>
+      <c r="FG8" t="n">
+        <v>2.633931113307559e-16</v>
+      </c>
+      <c r="FH8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI8" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/log/c660_wt_log.xlsx
+++ b/log/c660_wt_log.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:FI8"/>
+  <dimension ref="A1:FI10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4742,6 +4742,1004 @@
         <v>0</v>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>a1</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.1777111134880425</v>
+      </c>
+      <c r="D9" t="n">
+        <v>11.48760016186961</v>
+      </c>
+      <c r="E9" t="n">
+        <v>21.9307360896316</v>
+      </c>
+      <c r="F9" t="n">
+        <v>14.93593020200784</v>
+      </c>
+      <c r="G9" t="n">
+        <v>15.38416822324578</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1.061269866106982</v>
+      </c>
+      <c r="I9" t="n">
+        <v>34.95694954363999</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.05573916454090103</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.009849304206473728</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.899029989640977e-05</v>
+      </c>
+      <c r="N9" t="n">
+        <v>1.091718408562078e-06</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.801831473116669e-09</v>
+      </c>
+      <c r="P9" t="n">
+        <v>9.444529836483061e-15</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2.77281392709501e-15</v>
+      </c>
+      <c r="R9" t="n">
+        <v>2.83235049226907e-17</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.754762363228676e-18</v>
+      </c>
+      <c r="T9" t="n">
+        <v>8.911887477111833e-19</v>
+      </c>
+      <c r="U9" t="n">
+        <v>4.58672093908158e-22</v>
+      </c>
+      <c r="V9" t="n">
+        <v>6.109640544949654e-20</v>
+      </c>
+      <c r="W9" t="n">
+        <v>5.590642726103323e-35</v>
+      </c>
+      <c r="X9" t="n">
+        <v>2.03522404727945e-22</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>7.697633459060879e-12</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>5.332008738360454e-32</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>1.756369956804511e-35</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>8.199768336057133e-10</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>4.391754106592498e-10</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>1.082505281506059e-27</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>1.632656868566204e-11</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>6.098588748925914e-13</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>1.87050626250231e-05</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>7.541094327229084e-06</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>1.85462599449264e-12</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>1.121938550287161e-14</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>6.187067989783687e-16</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>6.048974346833257e-19</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>0.0004004358735331036</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>0.1461237947179045</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>0.7107868741520554</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>1.325639045890336</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>3.028839548874425</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>0.7136079534610805</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>93.93601783077642</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>0.1026049637691531</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>0.0357316000546213</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>0.0001379311509387722</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>1.409710448199717e-05</v>
+      </c>
+      <c r="BD9" t="n">
+        <v>2.816653288824494e-08</v>
+      </c>
+      <c r="BE9" t="n">
+        <v>1.923080964826021e-13</v>
+      </c>
+      <c r="BF9" t="n">
+        <v>5.845141598008095e-14</v>
+      </c>
+      <c r="BG9" t="n">
+        <v>9.727888470743817e-16</v>
+      </c>
+      <c r="BH9" t="n">
+        <v>6.782624933746287e-17</v>
+      </c>
+      <c r="BI9" t="n">
+        <v>3.375607136486949e-17</v>
+      </c>
+      <c r="BJ9" t="n">
+        <v>2.366284270772045e-20</v>
+      </c>
+      <c r="BK9" t="n">
+        <v>3.194847474648148e-18</v>
+      </c>
+      <c r="BL9" t="n">
+        <v>5.004001341463816e-33</v>
+      </c>
+      <c r="BM9" t="n">
+        <v>9.983527535475029e-21</v>
+      </c>
+      <c r="BN9" t="n">
+        <v>4.106948938238706e-11</v>
+      </c>
+      <c r="BO9" t="n">
+        <v>9.072840987727206e-31</v>
+      </c>
+      <c r="BP9" t="n">
+        <v>1.294512260020593e-33</v>
+      </c>
+      <c r="BQ9" t="n">
+        <v>2.641532855840986e-09</v>
+      </c>
+      <c r="BR9" t="n">
+        <v>1.688819698998617e-34</v>
+      </c>
+      <c r="BS9" t="n">
+        <v>3.900773428518689e-10</v>
+      </c>
+      <c r="BT9" t="n">
+        <v>7.72143718507519e-26</v>
+      </c>
+      <c r="BU9" t="n">
+        <v>2.048642294488102e-11</v>
+      </c>
+      <c r="BV9" t="n">
+        <v>1.393803736517609e-12</v>
+      </c>
+      <c r="BW9" t="n">
+        <v>6.252090440861975e-05</v>
+      </c>
+      <c r="BX9" t="n">
+        <v>3.337200078873685e-05</v>
+      </c>
+      <c r="BY9" t="n">
+        <v>8.450435185903895e-12</v>
+      </c>
+      <c r="BZ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA9" t="n">
+        <v>3.468617817573517e-14</v>
+      </c>
+      <c r="CB9" t="n">
+        <v>3.523537585076893e-15</v>
+      </c>
+      <c r="CC9" t="n">
+        <v>3.285437996252342e-18</v>
+      </c>
+      <c r="CD9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG9" t="n">
+        <v>1.349129472782425e-07</v>
+      </c>
+      <c r="CH9" t="n">
+        <v>3.393515664660708e-05</v>
+      </c>
+      <c r="CI9" t="n">
+        <v>0.0001770907265838275</v>
+      </c>
+      <c r="CJ9" t="n">
+        <v>0.0003651882341929542</v>
+      </c>
+      <c r="CK9" t="n">
+        <v>0.001991682722635607</v>
+      </c>
+      <c r="CL9" t="n">
+        <v>0.01380241839673461</v>
+      </c>
+      <c r="CM9" t="n">
+        <v>99.91563199754771</v>
+      </c>
+      <c r="CN9" t="n">
+        <v>0.0196520847249126</v>
+      </c>
+      <c r="CO9" t="n">
+        <v>0.04609349092167735</v>
+      </c>
+      <c r="CP9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ9" t="n">
+        <v>0.001186107800365999</v>
+      </c>
+      <c r="CR9" t="n">
+        <v>0.001064758816064875</v>
+      </c>
+      <c r="CS9" t="n">
+        <v>1.109929724160228e-06</v>
+      </c>
+      <c r="CT9" t="n">
+        <v>7.773899147586279e-11</v>
+      </c>
+      <c r="CU9" t="n">
+        <v>2.819811480322898e-11</v>
+      </c>
+      <c r="CV9" t="n">
+        <v>3.311455340869854e-12</v>
+      </c>
+      <c r="CW9" t="n">
+        <v>3.344621332939921e-13</v>
+      </c>
+      <c r="CX9" t="n">
+        <v>2.210677089745808e-13</v>
+      </c>
+      <c r="CY9" t="n">
+        <v>3.319041238037791e-16</v>
+      </c>
+      <c r="CZ9" t="n">
+        <v>1.252042638694171e-14</v>
+      </c>
+      <c r="DA9" t="n">
+        <v>2.321536490148479e-24</v>
+      </c>
+      <c r="DB9" t="n">
+        <v>1.357373823897102e-16</v>
+      </c>
+      <c r="DC9" t="n">
+        <v>2.121145550949315e-27</v>
+      </c>
+      <c r="DD9" t="n">
+        <v>4.771536198332376e-24</v>
+      </c>
+      <c r="DE9" t="n">
+        <v>9.609806272473323e-25</v>
+      </c>
+      <c r="DF9" t="n">
+        <v>2.920034048323175e-28</v>
+      </c>
+      <c r="DG9" t="n">
+        <v>3.763827459983333e-25</v>
+      </c>
+      <c r="DH9" t="n">
+        <v>1.136082604560355e-33</v>
+      </c>
+      <c r="DI9" t="n">
+        <v>6.419143216165825e-21</v>
+      </c>
+      <c r="DJ9" t="n">
+        <v>1.159667875580017e-14</v>
+      </c>
+      <c r="DK9" t="n">
+        <v>6.362070922984508e-16</v>
+      </c>
+      <c r="DL9" t="n">
+        <v>2.697507342878574e-28</v>
+      </c>
+      <c r="DM9" t="n">
+        <v>4.447290847643338e-28</v>
+      </c>
+      <c r="DN9" t="n">
+        <v>2.1103712016158e-15</v>
+      </c>
+      <c r="DO9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP9" t="n">
+        <v>9.854447777561916e-18</v>
+      </c>
+      <c r="DQ9" t="n">
+        <v>6.414756307769566e-19</v>
+      </c>
+      <c r="DR9" t="n">
+        <v>6.322118581650009e-22</v>
+      </c>
+      <c r="DS9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DT9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DU9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV9" t="n">
+        <v>2.312970935849128e-10</v>
+      </c>
+      <c r="DW9" t="n">
+        <v>1.397760684206232e-08</v>
+      </c>
+      <c r="DX9" t="n">
+        <v>3.601762753504974e-08</v>
+      </c>
+      <c r="DY9" t="n">
+        <v>4.122779256701957e-27</v>
+      </c>
+      <c r="DZ9" t="n">
+        <v>1.606418342046371e-19</v>
+      </c>
+      <c r="EA9" t="n">
+        <v>2.144440654546462e-12</v>
+      </c>
+      <c r="EB9" t="n">
+        <v>0.004717505962711335</v>
+      </c>
+      <c r="EC9" t="n">
+        <v>6.212491880027871e-07</v>
+      </c>
+      <c r="ED9" t="n">
+        <v>0.0001445214588776984</v>
+      </c>
+      <c r="EE9" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF9" t="n">
+        <v>0.01208685800985953</v>
+      </c>
+      <c r="EG9" t="n">
+        <v>94.79104669315728</v>
+      </c>
+      <c r="EH9" t="n">
+        <v>0.01327951317626226</v>
+      </c>
+      <c r="EI9" t="n">
+        <v>0.01120318715154396</v>
+      </c>
+      <c r="EJ9" t="n">
+        <v>0.009216398825507625</v>
+      </c>
+      <c r="EK9" t="n">
+        <v>2.303875389944794</v>
+      </c>
+      <c r="EL9" t="n">
+        <v>1.056108709514717</v>
+      </c>
+      <c r="EM9" t="n">
+        <v>1.625116108506117</v>
+      </c>
+      <c r="EN9" t="n">
+        <v>0.09672458639544869</v>
+      </c>
+      <c r="EO9" t="n">
+        <v>0.02016962252428043</v>
+      </c>
+      <c r="EP9" t="n">
+        <v>2.759876602030989e-08</v>
+      </c>
+      <c r="EQ9" t="n">
+        <v>0.04465067781575134</v>
+      </c>
+      <c r="ER9" t="n">
+        <v>5.009473588159614e-09</v>
+      </c>
+      <c r="ES9" t="n">
+        <v>6.913081273855949e-07</v>
+      </c>
+      <c r="ET9" t="n">
+        <v>2.579472480595032e-07</v>
+      </c>
+      <c r="EU9" t="n">
+        <v>2.189796896624471e-07</v>
+      </c>
+      <c r="EV9" t="n">
+        <v>1.132943243320096e-07</v>
+      </c>
+      <c r="EW9" t="n">
+        <v>1.338106772421228e-07</v>
+      </c>
+      <c r="EX9" t="n">
+        <v>0.003614023446332803</v>
+      </c>
+      <c r="EY9" t="n">
+        <v>2.918151146036188e-09</v>
+      </c>
+      <c r="EZ9" t="n">
+        <v>1.721572715939265e-10</v>
+      </c>
+      <c r="FA9" t="n">
+        <v>0.006411953046805428</v>
+      </c>
+      <c r="FB9" t="n">
+        <v>0.001632128178195646</v>
+      </c>
+      <c r="FC9" t="n">
+        <v>3.649273194546234e-10</v>
+      </c>
+      <c r="FD9" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE9" t="n">
+        <v>3.883839317906849e-12</v>
+      </c>
+      <c r="FF9" t="n">
+        <v>2.671952643580955e-13</v>
+      </c>
+      <c r="FG9" t="n">
+        <v>2.635712709825498e-16</v>
+      </c>
+      <c r="FH9" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>b2</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.1777137668108373</v>
+      </c>
+      <c r="D10" t="n">
+        <v>11.48775716530647</v>
+      </c>
+      <c r="E10" t="n">
+        <v>21.93101807305863</v>
+      </c>
+      <c r="F10" t="n">
+        <v>14.93608719296298</v>
+      </c>
+      <c r="G10" t="n">
+        <v>15.38435511989394</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1.061294706664068</v>
+      </c>
+      <c r="I10" t="n">
+        <v>34.95614080003494</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.05573779274889248</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.00984901193810489</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.898617074919539e-05</v>
+      </c>
+      <c r="N10" t="n">
+        <v>1.091696917662313e-06</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.802624009389222e-09</v>
+      </c>
+      <c r="P10" t="n">
+        <v>9.448691440794087e-15</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2.774116832709997e-15</v>
+      </c>
+      <c r="R10" t="n">
+        <v>2.833351473880494e-17</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.755373460252352e-18</v>
+      </c>
+      <c r="T10" t="n">
+        <v>8.914876941114068e-19</v>
+      </c>
+      <c r="U10" t="n">
+        <v>4.588241698678974e-22</v>
+      </c>
+      <c r="V10" t="n">
+        <v>6.112245259024381e-20</v>
+      </c>
+      <c r="W10" t="n">
+        <v>5.587930103113365e-35</v>
+      </c>
+      <c r="X10" t="n">
+        <v>2.036140113282953e-22</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>7.7094156317721e-12</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>5.328501128342067e-32</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>1.755815327665941e-35</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>8.208790279234165e-10</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>4.398483367124794e-10</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>1.082952653724485e-27</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>1.634554776093537e-11</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>6.107326608376492e-13</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>1.873450558940313e-05</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>7.555117984748992e-06</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>1.856476872871014e-12</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>1.123192020679536e-14</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>6.193079989903404e-16</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>6.052095598413135e-19</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>0.0004005163697291283</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>0.1461204517980234</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>0.7106670556005033</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>1.325309133388004</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>3.02788466623044</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>0.7134511659706533</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>93.93758996637906</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>0.1025986885508421</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>0.03573037068423748</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>0.0001378390499630711</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>1.409162074651334e-05</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>2.816659991452854e-08</v>
+      </c>
+      <c r="BE10" t="n">
+        <v>1.923175957250876e-13</v>
+      </c>
+      <c r="BF10" t="n">
+        <v>5.845888967367822e-14</v>
+      </c>
+      <c r="BG10" t="n">
+        <v>9.727394910509877e-16</v>
+      </c>
+      <c r="BH10" t="n">
+        <v>6.782542341547924e-17</v>
+      </c>
+      <c r="BI10" t="n">
+        <v>3.375577062744559e-17</v>
+      </c>
+      <c r="BJ10" t="n">
+        <v>2.366095927906661e-20</v>
+      </c>
+      <c r="BK10" t="n">
+        <v>3.194836339100556e-18</v>
+      </c>
+      <c r="BL10" t="n">
+        <v>4.979223089559195e-33</v>
+      </c>
+      <c r="BM10" t="n">
+        <v>9.983734302670209e-21</v>
+      </c>
+      <c r="BN10" t="n">
+        <v>4.110945593282527e-11</v>
+      </c>
+      <c r="BO10" t="n">
+        <v>9.061152558495575e-31</v>
+      </c>
+      <c r="BP10" t="n">
+        <v>1.293638357611616e-33</v>
+      </c>
+      <c r="BQ10" t="n">
+        <v>2.644048736577163e-09</v>
+      </c>
+      <c r="BR10" t="n">
+        <v>1.687811453079516e-34</v>
+      </c>
+      <c r="BS10" t="n">
+        <v>3.905212015745283e-10</v>
+      </c>
+      <c r="BT10" t="n">
+        <v>7.722066037288865e-26</v>
+      </c>
+      <c r="BU10" t="n">
+        <v>2.050802909106022e-11</v>
+      </c>
+      <c r="BV10" t="n">
+        <v>1.395322995015806e-12</v>
+      </c>
+      <c r="BW10" t="n">
+        <v>6.26048057092253e-05</v>
+      </c>
+      <c r="BX10" t="n">
+        <v>3.341827916940924e-05</v>
+      </c>
+      <c r="BY10" t="n">
+        <v>8.455240210421312e-12</v>
+      </c>
+      <c r="BZ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA10" t="n">
+        <v>3.472095850945477e-14</v>
+      </c>
+      <c r="CB10" t="n">
+        <v>3.525969217868057e-15</v>
+      </c>
+      <c r="CC10" t="n">
+        <v>3.286983517536641e-18</v>
+      </c>
+      <c r="CD10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG10" t="n">
+        <v>1.349239989249512e-07</v>
+      </c>
+      <c r="CH10" t="n">
+        <v>3.393800728076814e-05</v>
+      </c>
+      <c r="CI10" t="n">
+        <v>0.0001771057124425422</v>
+      </c>
+      <c r="CJ10" t="n">
+        <v>0.0003652205265354862</v>
+      </c>
+      <c r="CK10" t="n">
+        <v>0.001991699571000888</v>
+      </c>
+      <c r="CL10" t="n">
+        <v>0.01380237671484023</v>
+      </c>
+      <c r="CM10" t="n">
+        <v>99.91563246277923</v>
+      </c>
+      <c r="CN10" t="n">
+        <v>0.01965208831656726</v>
+      </c>
+      <c r="CO10" t="n">
+        <v>0.04609351600139634</v>
+      </c>
+      <c r="CP10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ10" t="n">
+        <v>0.001185703285552279</v>
+      </c>
+      <c r="CR10" t="n">
+        <v>0.001064643787400637</v>
+      </c>
+      <c r="CS10" t="n">
+        <v>1.110263860712835e-06</v>
+      </c>
+      <c r="CT10" t="n">
+        <v>7.776808026695186e-11</v>
+      </c>
+      <c r="CU10" t="n">
+        <v>2.820849390757783e-11</v>
+      </c>
+      <c r="CV10" t="n">
+        <v>3.312355431898541e-12</v>
+      </c>
+      <c r="CW10" t="n">
+        <v>3.345486721096017e-13</v>
+      </c>
+      <c r="CX10" t="n">
+        <v>2.211251985040121e-13</v>
+      </c>
+      <c r="CY10" t="n">
+        <v>3.319849977235498e-16</v>
+      </c>
+      <c r="CZ10" t="n">
+        <v>1.252464719247464e-14</v>
+      </c>
+      <c r="DA10" t="n">
+        <v>2.320964479291265e-24</v>
+      </c>
+      <c r="DB10" t="n">
+        <v>1.357853498456423e-16</v>
+      </c>
+      <c r="DC10" t="n">
+        <v>2.121034234056981e-27</v>
+      </c>
+      <c r="DD10" t="n">
+        <v>4.770541575299105e-24</v>
+      </c>
+      <c r="DE10" t="n">
+        <v>9.608783226480859e-25</v>
+      </c>
+      <c r="DF10" t="n">
+        <v>2.919062003473134e-28</v>
+      </c>
+      <c r="DG10" t="n">
+        <v>3.763940016548926e-25</v>
+      </c>
+      <c r="DH10" t="n">
+        <v>1.130920095345712e-33</v>
+      </c>
+      <c r="DI10" t="n">
+        <v>6.421566074364222e-21</v>
+      </c>
+      <c r="DJ10" t="n">
+        <v>1.161155474807687e-14</v>
+      </c>
+      <c r="DK10" t="n">
+        <v>6.371829920328948e-16</v>
+      </c>
+      <c r="DL10" t="n">
+        <v>2.69742945828522e-28</v>
+      </c>
+      <c r="DM10" t="n">
+        <v>4.449891776910562e-28</v>
+      </c>
+      <c r="DN10" t="n">
+        <v>2.112759416474628e-15</v>
+      </c>
+      <c r="DO10" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP10" t="n">
+        <v>9.864938795407747e-18</v>
+      </c>
+      <c r="DQ10" t="n">
+        <v>6.422923759386954e-19</v>
+      </c>
+      <c r="DR10" t="n">
+        <v>6.326032822280702e-22</v>
+      </c>
+      <c r="DS10" t="n">
+        <v>0</v>
+      </c>
+      <c r="DT10" t="n">
+        <v>0</v>
+      </c>
+      <c r="DU10" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV10" t="n">
+        <v>2.317156888839611e-10</v>
+      </c>
+      <c r="DW10" t="n">
+        <v>1.400759849667456e-08</v>
+      </c>
+      <c r="DX10" t="n">
+        <v>3.609360537182115e-08</v>
+      </c>
+      <c r="DY10" t="n">
+        <v>4.122401796750682e-27</v>
+      </c>
+      <c r="DZ10" t="n">
+        <v>1.606392848243687e-19</v>
+      </c>
+      <c r="EA10" t="n">
+        <v>2.144621626918828e-12</v>
+      </c>
+      <c r="EB10" t="n">
+        <v>0.004718713057963154</v>
+      </c>
+      <c r="EC10" t="n">
+        <v>6.213394848796526e-07</v>
+      </c>
+      <c r="ED10" t="n">
+        <v>0.0001445578636462119</v>
+      </c>
+      <c r="EE10" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF10" t="n">
+        <v>0.01208459526624575</v>
+      </c>
+      <c r="EG10" t="n">
+        <v>94.78927176192556</v>
+      </c>
+      <c r="EH10" t="n">
+        <v>0.01328216569071166</v>
+      </c>
+      <c r="EI10" t="n">
+        <v>0.01120701702391937</v>
+      </c>
+      <c r="EJ10" t="n">
+        <v>0.009219552823044404</v>
+      </c>
+      <c r="EK10" t="n">
+        <v>2.304664461664362</v>
+      </c>
+      <c r="EL10" t="n">
+        <v>1.056470266127663</v>
+      </c>
+      <c r="EM10" t="n">
+        <v>1.62567250018647</v>
+      </c>
+      <c r="EN10" t="n">
+        <v>0.09675768600676452</v>
+      </c>
+      <c r="EO10" t="n">
+        <v>0.02017653039355025</v>
+      </c>
+      <c r="EP10" t="n">
+        <v>2.759439804571768e-08</v>
+      </c>
+      <c r="EQ10" t="n">
+        <v>0.04466597123161932</v>
+      </c>
+      <c r="ER10" t="n">
+        <v>5.009754507339577e-09</v>
+      </c>
+      <c r="ES10" t="n">
+        <v>6.912318877191395e-07</v>
+      </c>
+      <c r="ET10" t="n">
+        <v>2.579501408375656e-07</v>
+      </c>
+      <c r="EU10" t="n">
+        <v>2.18978234267151e-07</v>
+      </c>
+      <c r="EV10" t="n">
+        <v>1.13304445868688e-07</v>
+      </c>
+      <c r="EW10" t="n">
+        <v>1.338173713141619e-07</v>
+      </c>
+      <c r="EX10" t="n">
+        <v>0.003615261294664294</v>
+      </c>
+      <c r="EY10" t="n">
+        <v>2.918199161907355e-09</v>
+      </c>
+      <c r="EZ10" t="n">
+        <v>1.72168958018732e-10</v>
+      </c>
+      <c r="FA10" t="n">
+        <v>0.006414149221096406</v>
+      </c>
+      <c r="FB10" t="n">
+        <v>0.001632687202547547</v>
+      </c>
+      <c r="FC10" t="n">
+        <v>3.648594467708288e-10</v>
+      </c>
+      <c r="FD10" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE10" t="n">
+        <v>3.883508587408862e-12</v>
+      </c>
+      <c r="FF10" t="n">
+        <v>2.671747077503484e-13</v>
+      </c>
+      <c r="FG10" t="n">
+        <v>2.633931113307559e-16</v>
+      </c>
+      <c r="FH10" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI10" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/log/c660_wt_log.xlsx
+++ b/log/c660_wt_log.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:FI10"/>
+  <dimension ref="A1:FI12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5740,6 +5740,1004 @@
         <v>0</v>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>a1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.1777111134880425</v>
+      </c>
+      <c r="D11" t="n">
+        <v>11.48760016186961</v>
+      </c>
+      <c r="E11" t="n">
+        <v>21.9307360896316</v>
+      </c>
+      <c r="F11" t="n">
+        <v>14.93593020200784</v>
+      </c>
+      <c r="G11" t="n">
+        <v>15.38416822324578</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1.061269866106982</v>
+      </c>
+      <c r="I11" t="n">
+        <v>34.95694954363999</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.05573916454090103</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.009849304206473728</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.899029989640977e-05</v>
+      </c>
+      <c r="N11" t="n">
+        <v>1.091718408562078e-06</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.801831473116669e-09</v>
+      </c>
+      <c r="P11" t="n">
+        <v>9.444529836483061e-15</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2.77281392709501e-15</v>
+      </c>
+      <c r="R11" t="n">
+        <v>2.83235049226907e-17</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.754762363228676e-18</v>
+      </c>
+      <c r="T11" t="n">
+        <v>8.911887477111833e-19</v>
+      </c>
+      <c r="U11" t="n">
+        <v>4.58672093908158e-22</v>
+      </c>
+      <c r="V11" t="n">
+        <v>6.109640544949654e-20</v>
+      </c>
+      <c r="W11" t="n">
+        <v>5.590642726103323e-35</v>
+      </c>
+      <c r="X11" t="n">
+        <v>2.03522404727945e-22</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>7.697633459060879e-12</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>5.332008738360454e-32</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>1.756369956804511e-35</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>8.199768336057133e-10</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>4.391754106592498e-10</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>1.082505281506059e-27</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>1.632656868566204e-11</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>6.098588748925914e-13</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>1.87050626250231e-05</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>7.541094327229084e-06</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>1.85462599449264e-12</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>1.121938550287161e-14</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>6.187067989783687e-16</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>6.048974346833257e-19</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>0.0004004358735331036</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>0.1461237947179045</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>0.7107868741520554</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>1.325639045890336</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>3.028839548874425</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>0.7136079534610805</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>93.93601783077642</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>0.1026049637691531</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>0.0357316000546213</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>0.0001379311509387722</v>
+      </c>
+      <c r="BC11" t="n">
+        <v>1.409710448199717e-05</v>
+      </c>
+      <c r="BD11" t="n">
+        <v>2.816653288824494e-08</v>
+      </c>
+      <c r="BE11" t="n">
+        <v>1.923080964826021e-13</v>
+      </c>
+      <c r="BF11" t="n">
+        <v>5.845141598008095e-14</v>
+      </c>
+      <c r="BG11" t="n">
+        <v>9.727888470743817e-16</v>
+      </c>
+      <c r="BH11" t="n">
+        <v>6.782624933746287e-17</v>
+      </c>
+      <c r="BI11" t="n">
+        <v>3.375607136486949e-17</v>
+      </c>
+      <c r="BJ11" t="n">
+        <v>2.366284270772045e-20</v>
+      </c>
+      <c r="BK11" t="n">
+        <v>3.194847474648148e-18</v>
+      </c>
+      <c r="BL11" t="n">
+        <v>5.004001341463816e-33</v>
+      </c>
+      <c r="BM11" t="n">
+        <v>9.983527535475029e-21</v>
+      </c>
+      <c r="BN11" t="n">
+        <v>4.106948938238706e-11</v>
+      </c>
+      <c r="BO11" t="n">
+        <v>9.072840987727206e-31</v>
+      </c>
+      <c r="BP11" t="n">
+        <v>1.294512260020593e-33</v>
+      </c>
+      <c r="BQ11" t="n">
+        <v>2.641532855840986e-09</v>
+      </c>
+      <c r="BR11" t="n">
+        <v>1.688819698998617e-34</v>
+      </c>
+      <c r="BS11" t="n">
+        <v>3.900773428518689e-10</v>
+      </c>
+      <c r="BT11" t="n">
+        <v>7.72143718507519e-26</v>
+      </c>
+      <c r="BU11" t="n">
+        <v>2.048642294488102e-11</v>
+      </c>
+      <c r="BV11" t="n">
+        <v>1.393803736517609e-12</v>
+      </c>
+      <c r="BW11" t="n">
+        <v>6.252090440861975e-05</v>
+      </c>
+      <c r="BX11" t="n">
+        <v>3.337200078873685e-05</v>
+      </c>
+      <c r="BY11" t="n">
+        <v>8.450435185903895e-12</v>
+      </c>
+      <c r="BZ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA11" t="n">
+        <v>3.468617817573517e-14</v>
+      </c>
+      <c r="CB11" t="n">
+        <v>3.523537585076893e-15</v>
+      </c>
+      <c r="CC11" t="n">
+        <v>3.285437996252342e-18</v>
+      </c>
+      <c r="CD11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG11" t="n">
+        <v>1.349129472782425e-07</v>
+      </c>
+      <c r="CH11" t="n">
+        <v>3.393515664660708e-05</v>
+      </c>
+      <c r="CI11" t="n">
+        <v>0.0001770907265838275</v>
+      </c>
+      <c r="CJ11" t="n">
+        <v>0.0003651882341929542</v>
+      </c>
+      <c r="CK11" t="n">
+        <v>0.001991682722635607</v>
+      </c>
+      <c r="CL11" t="n">
+        <v>0.01380241839673461</v>
+      </c>
+      <c r="CM11" t="n">
+        <v>99.91563199754771</v>
+      </c>
+      <c r="CN11" t="n">
+        <v>0.0196520847249126</v>
+      </c>
+      <c r="CO11" t="n">
+        <v>0.04609349092167735</v>
+      </c>
+      <c r="CP11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ11" t="n">
+        <v>0.001186107800365999</v>
+      </c>
+      <c r="CR11" t="n">
+        <v>0.001064758816064875</v>
+      </c>
+      <c r="CS11" t="n">
+        <v>1.109929724160228e-06</v>
+      </c>
+      <c r="CT11" t="n">
+        <v>7.773899147586279e-11</v>
+      </c>
+      <c r="CU11" t="n">
+        <v>2.819811480322898e-11</v>
+      </c>
+      <c r="CV11" t="n">
+        <v>3.311455340869854e-12</v>
+      </c>
+      <c r="CW11" t="n">
+        <v>3.344621332939921e-13</v>
+      </c>
+      <c r="CX11" t="n">
+        <v>2.210677089745808e-13</v>
+      </c>
+      <c r="CY11" t="n">
+        <v>3.319041238037791e-16</v>
+      </c>
+      <c r="CZ11" t="n">
+        <v>1.252042638694171e-14</v>
+      </c>
+      <c r="DA11" t="n">
+        <v>2.321536490148479e-24</v>
+      </c>
+      <c r="DB11" t="n">
+        <v>1.357373823897102e-16</v>
+      </c>
+      <c r="DC11" t="n">
+        <v>2.121145550949315e-27</v>
+      </c>
+      <c r="DD11" t="n">
+        <v>4.771536198332376e-24</v>
+      </c>
+      <c r="DE11" t="n">
+        <v>9.609806272473323e-25</v>
+      </c>
+      <c r="DF11" t="n">
+        <v>2.920034048323175e-28</v>
+      </c>
+      <c r="DG11" t="n">
+        <v>3.763827459983333e-25</v>
+      </c>
+      <c r="DH11" t="n">
+        <v>1.136082604560355e-33</v>
+      </c>
+      <c r="DI11" t="n">
+        <v>6.419143216165825e-21</v>
+      </c>
+      <c r="DJ11" t="n">
+        <v>1.159667875580017e-14</v>
+      </c>
+      <c r="DK11" t="n">
+        <v>6.362070922984508e-16</v>
+      </c>
+      <c r="DL11" t="n">
+        <v>2.697507342878574e-28</v>
+      </c>
+      <c r="DM11" t="n">
+        <v>4.447290847643338e-28</v>
+      </c>
+      <c r="DN11" t="n">
+        <v>2.1103712016158e-15</v>
+      </c>
+      <c r="DO11" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP11" t="n">
+        <v>9.854447777561916e-18</v>
+      </c>
+      <c r="DQ11" t="n">
+        <v>6.414756307769566e-19</v>
+      </c>
+      <c r="DR11" t="n">
+        <v>6.322118581650009e-22</v>
+      </c>
+      <c r="DS11" t="n">
+        <v>0</v>
+      </c>
+      <c r="DT11" t="n">
+        <v>0</v>
+      </c>
+      <c r="DU11" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV11" t="n">
+        <v>2.312970935849128e-10</v>
+      </c>
+      <c r="DW11" t="n">
+        <v>1.397760684206232e-08</v>
+      </c>
+      <c r="DX11" t="n">
+        <v>3.601762753504974e-08</v>
+      </c>
+      <c r="DY11" t="n">
+        <v>4.122779256701957e-27</v>
+      </c>
+      <c r="DZ11" t="n">
+        <v>1.606418342046371e-19</v>
+      </c>
+      <c r="EA11" t="n">
+        <v>2.144440654546462e-12</v>
+      </c>
+      <c r="EB11" t="n">
+        <v>0.004717505962711335</v>
+      </c>
+      <c r="EC11" t="n">
+        <v>6.212491880027871e-07</v>
+      </c>
+      <c r="ED11" t="n">
+        <v>0.0001445214588776984</v>
+      </c>
+      <c r="EE11" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF11" t="n">
+        <v>0.01208685800985953</v>
+      </c>
+      <c r="EG11" t="n">
+        <v>94.79104669315728</v>
+      </c>
+      <c r="EH11" t="n">
+        <v>0.01327951317626226</v>
+      </c>
+      <c r="EI11" t="n">
+        <v>0.01120318715154396</v>
+      </c>
+      <c r="EJ11" t="n">
+        <v>0.009216398825507625</v>
+      </c>
+      <c r="EK11" t="n">
+        <v>2.303875389944794</v>
+      </c>
+      <c r="EL11" t="n">
+        <v>1.056108709514717</v>
+      </c>
+      <c r="EM11" t="n">
+        <v>1.625116108506117</v>
+      </c>
+      <c r="EN11" t="n">
+        <v>0.09672458639544869</v>
+      </c>
+      <c r="EO11" t="n">
+        <v>0.02016962252428043</v>
+      </c>
+      <c r="EP11" t="n">
+        <v>2.759876602030989e-08</v>
+      </c>
+      <c r="EQ11" t="n">
+        <v>0.04465067781575134</v>
+      </c>
+      <c r="ER11" t="n">
+        <v>5.009473588159614e-09</v>
+      </c>
+      <c r="ES11" t="n">
+        <v>6.913081273855949e-07</v>
+      </c>
+      <c r="ET11" t="n">
+        <v>2.579472480595032e-07</v>
+      </c>
+      <c r="EU11" t="n">
+        <v>2.189796896624471e-07</v>
+      </c>
+      <c r="EV11" t="n">
+        <v>1.132943243320096e-07</v>
+      </c>
+      <c r="EW11" t="n">
+        <v>1.338106772421228e-07</v>
+      </c>
+      <c r="EX11" t="n">
+        <v>0.003614023446332803</v>
+      </c>
+      <c r="EY11" t="n">
+        <v>2.918151146036188e-09</v>
+      </c>
+      <c r="EZ11" t="n">
+        <v>1.721572715939265e-10</v>
+      </c>
+      <c r="FA11" t="n">
+        <v>0.006411953046805428</v>
+      </c>
+      <c r="FB11" t="n">
+        <v>0.001632128178195646</v>
+      </c>
+      <c r="FC11" t="n">
+        <v>3.649273194546234e-10</v>
+      </c>
+      <c r="FD11" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE11" t="n">
+        <v>3.883839317906849e-12</v>
+      </c>
+      <c r="FF11" t="n">
+        <v>2.671952643580955e-13</v>
+      </c>
+      <c r="FG11" t="n">
+        <v>2.635712709825498e-16</v>
+      </c>
+      <c r="FH11" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>b2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.1777137668108373</v>
+      </c>
+      <c r="D12" t="n">
+        <v>11.48775716530647</v>
+      </c>
+      <c r="E12" t="n">
+        <v>21.93101807305863</v>
+      </c>
+      <c r="F12" t="n">
+        <v>14.93608719296298</v>
+      </c>
+      <c r="G12" t="n">
+        <v>15.38435511989394</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1.061294706664068</v>
+      </c>
+      <c r="I12" t="n">
+        <v>34.95614080003494</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.05573779274889248</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.00984901193810489</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.898617074919539e-05</v>
+      </c>
+      <c r="N12" t="n">
+        <v>1.091696917662313e-06</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.802624009389222e-09</v>
+      </c>
+      <c r="P12" t="n">
+        <v>9.448691440794087e-15</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2.774116832709997e-15</v>
+      </c>
+      <c r="R12" t="n">
+        <v>2.833351473880494e-17</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1.755373460252352e-18</v>
+      </c>
+      <c r="T12" t="n">
+        <v>8.914876941114068e-19</v>
+      </c>
+      <c r="U12" t="n">
+        <v>4.588241698678974e-22</v>
+      </c>
+      <c r="V12" t="n">
+        <v>6.112245259024381e-20</v>
+      </c>
+      <c r="W12" t="n">
+        <v>5.587930103113365e-35</v>
+      </c>
+      <c r="X12" t="n">
+        <v>2.036140113282953e-22</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>7.7094156317721e-12</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>5.328501128342067e-32</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>1.755815327665941e-35</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>8.208790279234165e-10</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>4.398483367124794e-10</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>1.082952653724485e-27</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>1.634554776093537e-11</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>6.107326608376492e-13</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>1.873450558940313e-05</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>7.555117984748992e-06</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>1.856476872871014e-12</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>1.123192020679536e-14</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>6.193079989903404e-16</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>6.052095598413135e-19</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>0.0004005163697291283</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>0.1461204517980234</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>0.7106670556005033</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>1.325309133388004</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>3.02788466623044</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>0.7134511659706533</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>93.93758996637906</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>0.1025986885508421</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>0.03573037068423748</v>
+      </c>
+      <c r="BA12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>0.0001378390499630711</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>1.409162074651334e-05</v>
+      </c>
+      <c r="BD12" t="n">
+        <v>2.816659991452854e-08</v>
+      </c>
+      <c r="BE12" t="n">
+        <v>1.923175957250876e-13</v>
+      </c>
+      <c r="BF12" t="n">
+        <v>5.845888967367822e-14</v>
+      </c>
+      <c r="BG12" t="n">
+        <v>9.727394910509877e-16</v>
+      </c>
+      <c r="BH12" t="n">
+        <v>6.782542341547924e-17</v>
+      </c>
+      <c r="BI12" t="n">
+        <v>3.375577062744559e-17</v>
+      </c>
+      <c r="BJ12" t="n">
+        <v>2.366095927906661e-20</v>
+      </c>
+      <c r="BK12" t="n">
+        <v>3.194836339100556e-18</v>
+      </c>
+      <c r="BL12" t="n">
+        <v>4.979223089559195e-33</v>
+      </c>
+      <c r="BM12" t="n">
+        <v>9.983734302670209e-21</v>
+      </c>
+      <c r="BN12" t="n">
+        <v>4.110945593282527e-11</v>
+      </c>
+      <c r="BO12" t="n">
+        <v>9.061152558495575e-31</v>
+      </c>
+      <c r="BP12" t="n">
+        <v>1.293638357611616e-33</v>
+      </c>
+      <c r="BQ12" t="n">
+        <v>2.644048736577163e-09</v>
+      </c>
+      <c r="BR12" t="n">
+        <v>1.687811453079516e-34</v>
+      </c>
+      <c r="BS12" t="n">
+        <v>3.905212015745283e-10</v>
+      </c>
+      <c r="BT12" t="n">
+        <v>7.722066037288865e-26</v>
+      </c>
+      <c r="BU12" t="n">
+        <v>2.050802909106022e-11</v>
+      </c>
+      <c r="BV12" t="n">
+        <v>1.395322995015806e-12</v>
+      </c>
+      <c r="BW12" t="n">
+        <v>6.26048057092253e-05</v>
+      </c>
+      <c r="BX12" t="n">
+        <v>3.341827916940924e-05</v>
+      </c>
+      <c r="BY12" t="n">
+        <v>8.455240210421312e-12</v>
+      </c>
+      <c r="BZ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA12" t="n">
+        <v>3.472095850945477e-14</v>
+      </c>
+      <c r="CB12" t="n">
+        <v>3.525969217868057e-15</v>
+      </c>
+      <c r="CC12" t="n">
+        <v>3.286983517536641e-18</v>
+      </c>
+      <c r="CD12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG12" t="n">
+        <v>1.349239989249512e-07</v>
+      </c>
+      <c r="CH12" t="n">
+        <v>3.393800728076814e-05</v>
+      </c>
+      <c r="CI12" t="n">
+        <v>0.0001771057124425422</v>
+      </c>
+      <c r="CJ12" t="n">
+        <v>0.0003652205265354862</v>
+      </c>
+      <c r="CK12" t="n">
+        <v>0.001991699571000888</v>
+      </c>
+      <c r="CL12" t="n">
+        <v>0.01380237671484023</v>
+      </c>
+      <c r="CM12" t="n">
+        <v>99.91563246277923</v>
+      </c>
+      <c r="CN12" t="n">
+        <v>0.01965208831656726</v>
+      </c>
+      <c r="CO12" t="n">
+        <v>0.04609351600139634</v>
+      </c>
+      <c r="CP12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ12" t="n">
+        <v>0.001185703285552279</v>
+      </c>
+      <c r="CR12" t="n">
+        <v>0.001064643787400637</v>
+      </c>
+      <c r="CS12" t="n">
+        <v>1.110263860712835e-06</v>
+      </c>
+      <c r="CT12" t="n">
+        <v>7.776808026695186e-11</v>
+      </c>
+      <c r="CU12" t="n">
+        <v>2.820849390757783e-11</v>
+      </c>
+      <c r="CV12" t="n">
+        <v>3.312355431898541e-12</v>
+      </c>
+      <c r="CW12" t="n">
+        <v>3.345486721096017e-13</v>
+      </c>
+      <c r="CX12" t="n">
+        <v>2.211251985040121e-13</v>
+      </c>
+      <c r="CY12" t="n">
+        <v>3.319849977235498e-16</v>
+      </c>
+      <c r="CZ12" t="n">
+        <v>1.252464719247464e-14</v>
+      </c>
+      <c r="DA12" t="n">
+        <v>2.320964479291265e-24</v>
+      </c>
+      <c r="DB12" t="n">
+        <v>1.357853498456423e-16</v>
+      </c>
+      <c r="DC12" t="n">
+        <v>2.121034234056981e-27</v>
+      </c>
+      <c r="DD12" t="n">
+        <v>4.770541575299105e-24</v>
+      </c>
+      <c r="DE12" t="n">
+        <v>9.608783226480859e-25</v>
+      </c>
+      <c r="DF12" t="n">
+        <v>2.919062003473134e-28</v>
+      </c>
+      <c r="DG12" t="n">
+        <v>3.763940016548926e-25</v>
+      </c>
+      <c r="DH12" t="n">
+        <v>1.130920095345712e-33</v>
+      </c>
+      <c r="DI12" t="n">
+        <v>6.421566074364222e-21</v>
+      </c>
+      <c r="DJ12" t="n">
+        <v>1.161155474807687e-14</v>
+      </c>
+      <c r="DK12" t="n">
+        <v>6.371829920328948e-16</v>
+      </c>
+      <c r="DL12" t="n">
+        <v>2.69742945828522e-28</v>
+      </c>
+      <c r="DM12" t="n">
+        <v>4.449891776910562e-28</v>
+      </c>
+      <c r="DN12" t="n">
+        <v>2.112759416474628e-15</v>
+      </c>
+      <c r="DO12" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP12" t="n">
+        <v>9.864938795407747e-18</v>
+      </c>
+      <c r="DQ12" t="n">
+        <v>6.422923759386954e-19</v>
+      </c>
+      <c r="DR12" t="n">
+        <v>6.326032822280702e-22</v>
+      </c>
+      <c r="DS12" t="n">
+        <v>0</v>
+      </c>
+      <c r="DT12" t="n">
+        <v>0</v>
+      </c>
+      <c r="DU12" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV12" t="n">
+        <v>2.317156888839611e-10</v>
+      </c>
+      <c r="DW12" t="n">
+        <v>1.400759849667456e-08</v>
+      </c>
+      <c r="DX12" t="n">
+        <v>3.609360537182115e-08</v>
+      </c>
+      <c r="DY12" t="n">
+        <v>4.122401796750682e-27</v>
+      </c>
+      <c r="DZ12" t="n">
+        <v>1.606392848243687e-19</v>
+      </c>
+      <c r="EA12" t="n">
+        <v>2.144621626918828e-12</v>
+      </c>
+      <c r="EB12" t="n">
+        <v>0.004718713057963154</v>
+      </c>
+      <c r="EC12" t="n">
+        <v>6.213394848796526e-07</v>
+      </c>
+      <c r="ED12" t="n">
+        <v>0.0001445578636462119</v>
+      </c>
+      <c r="EE12" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF12" t="n">
+        <v>0.01208459526624575</v>
+      </c>
+      <c r="EG12" t="n">
+        <v>94.78927176192556</v>
+      </c>
+      <c r="EH12" t="n">
+        <v>0.01328216569071166</v>
+      </c>
+      <c r="EI12" t="n">
+        <v>0.01120701702391937</v>
+      </c>
+      <c r="EJ12" t="n">
+        <v>0.009219552823044404</v>
+      </c>
+      <c r="EK12" t="n">
+        <v>2.304664461664362</v>
+      </c>
+      <c r="EL12" t="n">
+        <v>1.056470266127663</v>
+      </c>
+      <c r="EM12" t="n">
+        <v>1.62567250018647</v>
+      </c>
+      <c r="EN12" t="n">
+        <v>0.09675768600676452</v>
+      </c>
+      <c r="EO12" t="n">
+        <v>0.02017653039355025</v>
+      </c>
+      <c r="EP12" t="n">
+        <v>2.759439804571768e-08</v>
+      </c>
+      <c r="EQ12" t="n">
+        <v>0.04466597123161932</v>
+      </c>
+      <c r="ER12" t="n">
+        <v>5.009754507339577e-09</v>
+      </c>
+      <c r="ES12" t="n">
+        <v>6.912318877191395e-07</v>
+      </c>
+      <c r="ET12" t="n">
+        <v>2.579501408375656e-07</v>
+      </c>
+      <c r="EU12" t="n">
+        <v>2.18978234267151e-07</v>
+      </c>
+      <c r="EV12" t="n">
+        <v>1.13304445868688e-07</v>
+      </c>
+      <c r="EW12" t="n">
+        <v>1.338173713141619e-07</v>
+      </c>
+      <c r="EX12" t="n">
+        <v>0.003615261294664294</v>
+      </c>
+      <c r="EY12" t="n">
+        <v>2.918199161907355e-09</v>
+      </c>
+      <c r="EZ12" t="n">
+        <v>1.72168958018732e-10</v>
+      </c>
+      <c r="FA12" t="n">
+        <v>0.006414149221096406</v>
+      </c>
+      <c r="FB12" t="n">
+        <v>0.001632687202547547</v>
+      </c>
+      <c r="FC12" t="n">
+        <v>3.648594467708288e-10</v>
+      </c>
+      <c r="FD12" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE12" t="n">
+        <v>3.883508587408862e-12</v>
+      </c>
+      <c r="FF12" t="n">
+        <v>2.671747077503484e-13</v>
+      </c>
+      <c r="FG12" t="n">
+        <v>2.633931113307559e-16</v>
+      </c>
+      <c r="FH12" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI12" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/log/c660_wt_log.xlsx
+++ b/log/c660_wt_log.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:FI12"/>
+  <dimension ref="A1:FI18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6738,6 +6738,3000 @@
         <v>0</v>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>60000</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.1777111134880425</v>
+      </c>
+      <c r="D13" t="n">
+        <v>11.48760016186961</v>
+      </c>
+      <c r="E13" t="n">
+        <v>21.9307360896316</v>
+      </c>
+      <c r="F13" t="n">
+        <v>14.93593020200784</v>
+      </c>
+      <c r="G13" t="n">
+        <v>15.38416822324578</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1.061269866106982</v>
+      </c>
+      <c r="I13" t="n">
+        <v>34.95694954363999</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.05573916454090103</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.009849304206473728</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.899029989640977e-05</v>
+      </c>
+      <c r="N13" t="n">
+        <v>1.091718408562078e-06</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.801831473116669e-09</v>
+      </c>
+      <c r="P13" t="n">
+        <v>9.444529836483061e-15</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2.77281392709501e-15</v>
+      </c>
+      <c r="R13" t="n">
+        <v>2.83235049226907e-17</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.754762363228676e-18</v>
+      </c>
+      <c r="T13" t="n">
+        <v>8.911887477111833e-19</v>
+      </c>
+      <c r="U13" t="n">
+        <v>4.58672093908158e-22</v>
+      </c>
+      <c r="V13" t="n">
+        <v>6.109640544949654e-20</v>
+      </c>
+      <c r="W13" t="n">
+        <v>5.590642726103323e-35</v>
+      </c>
+      <c r="X13" t="n">
+        <v>2.03522404727945e-22</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>7.697633459060879e-12</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>5.332008738360454e-32</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>1.756369956804511e-35</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>8.199768336057133e-10</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>4.391754106592498e-10</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>1.082505281506059e-27</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>1.632656868566204e-11</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>6.098588748925914e-13</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>1.87050626250231e-05</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>7.541094327229084e-06</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>1.85462599449264e-12</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>1.121938550287161e-14</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>6.187067989783687e-16</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>6.048974346833257e-19</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>0.0004004358735331036</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>0.1461237947179045</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>0.7107868741520554</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>1.325639045890336</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>3.028839548874425</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>0.7136079534610805</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>93.93601783077642</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>0.1026049637691531</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>0.0357316000546213</v>
+      </c>
+      <c r="BA13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>0.0001379311509387722</v>
+      </c>
+      <c r="BC13" t="n">
+        <v>1.409710448199717e-05</v>
+      </c>
+      <c r="BD13" t="n">
+        <v>2.816653288824494e-08</v>
+      </c>
+      <c r="BE13" t="n">
+        <v>1.923080964826021e-13</v>
+      </c>
+      <c r="BF13" t="n">
+        <v>5.845141598008095e-14</v>
+      </c>
+      <c r="BG13" t="n">
+        <v>9.727888470743817e-16</v>
+      </c>
+      <c r="BH13" t="n">
+        <v>6.782624933746287e-17</v>
+      </c>
+      <c r="BI13" t="n">
+        <v>3.375607136486949e-17</v>
+      </c>
+      <c r="BJ13" t="n">
+        <v>2.366284270772045e-20</v>
+      </c>
+      <c r="BK13" t="n">
+        <v>3.194847474648148e-18</v>
+      </c>
+      <c r="BL13" t="n">
+        <v>5.004001341463816e-33</v>
+      </c>
+      <c r="BM13" t="n">
+        <v>9.983527535475029e-21</v>
+      </c>
+      <c r="BN13" t="n">
+        <v>4.106948938238706e-11</v>
+      </c>
+      <c r="BO13" t="n">
+        <v>9.072840987727206e-31</v>
+      </c>
+      <c r="BP13" t="n">
+        <v>1.294512260020593e-33</v>
+      </c>
+      <c r="BQ13" t="n">
+        <v>2.641532855840986e-09</v>
+      </c>
+      <c r="BR13" t="n">
+        <v>1.688819698998617e-34</v>
+      </c>
+      <c r="BS13" t="n">
+        <v>3.900773428518689e-10</v>
+      </c>
+      <c r="BT13" t="n">
+        <v>7.72143718507519e-26</v>
+      </c>
+      <c r="BU13" t="n">
+        <v>2.048642294488102e-11</v>
+      </c>
+      <c r="BV13" t="n">
+        <v>1.393803736517609e-12</v>
+      </c>
+      <c r="BW13" t="n">
+        <v>6.252090440861975e-05</v>
+      </c>
+      <c r="BX13" t="n">
+        <v>3.337200078873685e-05</v>
+      </c>
+      <c r="BY13" t="n">
+        <v>8.450435185903895e-12</v>
+      </c>
+      <c r="BZ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA13" t="n">
+        <v>3.468617817573517e-14</v>
+      </c>
+      <c r="CB13" t="n">
+        <v>3.523537585076893e-15</v>
+      </c>
+      <c r="CC13" t="n">
+        <v>3.285437996252342e-18</v>
+      </c>
+      <c r="CD13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG13" t="n">
+        <v>1.349129472782425e-07</v>
+      </c>
+      <c r="CH13" t="n">
+        <v>3.393515664660708e-05</v>
+      </c>
+      <c r="CI13" t="n">
+        <v>0.0001770907265838275</v>
+      </c>
+      <c r="CJ13" t="n">
+        <v>0.0003651882341929542</v>
+      </c>
+      <c r="CK13" t="n">
+        <v>0.001991682722635607</v>
+      </c>
+      <c r="CL13" t="n">
+        <v>0.01380241839673461</v>
+      </c>
+      <c r="CM13" t="n">
+        <v>99.91563199754771</v>
+      </c>
+      <c r="CN13" t="n">
+        <v>0.0196520847249126</v>
+      </c>
+      <c r="CO13" t="n">
+        <v>0.04609349092167735</v>
+      </c>
+      <c r="CP13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ13" t="n">
+        <v>0.001186107800365999</v>
+      </c>
+      <c r="CR13" t="n">
+        <v>0.001064758816064875</v>
+      </c>
+      <c r="CS13" t="n">
+        <v>1.109929724160228e-06</v>
+      </c>
+      <c r="CT13" t="n">
+        <v>7.773899147586279e-11</v>
+      </c>
+      <c r="CU13" t="n">
+        <v>2.819811480322898e-11</v>
+      </c>
+      <c r="CV13" t="n">
+        <v>3.311455340869854e-12</v>
+      </c>
+      <c r="CW13" t="n">
+        <v>3.344621332939921e-13</v>
+      </c>
+      <c r="CX13" t="n">
+        <v>2.210677089745808e-13</v>
+      </c>
+      <c r="CY13" t="n">
+        <v>3.319041238037791e-16</v>
+      </c>
+      <c r="CZ13" t="n">
+        <v>1.252042638694171e-14</v>
+      </c>
+      <c r="DA13" t="n">
+        <v>2.321536490148479e-24</v>
+      </c>
+      <c r="DB13" t="n">
+        <v>1.357373823897102e-16</v>
+      </c>
+      <c r="DC13" t="n">
+        <v>2.121145550949315e-27</v>
+      </c>
+      <c r="DD13" t="n">
+        <v>4.771536198332376e-24</v>
+      </c>
+      <c r="DE13" t="n">
+        <v>9.609806272473323e-25</v>
+      </c>
+      <c r="DF13" t="n">
+        <v>2.920034048323175e-28</v>
+      </c>
+      <c r="DG13" t="n">
+        <v>3.763827459983333e-25</v>
+      </c>
+      <c r="DH13" t="n">
+        <v>1.136082604560355e-33</v>
+      </c>
+      <c r="DI13" t="n">
+        <v>6.419143216165825e-21</v>
+      </c>
+      <c r="DJ13" t="n">
+        <v>1.159667875580017e-14</v>
+      </c>
+      <c r="DK13" t="n">
+        <v>6.362070922984508e-16</v>
+      </c>
+      <c r="DL13" t="n">
+        <v>2.697507342878574e-28</v>
+      </c>
+      <c r="DM13" t="n">
+        <v>4.447290847643338e-28</v>
+      </c>
+      <c r="DN13" t="n">
+        <v>2.1103712016158e-15</v>
+      </c>
+      <c r="DO13" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP13" t="n">
+        <v>9.854447777561916e-18</v>
+      </c>
+      <c r="DQ13" t="n">
+        <v>6.414756307769566e-19</v>
+      </c>
+      <c r="DR13" t="n">
+        <v>6.322118581650009e-22</v>
+      </c>
+      <c r="DS13" t="n">
+        <v>0</v>
+      </c>
+      <c r="DT13" t="n">
+        <v>0</v>
+      </c>
+      <c r="DU13" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV13" t="n">
+        <v>2.312970935849128e-10</v>
+      </c>
+      <c r="DW13" t="n">
+        <v>1.397760684206232e-08</v>
+      </c>
+      <c r="DX13" t="n">
+        <v>3.601762753504974e-08</v>
+      </c>
+      <c r="DY13" t="n">
+        <v>4.122779256701957e-27</v>
+      </c>
+      <c r="DZ13" t="n">
+        <v>1.606418342046371e-19</v>
+      </c>
+      <c r="EA13" t="n">
+        <v>2.144440654546462e-12</v>
+      </c>
+      <c r="EB13" t="n">
+        <v>0.004717505962711335</v>
+      </c>
+      <c r="EC13" t="n">
+        <v>6.212491880027871e-07</v>
+      </c>
+      <c r="ED13" t="n">
+        <v>0.0001445214588776984</v>
+      </c>
+      <c r="EE13" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF13" t="n">
+        <v>0.01208685800985953</v>
+      </c>
+      <c r="EG13" t="n">
+        <v>94.79104669315728</v>
+      </c>
+      <c r="EH13" t="n">
+        <v>0.01327951317626226</v>
+      </c>
+      <c r="EI13" t="n">
+        <v>0.01120318715154396</v>
+      </c>
+      <c r="EJ13" t="n">
+        <v>0.009216398825507625</v>
+      </c>
+      <c r="EK13" t="n">
+        <v>2.303875389944794</v>
+      </c>
+      <c r="EL13" t="n">
+        <v>1.056108709514717</v>
+      </c>
+      <c r="EM13" t="n">
+        <v>1.625116108506117</v>
+      </c>
+      <c r="EN13" t="n">
+        <v>0.09672458639544869</v>
+      </c>
+      <c r="EO13" t="n">
+        <v>0.02016962252428043</v>
+      </c>
+      <c r="EP13" t="n">
+        <v>2.759876602030989e-08</v>
+      </c>
+      <c r="EQ13" t="n">
+        <v>0.04465067781575134</v>
+      </c>
+      <c r="ER13" t="n">
+        <v>5.009473588159614e-09</v>
+      </c>
+      <c r="ES13" t="n">
+        <v>6.913081273855949e-07</v>
+      </c>
+      <c r="ET13" t="n">
+        <v>2.579472480595032e-07</v>
+      </c>
+      <c r="EU13" t="n">
+        <v>2.189796896624471e-07</v>
+      </c>
+      <c r="EV13" t="n">
+        <v>1.132943243320096e-07</v>
+      </c>
+      <c r="EW13" t="n">
+        <v>1.338106772421228e-07</v>
+      </c>
+      <c r="EX13" t="n">
+        <v>0.003614023446332803</v>
+      </c>
+      <c r="EY13" t="n">
+        <v>2.918151146036188e-09</v>
+      </c>
+      <c r="EZ13" t="n">
+        <v>1.721572715939265e-10</v>
+      </c>
+      <c r="FA13" t="n">
+        <v>0.006411953046805428</v>
+      </c>
+      <c r="FB13" t="n">
+        <v>0.001632128178195646</v>
+      </c>
+      <c r="FC13" t="n">
+        <v>3.649273194546234e-10</v>
+      </c>
+      <c r="FD13" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE13" t="n">
+        <v>3.883839317906849e-12</v>
+      </c>
+      <c r="FF13" t="n">
+        <v>2.671952643580955e-13</v>
+      </c>
+      <c r="FG13" t="n">
+        <v>2.635712709825498e-16</v>
+      </c>
+      <c r="FH13" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>70000</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.1777137668108373</v>
+      </c>
+      <c r="D14" t="n">
+        <v>11.48775716530647</v>
+      </c>
+      <c r="E14" t="n">
+        <v>21.93101807305863</v>
+      </c>
+      <c r="F14" t="n">
+        <v>14.93608719296298</v>
+      </c>
+      <c r="G14" t="n">
+        <v>15.38435511989394</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1.061294706664068</v>
+      </c>
+      <c r="I14" t="n">
+        <v>34.95614080003494</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.05573779274889248</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.00984901193810489</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.898617074919539e-05</v>
+      </c>
+      <c r="N14" t="n">
+        <v>1.091696917662313e-06</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.802624009389222e-09</v>
+      </c>
+      <c r="P14" t="n">
+        <v>9.448691440794087e-15</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2.774116832709997e-15</v>
+      </c>
+      <c r="R14" t="n">
+        <v>2.833351473880494e-17</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1.755373460252352e-18</v>
+      </c>
+      <c r="T14" t="n">
+        <v>8.914876941114068e-19</v>
+      </c>
+      <c r="U14" t="n">
+        <v>4.588241698678974e-22</v>
+      </c>
+      <c r="V14" t="n">
+        <v>6.112245259024381e-20</v>
+      </c>
+      <c r="W14" t="n">
+        <v>5.587930103113365e-35</v>
+      </c>
+      <c r="X14" t="n">
+        <v>2.036140113282953e-22</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>7.7094156317721e-12</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>5.328501128342067e-32</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>1.755815327665941e-35</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>8.208790279234165e-10</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>4.398483367124794e-10</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>1.082952653724485e-27</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>1.634554776093537e-11</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>6.107326608376492e-13</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>1.873450558940313e-05</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>7.555117984748992e-06</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>1.856476872871014e-12</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>1.123192020679536e-14</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>6.193079989903404e-16</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>6.052095598413135e-19</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>0.0004005163697291283</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>0.1461204517980234</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>0.7106670556005033</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>1.325309133388004</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>3.02788466623044</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>0.7134511659706533</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>93.93758996637906</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>0.1025986885508421</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>0.03573037068423748</v>
+      </c>
+      <c r="BA14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB14" t="n">
+        <v>0.0001378390499630711</v>
+      </c>
+      <c r="BC14" t="n">
+        <v>1.409162074651334e-05</v>
+      </c>
+      <c r="BD14" t="n">
+        <v>2.816659991452854e-08</v>
+      </c>
+      <c r="BE14" t="n">
+        <v>1.923175957250876e-13</v>
+      </c>
+      <c r="BF14" t="n">
+        <v>5.845888967367822e-14</v>
+      </c>
+      <c r="BG14" t="n">
+        <v>9.727394910509877e-16</v>
+      </c>
+      <c r="BH14" t="n">
+        <v>6.782542341547924e-17</v>
+      </c>
+      <c r="BI14" t="n">
+        <v>3.375577062744559e-17</v>
+      </c>
+      <c r="BJ14" t="n">
+        <v>2.366095927906661e-20</v>
+      </c>
+      <c r="BK14" t="n">
+        <v>3.194836339100556e-18</v>
+      </c>
+      <c r="BL14" t="n">
+        <v>4.979223089559195e-33</v>
+      </c>
+      <c r="BM14" t="n">
+        <v>9.983734302670209e-21</v>
+      </c>
+      <c r="BN14" t="n">
+        <v>4.110945593282527e-11</v>
+      </c>
+      <c r="BO14" t="n">
+        <v>9.061152558495575e-31</v>
+      </c>
+      <c r="BP14" t="n">
+        <v>1.293638357611616e-33</v>
+      </c>
+      <c r="BQ14" t="n">
+        <v>2.644048736577163e-09</v>
+      </c>
+      <c r="BR14" t="n">
+        <v>1.687811453079516e-34</v>
+      </c>
+      <c r="BS14" t="n">
+        <v>3.905212015745283e-10</v>
+      </c>
+      <c r="BT14" t="n">
+        <v>7.722066037288865e-26</v>
+      </c>
+      <c r="BU14" t="n">
+        <v>2.050802909106022e-11</v>
+      </c>
+      <c r="BV14" t="n">
+        <v>1.395322995015806e-12</v>
+      </c>
+      <c r="BW14" t="n">
+        <v>6.26048057092253e-05</v>
+      </c>
+      <c r="BX14" t="n">
+        <v>3.341827916940924e-05</v>
+      </c>
+      <c r="BY14" t="n">
+        <v>8.455240210421312e-12</v>
+      </c>
+      <c r="BZ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA14" t="n">
+        <v>3.472095850945477e-14</v>
+      </c>
+      <c r="CB14" t="n">
+        <v>3.525969217868057e-15</v>
+      </c>
+      <c r="CC14" t="n">
+        <v>3.286983517536641e-18</v>
+      </c>
+      <c r="CD14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG14" t="n">
+        <v>1.349239989249512e-07</v>
+      </c>
+      <c r="CH14" t="n">
+        <v>3.393800728076814e-05</v>
+      </c>
+      <c r="CI14" t="n">
+        <v>0.0001771057124425422</v>
+      </c>
+      <c r="CJ14" t="n">
+        <v>0.0003652205265354862</v>
+      </c>
+      <c r="CK14" t="n">
+        <v>0.001991699571000888</v>
+      </c>
+      <c r="CL14" t="n">
+        <v>0.01380237671484023</v>
+      </c>
+      <c r="CM14" t="n">
+        <v>99.91563246277923</v>
+      </c>
+      <c r="CN14" t="n">
+        <v>0.01965208831656726</v>
+      </c>
+      <c r="CO14" t="n">
+        <v>0.04609351600139634</v>
+      </c>
+      <c r="CP14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ14" t="n">
+        <v>0.001185703285552279</v>
+      </c>
+      <c r="CR14" t="n">
+        <v>0.001064643787400637</v>
+      </c>
+      <c r="CS14" t="n">
+        <v>1.110263860712835e-06</v>
+      </c>
+      <c r="CT14" t="n">
+        <v>7.776808026695186e-11</v>
+      </c>
+      <c r="CU14" t="n">
+        <v>2.820849390757783e-11</v>
+      </c>
+      <c r="CV14" t="n">
+        <v>3.312355431898541e-12</v>
+      </c>
+      <c r="CW14" t="n">
+        <v>3.345486721096017e-13</v>
+      </c>
+      <c r="CX14" t="n">
+        <v>2.211251985040121e-13</v>
+      </c>
+      <c r="CY14" t="n">
+        <v>3.319849977235498e-16</v>
+      </c>
+      <c r="CZ14" t="n">
+        <v>1.252464719247464e-14</v>
+      </c>
+      <c r="DA14" t="n">
+        <v>2.320964479291265e-24</v>
+      </c>
+      <c r="DB14" t="n">
+        <v>1.357853498456423e-16</v>
+      </c>
+      <c r="DC14" t="n">
+        <v>2.121034234056981e-27</v>
+      </c>
+      <c r="DD14" t="n">
+        <v>4.770541575299105e-24</v>
+      </c>
+      <c r="DE14" t="n">
+        <v>9.608783226480859e-25</v>
+      </c>
+      <c r="DF14" t="n">
+        <v>2.919062003473134e-28</v>
+      </c>
+      <c r="DG14" t="n">
+        <v>3.763940016548926e-25</v>
+      </c>
+      <c r="DH14" t="n">
+        <v>1.130920095345712e-33</v>
+      </c>
+      <c r="DI14" t="n">
+        <v>6.421566074364222e-21</v>
+      </c>
+      <c r="DJ14" t="n">
+        <v>1.161155474807687e-14</v>
+      </c>
+      <c r="DK14" t="n">
+        <v>6.371829920328948e-16</v>
+      </c>
+      <c r="DL14" t="n">
+        <v>2.69742945828522e-28</v>
+      </c>
+      <c r="DM14" t="n">
+        <v>4.449891776910562e-28</v>
+      </c>
+      <c r="DN14" t="n">
+        <v>2.112759416474628e-15</v>
+      </c>
+      <c r="DO14" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP14" t="n">
+        <v>9.864938795407747e-18</v>
+      </c>
+      <c r="DQ14" t="n">
+        <v>6.422923759386954e-19</v>
+      </c>
+      <c r="DR14" t="n">
+        <v>6.326032822280702e-22</v>
+      </c>
+      <c r="DS14" t="n">
+        <v>0</v>
+      </c>
+      <c r="DT14" t="n">
+        <v>0</v>
+      </c>
+      <c r="DU14" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV14" t="n">
+        <v>2.317156888839611e-10</v>
+      </c>
+      <c r="DW14" t="n">
+        <v>1.400759849667456e-08</v>
+      </c>
+      <c r="DX14" t="n">
+        <v>3.609360537182115e-08</v>
+      </c>
+      <c r="DY14" t="n">
+        <v>4.122401796750682e-27</v>
+      </c>
+      <c r="DZ14" t="n">
+        <v>1.606392848243687e-19</v>
+      </c>
+      <c r="EA14" t="n">
+        <v>2.144621626918828e-12</v>
+      </c>
+      <c r="EB14" t="n">
+        <v>0.004718713057963154</v>
+      </c>
+      <c r="EC14" t="n">
+        <v>6.213394848796526e-07</v>
+      </c>
+      <c r="ED14" t="n">
+        <v>0.0001445578636462119</v>
+      </c>
+      <c r="EE14" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF14" t="n">
+        <v>0.01208459526624575</v>
+      </c>
+      <c r="EG14" t="n">
+        <v>94.78927176192556</v>
+      </c>
+      <c r="EH14" t="n">
+        <v>0.01328216569071166</v>
+      </c>
+      <c r="EI14" t="n">
+        <v>0.01120701702391937</v>
+      </c>
+      <c r="EJ14" t="n">
+        <v>0.009219552823044404</v>
+      </c>
+      <c r="EK14" t="n">
+        <v>2.304664461664362</v>
+      </c>
+      <c r="EL14" t="n">
+        <v>1.056470266127663</v>
+      </c>
+      <c r="EM14" t="n">
+        <v>1.62567250018647</v>
+      </c>
+      <c r="EN14" t="n">
+        <v>0.09675768600676452</v>
+      </c>
+      <c r="EO14" t="n">
+        <v>0.02017653039355025</v>
+      </c>
+      <c r="EP14" t="n">
+        <v>2.759439804571768e-08</v>
+      </c>
+      <c r="EQ14" t="n">
+        <v>0.04466597123161932</v>
+      </c>
+      <c r="ER14" t="n">
+        <v>5.009754507339577e-09</v>
+      </c>
+      <c r="ES14" t="n">
+        <v>6.912318877191395e-07</v>
+      </c>
+      <c r="ET14" t="n">
+        <v>2.579501408375656e-07</v>
+      </c>
+      <c r="EU14" t="n">
+        <v>2.18978234267151e-07</v>
+      </c>
+      <c r="EV14" t="n">
+        <v>1.13304445868688e-07</v>
+      </c>
+      <c r="EW14" t="n">
+        <v>1.338173713141619e-07</v>
+      </c>
+      <c r="EX14" t="n">
+        <v>0.003615261294664294</v>
+      </c>
+      <c r="EY14" t="n">
+        <v>2.918199161907355e-09</v>
+      </c>
+      <c r="EZ14" t="n">
+        <v>1.72168958018732e-10</v>
+      </c>
+      <c r="FA14" t="n">
+        <v>0.006414149221096406</v>
+      </c>
+      <c r="FB14" t="n">
+        <v>0.001632687202547547</v>
+      </c>
+      <c r="FC14" t="n">
+        <v>3.648594467708288e-10</v>
+      </c>
+      <c r="FD14" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE14" t="n">
+        <v>3.883508587408862e-12</v>
+      </c>
+      <c r="FF14" t="n">
+        <v>2.671747077503484e-13</v>
+      </c>
+      <c r="FG14" t="n">
+        <v>2.633931113307559e-16</v>
+      </c>
+      <c r="FH14" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>80000</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.1777137668108373</v>
+      </c>
+      <c r="D15" t="n">
+        <v>11.48775716530647</v>
+      </c>
+      <c r="E15" t="n">
+        <v>21.93101807305863</v>
+      </c>
+      <c r="F15" t="n">
+        <v>14.93608719296298</v>
+      </c>
+      <c r="G15" t="n">
+        <v>15.38435511989394</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1.061294706664068</v>
+      </c>
+      <c r="I15" t="n">
+        <v>34.95614080003494</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.05573779274889248</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.00984901193810489</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.898617074919539e-05</v>
+      </c>
+      <c r="N15" t="n">
+        <v>1.091696917662313e-06</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.802624009389222e-09</v>
+      </c>
+      <c r="P15" t="n">
+        <v>9.448691440794087e-15</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2.774116832709997e-15</v>
+      </c>
+      <c r="R15" t="n">
+        <v>2.833351473880494e-17</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1.755373460252352e-18</v>
+      </c>
+      <c r="T15" t="n">
+        <v>8.914876941114068e-19</v>
+      </c>
+      <c r="U15" t="n">
+        <v>4.588241698678974e-22</v>
+      </c>
+      <c r="V15" t="n">
+        <v>6.112245259024381e-20</v>
+      </c>
+      <c r="W15" t="n">
+        <v>5.587930103113365e-35</v>
+      </c>
+      <c r="X15" t="n">
+        <v>2.036140113282953e-22</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>7.7094156317721e-12</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>5.328501128342067e-32</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>1.755815327665941e-35</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>8.208790279234165e-10</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>4.398483367124794e-10</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>1.082952653724485e-27</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>1.634554776093537e-11</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>6.107326608376492e-13</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>1.873450558940313e-05</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>7.555117984748992e-06</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>1.856476872871014e-12</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>1.123192020679536e-14</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>6.193079989903404e-16</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>6.052095598413135e-19</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>0.0004005163697291283</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>0.1461204517980234</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>0.7106670556005033</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>1.325309133388004</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>3.02788466623044</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>0.7134511659706533</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>93.93758996637906</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>0.1025986885508421</v>
+      </c>
+      <c r="AZ15" t="n">
+        <v>0.03573037068423748</v>
+      </c>
+      <c r="BA15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB15" t="n">
+        <v>0.0001378390499630711</v>
+      </c>
+      <c r="BC15" t="n">
+        <v>1.409162074651334e-05</v>
+      </c>
+      <c r="BD15" t="n">
+        <v>2.816659991452854e-08</v>
+      </c>
+      <c r="BE15" t="n">
+        <v>1.923175957250876e-13</v>
+      </c>
+      <c r="BF15" t="n">
+        <v>5.845888967367822e-14</v>
+      </c>
+      <c r="BG15" t="n">
+        <v>9.727394910509877e-16</v>
+      </c>
+      <c r="BH15" t="n">
+        <v>6.782542341547924e-17</v>
+      </c>
+      <c r="BI15" t="n">
+        <v>3.375577062744559e-17</v>
+      </c>
+      <c r="BJ15" t="n">
+        <v>2.366095927906661e-20</v>
+      </c>
+      <c r="BK15" t="n">
+        <v>3.194836339100556e-18</v>
+      </c>
+      <c r="BL15" t="n">
+        <v>4.979223089559195e-33</v>
+      </c>
+      <c r="BM15" t="n">
+        <v>9.983734302670209e-21</v>
+      </c>
+      <c r="BN15" t="n">
+        <v>4.110945593282527e-11</v>
+      </c>
+      <c r="BO15" t="n">
+        <v>9.061152558495575e-31</v>
+      </c>
+      <c r="BP15" t="n">
+        <v>1.293638357611616e-33</v>
+      </c>
+      <c r="BQ15" t="n">
+        <v>2.644048736577163e-09</v>
+      </c>
+      <c r="BR15" t="n">
+        <v>1.687811453079516e-34</v>
+      </c>
+      <c r="BS15" t="n">
+        <v>3.905212015745283e-10</v>
+      </c>
+      <c r="BT15" t="n">
+        <v>7.722066037288865e-26</v>
+      </c>
+      <c r="BU15" t="n">
+        <v>2.050802909106022e-11</v>
+      </c>
+      <c r="BV15" t="n">
+        <v>1.395322995015806e-12</v>
+      </c>
+      <c r="BW15" t="n">
+        <v>6.26048057092253e-05</v>
+      </c>
+      <c r="BX15" t="n">
+        <v>3.341827916940924e-05</v>
+      </c>
+      <c r="BY15" t="n">
+        <v>8.455240210421312e-12</v>
+      </c>
+      <c r="BZ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA15" t="n">
+        <v>3.472095850945477e-14</v>
+      </c>
+      <c r="CB15" t="n">
+        <v>3.525969217868057e-15</v>
+      </c>
+      <c r="CC15" t="n">
+        <v>3.286983517536641e-18</v>
+      </c>
+      <c r="CD15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG15" t="n">
+        <v>1.349239989249512e-07</v>
+      </c>
+      <c r="CH15" t="n">
+        <v>3.393800728076814e-05</v>
+      </c>
+      <c r="CI15" t="n">
+        <v>0.0001771057124425422</v>
+      </c>
+      <c r="CJ15" t="n">
+        <v>0.0003652205265354862</v>
+      </c>
+      <c r="CK15" t="n">
+        <v>0.001991699571000888</v>
+      </c>
+      <c r="CL15" t="n">
+        <v>0.01380237671484023</v>
+      </c>
+      <c r="CM15" t="n">
+        <v>99.91563246277923</v>
+      </c>
+      <c r="CN15" t="n">
+        <v>0.01965208831656726</v>
+      </c>
+      <c r="CO15" t="n">
+        <v>0.04609351600139634</v>
+      </c>
+      <c r="CP15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ15" t="n">
+        <v>0.001185703285552279</v>
+      </c>
+      <c r="CR15" t="n">
+        <v>0.001064643787400637</v>
+      </c>
+      <c r="CS15" t="n">
+        <v>1.110263860712835e-06</v>
+      </c>
+      <c r="CT15" t="n">
+        <v>7.776808026695186e-11</v>
+      </c>
+      <c r="CU15" t="n">
+        <v>2.820849390757783e-11</v>
+      </c>
+      <c r="CV15" t="n">
+        <v>3.312355431898541e-12</v>
+      </c>
+      <c r="CW15" t="n">
+        <v>3.345486721096017e-13</v>
+      </c>
+      <c r="CX15" t="n">
+        <v>2.211251985040121e-13</v>
+      </c>
+      <c r="CY15" t="n">
+        <v>3.319849977235498e-16</v>
+      </c>
+      <c r="CZ15" t="n">
+        <v>1.252464719247464e-14</v>
+      </c>
+      <c r="DA15" t="n">
+        <v>2.320964479291265e-24</v>
+      </c>
+      <c r="DB15" t="n">
+        <v>1.357853498456423e-16</v>
+      </c>
+      <c r="DC15" t="n">
+        <v>2.121034234056981e-27</v>
+      </c>
+      <c r="DD15" t="n">
+        <v>4.770541575299105e-24</v>
+      </c>
+      <c r="DE15" t="n">
+        <v>9.608783226480859e-25</v>
+      </c>
+      <c r="DF15" t="n">
+        <v>2.919062003473134e-28</v>
+      </c>
+      <c r="DG15" t="n">
+        <v>3.763940016548926e-25</v>
+      </c>
+      <c r="DH15" t="n">
+        <v>1.130920095345712e-33</v>
+      </c>
+      <c r="DI15" t="n">
+        <v>6.421566074364222e-21</v>
+      </c>
+      <c r="DJ15" t="n">
+        <v>1.161155474807687e-14</v>
+      </c>
+      <c r="DK15" t="n">
+        <v>6.371829920328948e-16</v>
+      </c>
+      <c r="DL15" t="n">
+        <v>2.69742945828522e-28</v>
+      </c>
+      <c r="DM15" t="n">
+        <v>4.449891776910562e-28</v>
+      </c>
+      <c r="DN15" t="n">
+        <v>2.112759416474628e-15</v>
+      </c>
+      <c r="DO15" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP15" t="n">
+        <v>9.864938795407747e-18</v>
+      </c>
+      <c r="DQ15" t="n">
+        <v>6.422923759386954e-19</v>
+      </c>
+      <c r="DR15" t="n">
+        <v>6.326032822280702e-22</v>
+      </c>
+      <c r="DS15" t="n">
+        <v>0</v>
+      </c>
+      <c r="DT15" t="n">
+        <v>0</v>
+      </c>
+      <c r="DU15" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV15" t="n">
+        <v>2.317156888839611e-10</v>
+      </c>
+      <c r="DW15" t="n">
+        <v>1.400759849667456e-08</v>
+      </c>
+      <c r="DX15" t="n">
+        <v>3.609360537182115e-08</v>
+      </c>
+      <c r="DY15" t="n">
+        <v>4.122401796750682e-27</v>
+      </c>
+      <c r="DZ15" t="n">
+        <v>1.606392848243687e-19</v>
+      </c>
+      <c r="EA15" t="n">
+        <v>2.144621626918828e-12</v>
+      </c>
+      <c r="EB15" t="n">
+        <v>0.004718713057963154</v>
+      </c>
+      <c r="EC15" t="n">
+        <v>6.213394848796526e-07</v>
+      </c>
+      <c r="ED15" t="n">
+        <v>0.0001445578636462119</v>
+      </c>
+      <c r="EE15" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF15" t="n">
+        <v>0.01208459526624575</v>
+      </c>
+      <c r="EG15" t="n">
+        <v>94.78927176192556</v>
+      </c>
+      <c r="EH15" t="n">
+        <v>0.01328216569071166</v>
+      </c>
+      <c r="EI15" t="n">
+        <v>0.01120701702391937</v>
+      </c>
+      <c r="EJ15" t="n">
+        <v>0.009219552823044404</v>
+      </c>
+      <c r="EK15" t="n">
+        <v>2.304664461664362</v>
+      </c>
+      <c r="EL15" t="n">
+        <v>1.056470266127663</v>
+      </c>
+      <c r="EM15" t="n">
+        <v>1.62567250018647</v>
+      </c>
+      <c r="EN15" t="n">
+        <v>0.09675768600676452</v>
+      </c>
+      <c r="EO15" t="n">
+        <v>0.02017653039355025</v>
+      </c>
+      <c r="EP15" t="n">
+        <v>2.759439804571768e-08</v>
+      </c>
+      <c r="EQ15" t="n">
+        <v>0.04466597123161932</v>
+      </c>
+      <c r="ER15" t="n">
+        <v>5.009754507339577e-09</v>
+      </c>
+      <c r="ES15" t="n">
+        <v>6.912318877191395e-07</v>
+      </c>
+      <c r="ET15" t="n">
+        <v>2.579501408375656e-07</v>
+      </c>
+      <c r="EU15" t="n">
+        <v>2.18978234267151e-07</v>
+      </c>
+      <c r="EV15" t="n">
+        <v>1.13304445868688e-07</v>
+      </c>
+      <c r="EW15" t="n">
+        <v>1.338173713141619e-07</v>
+      </c>
+      <c r="EX15" t="n">
+        <v>0.003615261294664294</v>
+      </c>
+      <c r="EY15" t="n">
+        <v>2.918199161907355e-09</v>
+      </c>
+      <c r="EZ15" t="n">
+        <v>1.72168958018732e-10</v>
+      </c>
+      <c r="FA15" t="n">
+        <v>0.006414149221096406</v>
+      </c>
+      <c r="FB15" t="n">
+        <v>0.001632687202547547</v>
+      </c>
+      <c r="FC15" t="n">
+        <v>3.648594467708288e-10</v>
+      </c>
+      <c r="FD15" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE15" t="n">
+        <v>3.883508587408862e-12</v>
+      </c>
+      <c r="FF15" t="n">
+        <v>2.671747077503484e-13</v>
+      </c>
+      <c r="FG15" t="n">
+        <v>2.633931113307559e-16</v>
+      </c>
+      <c r="FH15" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>90000</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.1777137668108373</v>
+      </c>
+      <c r="D16" t="n">
+        <v>11.48775716530647</v>
+      </c>
+      <c r="E16" t="n">
+        <v>21.93101807305863</v>
+      </c>
+      <c r="F16" t="n">
+        <v>14.93608719296298</v>
+      </c>
+      <c r="G16" t="n">
+        <v>15.38435511989394</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1.061294706664068</v>
+      </c>
+      <c r="I16" t="n">
+        <v>34.95614080003494</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.05573779274889248</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.00984901193810489</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.898617074919539e-05</v>
+      </c>
+      <c r="N16" t="n">
+        <v>1.091696917662313e-06</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.802624009389222e-09</v>
+      </c>
+      <c r="P16" t="n">
+        <v>9.448691440794087e-15</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2.774116832709997e-15</v>
+      </c>
+      <c r="R16" t="n">
+        <v>2.833351473880494e-17</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1.755373460252352e-18</v>
+      </c>
+      <c r="T16" t="n">
+        <v>8.914876941114068e-19</v>
+      </c>
+      <c r="U16" t="n">
+        <v>4.588241698678974e-22</v>
+      </c>
+      <c r="V16" t="n">
+        <v>6.112245259024381e-20</v>
+      </c>
+      <c r="W16" t="n">
+        <v>5.587930103113365e-35</v>
+      </c>
+      <c r="X16" t="n">
+        <v>2.036140113282953e-22</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>7.7094156317721e-12</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>5.328501128342067e-32</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>1.755815327665941e-35</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>8.208790279234165e-10</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>4.398483367124794e-10</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>1.082952653724485e-27</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>1.634554776093537e-11</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>6.107326608376492e-13</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>1.873450558940313e-05</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>7.555117984748992e-06</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>1.856476872871014e-12</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>1.123192020679536e-14</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>6.193079989903404e-16</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>6.052095598413135e-19</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>0.0004005163697291283</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>0.1461204517980234</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>0.7106670556005033</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>1.325309133388004</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>3.02788466623044</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>0.7134511659706533</v>
+      </c>
+      <c r="AX16" t="n">
+        <v>93.93758996637906</v>
+      </c>
+      <c r="AY16" t="n">
+        <v>0.1025986885508421</v>
+      </c>
+      <c r="AZ16" t="n">
+        <v>0.03573037068423748</v>
+      </c>
+      <c r="BA16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB16" t="n">
+        <v>0.0001378390499630711</v>
+      </c>
+      <c r="BC16" t="n">
+        <v>1.409162074651334e-05</v>
+      </c>
+      <c r="BD16" t="n">
+        <v>2.816659991452854e-08</v>
+      </c>
+      <c r="BE16" t="n">
+        <v>1.923175957250876e-13</v>
+      </c>
+      <c r="BF16" t="n">
+        <v>5.845888967367822e-14</v>
+      </c>
+      <c r="BG16" t="n">
+        <v>9.727394910509877e-16</v>
+      </c>
+      <c r="BH16" t="n">
+        <v>6.782542341547924e-17</v>
+      </c>
+      <c r="BI16" t="n">
+        <v>3.375577062744559e-17</v>
+      </c>
+      <c r="BJ16" t="n">
+        <v>2.366095927906661e-20</v>
+      </c>
+      <c r="BK16" t="n">
+        <v>3.194836339100556e-18</v>
+      </c>
+      <c r="BL16" t="n">
+        <v>4.979223089559195e-33</v>
+      </c>
+      <c r="BM16" t="n">
+        <v>9.983734302670209e-21</v>
+      </c>
+      <c r="BN16" t="n">
+        <v>4.110945593282527e-11</v>
+      </c>
+      <c r="BO16" t="n">
+        <v>9.061152558495575e-31</v>
+      </c>
+      <c r="BP16" t="n">
+        <v>1.293638357611616e-33</v>
+      </c>
+      <c r="BQ16" t="n">
+        <v>2.644048736577163e-09</v>
+      </c>
+      <c r="BR16" t="n">
+        <v>1.687811453079516e-34</v>
+      </c>
+      <c r="BS16" t="n">
+        <v>3.905212015745283e-10</v>
+      </c>
+      <c r="BT16" t="n">
+        <v>7.722066037288865e-26</v>
+      </c>
+      <c r="BU16" t="n">
+        <v>2.050802909106022e-11</v>
+      </c>
+      <c r="BV16" t="n">
+        <v>1.395322995015806e-12</v>
+      </c>
+      <c r="BW16" t="n">
+        <v>6.26048057092253e-05</v>
+      </c>
+      <c r="BX16" t="n">
+        <v>3.341827916940924e-05</v>
+      </c>
+      <c r="BY16" t="n">
+        <v>8.455240210421312e-12</v>
+      </c>
+      <c r="BZ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA16" t="n">
+        <v>3.472095850945477e-14</v>
+      </c>
+      <c r="CB16" t="n">
+        <v>3.525969217868057e-15</v>
+      </c>
+      <c r="CC16" t="n">
+        <v>3.286983517536641e-18</v>
+      </c>
+      <c r="CD16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG16" t="n">
+        <v>1.349239989249512e-07</v>
+      </c>
+      <c r="CH16" t="n">
+        <v>3.393800728076814e-05</v>
+      </c>
+      <c r="CI16" t="n">
+        <v>0.0001771057124425422</v>
+      </c>
+      <c r="CJ16" t="n">
+        <v>0.0003652205265354862</v>
+      </c>
+      <c r="CK16" t="n">
+        <v>0.001991699571000888</v>
+      </c>
+      <c r="CL16" t="n">
+        <v>0.01380237671484023</v>
+      </c>
+      <c r="CM16" t="n">
+        <v>99.91563246277923</v>
+      </c>
+      <c r="CN16" t="n">
+        <v>0.01965208831656726</v>
+      </c>
+      <c r="CO16" t="n">
+        <v>0.04609351600139634</v>
+      </c>
+      <c r="CP16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ16" t="n">
+        <v>0.001185703285552279</v>
+      </c>
+      <c r="CR16" t="n">
+        <v>0.001064643787400637</v>
+      </c>
+      <c r="CS16" t="n">
+        <v>1.110263860712835e-06</v>
+      </c>
+      <c r="CT16" t="n">
+        <v>7.776808026695186e-11</v>
+      </c>
+      <c r="CU16" t="n">
+        <v>2.820849390757783e-11</v>
+      </c>
+      <c r="CV16" t="n">
+        <v>3.312355431898541e-12</v>
+      </c>
+      <c r="CW16" t="n">
+        <v>3.345486721096017e-13</v>
+      </c>
+      <c r="CX16" t="n">
+        <v>2.211251985040121e-13</v>
+      </c>
+      <c r="CY16" t="n">
+        <v>3.319849977235498e-16</v>
+      </c>
+      <c r="CZ16" t="n">
+        <v>1.252464719247464e-14</v>
+      </c>
+      <c r="DA16" t="n">
+        <v>2.320964479291265e-24</v>
+      </c>
+      <c r="DB16" t="n">
+        <v>1.357853498456423e-16</v>
+      </c>
+      <c r="DC16" t="n">
+        <v>2.121034234056981e-27</v>
+      </c>
+      <c r="DD16" t="n">
+        <v>4.770541575299105e-24</v>
+      </c>
+      <c r="DE16" t="n">
+        <v>9.608783226480859e-25</v>
+      </c>
+      <c r="DF16" t="n">
+        <v>2.919062003473134e-28</v>
+      </c>
+      <c r="DG16" t="n">
+        <v>3.763940016548926e-25</v>
+      </c>
+      <c r="DH16" t="n">
+        <v>1.130920095345712e-33</v>
+      </c>
+      <c r="DI16" t="n">
+        <v>6.421566074364222e-21</v>
+      </c>
+      <c r="DJ16" t="n">
+        <v>1.161155474807687e-14</v>
+      </c>
+      <c r="DK16" t="n">
+        <v>6.371829920328948e-16</v>
+      </c>
+      <c r="DL16" t="n">
+        <v>2.69742945828522e-28</v>
+      </c>
+      <c r="DM16" t="n">
+        <v>4.449891776910562e-28</v>
+      </c>
+      <c r="DN16" t="n">
+        <v>2.112759416474628e-15</v>
+      </c>
+      <c r="DO16" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP16" t="n">
+        <v>9.864938795407747e-18</v>
+      </c>
+      <c r="DQ16" t="n">
+        <v>6.422923759386954e-19</v>
+      </c>
+      <c r="DR16" t="n">
+        <v>6.326032822280702e-22</v>
+      </c>
+      <c r="DS16" t="n">
+        <v>0</v>
+      </c>
+      <c r="DT16" t="n">
+        <v>0</v>
+      </c>
+      <c r="DU16" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV16" t="n">
+        <v>2.317156888839611e-10</v>
+      </c>
+      <c r="DW16" t="n">
+        <v>1.400759849667456e-08</v>
+      </c>
+      <c r="DX16" t="n">
+        <v>3.609360537182115e-08</v>
+      </c>
+      <c r="DY16" t="n">
+        <v>4.122401796750682e-27</v>
+      </c>
+      <c r="DZ16" t="n">
+        <v>1.606392848243687e-19</v>
+      </c>
+      <c r="EA16" t="n">
+        <v>2.144621626918828e-12</v>
+      </c>
+      <c r="EB16" t="n">
+        <v>0.004718713057963154</v>
+      </c>
+      <c r="EC16" t="n">
+        <v>6.213394848796526e-07</v>
+      </c>
+      <c r="ED16" t="n">
+        <v>0.0001445578636462119</v>
+      </c>
+      <c r="EE16" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF16" t="n">
+        <v>0.01208459526624575</v>
+      </c>
+      <c r="EG16" t="n">
+        <v>94.78927176192556</v>
+      </c>
+      <c r="EH16" t="n">
+        <v>0.01328216569071166</v>
+      </c>
+      <c r="EI16" t="n">
+        <v>0.01120701702391937</v>
+      </c>
+      <c r="EJ16" t="n">
+        <v>0.009219552823044404</v>
+      </c>
+      <c r="EK16" t="n">
+        <v>2.304664461664362</v>
+      </c>
+      <c r="EL16" t="n">
+        <v>1.056470266127663</v>
+      </c>
+      <c r="EM16" t="n">
+        <v>1.62567250018647</v>
+      </c>
+      <c r="EN16" t="n">
+        <v>0.09675768600676452</v>
+      </c>
+      <c r="EO16" t="n">
+        <v>0.02017653039355025</v>
+      </c>
+      <c r="EP16" t="n">
+        <v>2.759439804571768e-08</v>
+      </c>
+      <c r="EQ16" t="n">
+        <v>0.04466597123161932</v>
+      </c>
+      <c r="ER16" t="n">
+        <v>5.009754507339577e-09</v>
+      </c>
+      <c r="ES16" t="n">
+        <v>6.912318877191395e-07</v>
+      </c>
+      <c r="ET16" t="n">
+        <v>2.579501408375656e-07</v>
+      </c>
+      <c r="EU16" t="n">
+        <v>2.18978234267151e-07</v>
+      </c>
+      <c r="EV16" t="n">
+        <v>1.13304445868688e-07</v>
+      </c>
+      <c r="EW16" t="n">
+        <v>1.338173713141619e-07</v>
+      </c>
+      <c r="EX16" t="n">
+        <v>0.003615261294664294</v>
+      </c>
+      <c r="EY16" t="n">
+        <v>2.918199161907355e-09</v>
+      </c>
+      <c r="EZ16" t="n">
+        <v>1.72168958018732e-10</v>
+      </c>
+      <c r="FA16" t="n">
+        <v>0.006414149221096406</v>
+      </c>
+      <c r="FB16" t="n">
+        <v>0.001632687202547547</v>
+      </c>
+      <c r="FC16" t="n">
+        <v>3.648594467708288e-10</v>
+      </c>
+      <c r="FD16" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE16" t="n">
+        <v>3.883508587408862e-12</v>
+      </c>
+      <c r="FF16" t="n">
+        <v>2.671747077503484e-13</v>
+      </c>
+      <c r="FG16" t="n">
+        <v>2.633931113307559e-16</v>
+      </c>
+      <c r="FH16" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>sim01</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.1777111134880425</v>
+      </c>
+      <c r="D17" t="n">
+        <v>11.48760016186961</v>
+      </c>
+      <c r="E17" t="n">
+        <v>21.9307360896316</v>
+      </c>
+      <c r="F17" t="n">
+        <v>14.93593020200784</v>
+      </c>
+      <c r="G17" t="n">
+        <v>15.38416822324578</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1.061269866106982</v>
+      </c>
+      <c r="I17" t="n">
+        <v>34.95694954363999</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.05573916454090103</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.009849304206473728</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.899029989640977e-05</v>
+      </c>
+      <c r="N17" t="n">
+        <v>1.091718408562078e-06</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.801831473116669e-09</v>
+      </c>
+      <c r="P17" t="n">
+        <v>9.444529836483061e-15</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>2.77281392709501e-15</v>
+      </c>
+      <c r="R17" t="n">
+        <v>2.83235049226907e-17</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1.754762363228676e-18</v>
+      </c>
+      <c r="T17" t="n">
+        <v>8.911887477111833e-19</v>
+      </c>
+      <c r="U17" t="n">
+        <v>4.58672093908158e-22</v>
+      </c>
+      <c r="V17" t="n">
+        <v>6.109640544949654e-20</v>
+      </c>
+      <c r="W17" t="n">
+        <v>5.590642726103323e-35</v>
+      </c>
+      <c r="X17" t="n">
+        <v>2.03522404727945e-22</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>7.697633459060879e-12</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>5.332008738360454e-32</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>1.756369956804511e-35</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>8.199768336057133e-10</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>4.391754106592498e-10</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>1.082505281506059e-27</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>1.632656868566204e-11</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>6.098588748925914e-13</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>1.87050626250231e-05</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>7.541094327229084e-06</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>1.85462599449264e-12</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>1.121938550287161e-14</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>6.187067989783687e-16</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>6.048974346833257e-19</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>0.0004004358735331036</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>0.1461237947179045</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>0.7107868741520554</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>1.325639045890336</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>3.028839548874425</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>0.7136079534610805</v>
+      </c>
+      <c r="AX17" t="n">
+        <v>93.93601783077642</v>
+      </c>
+      <c r="AY17" t="n">
+        <v>0.1026049637691531</v>
+      </c>
+      <c r="AZ17" t="n">
+        <v>0.0357316000546213</v>
+      </c>
+      <c r="BA17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB17" t="n">
+        <v>0.0001379311509387722</v>
+      </c>
+      <c r="BC17" t="n">
+        <v>1.409710448199717e-05</v>
+      </c>
+      <c r="BD17" t="n">
+        <v>2.816653288824494e-08</v>
+      </c>
+      <c r="BE17" t="n">
+        <v>1.923080964826021e-13</v>
+      </c>
+      <c r="BF17" t="n">
+        <v>5.845141598008095e-14</v>
+      </c>
+      <c r="BG17" t="n">
+        <v>9.727888470743817e-16</v>
+      </c>
+      <c r="BH17" t="n">
+        <v>6.782624933746287e-17</v>
+      </c>
+      <c r="BI17" t="n">
+        <v>3.375607136486949e-17</v>
+      </c>
+      <c r="BJ17" t="n">
+        <v>2.366284270772045e-20</v>
+      </c>
+      <c r="BK17" t="n">
+        <v>3.194847474648148e-18</v>
+      </c>
+      <c r="BL17" t="n">
+        <v>5.004001341463816e-33</v>
+      </c>
+      <c r="BM17" t="n">
+        <v>9.983527535475029e-21</v>
+      </c>
+      <c r="BN17" t="n">
+        <v>4.106948938238706e-11</v>
+      </c>
+      <c r="BO17" t="n">
+        <v>9.072840987727206e-31</v>
+      </c>
+      <c r="BP17" t="n">
+        <v>1.294512260020593e-33</v>
+      </c>
+      <c r="BQ17" t="n">
+        <v>2.641532855840986e-09</v>
+      </c>
+      <c r="BR17" t="n">
+        <v>1.688819698998617e-34</v>
+      </c>
+      <c r="BS17" t="n">
+        <v>3.900773428518689e-10</v>
+      </c>
+      <c r="BT17" t="n">
+        <v>7.72143718507519e-26</v>
+      </c>
+      <c r="BU17" t="n">
+        <v>2.048642294488102e-11</v>
+      </c>
+      <c r="BV17" t="n">
+        <v>1.393803736517609e-12</v>
+      </c>
+      <c r="BW17" t="n">
+        <v>6.252090440861975e-05</v>
+      </c>
+      <c r="BX17" t="n">
+        <v>3.337200078873685e-05</v>
+      </c>
+      <c r="BY17" t="n">
+        <v>8.450435185903895e-12</v>
+      </c>
+      <c r="BZ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA17" t="n">
+        <v>3.468617817573517e-14</v>
+      </c>
+      <c r="CB17" t="n">
+        <v>3.523537585076893e-15</v>
+      </c>
+      <c r="CC17" t="n">
+        <v>3.285437996252342e-18</v>
+      </c>
+      <c r="CD17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG17" t="n">
+        <v>1.349129472782425e-07</v>
+      </c>
+      <c r="CH17" t="n">
+        <v>3.393515664660708e-05</v>
+      </c>
+      <c r="CI17" t="n">
+        <v>0.0001770907265838275</v>
+      </c>
+      <c r="CJ17" t="n">
+        <v>0.0003651882341929542</v>
+      </c>
+      <c r="CK17" t="n">
+        <v>0.001991682722635607</v>
+      </c>
+      <c r="CL17" t="n">
+        <v>0.01380241839673461</v>
+      </c>
+      <c r="CM17" t="n">
+        <v>99.91563199754771</v>
+      </c>
+      <c r="CN17" t="n">
+        <v>0.0196520847249126</v>
+      </c>
+      <c r="CO17" t="n">
+        <v>0.04609349092167735</v>
+      </c>
+      <c r="CP17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ17" t="n">
+        <v>0.001186107800365999</v>
+      </c>
+      <c r="CR17" t="n">
+        <v>0.001064758816064875</v>
+      </c>
+      <c r="CS17" t="n">
+        <v>1.109929724160228e-06</v>
+      </c>
+      <c r="CT17" t="n">
+        <v>7.773899147586279e-11</v>
+      </c>
+      <c r="CU17" t="n">
+        <v>2.819811480322898e-11</v>
+      </c>
+      <c r="CV17" t="n">
+        <v>3.311455340869854e-12</v>
+      </c>
+      <c r="CW17" t="n">
+        <v>3.344621332939921e-13</v>
+      </c>
+      <c r="CX17" t="n">
+        <v>2.210677089745808e-13</v>
+      </c>
+      <c r="CY17" t="n">
+        <v>3.319041238037791e-16</v>
+      </c>
+      <c r="CZ17" t="n">
+        <v>1.252042638694171e-14</v>
+      </c>
+      <c r="DA17" t="n">
+        <v>2.321536490148479e-24</v>
+      </c>
+      <c r="DB17" t="n">
+        <v>1.357373823897102e-16</v>
+      </c>
+      <c r="DC17" t="n">
+        <v>2.121145550949315e-27</v>
+      </c>
+      <c r="DD17" t="n">
+        <v>4.771536198332376e-24</v>
+      </c>
+      <c r="DE17" t="n">
+        <v>9.609806272473323e-25</v>
+      </c>
+      <c r="DF17" t="n">
+        <v>2.920034048323175e-28</v>
+      </c>
+      <c r="DG17" t="n">
+        <v>3.763827459983333e-25</v>
+      </c>
+      <c r="DH17" t="n">
+        <v>1.136082604560355e-33</v>
+      </c>
+      <c r="DI17" t="n">
+        <v>6.419143216165825e-21</v>
+      </c>
+      <c r="DJ17" t="n">
+        <v>1.159667875580017e-14</v>
+      </c>
+      <c r="DK17" t="n">
+        <v>6.362070922984508e-16</v>
+      </c>
+      <c r="DL17" t="n">
+        <v>2.697507342878574e-28</v>
+      </c>
+      <c r="DM17" t="n">
+        <v>4.447290847643338e-28</v>
+      </c>
+      <c r="DN17" t="n">
+        <v>2.1103712016158e-15</v>
+      </c>
+      <c r="DO17" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP17" t="n">
+        <v>9.854447777561916e-18</v>
+      </c>
+      <c r="DQ17" t="n">
+        <v>6.414756307769566e-19</v>
+      </c>
+      <c r="DR17" t="n">
+        <v>6.322118581650009e-22</v>
+      </c>
+      <c r="DS17" t="n">
+        <v>0</v>
+      </c>
+      <c r="DT17" t="n">
+        <v>0</v>
+      </c>
+      <c r="DU17" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV17" t="n">
+        <v>2.312970935849128e-10</v>
+      </c>
+      <c r="DW17" t="n">
+        <v>1.397760684206232e-08</v>
+      </c>
+      <c r="DX17" t="n">
+        <v>3.601762753504974e-08</v>
+      </c>
+      <c r="DY17" t="n">
+        <v>4.122779256701957e-27</v>
+      </c>
+      <c r="DZ17" t="n">
+        <v>1.606418342046371e-19</v>
+      </c>
+      <c r="EA17" t="n">
+        <v>2.144440654546462e-12</v>
+      </c>
+      <c r="EB17" t="n">
+        <v>0.004717505962711335</v>
+      </c>
+      <c r="EC17" t="n">
+        <v>6.212491880027871e-07</v>
+      </c>
+      <c r="ED17" t="n">
+        <v>0.0001445214588776984</v>
+      </c>
+      <c r="EE17" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF17" t="n">
+        <v>0.01208685800985953</v>
+      </c>
+      <c r="EG17" t="n">
+        <v>94.79104669315728</v>
+      </c>
+      <c r="EH17" t="n">
+        <v>0.01327951317626226</v>
+      </c>
+      <c r="EI17" t="n">
+        <v>0.01120318715154396</v>
+      </c>
+      <c r="EJ17" t="n">
+        <v>0.009216398825507625</v>
+      </c>
+      <c r="EK17" t="n">
+        <v>2.303875389944794</v>
+      </c>
+      <c r="EL17" t="n">
+        <v>1.056108709514717</v>
+      </c>
+      <c r="EM17" t="n">
+        <v>1.625116108506117</v>
+      </c>
+      <c r="EN17" t="n">
+        <v>0.09672458639544869</v>
+      </c>
+      <c r="EO17" t="n">
+        <v>0.02016962252428043</v>
+      </c>
+      <c r="EP17" t="n">
+        <v>2.759876602030989e-08</v>
+      </c>
+      <c r="EQ17" t="n">
+        <v>0.04465067781575134</v>
+      </c>
+      <c r="ER17" t="n">
+        <v>5.009473588159614e-09</v>
+      </c>
+      <c r="ES17" t="n">
+        <v>6.913081273855949e-07</v>
+      </c>
+      <c r="ET17" t="n">
+        <v>2.579472480595032e-07</v>
+      </c>
+      <c r="EU17" t="n">
+        <v>2.189796896624471e-07</v>
+      </c>
+      <c r="EV17" t="n">
+        <v>1.132943243320096e-07</v>
+      </c>
+      <c r="EW17" t="n">
+        <v>1.338106772421228e-07</v>
+      </c>
+      <c r="EX17" t="n">
+        <v>0.003614023446332803</v>
+      </c>
+      <c r="EY17" t="n">
+        <v>2.918151146036188e-09</v>
+      </c>
+      <c r="EZ17" t="n">
+        <v>1.721572715939265e-10</v>
+      </c>
+      <c r="FA17" t="n">
+        <v>0.006411953046805428</v>
+      </c>
+      <c r="FB17" t="n">
+        <v>0.001632128178195646</v>
+      </c>
+      <c r="FC17" t="n">
+        <v>3.649273194546234e-10</v>
+      </c>
+      <c r="FD17" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE17" t="n">
+        <v>3.883839317906849e-12</v>
+      </c>
+      <c r="FF17" t="n">
+        <v>2.671952643580955e-13</v>
+      </c>
+      <c r="FG17" t="n">
+        <v>2.635712709825498e-16</v>
+      </c>
+      <c r="FH17" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>real01</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.1658701492925135</v>
+      </c>
+      <c r="D18" t="n">
+        <v>10.79806905537789</v>
+      </c>
+      <c r="E18" t="n">
+        <v>20.48164025116714</v>
+      </c>
+      <c r="F18" t="n">
+        <v>13.8413757232505</v>
+      </c>
+      <c r="G18" t="n">
+        <v>12.46890861602303</v>
+      </c>
+      <c r="H18" t="n">
+        <v>1.149540813212152</v>
+      </c>
+      <c r="I18" t="n">
+        <v>41.06926118569928</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.01961706480543933</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.005666860764420325</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4.865915660705057e-05</v>
+      </c>
+      <c r="N18" t="n">
+        <v>1.509981228225688e-06</v>
+      </c>
+      <c r="O18" t="n">
+        <v>2.333704658969398e-08</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1.216546925454494e-13</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>3.587963018378566e-14</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.626745735786276e-16</v>
+      </c>
+      <c r="S18" t="n">
+        <v>4.736844421824305e-18</v>
+      </c>
+      <c r="T18" t="n">
+        <v>3.03770931430562e-18</v>
+      </c>
+      <c r="U18" t="n">
+        <v>8.214261340392971e-21</v>
+      </c>
+      <c r="V18" t="n">
+        <v>8.202494074674519e-19</v>
+      </c>
+      <c r="W18" t="n">
+        <v>1.005962830675358e-33</v>
+      </c>
+      <c r="X18" t="n">
+        <v>2.724370880035515e-21</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>3.676625278053084e-14</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>6.621089481799429e-27</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>3.954951331076225e-27</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>4.451378974291489e-08</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>1.88151037481648e-27</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>2.086470179975606e-08</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>1.369764516456207e-26</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>9.723698040172701e-14</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>2.129623285021663e-15</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>1.751393434302697e-08</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>5.040045977836069e-09</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>1.837990523177423e-14</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>5.85330997601017e-17</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>3.110926299985891e-18</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>1.39603916438697e-21</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>0.0003440898834247617</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>0.1240304762426213</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>0.7930929363653156</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>1.901415788172558</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>4.472126058603853</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>1.039447720475246</v>
+      </c>
+      <c r="AX18" t="n">
+        <v>91.62079372424442</v>
+      </c>
+      <c r="AY18" t="n">
+        <v>0.03092664550701046</v>
+      </c>
+      <c r="AZ18" t="n">
+        <v>0.01768764561109402</v>
+      </c>
+      <c r="BA18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB18" t="n">
+        <v>0.0001289132382498415</v>
+      </c>
+      <c r="BC18" t="n">
+        <v>4.495169006391959e-06</v>
+      </c>
+      <c r="BD18" t="n">
+        <v>1.145854450595091e-07</v>
+      </c>
+      <c r="BE18" t="n">
+        <v>6.413352497531975e-13</v>
+      </c>
+      <c r="BF18" t="n">
+        <v>2.006212582898039e-13</v>
+      </c>
+      <c r="BG18" t="n">
+        <v>1.212892042282783e-15</v>
+      </c>
+      <c r="BH18" t="n">
+        <v>3.926571953058185e-17</v>
+      </c>
+      <c r="BI18" t="n">
+        <v>2.606392367829742e-17</v>
+      </c>
+      <c r="BJ18" t="n">
+        <v>8.187811112460323e-20</v>
+      </c>
+      <c r="BK18" t="n">
+        <v>1.023040868449943e-17</v>
+      </c>
+      <c r="BL18" t="n">
+        <v>1.088817561725778e-34</v>
+      </c>
+      <c r="BM18" t="n">
+        <v>3.401394203498551e-20</v>
+      </c>
+      <c r="BN18" t="n">
+        <v>5.481839797944963e-13</v>
+      </c>
+      <c r="BO18" t="n">
+        <v>7.718355077656825e-29</v>
+      </c>
+      <c r="BP18" t="n">
+        <v>1.01625685822739e-28</v>
+      </c>
+      <c r="BQ18" t="n">
+        <v>9.171125688516673e-07</v>
+      </c>
+      <c r="BR18" t="n">
+        <v>3.260675446325477e-29</v>
+      </c>
+      <c r="BS18" t="n">
+        <v>9.446101604308165e-08</v>
+      </c>
+      <c r="BT18" t="n">
+        <v>2.638560070555519e-25</v>
+      </c>
+      <c r="BU18" t="n">
+        <v>3.286657448032601e-13</v>
+      </c>
+      <c r="BV18" t="n">
+        <v>4.209735094916247e-14</v>
+      </c>
+      <c r="BW18" t="n">
+        <v>2.411838921845092e-07</v>
+      </c>
+      <c r="BX18" t="n">
+        <v>1.391422033424302e-07</v>
+      </c>
+      <c r="BY18" t="n">
+        <v>3.156778563199049e-13</v>
+      </c>
+      <c r="BZ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA18" t="n">
+        <v>2.211231441768139e-15</v>
+      </c>
+      <c r="CB18" t="n">
+        <v>7.15447810299901e-17</v>
+      </c>
+      <c r="CC18" t="n">
+        <v>7.321568441215047e-20</v>
+      </c>
+      <c r="CD18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG18" t="n">
+        <v>1.843030416838352e-07</v>
+      </c>
+      <c r="CH18" t="n">
+        <v>4.67228557861269e-05</v>
+      </c>
+      <c r="CI18" t="n">
+        <v>0.0002400661325245554</v>
+      </c>
+      <c r="CJ18" t="n">
+        <v>0.0004842032959226271</v>
+      </c>
+      <c r="CK18" t="n">
+        <v>0.001819736758448358</v>
+      </c>
+      <c r="CL18" t="n">
+        <v>0.01270017198559066</v>
+      </c>
+      <c r="CM18" t="n">
+        <v>99.94995494500415</v>
+      </c>
+      <c r="CN18" t="n">
+        <v>0.005953855087220548</v>
+      </c>
+      <c r="CO18" t="n">
+        <v>0.02451241082264923</v>
+      </c>
+      <c r="CP18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ18" t="n">
+        <v>0.003064560750631793</v>
+      </c>
+      <c r="CR18" t="n">
+        <v>0.001210937551092217</v>
+      </c>
+      <c r="CS18" t="n">
+        <v>1.220431790337106e-05</v>
+      </c>
+      <c r="CT18" t="n">
+        <v>7.994911247021566e-10</v>
+      </c>
+      <c r="CU18" t="n">
+        <v>3.161642739506984e-10</v>
+      </c>
+      <c r="CV18" t="n">
+        <v>1.762187132983627e-11</v>
+      </c>
+      <c r="CW18" t="n">
+        <v>8.767550595067828e-13</v>
+      </c>
+      <c r="CX18" t="n">
+        <v>7.207240117641652e-13</v>
+      </c>
+      <c r="CY18" t="n">
+        <v>5.881618174796471e-15</v>
+      </c>
+      <c r="CZ18" t="n">
+        <v>1.704368627045816e-13</v>
+      </c>
+      <c r="DA18" t="n">
+        <v>3.773722046964376e-24</v>
+      </c>
+      <c r="DB18" t="n">
+        <v>1.624023263955163e-15</v>
+      </c>
+      <c r="DC18" t="n">
+        <v>3.384555413243735e-27</v>
+      </c>
+      <c r="DD18" t="n">
+        <v>4.425847208330178e-20</v>
+      </c>
+      <c r="DE18" t="n">
+        <v>2.431409778434268e-20</v>
+      </c>
+      <c r="DF18" t="n">
+        <v>3.041942779593665e-23</v>
+      </c>
+      <c r="DG18" t="n">
+        <v>1.115827451576032e-20</v>
+      </c>
+      <c r="DH18" t="n">
+        <v>3.404413323233113e-25</v>
+      </c>
+      <c r="DI18" t="n">
+        <v>7.7302613989495e-20</v>
+      </c>
+      <c r="DJ18" t="n">
+        <v>4.996826257727962e-17</v>
+      </c>
+      <c r="DK18" t="n">
+        <v>2.376529724321502e-18</v>
+      </c>
+      <c r="DL18" t="n">
+        <v>2.384318204448108e-28</v>
+      </c>
+      <c r="DM18" t="n">
+        <v>1.958868456335045e-28</v>
+      </c>
+      <c r="DN18" t="n">
+        <v>1.185420791774164e-17</v>
+      </c>
+      <c r="DO18" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP18" t="n">
+        <v>6.881477217864431e-20</v>
+      </c>
+      <c r="DQ18" t="n">
+        <v>1.749919219600285e-21</v>
+      </c>
+      <c r="DR18" t="n">
+        <v>2.327112081509943e-24</v>
+      </c>
+      <c r="DS18" t="n">
+        <v>0</v>
+      </c>
+      <c r="DT18" t="n">
+        <v>0</v>
+      </c>
+      <c r="DU18" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV18" t="n">
+        <v>1.806019113660768e-12</v>
+      </c>
+      <c r="DW18" t="n">
+        <v>9.045575455646675e-11</v>
+      </c>
+      <c r="DX18" t="n">
+        <v>3.921666777534788e-10</v>
+      </c>
+      <c r="DY18" t="n">
+        <v>2.766287581781228e-27</v>
+      </c>
+      <c r="DZ18" t="n">
+        <v>6.325658350701198e-20</v>
+      </c>
+      <c r="EA18" t="n">
+        <v>9.222031533639992e-13</v>
+      </c>
+      <c r="EB18" t="n">
+        <v>0.004373072345399251</v>
+      </c>
+      <c r="EC18" t="n">
+        <v>7.778530706616015e-08</v>
+      </c>
+      <c r="ED18" t="n">
+        <v>5.607752818525787e-05</v>
+      </c>
+      <c r="EE18" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF18" t="n">
+        <v>0.0251024831210399</v>
+      </c>
+      <c r="EG18" t="n">
+        <v>86.80723164876311</v>
+      </c>
+      <c r="EH18" t="n">
+        <v>0.08465777025812449</v>
+      </c>
+      <c r="EI18" t="n">
+        <v>0.07459084400476403</v>
+      </c>
+      <c r="EJ18" t="n">
+        <v>0.06102499208235675</v>
+      </c>
+      <c r="EK18" t="n">
+        <v>7.079303714058654</v>
+      </c>
+      <c r="EL18" t="n">
+        <v>1.51948609354984</v>
+      </c>
+      <c r="EM18" t="n">
+        <v>2.941357219490506</v>
+      </c>
+      <c r="EN18" t="n">
+        <v>0.929351390058897</v>
+      </c>
+      <c r="EO18" t="n">
+        <v>0.1337724753568228</v>
+      </c>
+      <c r="EP18" t="n">
+        <v>2.224336856222852e-08</v>
+      </c>
+      <c r="EQ18" t="n">
+        <v>0.2969531051754684</v>
+      </c>
+      <c r="ER18" t="n">
+        <v>4.020507513563427e-09</v>
+      </c>
+      <c r="ES18" t="n">
+        <v>0.003442258822787219</v>
+      </c>
+      <c r="ET18" t="n">
+        <v>0.003441668301022568</v>
+      </c>
+      <c r="EU18" t="n">
+        <v>0.006882950093574636</v>
+      </c>
+      <c r="EV18" t="n">
+        <v>0.00172081215098997</v>
+      </c>
+      <c r="EW18" t="n">
+        <v>0.001720853175152719</v>
+      </c>
+      <c r="EX18" t="n">
+        <v>0.02366641647725571</v>
+      </c>
+      <c r="EY18" t="n">
+        <v>4.283288278644708e-09</v>
+      </c>
+      <c r="EZ18" t="n">
+        <v>1.824129530321867e-10</v>
+      </c>
+      <c r="FA18" t="n">
+        <v>0.001491236259727409</v>
+      </c>
+      <c r="FB18" t="n">
+        <v>0.0003728090902046735</v>
+      </c>
+      <c r="FC18" t="n">
+        <v>8.267851053714041e-10</v>
+      </c>
+      <c r="FD18" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE18" t="n">
+        <v>8.796069790533145e-12</v>
+      </c>
+      <c r="FF18" t="n">
+        <v>3.04234206794094e-13</v>
+      </c>
+      <c r="FG18" t="n">
+        <v>3.005881550032709e-16</v>
+      </c>
+      <c r="FH18" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI18" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/log/c660_wt_log.xlsx
+++ b/log/c660_wt_log.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:FI18"/>
+  <dimension ref="A1:FI22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9732,6 +9732,2002 @@
         <v>0</v>
       </c>
     </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>test001</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.8879631964055906</v>
+      </c>
+      <c r="D19" t="n">
+        <v>28.43388871599892</v>
+      </c>
+      <c r="E19" t="n">
+        <v>26.96280301738538</v>
+      </c>
+      <c r="F19" t="n">
+        <v>6.997392225821</v>
+      </c>
+      <c r="G19" t="n">
+        <v>4.401075801446517</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.3679621178864774</v>
+      </c>
+      <c r="I19" t="n">
+        <v>31.85010555092239</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.05738875258937488</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.01496369254278627</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>7.531372523797519e-05</v>
+      </c>
+      <c r="N19" t="n">
+        <v>6.622195077870911e-06</v>
+      </c>
+      <c r="O19" t="n">
+        <v>4.493743170196232e-08</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1.312781439529267e-13</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>4.105859778031967e-14</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.991484205804912e-16</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1.190666836656954e-17</v>
+      </c>
+      <c r="T19" t="n">
+        <v>5.781037904531879e-18</v>
+      </c>
+      <c r="U19" t="n">
+        <v>2.533135340258674e-21</v>
+      </c>
+      <c r="V19" t="n">
+        <v>9.462401629913367e-19</v>
+      </c>
+      <c r="W19" t="n">
+        <v>5.46626537833388e-29</v>
+      </c>
+      <c r="X19" t="n">
+        <v>3.082927245306531e-21</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>2.231640642175658e-07</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>1.419286036510644e-29</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>4.787081917460185e-30</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>1.47557741138723e-05</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>1.875716779489504e-30</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>7.060709739740957e-06</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>1.610172630976902e-26</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>2.227730360762326e-07</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>1.280958664028976e-08</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>0.02065319190118247</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>0.005699461388758571</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>1.934921368713688e-08</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>2.583831385333035e-10</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>1.55626996478928e-11</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>2.181963474385885e-14</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>0.003899525549760869</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>0.3475468543381642</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>0.7271631163997405</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>0.522136640874753</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>0.6327694534083925</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>0.428271715255076</v>
+      </c>
+      <c r="AX19" t="n">
+        <v>97.1650044378077</v>
+      </c>
+      <c r="AY19" t="n">
+        <v>0.125762616212917</v>
+      </c>
+      <c r="AZ19" t="n">
+        <v>0.04702754743274832</v>
+      </c>
+      <c r="BA19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB19" t="n">
+        <v>0.0003048505133146509</v>
+      </c>
+      <c r="BC19" t="n">
+        <v>3.459262502525843e-05</v>
+      </c>
+      <c r="BD19" t="n">
+        <v>1.397242592018623e-07</v>
+      </c>
+      <c r="BE19" t="n">
+        <v>7.084041687333454e-13</v>
+      </c>
+      <c r="BF19" t="n">
+        <v>2.229767119149578e-13</v>
+      </c>
+      <c r="BG19" t="n">
+        <v>2.483713117876486e-15</v>
+      </c>
+      <c r="BH19" t="n">
+        <v>1.678825443570463e-16</v>
+      </c>
+      <c r="BI19" t="n">
+        <v>8.890213776139298e-17</v>
+      </c>
+      <c r="BJ19" t="n">
+        <v>5.057697456821905e-20</v>
+      </c>
+      <c r="BK19" t="n">
+        <v>1.071873907926367e-17</v>
+      </c>
+      <c r="BL19" t="n">
+        <v>2.815076458702163e-28</v>
+      </c>
+      <c r="BM19" t="n">
+        <v>3.719028379885438e-20</v>
+      </c>
+      <c r="BN19" t="n">
+        <v>7.327952473438006e-10</v>
+      </c>
+      <c r="BO19" t="n">
+        <v>9.937029872705929e-29</v>
+      </c>
+      <c r="BP19" t="n">
+        <v>4.246482616779615e-29</v>
+      </c>
+      <c r="BQ19" t="n">
+        <v>3.886107759670415e-08</v>
+      </c>
+      <c r="BR19" t="n">
+        <v>2.298561006378205e-29</v>
+      </c>
+      <c r="BS19" t="n">
+        <v>1.830644180602478e-08</v>
+      </c>
+      <c r="BT19" t="n">
+        <v>2.93348940923892e-25</v>
+      </c>
+      <c r="BU19" t="n">
+        <v>5.543888188957072e-10</v>
+      </c>
+      <c r="BV19" t="n">
+        <v>4.855880677069074e-11</v>
+      </c>
+      <c r="BW19" t="n">
+        <v>6.600435339510066e-05</v>
+      </c>
+      <c r="BX19" t="n">
+        <v>1.244690700431353e-05</v>
+      </c>
+      <c r="BY19" t="n">
+        <v>9.251844699542181e-11</v>
+      </c>
+      <c r="BZ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA19" t="n">
+        <v>9.740423740907216e-13</v>
+      </c>
+      <c r="CB19" t="n">
+        <v>7.466931846494464e-14</v>
+      </c>
+      <c r="CC19" t="n">
+        <v>6.834461792102087e-17</v>
+      </c>
+      <c r="CD19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG19" t="n">
+        <v>3.390721718348248e-07</v>
+      </c>
+      <c r="CH19" t="n">
+        <v>8.346279653893337e-05</v>
+      </c>
+      <c r="CI19" t="n">
+        <v>0.0004174407497621435</v>
+      </c>
+      <c r="CJ19" t="n">
+        <v>0.0008096410864133855</v>
+      </c>
+      <c r="CK19" t="n">
+        <v>0.002709210121624208</v>
+      </c>
+      <c r="CL19" t="n">
+        <v>0.009475604430222299</v>
+      </c>
+      <c r="CM19" t="n">
+        <v>99.89715585536044</v>
+      </c>
+      <c r="CN19" t="n">
+        <v>0.02458568906623051</v>
+      </c>
+      <c r="CO19" t="n">
+        <v>0.05690524240944819</v>
+      </c>
+      <c r="CP19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ19" t="n">
+        <v>0.00395789748288995</v>
+      </c>
+      <c r="CR19" t="n">
+        <v>0.003892070471120273</v>
+      </c>
+      <c r="CS19" t="n">
+        <v>7.546335994105354e-06</v>
+      </c>
+      <c r="CT19" t="n">
+        <v>4.057327251107019e-10</v>
+      </c>
+      <c r="CU19" t="n">
+        <v>1.54341175014785e-10</v>
+      </c>
+      <c r="CV19" t="n">
+        <v>1.216629463050412e-11</v>
+      </c>
+      <c r="CW19" t="n">
+        <v>1.202514626149262e-12</v>
+      </c>
+      <c r="CX19" t="n">
+        <v>7.749141722203283e-13</v>
+      </c>
+      <c r="CY19" t="n">
+        <v>1.092576887785921e-15</v>
+      </c>
+      <c r="CZ19" t="n">
+        <v>5.984082964328854e-14</v>
+      </c>
+      <c r="DA19" t="n">
+        <v>1.382038227227523e-22</v>
+      </c>
+      <c r="DB19" t="n">
+        <v>7.121282139881604e-16</v>
+      </c>
+      <c r="DC19" t="n">
+        <v>1.220374122665402e-25</v>
+      </c>
+      <c r="DD19" t="n">
+        <v>2.909794018341501e-22</v>
+      </c>
+      <c r="DE19" t="n">
+        <v>5.711711650128215e-23</v>
+      </c>
+      <c r="DF19" t="n">
+        <v>2.160545441721304e-26</v>
+      </c>
+      <c r="DG19" t="n">
+        <v>2.326868164835861e-23</v>
+      </c>
+      <c r="DH19" t="n">
+        <v>1.520856244330879e-29</v>
+      </c>
+      <c r="DI19" t="n">
+        <v>3.322456925064492e-20</v>
+      </c>
+      <c r="DJ19" t="n">
+        <v>3.837593164881582e-11</v>
+      </c>
+      <c r="DK19" t="n">
+        <v>1.382613017832072e-12</v>
+      </c>
+      <c r="DL19" t="n">
+        <v>1.378951470047603e-28</v>
+      </c>
+      <c r="DM19" t="n">
+        <v>5.659539738848455e-28</v>
+      </c>
+      <c r="DN19" t="n">
+        <v>3.069033845440428e-12</v>
+      </c>
+      <c r="DO19" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP19" t="n">
+        <v>5.464879300582081e-14</v>
+      </c>
+      <c r="DQ19" t="n">
+        <v>3.23393984079446e-15</v>
+      </c>
+      <c r="DR19" t="n">
+        <v>3.847173851817606e-18</v>
+      </c>
+      <c r="DS19" t="n">
+        <v>0</v>
+      </c>
+      <c r="DT19" t="n">
+        <v>0</v>
+      </c>
+      <c r="DU19" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV19" t="n">
+        <v>1.733225397201958e-07</v>
+      </c>
+      <c r="DW19" t="n">
+        <v>1.099674363981628e-05</v>
+      </c>
+      <c r="DX19" t="n">
+        <v>2.05083953852507e-05</v>
+      </c>
+      <c r="DY19" t="n">
+        <v>4.131553847312627e-28</v>
+      </c>
+      <c r="DZ19" t="n">
+        <v>2.053031171585248e-20</v>
+      </c>
+      <c r="EA19" t="n">
+        <v>6.079548518987796e-13</v>
+      </c>
+      <c r="EB19" t="n">
+        <v>0.003628095717070456</v>
+      </c>
+      <c r="EC19" t="n">
+        <v>2.027498722978127e-07</v>
+      </c>
+      <c r="ED19" t="n">
+        <v>0.0001333571220615472</v>
+      </c>
+      <c r="EE19" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF19" t="n">
+        <v>0.01864045348476897</v>
+      </c>
+      <c r="EG19" t="n">
+        <v>95.63379758201779</v>
+      </c>
+      <c r="EH19" t="n">
+        <v>0.0126469041865286</v>
+      </c>
+      <c r="EI19" t="n">
+        <v>0.009389292932352859</v>
+      </c>
+      <c r="EJ19" t="n">
+        <v>0.0077144303498723</v>
+      </c>
+      <c r="EK19" t="n">
+        <v>1.920231334470062</v>
+      </c>
+      <c r="EL19" t="n">
+        <v>0.8851555434017592</v>
+      </c>
+      <c r="EM19" t="n">
+        <v>1.363301996241661</v>
+      </c>
+      <c r="EN19" t="n">
+        <v>0.08160547880561952</v>
+      </c>
+      <c r="EO19" t="n">
+        <v>0.01680809118326411</v>
+      </c>
+      <c r="EP19" t="n">
+        <v>3.885809555363661e-07</v>
+      </c>
+      <c r="EQ19" t="n">
+        <v>0.03719106431927646</v>
+      </c>
+      <c r="ER19" t="n">
+        <v>7.813806533710232e-08</v>
+      </c>
+      <c r="ES19" t="n">
+        <v>1.003685554343617e-05</v>
+      </c>
+      <c r="ET19" t="n">
+        <v>3.719412081736722e-06</v>
+      </c>
+      <c r="EU19" t="n">
+        <v>3.683284029385527e-06</v>
+      </c>
+      <c r="EV19" t="n">
+        <v>1.655277638646312e-06</v>
+      </c>
+      <c r="EW19" t="n">
+        <v>2.269777104533061e-06</v>
+      </c>
+      <c r="EX19" t="n">
+        <v>0.003010239625978454</v>
+      </c>
+      <c r="EY19" t="n">
+        <v>5.464454170751589e-08</v>
+      </c>
+      <c r="EZ19" t="n">
+        <v>3.016961012819216e-09</v>
+      </c>
+      <c r="FA19" t="n">
+        <v>0.005334379827347373</v>
+      </c>
+      <c r="FB19" t="n">
+        <v>0.001357979444573387</v>
+      </c>
+      <c r="FC19" t="n">
+        <v>6.582788070325725e-09</v>
+      </c>
+      <c r="FD19" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE19" t="n">
+        <v>8.278682746842749e-11</v>
+      </c>
+      <c r="FF19" t="n">
+        <v>5.48930720377579e-12</v>
+      </c>
+      <c r="FG19" t="n">
+        <v>5.874369530442477e-15</v>
+      </c>
+      <c r="FH19" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>test001</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.2820794354587928</v>
+      </c>
+      <c r="D20" t="n">
+        <v>17.41030451189448</v>
+      </c>
+      <c r="E20" t="n">
+        <v>27.74182929743794</v>
+      </c>
+      <c r="F20" t="n">
+        <v>12.21530852539488</v>
+      </c>
+      <c r="G20" t="n">
+        <v>9.557570243298436</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.4368828627403491</v>
+      </c>
+      <c r="I20" t="n">
+        <v>31.45235699058054</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.05314273669297898</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.01326860236963772</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.0001539658474021533</v>
+      </c>
+      <c r="N20" t="n">
+        <v>1.391191529004744e-05</v>
+      </c>
+      <c r="O20" t="n">
+        <v>6.250061532732965e-08</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1.701585285146701e-13</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>5.274178949152134e-14</v>
+      </c>
+      <c r="R20" t="n">
+        <v>3.112656508648418e-16</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1.927049024593155e-17</v>
+      </c>
+      <c r="T20" t="n">
+        <v>9.519876539501149e-18</v>
+      </c>
+      <c r="U20" t="n">
+        <v>4.514608191815462e-21</v>
+      </c>
+      <c r="V20" t="n">
+        <v>1.199797639091884e-18</v>
+      </c>
+      <c r="W20" t="n">
+        <v>1.709606685998666e-28</v>
+      </c>
+      <c r="X20" t="n">
+        <v>3.928675444721655e-21</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>2.404724096272331e-05</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>1.846850522252996e-28</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>8.032225128959384e-29</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>0.001923453532769019</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>3.245620880679235e-29</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>0.000948302388280261</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>2.066323539876947e-26</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>2.927399530676068e-05</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>1.643653526769045e-06</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>0.6255390974600807</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>0.2086211975310734</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>1.802309901219054e-06</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>3.392802118393564e-08</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>1.825343947442946e-09</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>3.112049651819973e-12</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>0.005099743912427235</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>0.3379757979457613</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>0.6431872363604889</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>0.448389960456935</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>0.4480090411627505</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>0.2382441511036556</v>
+      </c>
+      <c r="AX20" t="n">
+        <v>97.72055136966486</v>
+      </c>
+      <c r="AY20" t="n">
+        <v>0.1078534729040893</v>
+      </c>
+      <c r="AZ20" t="n">
+        <v>0.04789040424059008</v>
+      </c>
+      <c r="BA20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB20" t="n">
+        <v>0.0003614028971619866</v>
+      </c>
+      <c r="BC20" t="n">
+        <v>4.250730749034989e-05</v>
+      </c>
+      <c r="BD20" t="n">
+        <v>1.545420203068109e-07</v>
+      </c>
+      <c r="BE20" t="n">
+        <v>6.660775646359753e-13</v>
+      </c>
+      <c r="BF20" t="n">
+        <v>2.100179805306351e-13</v>
+      </c>
+      <c r="BG20" t="n">
+        <v>2.335937859061955e-15</v>
+      </c>
+      <c r="BH20" t="n">
+        <v>1.626726404967406e-16</v>
+      </c>
+      <c r="BI20" t="n">
+        <v>8.558567671226596e-17</v>
+      </c>
+      <c r="BJ20" t="n">
+        <v>5.040126278724851e-20</v>
+      </c>
+      <c r="BK20" t="n">
+        <v>9.772627763588748e-18</v>
+      </c>
+      <c r="BL20" t="n">
+        <v>2.108979522204362e-27</v>
+      </c>
+      <c r="BM20" t="n">
+        <v>3.424174196209067e-20</v>
+      </c>
+      <c r="BN20" t="n">
+        <v>8.429206362505935e-08</v>
+      </c>
+      <c r="BO20" t="n">
+        <v>1.64972796895575e-27</v>
+      </c>
+      <c r="BP20" t="n">
+        <v>8.994075918421882e-28</v>
+      </c>
+      <c r="BQ20" t="n">
+        <v>3.847201409723032e-06</v>
+      </c>
+      <c r="BR20" t="n">
+        <v>4.76856175264897e-28</v>
+      </c>
+      <c r="BS20" t="n">
+        <v>1.868615589979782e-06</v>
+      </c>
+      <c r="BT20" t="n">
+        <v>2.698647786344193e-25</v>
+      </c>
+      <c r="BU20" t="n">
+        <v>5.837118032665239e-08</v>
+      </c>
+      <c r="BV20" t="n">
+        <v>6.832593357263336e-09</v>
+      </c>
+      <c r="BW20" t="n">
+        <v>0.00201174625339122</v>
+      </c>
+      <c r="BX20" t="n">
+        <v>0.0003771323841810725</v>
+      </c>
+      <c r="BY20" t="n">
+        <v>1.343432930944435e-08</v>
+      </c>
+      <c r="BZ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA20" t="n">
+        <v>1.058615887304196e-10</v>
+      </c>
+      <c r="CB20" t="n">
+        <v>1.027042712649464e-11</v>
+      </c>
+      <c r="CC20" t="n">
+        <v>6.988201114854217e-15</v>
+      </c>
+      <c r="CD20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG20" t="n">
+        <v>4.711520624917917e-07</v>
+      </c>
+      <c r="CH20" t="n">
+        <v>0.0001184717937168558</v>
+      </c>
+      <c r="CI20" t="n">
+        <v>0.0005972111123967789</v>
+      </c>
+      <c r="CJ20" t="n">
+        <v>0.00116303425829044</v>
+      </c>
+      <c r="CK20" t="n">
+        <v>0.003726002724923274</v>
+      </c>
+      <c r="CL20" t="n">
+        <v>0.00852676061856123</v>
+      </c>
+      <c r="CM20" t="n">
+        <v>99.89540038216072</v>
+      </c>
+      <c r="CN20" t="n">
+        <v>0.02305958394659926</v>
+      </c>
+      <c r="CO20" t="n">
+        <v>0.05712866899966432</v>
+      </c>
+      <c r="CP20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ20" t="n">
+        <v>0.004664867347893178</v>
+      </c>
+      <c r="CR20" t="n">
+        <v>0.005604432215175406</v>
+      </c>
+      <c r="CS20" t="n">
+        <v>1.010458685184389e-05</v>
+      </c>
+      <c r="CT20" t="n">
+        <v>4.603972585378318e-10</v>
+      </c>
+      <c r="CU20" t="n">
+        <v>1.742939064933745e-10</v>
+      </c>
+      <c r="CV20" t="n">
+        <v>1.384111797966037e-11</v>
+      </c>
+      <c r="CW20" t="n">
+        <v>1.398721670667185e-12</v>
+      </c>
+      <c r="CX20" t="n">
+        <v>9.046339889105023e-13</v>
+      </c>
+      <c r="CY20" t="n">
+        <v>1.310462782571667e-15</v>
+      </c>
+      <c r="CZ20" t="n">
+        <v>6.658779541844662e-14</v>
+      </c>
+      <c r="DA20" t="n">
+        <v>6.250867146420195e-22</v>
+      </c>
+      <c r="DB20" t="n">
+        <v>7.9173288356507e-16</v>
+      </c>
+      <c r="DC20" t="n">
+        <v>5.200158545863072e-25</v>
+      </c>
+      <c r="DD20" t="n">
+        <v>1.31882304233111e-21</v>
+      </c>
+      <c r="DE20" t="n">
+        <v>2.608465417193151e-22</v>
+      </c>
+      <c r="DF20" t="n">
+        <v>9.976091949375166e-26</v>
+      </c>
+      <c r="DG20" t="n">
+        <v>1.058531276823576e-22</v>
+      </c>
+      <c r="DH20" t="n">
+        <v>2.160695328559364e-28</v>
+      </c>
+      <c r="DI20" t="n">
+        <v>3.693809949780329e-20</v>
+      </c>
+      <c r="DJ20" t="n">
+        <v>7.689725336819721e-09</v>
+      </c>
+      <c r="DK20" t="n">
+        <v>2.03086787855102e-10</v>
+      </c>
+      <c r="DL20" t="n">
+        <v>4.143657244701864e-28</v>
+      </c>
+      <c r="DM20" t="n">
+        <v>1.130432186663879e-27</v>
+      </c>
+      <c r="DN20" t="n">
+        <v>5.292927695259039e-10</v>
+      </c>
+      <c r="DO20" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP20" t="n">
+        <v>9.488046257842665e-12</v>
+      </c>
+      <c r="DQ20" t="n">
+        <v>6.449141887157432e-13</v>
+      </c>
+      <c r="DR20" t="n">
+        <v>8.085131656982177e-16</v>
+      </c>
+      <c r="DS20" t="n">
+        <v>0</v>
+      </c>
+      <c r="DT20" t="n">
+        <v>0</v>
+      </c>
+      <c r="DU20" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV20" t="n">
+        <v>1.011582739045357e-05</v>
+      </c>
+      <c r="DW20" t="n">
+        <v>0.0006316608303581385</v>
+      </c>
+      <c r="DX20" t="n">
+        <v>0.001363254459285191</v>
+      </c>
+      <c r="DY20" t="n">
+        <v>1.003487175095243e-27</v>
+      </c>
+      <c r="DZ20" t="n">
+        <v>3.857487172416032e-20</v>
+      </c>
+      <c r="EA20" t="n">
+        <v>6.952104546843196e-13</v>
+      </c>
+      <c r="EB20" t="n">
+        <v>0.003037420570452266</v>
+      </c>
+      <c r="EC20" t="n">
+        <v>2.553524343763759e-07</v>
+      </c>
+      <c r="ED20" t="n">
+        <v>0.0001324137236679839</v>
+      </c>
+      <c r="EE20" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF20" t="n">
+        <v>0.01628446806363069</v>
+      </c>
+      <c r="EG20" t="n">
+        <v>96.52082215008774</v>
+      </c>
+      <c r="EH20" t="n">
+        <v>0.01231336394230488</v>
+      </c>
+      <c r="EI20" t="n">
+        <v>0.00758140896509593</v>
+      </c>
+      <c r="EJ20" t="n">
+        <v>0.006182916807527671</v>
+      </c>
+      <c r="EK20" t="n">
+        <v>1.511888427060665</v>
+      </c>
+      <c r="EL20" t="n">
+        <v>0.7088840107169216</v>
+      </c>
+      <c r="EM20" t="n">
+        <v>1.094363789636883</v>
+      </c>
+      <c r="EN20" t="n">
+        <v>0.06664742054535897</v>
+      </c>
+      <c r="EO20" t="n">
+        <v>0.01322888813569966</v>
+      </c>
+      <c r="EP20" t="n">
+        <v>1.210083326591914e-06</v>
+      </c>
+      <c r="EQ20" t="n">
+        <v>0.02922284301433788</v>
+      </c>
+      <c r="ER20" t="n">
+        <v>2.300043463059442e-07</v>
+      </c>
+      <c r="ES20" t="n">
+        <v>3.116948035521034e-05</v>
+      </c>
+      <c r="ET20" t="n">
+        <v>1.168637528493153e-05</v>
+      </c>
+      <c r="EU20" t="n">
+        <v>1.067702067855685e-05</v>
+      </c>
+      <c r="EV20" t="n">
+        <v>5.177240045969227e-06</v>
+      </c>
+      <c r="EW20" t="n">
+        <v>6.895140124736098e-06</v>
+      </c>
+      <c r="EX20" t="n">
+        <v>0.002365284870194328</v>
+      </c>
+      <c r="EY20" t="n">
+        <v>1.534296952022188e-07</v>
+      </c>
+      <c r="EZ20" t="n">
+        <v>8.586697725748775e-09</v>
+      </c>
+      <c r="FA20" t="n">
+        <v>0.003964252439806557</v>
+      </c>
+      <c r="FB20" t="n">
+        <v>0.001008428813209512</v>
+      </c>
+      <c r="FC20" t="n">
+        <v>1.85274464785061e-08</v>
+      </c>
+      <c r="FD20" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE20" t="n">
+        <v>2.330232810128923e-10</v>
+      </c>
+      <c r="FF20" t="n">
+        <v>1.530341171054929e-11</v>
+      </c>
+      <c r="FG20" t="n">
+        <v>1.65606802071647e-14</v>
+      </c>
+      <c r="FH20" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>test001</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.4213226260048453</v>
+      </c>
+      <c r="D21" t="n">
+        <v>21.34011732900804</v>
+      </c>
+      <c r="E21" t="n">
+        <v>28.84779821229154</v>
+      </c>
+      <c r="F21" t="n">
+        <v>10.25595117710148</v>
+      </c>
+      <c r="G21" t="n">
+        <v>7.10818970819903</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.388669848020491</v>
+      </c>
+      <c r="I21" t="n">
+        <v>31.20879002376768</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.05472646102456691</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.01402501155782872</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.0001417755350556853</v>
+      </c>
+      <c r="N21" t="n">
+        <v>1.190308270398099e-05</v>
+      </c>
+      <c r="O21" t="n">
+        <v>6.290557719994113e-08</v>
+      </c>
+      <c r="P21" t="n">
+        <v>1.831360194717171e-13</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>5.697385413417761e-14</v>
+      </c>
+      <c r="R21" t="n">
+        <v>3.130842464445763e-16</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1.896737133778108e-17</v>
+      </c>
+      <c r="T21" t="n">
+        <v>9.314859333720232e-18</v>
+      </c>
+      <c r="U21" t="n">
+        <v>4.256911189722429e-21</v>
+      </c>
+      <c r="V21" t="n">
+        <v>1.316171687577733e-18</v>
+      </c>
+      <c r="W21" t="n">
+        <v>1.229274395268425e-28</v>
+      </c>
+      <c r="X21" t="n">
+        <v>4.298462352418106e-21</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>5.242985694210281e-06</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>8.050786167277746e-29</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>2.740251048824235e-29</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>0.0003784556773671341</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>1.08824157064089e-29</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>0.0001870928048164343</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>2.257027267246302e-26</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>6.149601891598565e-06</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>3.31724477323155e-07</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>0.2781369772206818</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>0.08154118321145601</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>4.207845187468013e-07</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>7.096773043593299e-09</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>3.926229164204715e-10</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>6.304524837695136e-13</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>0.004971501070951185</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>0.338536739103748</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>0.6527657372735366</v>
+      </c>
+      <c r="AU21" t="n">
+        <v>0.4578145656510877</v>
+      </c>
+      <c r="AV21" t="n">
+        <v>0.4789670291955512</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>0.2948196160714528</v>
+      </c>
+      <c r="AX21" t="n">
+        <v>97.6076721433912</v>
+      </c>
+      <c r="AY21" t="n">
+        <v>0.1153237240607948</v>
+      </c>
+      <c r="AZ21" t="n">
+        <v>0.04774722671879045</v>
+      </c>
+      <c r="BA21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB21" t="n">
+        <v>0.0003915636347906591</v>
+      </c>
+      <c r="BC21" t="n">
+        <v>4.312914850930177e-05</v>
+      </c>
+      <c r="BD21" t="n">
+        <v>1.578167726761462e-07</v>
+      </c>
+      <c r="BE21" t="n">
+        <v>7.573369615350402e-13</v>
+      </c>
+      <c r="BF21" t="n">
+        <v>2.391206420173477e-13</v>
+      </c>
+      <c r="BG21" t="n">
+        <v>2.719567146341722e-15</v>
+      </c>
+      <c r="BH21" t="n">
+        <v>1.868895428508623e-16</v>
+      </c>
+      <c r="BI21" t="n">
+        <v>9.847460173758276e-17</v>
+      </c>
+      <c r="BJ21" t="n">
+        <v>5.720968763706737e-20</v>
+      </c>
+      <c r="BK21" t="n">
+        <v>1.135041072606542e-17</v>
+      </c>
+      <c r="BL21" t="n">
+        <v>1.395021661022926e-27</v>
+      </c>
+      <c r="BM21" t="n">
+        <v>3.96304840730909e-20</v>
+      </c>
+      <c r="BN21" t="n">
+        <v>1.571852077722913e-08</v>
+      </c>
+      <c r="BO21" t="n">
+        <v>8.348663358778379e-28</v>
+      </c>
+      <c r="BP21" t="n">
+        <v>3.305178987458628e-28</v>
+      </c>
+      <c r="BQ21" t="n">
+        <v>7.873521459071127e-07</v>
+      </c>
+      <c r="BR21" t="n">
+        <v>1.702379506705735e-28</v>
+      </c>
+      <c r="BS21" t="n">
+        <v>3.653218010272418e-07</v>
+      </c>
+      <c r="BT21" t="n">
+        <v>3.124637328601272e-25</v>
+      </c>
+      <c r="BU21" t="n">
+        <v>1.184511110447852e-08</v>
+      </c>
+      <c r="BV21" t="n">
+        <v>1.277226322957712e-09</v>
+      </c>
+      <c r="BW21" t="n">
+        <v>0.0008031312668437199</v>
+      </c>
+      <c r="BX21" t="n">
+        <v>0.0001425516883346345</v>
+      </c>
+      <c r="BY21" t="n">
+        <v>2.36876002218486e-09</v>
+      </c>
+      <c r="BZ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA21" t="n">
+        <v>2.117960565330509e-11</v>
+      </c>
+      <c r="CB21" t="n">
+        <v>1.887690673438966e-12</v>
+      </c>
+      <c r="CC21" t="n">
+        <v>1.500926799769819e-15</v>
+      </c>
+      <c r="CD21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG21" t="n">
+        <v>3.983749799241755e-07</v>
+      </c>
+      <c r="CH21" t="n">
+        <v>9.84551357286221e-05</v>
+      </c>
+      <c r="CI21" t="n">
+        <v>0.000490307154814312</v>
+      </c>
+      <c r="CJ21" t="n">
+        <v>0.0009463611625536475</v>
+      </c>
+      <c r="CK21" t="n">
+        <v>0.003122936707571157</v>
+      </c>
+      <c r="CL21" t="n">
+        <v>0.009231871218948624</v>
+      </c>
+      <c r="CM21" t="n">
+        <v>99.89570538230109</v>
+      </c>
+      <c r="CN21" t="n">
+        <v>0.02418813055186321</v>
+      </c>
+      <c r="CO21" t="n">
+        <v>0.05704833498746126</v>
+      </c>
+      <c r="CP21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ21" t="n">
+        <v>0.004339176485126372</v>
+      </c>
+      <c r="CR21" t="n">
+        <v>0.004819766416858068</v>
+      </c>
+      <c r="CS21" t="n">
+        <v>8.877571384993522e-06</v>
+      </c>
+      <c r="CT21" t="n">
+        <v>4.473865988932053e-10</v>
+      </c>
+      <c r="CU21" t="n">
+        <v>1.701178225232686e-10</v>
+      </c>
+      <c r="CV21" t="n">
+        <v>1.3596532093893e-11</v>
+      </c>
+      <c r="CW21" t="n">
+        <v>1.356287211357807e-12</v>
+      </c>
+      <c r="CX21" t="n">
+        <v>8.753782261585877e-13</v>
+      </c>
+      <c r="CY21" t="n">
+        <v>1.250153947934408e-15</v>
+      </c>
+      <c r="CZ21" t="n">
+        <v>6.566190092493243e-14</v>
+      </c>
+      <c r="DA21" t="n">
+        <v>2.997318829970697e-22</v>
+      </c>
+      <c r="DB21" t="n">
+        <v>7.822938751234103e-16</v>
+      </c>
+      <c r="DC21" t="n">
+        <v>2.586293066668616e-25</v>
+      </c>
+      <c r="DD21" t="n">
+        <v>6.325125589254531e-22</v>
+      </c>
+      <c r="DE21" t="n">
+        <v>1.24148392550767e-22</v>
+      </c>
+      <c r="DF21" t="n">
+        <v>4.917911361558446e-26</v>
+      </c>
+      <c r="DG21" t="n">
+        <v>5.045099802310228e-23</v>
+      </c>
+      <c r="DH21" t="n">
+        <v>1.169453867070653e-28</v>
+      </c>
+      <c r="DI21" t="n">
+        <v>3.648024147332116e-20</v>
+      </c>
+      <c r="DJ21" t="n">
+        <v>1.174888701910688e-09</v>
+      </c>
+      <c r="DK21" t="n">
+        <v>3.611406938799474e-11</v>
+      </c>
+      <c r="DL21" t="n">
+        <v>4.894517387643761e-28</v>
+      </c>
+      <c r="DM21" t="n">
+        <v>1.179984897792333e-27</v>
+      </c>
+      <c r="DN21" t="n">
+        <v>8.560091014937475e-11</v>
+      </c>
+      <c r="DO21" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP21" t="n">
+        <v>1.534609438998413e-12</v>
+      </c>
+      <c r="DQ21" t="n">
+        <v>9.785514707958104e-14</v>
+      </c>
+      <c r="DR21" t="n">
+        <v>1.255303559573115e-16</v>
+      </c>
+      <c r="DS21" t="n">
+        <v>0</v>
+      </c>
+      <c r="DT21" t="n">
+        <v>0</v>
+      </c>
+      <c r="DU21" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV21" t="n">
+        <v>2.862070700098642e-06</v>
+      </c>
+      <c r="DW21" t="n">
+        <v>0.0001815665561604116</v>
+      </c>
+      <c r="DX21" t="n">
+        <v>0.0003626407000579744</v>
+      </c>
+      <c r="DY21" t="n">
+        <v>8.098279375324862e-28</v>
+      </c>
+      <c r="DZ21" t="n">
+        <v>3.562572547320216e-20</v>
+      </c>
+      <c r="EA21" t="n">
+        <v>8.353689208238462e-13</v>
+      </c>
+      <c r="EB21" t="n">
+        <v>0.003437689090180808</v>
+      </c>
+      <c r="EC21" t="n">
+        <v>2.982303766438225e-07</v>
+      </c>
+      <c r="ED21" t="n">
+        <v>0.0001391666675202446</v>
+      </c>
+      <c r="EE21" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF21" t="n">
+        <v>0.01734007634262293</v>
+      </c>
+      <c r="EG21" t="n">
+        <v>96.06460692564846</v>
+      </c>
+      <c r="EH21" t="n">
+        <v>0.01244273259258311</v>
+      </c>
+      <c r="EI21" t="n">
+        <v>0.0085002096232028</v>
+      </c>
+      <c r="EJ21" t="n">
+        <v>0.006966190996909269</v>
+      </c>
+      <c r="EK21" t="n">
+        <v>1.723973761132051</v>
+      </c>
+      <c r="EL21" t="n">
+        <v>0.7990885266282509</v>
+      </c>
+      <c r="EM21" t="n">
+        <v>1.231724970545822</v>
+      </c>
+      <c r="EN21" t="n">
+        <v>0.07413529207610337</v>
+      </c>
+      <c r="EO21" t="n">
+        <v>0.01508826534701391</v>
+      </c>
+      <c r="EP21" t="n">
+        <v>6.749785506854592e-07</v>
+      </c>
+      <c r="EQ21" t="n">
+        <v>0.03336787080040198</v>
+      </c>
+      <c r="ER21" t="n">
+        <v>1.335103215788557e-07</v>
+      </c>
+      <c r="ES21" t="n">
+        <v>1.741443447997192e-05</v>
+      </c>
+      <c r="ET21" t="n">
+        <v>6.472016459259315e-06</v>
+      </c>
+      <c r="EU21" t="n">
+        <v>6.258982275779233e-06</v>
+      </c>
+      <c r="EV21" t="n">
+        <v>2.87172750456804e-06</v>
+      </c>
+      <c r="EW21" t="n">
+        <v>3.914493942885186e-06</v>
+      </c>
+      <c r="EX21" t="n">
+        <v>0.002700787969208456</v>
+      </c>
+      <c r="EY21" t="n">
+        <v>9.222987460803897e-08</v>
+      </c>
+      <c r="EZ21" t="n">
+        <v>5.117077496201206e-09</v>
+      </c>
+      <c r="FA21" t="n">
+        <v>0.004703357277440779</v>
+      </c>
+      <c r="FB21" t="n">
+        <v>0.001198960966208178</v>
+      </c>
+      <c r="FC21" t="n">
+        <v>1.109768036151084e-08</v>
+      </c>
+      <c r="FD21" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE21" t="n">
+        <v>1.404345552993395e-10</v>
+      </c>
+      <c r="FF21" t="n">
+        <v>9.273255529293814e-12</v>
+      </c>
+      <c r="FG21" t="n">
+        <v>1.000040566580305e-14</v>
+      </c>
+      <c r="FH21" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>test001</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.2555194979412724</v>
+      </c>
+      <c r="D22" t="n">
+        <v>17.1669918669715</v>
+      </c>
+      <c r="E22" t="n">
+        <v>27.42662642764725</v>
+      </c>
+      <c r="F22" t="n">
+        <v>11.89294186235128</v>
+      </c>
+      <c r="G22" t="n">
+        <v>8.752475056231875</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.4060945433923109</v>
+      </c>
+      <c r="I22" t="n">
+        <v>32.11295993184886</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.05475491963594677</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.01393179173474527</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.0001786322970772079</v>
+      </c>
+      <c r="N22" t="n">
+        <v>1.171136027107917e-05</v>
+      </c>
+      <c r="O22" t="n">
+        <v>5.558982400220707e-08</v>
+      </c>
+      <c r="P22" t="n">
+        <v>1.537328458456719e-13</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>4.752980475860831e-14</v>
+      </c>
+      <c r="R22" t="n">
+        <v>2.713043478109931e-16</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1.658832971455217e-17</v>
+      </c>
+      <c r="T22" t="n">
+        <v>8.203607818117414e-18</v>
+      </c>
+      <c r="U22" t="n">
+        <v>3.852881673145831e-21</v>
+      </c>
+      <c r="V22" t="n">
+        <v>1.093173605112797e-18</v>
+      </c>
+      <c r="W22" t="n">
+        <v>1.147864329965793e-28</v>
+      </c>
+      <c r="X22" t="n">
+        <v>3.566060383255163e-21</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>4.434829136577117e-05</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>2.75344564298996e-28</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>4.711424571693148e-29</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>0.002994666390176456</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>1.860266476482004e-29</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>0.001662539476243877</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>1.867604392596532e-26</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>5.037890273442098e-05</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>2.429406257205545e-06</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>1.478986001197484</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>0.4337701154313926</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>3.159818899574101e-06</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>6.089789369768762e-08</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>3.180075860935871e-09</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>5.068326974865689e-12</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>0.004844693724907323</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>0.312604178237795</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>0.5843323416988994</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>0.4281430071609357</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>0.424199646851797</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>0.2579304532447092</v>
+      </c>
+      <c r="AX22" t="n">
+        <v>97.82541742996948</v>
+      </c>
+      <c r="AY22" t="n">
+        <v>0.1088354766418744</v>
+      </c>
+      <c r="AZ22" t="n">
+        <v>0.04791653934919402</v>
+      </c>
+      <c r="BA22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB22" t="n">
+        <v>0.0003861896237873148</v>
+      </c>
+      <c r="BC22" t="n">
+        <v>4.326008048110334e-05</v>
+      </c>
+      <c r="BD22" t="n">
+        <v>1.506172206274619e-07</v>
+      </c>
+      <c r="BE22" t="n">
+        <v>6.848687911140609e-13</v>
+      </c>
+      <c r="BF22" t="n">
+        <v>2.152789271678857e-13</v>
+      </c>
+      <c r="BG22" t="n">
+        <v>2.473884981181808e-15</v>
+      </c>
+      <c r="BH22" t="n">
+        <v>1.714707276473486e-16</v>
+      </c>
+      <c r="BI22" t="n">
+        <v>9.035393958999426e-17</v>
+      </c>
+      <c r="BJ22" t="n">
+        <v>5.308459628812869e-20</v>
+      </c>
+      <c r="BK22" t="n">
+        <v>1.016215699343547e-17</v>
+      </c>
+      <c r="BL22" t="n">
+        <v>4.04838238639783e-27</v>
+      </c>
+      <c r="BM22" t="n">
+        <v>3.542708236019605e-20</v>
+      </c>
+      <c r="BN22" t="n">
+        <v>1.438917836934582e-07</v>
+      </c>
+      <c r="BO22" t="n">
+        <v>5.743484584783993e-27</v>
+      </c>
+      <c r="BP22" t="n">
+        <v>9.551948125053622e-28</v>
+      </c>
+      <c r="BQ22" t="n">
+        <v>6.429009546919887e-06</v>
+      </c>
+      <c r="BR22" t="n">
+        <v>3.959517811668283e-28</v>
+      </c>
+      <c r="BS22" t="n">
+        <v>3.316844215211188e-06</v>
+      </c>
+      <c r="BT22" t="n">
+        <v>2.79185993292918e-25</v>
+      </c>
+      <c r="BU22" t="n">
+        <v>9.858839614820794e-08</v>
+      </c>
+      <c r="BV22" t="n">
+        <v>1.075390659681392e-08</v>
+      </c>
+      <c r="BW22" t="n">
+        <v>0.004470153635424062</v>
+      </c>
+      <c r="BX22" t="n">
+        <v>0.0008664593173938396</v>
+      </c>
+      <c r="BY22" t="n">
+        <v>2.056792560071987e-08</v>
+      </c>
+      <c r="BZ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA22" t="n">
+        <v>1.739563540927285e-10</v>
+      </c>
+      <c r="CB22" t="n">
+        <v>1.543968859488372e-11</v>
+      </c>
+      <c r="CC22" t="n">
+        <v>1.186695591828409e-14</v>
+      </c>
+      <c r="CD22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG22" t="n">
+        <v>4.155449987602087e-07</v>
+      </c>
+      <c r="CH22" t="n">
+        <v>0.0001033541676620686</v>
+      </c>
+      <c r="CI22" t="n">
+        <v>0.0005118831693925677</v>
+      </c>
+      <c r="CJ22" t="n">
+        <v>0.001039535110445072</v>
+      </c>
+      <c r="CK22" t="n">
+        <v>0.003325826431937044</v>
+      </c>
+      <c r="CL22" t="n">
+        <v>0.009374748247182849</v>
+      </c>
+      <c r="CM22" t="n">
+        <v>99.89513698796026</v>
+      </c>
+      <c r="CN22" t="n">
+        <v>0.02358600674498619</v>
+      </c>
+      <c r="CO22" t="n">
+        <v>0.05710344286778182</v>
+      </c>
+      <c r="CP22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ22" t="n">
+        <v>0.004491713773529091</v>
+      </c>
+      <c r="CR22" t="n">
+        <v>0.00531643947052629</v>
+      </c>
+      <c r="CS22" t="n">
+        <v>9.634224474292157e-06</v>
+      </c>
+      <c r="CT22" t="n">
+        <v>4.542393211517862e-10</v>
+      </c>
+      <c r="CU22" t="n">
+        <v>1.720703834495536e-10</v>
+      </c>
+      <c r="CV22" t="n">
+        <v>1.367847873029413e-11</v>
+      </c>
+      <c r="CW22" t="n">
+        <v>1.371745823613967e-12</v>
+      </c>
+      <c r="CX22" t="n">
+        <v>8.861002040004685e-13</v>
+      </c>
+      <c r="CY22" t="n">
+        <v>1.273257476198174e-15</v>
+      </c>
+      <c r="CZ22" t="n">
+        <v>6.573348038242199e-14</v>
+      </c>
+      <c r="DA22" t="n">
+        <v>4.643456136071026e-22</v>
+      </c>
+      <c r="DB22" t="n">
+        <v>7.838510189114749e-16</v>
+      </c>
+      <c r="DC22" t="n">
+        <v>3.65274644226105e-25</v>
+      </c>
+      <c r="DD22" t="n">
+        <v>9.771489155798295e-22</v>
+      </c>
+      <c r="DE22" t="n">
+        <v>1.927066090223746e-22</v>
+      </c>
+      <c r="DF22" t="n">
+        <v>6.914483049343615e-26</v>
+      </c>
+      <c r="DG22" t="n">
+        <v>7.813336025095819e-23</v>
+      </c>
+      <c r="DH22" t="n">
+        <v>8.209177674541703e-28</v>
+      </c>
+      <c r="DI22" t="n">
+        <v>3.651477662831266e-20</v>
+      </c>
+      <c r="DJ22" t="n">
+        <v>1.043084560994592e-08</v>
+      </c>
+      <c r="DK22" t="n">
+        <v>3.302496973526235e-10</v>
+      </c>
+      <c r="DL22" t="n">
+        <v>6.677827278776074e-28</v>
+      </c>
+      <c r="DM22" t="n">
+        <v>1.227570363680082e-27</v>
+      </c>
+      <c r="DN22" t="n">
+        <v>8.696039659110916e-10</v>
+      </c>
+      <c r="DO22" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP22" t="n">
+        <v>1.293452806078535e-11</v>
+      </c>
+      <c r="DQ22" t="n">
+        <v>8.848314391222338e-13</v>
+      </c>
+      <c r="DR22" t="n">
+        <v>1.147202682361404e-15</v>
+      </c>
+      <c r="DS22" t="n">
+        <v>0</v>
+      </c>
+      <c r="DT22" t="n">
+        <v>0</v>
+      </c>
+      <c r="DU22" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV22" t="n">
+        <v>1.981540934356724e-05</v>
+      </c>
+      <c r="DW22" t="n">
+        <v>0.001320072819664508</v>
+      </c>
+      <c r="DX22" t="n">
+        <v>0.002771987733094658</v>
+      </c>
+      <c r="DY22" t="n">
+        <v>2.198553230142669e-27</v>
+      </c>
+      <c r="DZ22" t="n">
+        <v>1.045048808782729e-19</v>
+      </c>
+      <c r="EA22" t="n">
+        <v>2.065894944863989e-12</v>
+      </c>
+      <c r="EB22" t="n">
+        <v>0.003818331404051295</v>
+      </c>
+      <c r="EC22" t="n">
+        <v>6.671348696230808e-07</v>
+      </c>
+      <c r="ED22" t="n">
+        <v>0.0001642414503898947</v>
+      </c>
+      <c r="EE22" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF22" t="n">
+        <v>0.01628524387146015</v>
+      </c>
+      <c r="EG22" t="n">
+        <v>96.36969518004767</v>
+      </c>
+      <c r="EH22" t="n">
+        <v>0.01236790504303329</v>
+      </c>
+      <c r="EI22" t="n">
+        <v>0.007887529930430756</v>
+      </c>
+      <c r="EJ22" t="n">
+        <v>0.006440855539238798</v>
+      </c>
+      <c r="EK22" t="n">
+        <v>1.582199587831056</v>
+      </c>
+      <c r="EL22" t="n">
+        <v>0.7379148725812358</v>
+      </c>
+      <c r="EM22" t="n">
+        <v>1.13833571669219</v>
+      </c>
+      <c r="EN22" t="n">
+        <v>0.06893222906195298</v>
+      </c>
+      <c r="EO22" t="n">
+        <v>0.01384572829835182</v>
+      </c>
+      <c r="EP22" t="n">
+        <v>9.557871844401347e-07</v>
+      </c>
+      <c r="EQ22" t="n">
+        <v>0.03060098150857002</v>
+      </c>
+      <c r="ER22" t="n">
+        <v>1.735701477055573e-07</v>
+      </c>
+      <c r="ES22" t="n">
+        <v>2.460188722064627e-05</v>
+      </c>
+      <c r="ET22" t="n">
+        <v>9.187582713059934e-06</v>
+      </c>
+      <c r="EU22" t="n">
+        <v>8.004010447291542e-06</v>
+      </c>
+      <c r="EV22" t="n">
+        <v>4.066745934680972e-06</v>
+      </c>
+      <c r="EW22" t="n">
+        <v>5.140017995565572e-06</v>
+      </c>
+      <c r="EX22" t="n">
+        <v>0.002476833542772904</v>
+      </c>
+      <c r="EY22" t="n">
+        <v>1.094905528721932e-07</v>
+      </c>
+      <c r="EZ22" t="n">
+        <v>6.104975146781242e-09</v>
+      </c>
+      <c r="FA22" t="n">
+        <v>0.003877059234877214</v>
+      </c>
+      <c r="FB22" t="n">
+        <v>0.0009929021204424732</v>
+      </c>
+      <c r="FC22" t="n">
+        <v>1.336627339473355e-08</v>
+      </c>
+      <c r="FD22" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE22" t="n">
+        <v>1.687295614130267e-10</v>
+      </c>
+      <c r="FF22" t="n">
+        <v>1.105176629988912e-11</v>
+      </c>
+      <c r="FG22" t="n">
+        <v>1.182120102957328e-14</v>
+      </c>
+      <c r="FH22" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI22" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/log/c660_wt_log.xlsx
+++ b/log/c660_wt_log.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:FI22"/>
+  <dimension ref="A1:FI18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9732,2002 +9732,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>test001</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>0</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.8879631964055906</v>
-      </c>
-      <c r="D19" t="n">
-        <v>28.43388871599892</v>
-      </c>
-      <c r="E19" t="n">
-        <v>26.96280301738538</v>
-      </c>
-      <c r="F19" t="n">
-        <v>6.997392225821</v>
-      </c>
-      <c r="G19" t="n">
-        <v>4.401075801446517</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0.3679621178864774</v>
-      </c>
-      <c r="I19" t="n">
-        <v>31.85010555092239</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0.05738875258937488</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0.01496369254278627</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>7.531372523797519e-05</v>
-      </c>
-      <c r="N19" t="n">
-        <v>6.622195077870911e-06</v>
-      </c>
-      <c r="O19" t="n">
-        <v>4.493743170196232e-08</v>
-      </c>
-      <c r="P19" t="n">
-        <v>1.312781439529267e-13</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>4.105859778031967e-14</v>
-      </c>
-      <c r="R19" t="n">
-        <v>1.991484205804912e-16</v>
-      </c>
-      <c r="S19" t="n">
-        <v>1.190666836656954e-17</v>
-      </c>
-      <c r="T19" t="n">
-        <v>5.781037904531879e-18</v>
-      </c>
-      <c r="U19" t="n">
-        <v>2.533135340258674e-21</v>
-      </c>
-      <c r="V19" t="n">
-        <v>9.462401629913367e-19</v>
-      </c>
-      <c r="W19" t="n">
-        <v>5.46626537833388e-29</v>
-      </c>
-      <c r="X19" t="n">
-        <v>3.082927245306531e-21</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>2.231640642175658e-07</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>1.419286036510644e-29</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>4.787081917460185e-30</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>1.47557741138723e-05</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>1.875716779489504e-30</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>7.060709739740957e-06</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>1.610172630976902e-26</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>2.227730360762326e-07</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>1.280958664028976e-08</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>0.02065319190118247</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>0.005699461388758571</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>1.934921368713688e-08</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>2.583831385333035e-10</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>1.55626996478928e-11</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>2.181963474385885e-14</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR19" t="n">
-        <v>0.003899525549760869</v>
-      </c>
-      <c r="AS19" t="n">
-        <v>0.3475468543381642</v>
-      </c>
-      <c r="AT19" t="n">
-        <v>0.7271631163997405</v>
-      </c>
-      <c r="AU19" t="n">
-        <v>0.522136640874753</v>
-      </c>
-      <c r="AV19" t="n">
-        <v>0.6327694534083925</v>
-      </c>
-      <c r="AW19" t="n">
-        <v>0.428271715255076</v>
-      </c>
-      <c r="AX19" t="n">
-        <v>97.1650044378077</v>
-      </c>
-      <c r="AY19" t="n">
-        <v>0.125762616212917</v>
-      </c>
-      <c r="AZ19" t="n">
-        <v>0.04702754743274832</v>
-      </c>
-      <c r="BA19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB19" t="n">
-        <v>0.0003048505133146509</v>
-      </c>
-      <c r="BC19" t="n">
-        <v>3.459262502525843e-05</v>
-      </c>
-      <c r="BD19" t="n">
-        <v>1.397242592018623e-07</v>
-      </c>
-      <c r="BE19" t="n">
-        <v>7.084041687333454e-13</v>
-      </c>
-      <c r="BF19" t="n">
-        <v>2.229767119149578e-13</v>
-      </c>
-      <c r="BG19" t="n">
-        <v>2.483713117876486e-15</v>
-      </c>
-      <c r="BH19" t="n">
-        <v>1.678825443570463e-16</v>
-      </c>
-      <c r="BI19" t="n">
-        <v>8.890213776139298e-17</v>
-      </c>
-      <c r="BJ19" t="n">
-        <v>5.057697456821905e-20</v>
-      </c>
-      <c r="BK19" t="n">
-        <v>1.071873907926367e-17</v>
-      </c>
-      <c r="BL19" t="n">
-        <v>2.815076458702163e-28</v>
-      </c>
-      <c r="BM19" t="n">
-        <v>3.719028379885438e-20</v>
-      </c>
-      <c r="BN19" t="n">
-        <v>7.327952473438006e-10</v>
-      </c>
-      <c r="BO19" t="n">
-        <v>9.937029872705929e-29</v>
-      </c>
-      <c r="BP19" t="n">
-        <v>4.246482616779615e-29</v>
-      </c>
-      <c r="BQ19" t="n">
-        <v>3.886107759670415e-08</v>
-      </c>
-      <c r="BR19" t="n">
-        <v>2.298561006378205e-29</v>
-      </c>
-      <c r="BS19" t="n">
-        <v>1.830644180602478e-08</v>
-      </c>
-      <c r="BT19" t="n">
-        <v>2.93348940923892e-25</v>
-      </c>
-      <c r="BU19" t="n">
-        <v>5.543888188957072e-10</v>
-      </c>
-      <c r="BV19" t="n">
-        <v>4.855880677069074e-11</v>
-      </c>
-      <c r="BW19" t="n">
-        <v>6.600435339510066e-05</v>
-      </c>
-      <c r="BX19" t="n">
-        <v>1.244690700431353e-05</v>
-      </c>
-      <c r="BY19" t="n">
-        <v>9.251844699542181e-11</v>
-      </c>
-      <c r="BZ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA19" t="n">
-        <v>9.740423740907216e-13</v>
-      </c>
-      <c r="CB19" t="n">
-        <v>7.466931846494464e-14</v>
-      </c>
-      <c r="CC19" t="n">
-        <v>6.834461792102087e-17</v>
-      </c>
-      <c r="CD19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG19" t="n">
-        <v>3.390721718348248e-07</v>
-      </c>
-      <c r="CH19" t="n">
-        <v>8.346279653893337e-05</v>
-      </c>
-      <c r="CI19" t="n">
-        <v>0.0004174407497621435</v>
-      </c>
-      <c r="CJ19" t="n">
-        <v>0.0008096410864133855</v>
-      </c>
-      <c r="CK19" t="n">
-        <v>0.002709210121624208</v>
-      </c>
-      <c r="CL19" t="n">
-        <v>0.009475604430222299</v>
-      </c>
-      <c r="CM19" t="n">
-        <v>99.89715585536044</v>
-      </c>
-      <c r="CN19" t="n">
-        <v>0.02458568906623051</v>
-      </c>
-      <c r="CO19" t="n">
-        <v>0.05690524240944819</v>
-      </c>
-      <c r="CP19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ19" t="n">
-        <v>0.00395789748288995</v>
-      </c>
-      <c r="CR19" t="n">
-        <v>0.003892070471120273</v>
-      </c>
-      <c r="CS19" t="n">
-        <v>7.546335994105354e-06</v>
-      </c>
-      <c r="CT19" t="n">
-        <v>4.057327251107019e-10</v>
-      </c>
-      <c r="CU19" t="n">
-        <v>1.54341175014785e-10</v>
-      </c>
-      <c r="CV19" t="n">
-        <v>1.216629463050412e-11</v>
-      </c>
-      <c r="CW19" t="n">
-        <v>1.202514626149262e-12</v>
-      </c>
-      <c r="CX19" t="n">
-        <v>7.749141722203283e-13</v>
-      </c>
-      <c r="CY19" t="n">
-        <v>1.092576887785921e-15</v>
-      </c>
-      <c r="CZ19" t="n">
-        <v>5.984082964328854e-14</v>
-      </c>
-      <c r="DA19" t="n">
-        <v>1.382038227227523e-22</v>
-      </c>
-      <c r="DB19" t="n">
-        <v>7.121282139881604e-16</v>
-      </c>
-      <c r="DC19" t="n">
-        <v>1.220374122665402e-25</v>
-      </c>
-      <c r="DD19" t="n">
-        <v>2.909794018341501e-22</v>
-      </c>
-      <c r="DE19" t="n">
-        <v>5.711711650128215e-23</v>
-      </c>
-      <c r="DF19" t="n">
-        <v>2.160545441721304e-26</v>
-      </c>
-      <c r="DG19" t="n">
-        <v>2.326868164835861e-23</v>
-      </c>
-      <c r="DH19" t="n">
-        <v>1.520856244330879e-29</v>
-      </c>
-      <c r="DI19" t="n">
-        <v>3.322456925064492e-20</v>
-      </c>
-      <c r="DJ19" t="n">
-        <v>3.837593164881582e-11</v>
-      </c>
-      <c r="DK19" t="n">
-        <v>1.382613017832072e-12</v>
-      </c>
-      <c r="DL19" t="n">
-        <v>1.378951470047603e-28</v>
-      </c>
-      <c r="DM19" t="n">
-        <v>5.659539738848455e-28</v>
-      </c>
-      <c r="DN19" t="n">
-        <v>3.069033845440428e-12</v>
-      </c>
-      <c r="DO19" t="n">
-        <v>0</v>
-      </c>
-      <c r="DP19" t="n">
-        <v>5.464879300582081e-14</v>
-      </c>
-      <c r="DQ19" t="n">
-        <v>3.23393984079446e-15</v>
-      </c>
-      <c r="DR19" t="n">
-        <v>3.847173851817606e-18</v>
-      </c>
-      <c r="DS19" t="n">
-        <v>0</v>
-      </c>
-      <c r="DT19" t="n">
-        <v>0</v>
-      </c>
-      <c r="DU19" t="n">
-        <v>0</v>
-      </c>
-      <c r="DV19" t="n">
-        <v>1.733225397201958e-07</v>
-      </c>
-      <c r="DW19" t="n">
-        <v>1.099674363981628e-05</v>
-      </c>
-      <c r="DX19" t="n">
-        <v>2.05083953852507e-05</v>
-      </c>
-      <c r="DY19" t="n">
-        <v>4.131553847312627e-28</v>
-      </c>
-      <c r="DZ19" t="n">
-        <v>2.053031171585248e-20</v>
-      </c>
-      <c r="EA19" t="n">
-        <v>6.079548518987796e-13</v>
-      </c>
-      <c r="EB19" t="n">
-        <v>0.003628095717070456</v>
-      </c>
-      <c r="EC19" t="n">
-        <v>2.027498722978127e-07</v>
-      </c>
-      <c r="ED19" t="n">
-        <v>0.0001333571220615472</v>
-      </c>
-      <c r="EE19" t="n">
-        <v>0</v>
-      </c>
-      <c r="EF19" t="n">
-        <v>0.01864045348476897</v>
-      </c>
-      <c r="EG19" t="n">
-        <v>95.63379758201779</v>
-      </c>
-      <c r="EH19" t="n">
-        <v>0.0126469041865286</v>
-      </c>
-      <c r="EI19" t="n">
-        <v>0.009389292932352859</v>
-      </c>
-      <c r="EJ19" t="n">
-        <v>0.0077144303498723</v>
-      </c>
-      <c r="EK19" t="n">
-        <v>1.920231334470062</v>
-      </c>
-      <c r="EL19" t="n">
-        <v>0.8851555434017592</v>
-      </c>
-      <c r="EM19" t="n">
-        <v>1.363301996241661</v>
-      </c>
-      <c r="EN19" t="n">
-        <v>0.08160547880561952</v>
-      </c>
-      <c r="EO19" t="n">
-        <v>0.01680809118326411</v>
-      </c>
-      <c r="EP19" t="n">
-        <v>3.885809555363661e-07</v>
-      </c>
-      <c r="EQ19" t="n">
-        <v>0.03719106431927646</v>
-      </c>
-      <c r="ER19" t="n">
-        <v>7.813806533710232e-08</v>
-      </c>
-      <c r="ES19" t="n">
-        <v>1.003685554343617e-05</v>
-      </c>
-      <c r="ET19" t="n">
-        <v>3.719412081736722e-06</v>
-      </c>
-      <c r="EU19" t="n">
-        <v>3.683284029385527e-06</v>
-      </c>
-      <c r="EV19" t="n">
-        <v>1.655277638646312e-06</v>
-      </c>
-      <c r="EW19" t="n">
-        <v>2.269777104533061e-06</v>
-      </c>
-      <c r="EX19" t="n">
-        <v>0.003010239625978454</v>
-      </c>
-      <c r="EY19" t="n">
-        <v>5.464454170751589e-08</v>
-      </c>
-      <c r="EZ19" t="n">
-        <v>3.016961012819216e-09</v>
-      </c>
-      <c r="FA19" t="n">
-        <v>0.005334379827347373</v>
-      </c>
-      <c r="FB19" t="n">
-        <v>0.001357979444573387</v>
-      </c>
-      <c r="FC19" t="n">
-        <v>6.582788070325725e-09</v>
-      </c>
-      <c r="FD19" t="n">
-        <v>0</v>
-      </c>
-      <c r="FE19" t="n">
-        <v>8.278682746842749e-11</v>
-      </c>
-      <c r="FF19" t="n">
-        <v>5.48930720377579e-12</v>
-      </c>
-      <c r="FG19" t="n">
-        <v>5.874369530442477e-15</v>
-      </c>
-      <c r="FH19" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI19" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>test001</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>0</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.2820794354587928</v>
-      </c>
-      <c r="D20" t="n">
-        <v>17.41030451189448</v>
-      </c>
-      <c r="E20" t="n">
-        <v>27.74182929743794</v>
-      </c>
-      <c r="F20" t="n">
-        <v>12.21530852539488</v>
-      </c>
-      <c r="G20" t="n">
-        <v>9.557570243298436</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0.4368828627403491</v>
-      </c>
-      <c r="I20" t="n">
-        <v>31.45235699058054</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0.05314273669297898</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0.01326860236963772</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0.0001539658474021533</v>
-      </c>
-      <c r="N20" t="n">
-        <v>1.391191529004744e-05</v>
-      </c>
-      <c r="O20" t="n">
-        <v>6.250061532732965e-08</v>
-      </c>
-      <c r="P20" t="n">
-        <v>1.701585285146701e-13</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>5.274178949152134e-14</v>
-      </c>
-      <c r="R20" t="n">
-        <v>3.112656508648418e-16</v>
-      </c>
-      <c r="S20" t="n">
-        <v>1.927049024593155e-17</v>
-      </c>
-      <c r="T20" t="n">
-        <v>9.519876539501149e-18</v>
-      </c>
-      <c r="U20" t="n">
-        <v>4.514608191815462e-21</v>
-      </c>
-      <c r="V20" t="n">
-        <v>1.199797639091884e-18</v>
-      </c>
-      <c r="W20" t="n">
-        <v>1.709606685998666e-28</v>
-      </c>
-      <c r="X20" t="n">
-        <v>3.928675444721655e-21</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>2.404724096272331e-05</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>1.846850522252996e-28</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>8.032225128959384e-29</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>0.001923453532769019</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>3.245620880679235e-29</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>0.000948302388280261</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>2.066323539876947e-26</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>2.927399530676068e-05</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>1.643653526769045e-06</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>0.6255390974600807</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>0.2086211975310734</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>1.802309901219054e-06</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>3.392802118393564e-08</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>1.825343947442946e-09</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>3.112049651819973e-12</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR20" t="n">
-        <v>0.005099743912427235</v>
-      </c>
-      <c r="AS20" t="n">
-        <v>0.3379757979457613</v>
-      </c>
-      <c r="AT20" t="n">
-        <v>0.6431872363604889</v>
-      </c>
-      <c r="AU20" t="n">
-        <v>0.448389960456935</v>
-      </c>
-      <c r="AV20" t="n">
-        <v>0.4480090411627505</v>
-      </c>
-      <c r="AW20" t="n">
-        <v>0.2382441511036556</v>
-      </c>
-      <c r="AX20" t="n">
-        <v>97.72055136966486</v>
-      </c>
-      <c r="AY20" t="n">
-        <v>0.1078534729040893</v>
-      </c>
-      <c r="AZ20" t="n">
-        <v>0.04789040424059008</v>
-      </c>
-      <c r="BA20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB20" t="n">
-        <v>0.0003614028971619866</v>
-      </c>
-      <c r="BC20" t="n">
-        <v>4.250730749034989e-05</v>
-      </c>
-      <c r="BD20" t="n">
-        <v>1.545420203068109e-07</v>
-      </c>
-      <c r="BE20" t="n">
-        <v>6.660775646359753e-13</v>
-      </c>
-      <c r="BF20" t="n">
-        <v>2.100179805306351e-13</v>
-      </c>
-      <c r="BG20" t="n">
-        <v>2.335937859061955e-15</v>
-      </c>
-      <c r="BH20" t="n">
-        <v>1.626726404967406e-16</v>
-      </c>
-      <c r="BI20" t="n">
-        <v>8.558567671226596e-17</v>
-      </c>
-      <c r="BJ20" t="n">
-        <v>5.040126278724851e-20</v>
-      </c>
-      <c r="BK20" t="n">
-        <v>9.772627763588748e-18</v>
-      </c>
-      <c r="BL20" t="n">
-        <v>2.108979522204362e-27</v>
-      </c>
-      <c r="BM20" t="n">
-        <v>3.424174196209067e-20</v>
-      </c>
-      <c r="BN20" t="n">
-        <v>8.429206362505935e-08</v>
-      </c>
-      <c r="BO20" t="n">
-        <v>1.64972796895575e-27</v>
-      </c>
-      <c r="BP20" t="n">
-        <v>8.994075918421882e-28</v>
-      </c>
-      <c r="BQ20" t="n">
-        <v>3.847201409723032e-06</v>
-      </c>
-      <c r="BR20" t="n">
-        <v>4.76856175264897e-28</v>
-      </c>
-      <c r="BS20" t="n">
-        <v>1.868615589979782e-06</v>
-      </c>
-      <c r="BT20" t="n">
-        <v>2.698647786344193e-25</v>
-      </c>
-      <c r="BU20" t="n">
-        <v>5.837118032665239e-08</v>
-      </c>
-      <c r="BV20" t="n">
-        <v>6.832593357263336e-09</v>
-      </c>
-      <c r="BW20" t="n">
-        <v>0.00201174625339122</v>
-      </c>
-      <c r="BX20" t="n">
-        <v>0.0003771323841810725</v>
-      </c>
-      <c r="BY20" t="n">
-        <v>1.343432930944435e-08</v>
-      </c>
-      <c r="BZ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA20" t="n">
-        <v>1.058615887304196e-10</v>
-      </c>
-      <c r="CB20" t="n">
-        <v>1.027042712649464e-11</v>
-      </c>
-      <c r="CC20" t="n">
-        <v>6.988201114854217e-15</v>
-      </c>
-      <c r="CD20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG20" t="n">
-        <v>4.711520624917917e-07</v>
-      </c>
-      <c r="CH20" t="n">
-        <v>0.0001184717937168558</v>
-      </c>
-      <c r="CI20" t="n">
-        <v>0.0005972111123967789</v>
-      </c>
-      <c r="CJ20" t="n">
-        <v>0.00116303425829044</v>
-      </c>
-      <c r="CK20" t="n">
-        <v>0.003726002724923274</v>
-      </c>
-      <c r="CL20" t="n">
-        <v>0.00852676061856123</v>
-      </c>
-      <c r="CM20" t="n">
-        <v>99.89540038216072</v>
-      </c>
-      <c r="CN20" t="n">
-        <v>0.02305958394659926</v>
-      </c>
-      <c r="CO20" t="n">
-        <v>0.05712866899966432</v>
-      </c>
-      <c r="CP20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ20" t="n">
-        <v>0.004664867347893178</v>
-      </c>
-      <c r="CR20" t="n">
-        <v>0.005604432215175406</v>
-      </c>
-      <c r="CS20" t="n">
-        <v>1.010458685184389e-05</v>
-      </c>
-      <c r="CT20" t="n">
-        <v>4.603972585378318e-10</v>
-      </c>
-      <c r="CU20" t="n">
-        <v>1.742939064933745e-10</v>
-      </c>
-      <c r="CV20" t="n">
-        <v>1.384111797966037e-11</v>
-      </c>
-      <c r="CW20" t="n">
-        <v>1.398721670667185e-12</v>
-      </c>
-      <c r="CX20" t="n">
-        <v>9.046339889105023e-13</v>
-      </c>
-      <c r="CY20" t="n">
-        <v>1.310462782571667e-15</v>
-      </c>
-      <c r="CZ20" t="n">
-        <v>6.658779541844662e-14</v>
-      </c>
-      <c r="DA20" t="n">
-        <v>6.250867146420195e-22</v>
-      </c>
-      <c r="DB20" t="n">
-        <v>7.9173288356507e-16</v>
-      </c>
-      <c r="DC20" t="n">
-        <v>5.200158545863072e-25</v>
-      </c>
-      <c r="DD20" t="n">
-        <v>1.31882304233111e-21</v>
-      </c>
-      <c r="DE20" t="n">
-        <v>2.608465417193151e-22</v>
-      </c>
-      <c r="DF20" t="n">
-        <v>9.976091949375166e-26</v>
-      </c>
-      <c r="DG20" t="n">
-        <v>1.058531276823576e-22</v>
-      </c>
-      <c r="DH20" t="n">
-        <v>2.160695328559364e-28</v>
-      </c>
-      <c r="DI20" t="n">
-        <v>3.693809949780329e-20</v>
-      </c>
-      <c r="DJ20" t="n">
-        <v>7.689725336819721e-09</v>
-      </c>
-      <c r="DK20" t="n">
-        <v>2.03086787855102e-10</v>
-      </c>
-      <c r="DL20" t="n">
-        <v>4.143657244701864e-28</v>
-      </c>
-      <c r="DM20" t="n">
-        <v>1.130432186663879e-27</v>
-      </c>
-      <c r="DN20" t="n">
-        <v>5.292927695259039e-10</v>
-      </c>
-      <c r="DO20" t="n">
-        <v>0</v>
-      </c>
-      <c r="DP20" t="n">
-        <v>9.488046257842665e-12</v>
-      </c>
-      <c r="DQ20" t="n">
-        <v>6.449141887157432e-13</v>
-      </c>
-      <c r="DR20" t="n">
-        <v>8.085131656982177e-16</v>
-      </c>
-      <c r="DS20" t="n">
-        <v>0</v>
-      </c>
-      <c r="DT20" t="n">
-        <v>0</v>
-      </c>
-      <c r="DU20" t="n">
-        <v>0</v>
-      </c>
-      <c r="DV20" t="n">
-        <v>1.011582739045357e-05</v>
-      </c>
-      <c r="DW20" t="n">
-        <v>0.0006316608303581385</v>
-      </c>
-      <c r="DX20" t="n">
-        <v>0.001363254459285191</v>
-      </c>
-      <c r="DY20" t="n">
-        <v>1.003487175095243e-27</v>
-      </c>
-      <c r="DZ20" t="n">
-        <v>3.857487172416032e-20</v>
-      </c>
-      <c r="EA20" t="n">
-        <v>6.952104546843196e-13</v>
-      </c>
-      <c r="EB20" t="n">
-        <v>0.003037420570452266</v>
-      </c>
-      <c r="EC20" t="n">
-        <v>2.553524343763759e-07</v>
-      </c>
-      <c r="ED20" t="n">
-        <v>0.0001324137236679839</v>
-      </c>
-      <c r="EE20" t="n">
-        <v>0</v>
-      </c>
-      <c r="EF20" t="n">
-        <v>0.01628446806363069</v>
-      </c>
-      <c r="EG20" t="n">
-        <v>96.52082215008774</v>
-      </c>
-      <c r="EH20" t="n">
-        <v>0.01231336394230488</v>
-      </c>
-      <c r="EI20" t="n">
-        <v>0.00758140896509593</v>
-      </c>
-      <c r="EJ20" t="n">
-        <v>0.006182916807527671</v>
-      </c>
-      <c r="EK20" t="n">
-        <v>1.511888427060665</v>
-      </c>
-      <c r="EL20" t="n">
-        <v>0.7088840107169216</v>
-      </c>
-      <c r="EM20" t="n">
-        <v>1.094363789636883</v>
-      </c>
-      <c r="EN20" t="n">
-        <v>0.06664742054535897</v>
-      </c>
-      <c r="EO20" t="n">
-        <v>0.01322888813569966</v>
-      </c>
-      <c r="EP20" t="n">
-        <v>1.210083326591914e-06</v>
-      </c>
-      <c r="EQ20" t="n">
-        <v>0.02922284301433788</v>
-      </c>
-      <c r="ER20" t="n">
-        <v>2.300043463059442e-07</v>
-      </c>
-      <c r="ES20" t="n">
-        <v>3.116948035521034e-05</v>
-      </c>
-      <c r="ET20" t="n">
-        <v>1.168637528493153e-05</v>
-      </c>
-      <c r="EU20" t="n">
-        <v>1.067702067855685e-05</v>
-      </c>
-      <c r="EV20" t="n">
-        <v>5.177240045969227e-06</v>
-      </c>
-      <c r="EW20" t="n">
-        <v>6.895140124736098e-06</v>
-      </c>
-      <c r="EX20" t="n">
-        <v>0.002365284870194328</v>
-      </c>
-      <c r="EY20" t="n">
-        <v>1.534296952022188e-07</v>
-      </c>
-      <c r="EZ20" t="n">
-        <v>8.586697725748775e-09</v>
-      </c>
-      <c r="FA20" t="n">
-        <v>0.003964252439806557</v>
-      </c>
-      <c r="FB20" t="n">
-        <v>0.001008428813209512</v>
-      </c>
-      <c r="FC20" t="n">
-        <v>1.85274464785061e-08</v>
-      </c>
-      <c r="FD20" t="n">
-        <v>0</v>
-      </c>
-      <c r="FE20" t="n">
-        <v>2.330232810128923e-10</v>
-      </c>
-      <c r="FF20" t="n">
-        <v>1.530341171054929e-11</v>
-      </c>
-      <c r="FG20" t="n">
-        <v>1.65606802071647e-14</v>
-      </c>
-      <c r="FH20" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI20" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>test001</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>0</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.4213226260048453</v>
-      </c>
-      <c r="D21" t="n">
-        <v>21.34011732900804</v>
-      </c>
-      <c r="E21" t="n">
-        <v>28.84779821229154</v>
-      </c>
-      <c r="F21" t="n">
-        <v>10.25595117710148</v>
-      </c>
-      <c r="G21" t="n">
-        <v>7.10818970819903</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0.388669848020491</v>
-      </c>
-      <c r="I21" t="n">
-        <v>31.20879002376768</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0.05472646102456691</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0.01402501155782872</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0.0001417755350556853</v>
-      </c>
-      <c r="N21" t="n">
-        <v>1.190308270398099e-05</v>
-      </c>
-      <c r="O21" t="n">
-        <v>6.290557719994113e-08</v>
-      </c>
-      <c r="P21" t="n">
-        <v>1.831360194717171e-13</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>5.697385413417761e-14</v>
-      </c>
-      <c r="R21" t="n">
-        <v>3.130842464445763e-16</v>
-      </c>
-      <c r="S21" t="n">
-        <v>1.896737133778108e-17</v>
-      </c>
-      <c r="T21" t="n">
-        <v>9.314859333720232e-18</v>
-      </c>
-      <c r="U21" t="n">
-        <v>4.256911189722429e-21</v>
-      </c>
-      <c r="V21" t="n">
-        <v>1.316171687577733e-18</v>
-      </c>
-      <c r="W21" t="n">
-        <v>1.229274395268425e-28</v>
-      </c>
-      <c r="X21" t="n">
-        <v>4.298462352418106e-21</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>5.242985694210281e-06</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>8.050786167277746e-29</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>2.740251048824235e-29</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>0.0003784556773671341</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>1.08824157064089e-29</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>0.0001870928048164343</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>2.257027267246302e-26</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>6.149601891598565e-06</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>3.31724477323155e-07</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>0.2781369772206818</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>0.08154118321145601</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>4.207845187468013e-07</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>7.096773043593299e-09</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>3.926229164204715e-10</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>6.304524837695136e-13</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR21" t="n">
-        <v>0.004971501070951185</v>
-      </c>
-      <c r="AS21" t="n">
-        <v>0.338536739103748</v>
-      </c>
-      <c r="AT21" t="n">
-        <v>0.6527657372735366</v>
-      </c>
-      <c r="AU21" t="n">
-        <v>0.4578145656510877</v>
-      </c>
-      <c r="AV21" t="n">
-        <v>0.4789670291955512</v>
-      </c>
-      <c r="AW21" t="n">
-        <v>0.2948196160714528</v>
-      </c>
-      <c r="AX21" t="n">
-        <v>97.6076721433912</v>
-      </c>
-      <c r="AY21" t="n">
-        <v>0.1153237240607948</v>
-      </c>
-      <c r="AZ21" t="n">
-        <v>0.04774722671879045</v>
-      </c>
-      <c r="BA21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB21" t="n">
-        <v>0.0003915636347906591</v>
-      </c>
-      <c r="BC21" t="n">
-        <v>4.312914850930177e-05</v>
-      </c>
-      <c r="BD21" t="n">
-        <v>1.578167726761462e-07</v>
-      </c>
-      <c r="BE21" t="n">
-        <v>7.573369615350402e-13</v>
-      </c>
-      <c r="BF21" t="n">
-        <v>2.391206420173477e-13</v>
-      </c>
-      <c r="BG21" t="n">
-        <v>2.719567146341722e-15</v>
-      </c>
-      <c r="BH21" t="n">
-        <v>1.868895428508623e-16</v>
-      </c>
-      <c r="BI21" t="n">
-        <v>9.847460173758276e-17</v>
-      </c>
-      <c r="BJ21" t="n">
-        <v>5.720968763706737e-20</v>
-      </c>
-      <c r="BK21" t="n">
-        <v>1.135041072606542e-17</v>
-      </c>
-      <c r="BL21" t="n">
-        <v>1.395021661022926e-27</v>
-      </c>
-      <c r="BM21" t="n">
-        <v>3.96304840730909e-20</v>
-      </c>
-      <c r="BN21" t="n">
-        <v>1.571852077722913e-08</v>
-      </c>
-      <c r="BO21" t="n">
-        <v>8.348663358778379e-28</v>
-      </c>
-      <c r="BP21" t="n">
-        <v>3.305178987458628e-28</v>
-      </c>
-      <c r="BQ21" t="n">
-        <v>7.873521459071127e-07</v>
-      </c>
-      <c r="BR21" t="n">
-        <v>1.702379506705735e-28</v>
-      </c>
-      <c r="BS21" t="n">
-        <v>3.653218010272418e-07</v>
-      </c>
-      <c r="BT21" t="n">
-        <v>3.124637328601272e-25</v>
-      </c>
-      <c r="BU21" t="n">
-        <v>1.184511110447852e-08</v>
-      </c>
-      <c r="BV21" t="n">
-        <v>1.277226322957712e-09</v>
-      </c>
-      <c r="BW21" t="n">
-        <v>0.0008031312668437199</v>
-      </c>
-      <c r="BX21" t="n">
-        <v>0.0001425516883346345</v>
-      </c>
-      <c r="BY21" t="n">
-        <v>2.36876002218486e-09</v>
-      </c>
-      <c r="BZ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA21" t="n">
-        <v>2.117960565330509e-11</v>
-      </c>
-      <c r="CB21" t="n">
-        <v>1.887690673438966e-12</v>
-      </c>
-      <c r="CC21" t="n">
-        <v>1.500926799769819e-15</v>
-      </c>
-      <c r="CD21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG21" t="n">
-        <v>3.983749799241755e-07</v>
-      </c>
-      <c r="CH21" t="n">
-        <v>9.84551357286221e-05</v>
-      </c>
-      <c r="CI21" t="n">
-        <v>0.000490307154814312</v>
-      </c>
-      <c r="CJ21" t="n">
-        <v>0.0009463611625536475</v>
-      </c>
-      <c r="CK21" t="n">
-        <v>0.003122936707571157</v>
-      </c>
-      <c r="CL21" t="n">
-        <v>0.009231871218948624</v>
-      </c>
-      <c r="CM21" t="n">
-        <v>99.89570538230109</v>
-      </c>
-      <c r="CN21" t="n">
-        <v>0.02418813055186321</v>
-      </c>
-      <c r="CO21" t="n">
-        <v>0.05704833498746126</v>
-      </c>
-      <c r="CP21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ21" t="n">
-        <v>0.004339176485126372</v>
-      </c>
-      <c r="CR21" t="n">
-        <v>0.004819766416858068</v>
-      </c>
-      <c r="CS21" t="n">
-        <v>8.877571384993522e-06</v>
-      </c>
-      <c r="CT21" t="n">
-        <v>4.473865988932053e-10</v>
-      </c>
-      <c r="CU21" t="n">
-        <v>1.701178225232686e-10</v>
-      </c>
-      <c r="CV21" t="n">
-        <v>1.3596532093893e-11</v>
-      </c>
-      <c r="CW21" t="n">
-        <v>1.356287211357807e-12</v>
-      </c>
-      <c r="CX21" t="n">
-        <v>8.753782261585877e-13</v>
-      </c>
-      <c r="CY21" t="n">
-        <v>1.250153947934408e-15</v>
-      </c>
-      <c r="CZ21" t="n">
-        <v>6.566190092493243e-14</v>
-      </c>
-      <c r="DA21" t="n">
-        <v>2.997318829970697e-22</v>
-      </c>
-      <c r="DB21" t="n">
-        <v>7.822938751234103e-16</v>
-      </c>
-      <c r="DC21" t="n">
-        <v>2.586293066668616e-25</v>
-      </c>
-      <c r="DD21" t="n">
-        <v>6.325125589254531e-22</v>
-      </c>
-      <c r="DE21" t="n">
-        <v>1.24148392550767e-22</v>
-      </c>
-      <c r="DF21" t="n">
-        <v>4.917911361558446e-26</v>
-      </c>
-      <c r="DG21" t="n">
-        <v>5.045099802310228e-23</v>
-      </c>
-      <c r="DH21" t="n">
-        <v>1.169453867070653e-28</v>
-      </c>
-      <c r="DI21" t="n">
-        <v>3.648024147332116e-20</v>
-      </c>
-      <c r="DJ21" t="n">
-        <v>1.174888701910688e-09</v>
-      </c>
-      <c r="DK21" t="n">
-        <v>3.611406938799474e-11</v>
-      </c>
-      <c r="DL21" t="n">
-        <v>4.894517387643761e-28</v>
-      </c>
-      <c r="DM21" t="n">
-        <v>1.179984897792333e-27</v>
-      </c>
-      <c r="DN21" t="n">
-        <v>8.560091014937475e-11</v>
-      </c>
-      <c r="DO21" t="n">
-        <v>0</v>
-      </c>
-      <c r="DP21" t="n">
-        <v>1.534609438998413e-12</v>
-      </c>
-      <c r="DQ21" t="n">
-        <v>9.785514707958104e-14</v>
-      </c>
-      <c r="DR21" t="n">
-        <v>1.255303559573115e-16</v>
-      </c>
-      <c r="DS21" t="n">
-        <v>0</v>
-      </c>
-      <c r="DT21" t="n">
-        <v>0</v>
-      </c>
-      <c r="DU21" t="n">
-        <v>0</v>
-      </c>
-      <c r="DV21" t="n">
-        <v>2.862070700098642e-06</v>
-      </c>
-      <c r="DW21" t="n">
-        <v>0.0001815665561604116</v>
-      </c>
-      <c r="DX21" t="n">
-        <v>0.0003626407000579744</v>
-      </c>
-      <c r="DY21" t="n">
-        <v>8.098279375324862e-28</v>
-      </c>
-      <c r="DZ21" t="n">
-        <v>3.562572547320216e-20</v>
-      </c>
-      <c r="EA21" t="n">
-        <v>8.353689208238462e-13</v>
-      </c>
-      <c r="EB21" t="n">
-        <v>0.003437689090180808</v>
-      </c>
-      <c r="EC21" t="n">
-        <v>2.982303766438225e-07</v>
-      </c>
-      <c r="ED21" t="n">
-        <v>0.0001391666675202446</v>
-      </c>
-      <c r="EE21" t="n">
-        <v>0</v>
-      </c>
-      <c r="EF21" t="n">
-        <v>0.01734007634262293</v>
-      </c>
-      <c r="EG21" t="n">
-        <v>96.06460692564846</v>
-      </c>
-      <c r="EH21" t="n">
-        <v>0.01244273259258311</v>
-      </c>
-      <c r="EI21" t="n">
-        <v>0.0085002096232028</v>
-      </c>
-      <c r="EJ21" t="n">
-        <v>0.006966190996909269</v>
-      </c>
-      <c r="EK21" t="n">
-        <v>1.723973761132051</v>
-      </c>
-      <c r="EL21" t="n">
-        <v>0.7990885266282509</v>
-      </c>
-      <c r="EM21" t="n">
-        <v>1.231724970545822</v>
-      </c>
-      <c r="EN21" t="n">
-        <v>0.07413529207610337</v>
-      </c>
-      <c r="EO21" t="n">
-        <v>0.01508826534701391</v>
-      </c>
-      <c r="EP21" t="n">
-        <v>6.749785506854592e-07</v>
-      </c>
-      <c r="EQ21" t="n">
-        <v>0.03336787080040198</v>
-      </c>
-      <c r="ER21" t="n">
-        <v>1.335103215788557e-07</v>
-      </c>
-      <c r="ES21" t="n">
-        <v>1.741443447997192e-05</v>
-      </c>
-      <c r="ET21" t="n">
-        <v>6.472016459259315e-06</v>
-      </c>
-      <c r="EU21" t="n">
-        <v>6.258982275779233e-06</v>
-      </c>
-      <c r="EV21" t="n">
-        <v>2.87172750456804e-06</v>
-      </c>
-      <c r="EW21" t="n">
-        <v>3.914493942885186e-06</v>
-      </c>
-      <c r="EX21" t="n">
-        <v>0.002700787969208456</v>
-      </c>
-      <c r="EY21" t="n">
-        <v>9.222987460803897e-08</v>
-      </c>
-      <c r="EZ21" t="n">
-        <v>5.117077496201206e-09</v>
-      </c>
-      <c r="FA21" t="n">
-        <v>0.004703357277440779</v>
-      </c>
-      <c r="FB21" t="n">
-        <v>0.001198960966208178</v>
-      </c>
-      <c r="FC21" t="n">
-        <v>1.109768036151084e-08</v>
-      </c>
-      <c r="FD21" t="n">
-        <v>0</v>
-      </c>
-      <c r="FE21" t="n">
-        <v>1.404345552993395e-10</v>
-      </c>
-      <c r="FF21" t="n">
-        <v>9.273255529293814e-12</v>
-      </c>
-      <c r="FG21" t="n">
-        <v>1.000040566580305e-14</v>
-      </c>
-      <c r="FH21" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI21" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>test001</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>0</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.2555194979412724</v>
-      </c>
-      <c r="D22" t="n">
-        <v>17.1669918669715</v>
-      </c>
-      <c r="E22" t="n">
-        <v>27.42662642764725</v>
-      </c>
-      <c r="F22" t="n">
-        <v>11.89294186235128</v>
-      </c>
-      <c r="G22" t="n">
-        <v>8.752475056231875</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0.4060945433923109</v>
-      </c>
-      <c r="I22" t="n">
-        <v>32.11295993184886</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0.05475491963594677</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0.01393179173474527</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0.0001786322970772079</v>
-      </c>
-      <c r="N22" t="n">
-        <v>1.171136027107917e-05</v>
-      </c>
-      <c r="O22" t="n">
-        <v>5.558982400220707e-08</v>
-      </c>
-      <c r="P22" t="n">
-        <v>1.537328458456719e-13</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>4.752980475860831e-14</v>
-      </c>
-      <c r="R22" t="n">
-        <v>2.713043478109931e-16</v>
-      </c>
-      <c r="S22" t="n">
-        <v>1.658832971455217e-17</v>
-      </c>
-      <c r="T22" t="n">
-        <v>8.203607818117414e-18</v>
-      </c>
-      <c r="U22" t="n">
-        <v>3.852881673145831e-21</v>
-      </c>
-      <c r="V22" t="n">
-        <v>1.093173605112797e-18</v>
-      </c>
-      <c r="W22" t="n">
-        <v>1.147864329965793e-28</v>
-      </c>
-      <c r="X22" t="n">
-        <v>3.566060383255163e-21</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>4.434829136577117e-05</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>2.75344564298996e-28</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>4.711424571693148e-29</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>0.002994666390176456</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>1.860266476482004e-29</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>0.001662539476243877</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>1.867604392596532e-26</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>5.037890273442098e-05</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>2.429406257205545e-06</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>1.478986001197484</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>0.4337701154313926</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>3.159818899574101e-06</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>6.089789369768762e-08</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>3.180075860935871e-09</v>
-      </c>
-      <c r="AN22" t="n">
-        <v>5.068326974865689e-12</v>
-      </c>
-      <c r="AO22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR22" t="n">
-        <v>0.004844693724907323</v>
-      </c>
-      <c r="AS22" t="n">
-        <v>0.312604178237795</v>
-      </c>
-      <c r="AT22" t="n">
-        <v>0.5843323416988994</v>
-      </c>
-      <c r="AU22" t="n">
-        <v>0.4281430071609357</v>
-      </c>
-      <c r="AV22" t="n">
-        <v>0.424199646851797</v>
-      </c>
-      <c r="AW22" t="n">
-        <v>0.2579304532447092</v>
-      </c>
-      <c r="AX22" t="n">
-        <v>97.82541742996948</v>
-      </c>
-      <c r="AY22" t="n">
-        <v>0.1088354766418744</v>
-      </c>
-      <c r="AZ22" t="n">
-        <v>0.04791653934919402</v>
-      </c>
-      <c r="BA22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB22" t="n">
-        <v>0.0003861896237873148</v>
-      </c>
-      <c r="BC22" t="n">
-        <v>4.326008048110334e-05</v>
-      </c>
-      <c r="BD22" t="n">
-        <v>1.506172206274619e-07</v>
-      </c>
-      <c r="BE22" t="n">
-        <v>6.848687911140609e-13</v>
-      </c>
-      <c r="BF22" t="n">
-        <v>2.152789271678857e-13</v>
-      </c>
-      <c r="BG22" t="n">
-        <v>2.473884981181808e-15</v>
-      </c>
-      <c r="BH22" t="n">
-        <v>1.714707276473486e-16</v>
-      </c>
-      <c r="BI22" t="n">
-        <v>9.035393958999426e-17</v>
-      </c>
-      <c r="BJ22" t="n">
-        <v>5.308459628812869e-20</v>
-      </c>
-      <c r="BK22" t="n">
-        <v>1.016215699343547e-17</v>
-      </c>
-      <c r="BL22" t="n">
-        <v>4.04838238639783e-27</v>
-      </c>
-      <c r="BM22" t="n">
-        <v>3.542708236019605e-20</v>
-      </c>
-      <c r="BN22" t="n">
-        <v>1.438917836934582e-07</v>
-      </c>
-      <c r="BO22" t="n">
-        <v>5.743484584783993e-27</v>
-      </c>
-      <c r="BP22" t="n">
-        <v>9.551948125053622e-28</v>
-      </c>
-      <c r="BQ22" t="n">
-        <v>6.429009546919887e-06</v>
-      </c>
-      <c r="BR22" t="n">
-        <v>3.959517811668283e-28</v>
-      </c>
-      <c r="BS22" t="n">
-        <v>3.316844215211188e-06</v>
-      </c>
-      <c r="BT22" t="n">
-        <v>2.79185993292918e-25</v>
-      </c>
-      <c r="BU22" t="n">
-        <v>9.858839614820794e-08</v>
-      </c>
-      <c r="BV22" t="n">
-        <v>1.075390659681392e-08</v>
-      </c>
-      <c r="BW22" t="n">
-        <v>0.004470153635424062</v>
-      </c>
-      <c r="BX22" t="n">
-        <v>0.0008664593173938396</v>
-      </c>
-      <c r="BY22" t="n">
-        <v>2.056792560071987e-08</v>
-      </c>
-      <c r="BZ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA22" t="n">
-        <v>1.739563540927285e-10</v>
-      </c>
-      <c r="CB22" t="n">
-        <v>1.543968859488372e-11</v>
-      </c>
-      <c r="CC22" t="n">
-        <v>1.186695591828409e-14</v>
-      </c>
-      <c r="CD22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG22" t="n">
-        <v>4.155449987602087e-07</v>
-      </c>
-      <c r="CH22" t="n">
-        <v>0.0001033541676620686</v>
-      </c>
-      <c r="CI22" t="n">
-        <v>0.0005118831693925677</v>
-      </c>
-      <c r="CJ22" t="n">
-        <v>0.001039535110445072</v>
-      </c>
-      <c r="CK22" t="n">
-        <v>0.003325826431937044</v>
-      </c>
-      <c r="CL22" t="n">
-        <v>0.009374748247182849</v>
-      </c>
-      <c r="CM22" t="n">
-        <v>99.89513698796026</v>
-      </c>
-      <c r="CN22" t="n">
-        <v>0.02358600674498619</v>
-      </c>
-      <c r="CO22" t="n">
-        <v>0.05710344286778182</v>
-      </c>
-      <c r="CP22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ22" t="n">
-        <v>0.004491713773529091</v>
-      </c>
-      <c r="CR22" t="n">
-        <v>0.00531643947052629</v>
-      </c>
-      <c r="CS22" t="n">
-        <v>9.634224474292157e-06</v>
-      </c>
-      <c r="CT22" t="n">
-        <v>4.542393211517862e-10</v>
-      </c>
-      <c r="CU22" t="n">
-        <v>1.720703834495536e-10</v>
-      </c>
-      <c r="CV22" t="n">
-        <v>1.367847873029413e-11</v>
-      </c>
-      <c r="CW22" t="n">
-        <v>1.371745823613967e-12</v>
-      </c>
-      <c r="CX22" t="n">
-        <v>8.861002040004685e-13</v>
-      </c>
-      <c r="CY22" t="n">
-        <v>1.273257476198174e-15</v>
-      </c>
-      <c r="CZ22" t="n">
-        <v>6.573348038242199e-14</v>
-      </c>
-      <c r="DA22" t="n">
-        <v>4.643456136071026e-22</v>
-      </c>
-      <c r="DB22" t="n">
-        <v>7.838510189114749e-16</v>
-      </c>
-      <c r="DC22" t="n">
-        <v>3.65274644226105e-25</v>
-      </c>
-      <c r="DD22" t="n">
-        <v>9.771489155798295e-22</v>
-      </c>
-      <c r="DE22" t="n">
-        <v>1.927066090223746e-22</v>
-      </c>
-      <c r="DF22" t="n">
-        <v>6.914483049343615e-26</v>
-      </c>
-      <c r="DG22" t="n">
-        <v>7.813336025095819e-23</v>
-      </c>
-      <c r="DH22" t="n">
-        <v>8.209177674541703e-28</v>
-      </c>
-      <c r="DI22" t="n">
-        <v>3.651477662831266e-20</v>
-      </c>
-      <c r="DJ22" t="n">
-        <v>1.043084560994592e-08</v>
-      </c>
-      <c r="DK22" t="n">
-        <v>3.302496973526235e-10</v>
-      </c>
-      <c r="DL22" t="n">
-        <v>6.677827278776074e-28</v>
-      </c>
-      <c r="DM22" t="n">
-        <v>1.227570363680082e-27</v>
-      </c>
-      <c r="DN22" t="n">
-        <v>8.696039659110916e-10</v>
-      </c>
-      <c r="DO22" t="n">
-        <v>0</v>
-      </c>
-      <c r="DP22" t="n">
-        <v>1.293452806078535e-11</v>
-      </c>
-      <c r="DQ22" t="n">
-        <v>8.848314391222338e-13</v>
-      </c>
-      <c r="DR22" t="n">
-        <v>1.147202682361404e-15</v>
-      </c>
-      <c r="DS22" t="n">
-        <v>0</v>
-      </c>
-      <c r="DT22" t="n">
-        <v>0</v>
-      </c>
-      <c r="DU22" t="n">
-        <v>0</v>
-      </c>
-      <c r="DV22" t="n">
-        <v>1.981540934356724e-05</v>
-      </c>
-      <c r="DW22" t="n">
-        <v>0.001320072819664508</v>
-      </c>
-      <c r="DX22" t="n">
-        <v>0.002771987733094658</v>
-      </c>
-      <c r="DY22" t="n">
-        <v>2.198553230142669e-27</v>
-      </c>
-      <c r="DZ22" t="n">
-        <v>1.045048808782729e-19</v>
-      </c>
-      <c r="EA22" t="n">
-        <v>2.065894944863989e-12</v>
-      </c>
-      <c r="EB22" t="n">
-        <v>0.003818331404051295</v>
-      </c>
-      <c r="EC22" t="n">
-        <v>6.671348696230808e-07</v>
-      </c>
-      <c r="ED22" t="n">
-        <v>0.0001642414503898947</v>
-      </c>
-      <c r="EE22" t="n">
-        <v>0</v>
-      </c>
-      <c r="EF22" t="n">
-        <v>0.01628524387146015</v>
-      </c>
-      <c r="EG22" t="n">
-        <v>96.36969518004767</v>
-      </c>
-      <c r="EH22" t="n">
-        <v>0.01236790504303329</v>
-      </c>
-      <c r="EI22" t="n">
-        <v>0.007887529930430756</v>
-      </c>
-      <c r="EJ22" t="n">
-        <v>0.006440855539238798</v>
-      </c>
-      <c r="EK22" t="n">
-        <v>1.582199587831056</v>
-      </c>
-      <c r="EL22" t="n">
-        <v>0.7379148725812358</v>
-      </c>
-      <c r="EM22" t="n">
-        <v>1.13833571669219</v>
-      </c>
-      <c r="EN22" t="n">
-        <v>0.06893222906195298</v>
-      </c>
-      <c r="EO22" t="n">
-        <v>0.01384572829835182</v>
-      </c>
-      <c r="EP22" t="n">
-        <v>9.557871844401347e-07</v>
-      </c>
-      <c r="EQ22" t="n">
-        <v>0.03060098150857002</v>
-      </c>
-      <c r="ER22" t="n">
-        <v>1.735701477055573e-07</v>
-      </c>
-      <c r="ES22" t="n">
-        <v>2.460188722064627e-05</v>
-      </c>
-      <c r="ET22" t="n">
-        <v>9.187582713059934e-06</v>
-      </c>
-      <c r="EU22" t="n">
-        <v>8.004010447291542e-06</v>
-      </c>
-      <c r="EV22" t="n">
-        <v>4.066745934680972e-06</v>
-      </c>
-      <c r="EW22" t="n">
-        <v>5.140017995565572e-06</v>
-      </c>
-      <c r="EX22" t="n">
-        <v>0.002476833542772904</v>
-      </c>
-      <c r="EY22" t="n">
-        <v>1.094905528721932e-07</v>
-      </c>
-      <c r="EZ22" t="n">
-        <v>6.104975146781242e-09</v>
-      </c>
-      <c r="FA22" t="n">
-        <v>0.003877059234877214</v>
-      </c>
-      <c r="FB22" t="n">
-        <v>0.0009929021204424732</v>
-      </c>
-      <c r="FC22" t="n">
-        <v>1.336627339473355e-08</v>
-      </c>
-      <c r="FD22" t="n">
-        <v>0</v>
-      </c>
-      <c r="FE22" t="n">
-        <v>1.687295614130267e-10</v>
-      </c>
-      <c r="FF22" t="n">
-        <v>1.105176629988912e-11</v>
-      </c>
-      <c r="FG22" t="n">
-        <v>1.182120102957328e-14</v>
-      </c>
-      <c r="FH22" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI22" t="n">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
